--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899F48E-E105-47C7-BF14-55B55471D44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C643330-70A0-47A4-BE96-FE032519A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="15" windowWidth="25680" windowHeight="14715" tabRatio="912" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="478">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>Ahmet ilter ebubekir ve ahmet tolan adında 2 kişiye izinsiz devir yaptı</t>
-  </si>
-  <si>
-    <t>Tahliye taahütnamesine gerekli eklemeler yapılarak avukata verildi.</t>
   </si>
   <si>
     <t>Örnek 14 tahliye emri yollandı</t>
@@ -1539,6 +1536,15 @@
   </si>
   <si>
     <t>2025 - 4/12 mart</t>
+  </si>
+  <si>
+    <t>İSTİNAFTAN TAHLİYE KARARI GELDİ</t>
+  </si>
+  <si>
+    <t>dava rededildi karşı avukat ücreti</t>
+  </si>
+  <si>
+    <t>Tahliye taahütnamesi avukata verildi.</t>
   </si>
 </sst>
 </file>
@@ -1565,9 +1571,9 @@
     <numFmt numFmtId="180" formatCode="#,##0.00&quot; &quot;;[Red]&quot;-&quot;#,##0.00&quot; &quot;"/>
     <numFmt numFmtId="181" formatCode="[$-409]#,##0.00"/>
     <numFmt numFmtId="182" formatCode="[$-41F]#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="%0.0000"/>
+    <numFmt numFmtId="183" formatCode="%0.0000"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="59">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1971,6 +1977,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Abyssinica SIL"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Abyssinica SIL"/>
       <charset val="162"/>
     </font>
   </fonts>
@@ -2525,7 +2545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2963,12 +2983,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="33" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="33" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="19" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="57" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3642,7 +3670,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C23" s="3">
         <v>170</v>
@@ -3662,7 +3690,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C24" s="3">
         <v>170</v>
@@ -3815,13 +3843,13 @@
     <row r="1" spans="1:6">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="45"/>
       <c r="E1" s="3"/>
       <c r="F1" s="83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3935,7 +3963,7 @@
         <v>45194</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
@@ -4069,7 +4097,7 @@
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4086,7 +4114,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="26"/>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>40</v>
@@ -4162,7 +4190,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -4175,7 +4203,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="26"/>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -4188,7 +4216,7 @@
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -4201,7 +4229,7 @@
     <row r="33" spans="1:7">
       <c r="A33" s="26"/>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="31"/>
@@ -4282,10 +4310,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -4303,7 +4331,7 @@
     <row r="42" spans="1:7">
       <c r="A42" s="7"/>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4312,7 +4340,7 @@
     <row r="43" spans="1:7">
       <c r="A43" s="7"/>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -4322,7 +4350,7 @@
     <row r="44" spans="1:7">
       <c r="A44" s="7"/>
       <c r="B44" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42">
@@ -4336,63 +4364,63 @@
         <v>45237</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6">
       <c r="B51" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
       <c r="B52" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
     <row r="56" spans="1:6">
       <c r="B56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4400,7 +4428,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="B57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4422,7 +4450,7 @@
         <v>44956</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C59" s="3">
         <v>1000</v>
@@ -4437,7 +4465,7 @@
         <v>44985</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" s="3">
         <v>1000</v>
@@ -4452,7 +4480,7 @@
         <v>45015</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" s="3">
         <v>1000</v>
@@ -4468,7 +4496,7 @@
         <v>45046</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C62" s="3">
         <v>1000</v>
@@ -4489,7 +4517,7 @@
     <row r="64" spans="1:6">
       <c r="A64" s="54"/>
       <c r="B64" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C64" s="3">
         <v>400</v>
@@ -4502,7 +4530,7 @@
     <row r="65" spans="1:5">
       <c r="A65" s="54"/>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4514,7 +4542,7 @@
     <row r="66" spans="1:5">
       <c r="A66" s="54"/>
       <c r="B66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4536,7 +4564,7 @@
         <v>44998</v>
       </c>
       <c r="B68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68">
@@ -4552,7 +4580,7 @@
         <v>44998</v>
       </c>
       <c r="B69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D69">
         <v>2400</v>
@@ -4564,7 +4592,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="B70" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D70">
         <v>-342.4</v>
@@ -4576,7 +4604,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="B71" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D71">
         <v>-57.6</v>
@@ -4622,10 +4650,10 @@
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F2" s="51">
         <f>SUM(F6:F55)</f>
@@ -4668,7 +4696,7 @@
         <v>45321</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -4685,7 +4713,7 @@
         <v>45350</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -4702,7 +4730,7 @@
         <v>45381</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -4719,7 +4747,7 @@
         <v>45412</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -4736,7 +4764,7 @@
         <v>45442</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -4753,7 +4781,7 @@
         <v>45426</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -4770,7 +4798,7 @@
         <v>45426</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -4787,7 +4815,7 @@
         <v>45473</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -4804,7 +4832,7 @@
         <v>45503</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -4818,7 +4846,7 @@
         <v>45534</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -4832,7 +4860,7 @@
         <v>45565</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -4846,7 +4874,7 @@
         <v>45595</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -4860,7 +4888,7 @@
         <v>45579</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -4877,7 +4905,7 @@
         <v>45579</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -4894,7 +4922,7 @@
         <v>45626</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -4908,7 +4936,7 @@
         <v>45656</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21"/>
       <c r="G21" s="3">
@@ -4918,7 +4946,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -5010,18 +5038,18 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -5050,7 +5078,7 @@
       <c r="E5" s="102"/>
       <c r="F5" s="102"/>
       <c r="G5" s="120" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H5" s="121">
         <f>D5</f>
@@ -5060,7 +5088,7 @@
     <row r="6" spans="1:8" ht="14.25">
       <c r="D6" s="95"/>
       <c r="G6" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H6" s="122">
         <f>H25*-1</f>
@@ -5267,7 +5295,7 @@
         <v>45988</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="94">
         <f t="shared" si="2"/>
@@ -5288,7 +5316,7 @@
         <v>45992</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" s="94">
         <f t="shared" si="2"/>
@@ -5326,7 +5354,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="B23" s="96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D23" s="251">
         <v>0.76461599999999996</v>
@@ -5345,28 +5373,28 @@
         <v>24</v>
       </c>
       <c r="C24" s="127" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="128" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="128" t="s">
+      <c r="E24" s="127" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="127" t="s">
+      <c r="F24" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="G24" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="G24" s="127" t="s">
-        <v>292</v>
-      </c>
       <c r="H24" s="130" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="116"/>
       <c r="B25" s="117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" s="118">
         <f>SUBTOTAL(109,C26:C40)</f>
@@ -5396,7 +5424,7 @@
         <v>46021</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D26" s="100">
         <f t="shared" ref="D26:D40" si="3">IF(F26=1,$C26,0)</f>
@@ -5736,7 +5764,7 @@
         <v>45660</v>
       </c>
       <c r="B40" s="175" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C40" s="176">
         <v>290000</v>
@@ -5770,13 +5798,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="C43" s="100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D43" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="95" t="s">
         <v>296</v>
-      </c>
-      <c r="E43" s="95" t="s">
-        <v>297</v>
       </c>
       <c r="G43" s="106"/>
       <c r="H43" s="106"/>
@@ -5784,7 +5812,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75">
       <c r="B44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C44" s="108">
         <v>1</v>
@@ -5801,7 +5829,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="B45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C45" s="109">
         <f>$D$25*C44</f>
@@ -5819,7 +5847,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="B46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" s="100">
         <f>D46+E46</f>
@@ -5839,7 +5867,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="B47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C47" s="100">
         <f>C45-C46</f>
@@ -5871,13 +5899,13 @@
     </row>
     <row r="50" spans="2:10">
       <c r="C50" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="G50" s="95"/>
       <c r="H50" s="95"/>
@@ -5892,7 +5920,7 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="95">
         <f>D46</f>
@@ -5944,18 +5972,18 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="93" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -5984,7 +6012,7 @@
       <c r="E5" s="102"/>
       <c r="F5" s="102"/>
       <c r="G5" s="120" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H5" s="121">
         <f>D5</f>
@@ -5994,7 +6022,7 @@
     <row r="6" spans="1:8" ht="14.25">
       <c r="D6" s="95"/>
       <c r="G6" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H6" s="122">
         <f>H25*-1</f>
@@ -6024,7 +6052,7 @@
       </c>
       <c r="F8" s="125"/>
       <c r="G8" s="125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H8" s="126">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
@@ -6047,7 +6075,7 @@
       </c>
       <c r="F9" s="125"/>
       <c r="G9" s="125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H9" s="90">
         <f t="shared" si="0"/>
@@ -6070,7 +6098,7 @@
       </c>
       <c r="F10" s="125"/>
       <c r="G10" s="125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H10" s="90">
         <f t="shared" si="0"/>
@@ -6093,7 +6121,7 @@
       </c>
       <c r="F11" s="125"/>
       <c r="G11" s="125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H11" s="90">
         <f t="shared" si="0"/>
@@ -6116,7 +6144,7 @@
       </c>
       <c r="F12" s="125"/>
       <c r="G12" s="125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H12" s="90">
         <f t="shared" si="0"/>
@@ -6138,7 +6166,7 @@
         <v>10000</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H13" s="90">
         <f t="shared" si="0"/>
@@ -6160,7 +6188,7 @@
         <v>10000</v>
       </c>
       <c r="G14" s="125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
@@ -6179,7 +6207,7 @@
         <v>228749.71184560005</v>
       </c>
       <c r="F15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
@@ -6198,7 +6226,7 @@
         <v>218749.71184560005</v>
       </c>
       <c r="F16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
@@ -6217,7 +6245,7 @@
         <v>208749.71184560005</v>
       </c>
       <c r="F17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
@@ -6229,7 +6257,7 @@
         <v>45623</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="94">
         <v>10000</v>
@@ -6251,7 +6279,7 @@
         <v>45627</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" s="94">
         <v>11030.76</v>
@@ -6264,7 +6292,7 @@
         <v>60000</v>
       </c>
       <c r="G19" s="250" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H19" s="241">
         <f t="shared" si="0"/>
@@ -6275,7 +6303,7 @@
       <c r="A20" s="123"/>
       <c r="C20" s="238"/>
       <c r="D20" s="239" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E20" s="240">
         <f>SUM(E8:E19)</f>
@@ -6298,7 +6326,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="B23" s="96" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D23" s="251">
         <v>0.76461599999999996</v>
@@ -6317,28 +6345,28 @@
         <v>24</v>
       </c>
       <c r="C24" s="127" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="128" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="128" t="s">
+      <c r="E24" s="127" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="127" t="s">
+      <c r="F24" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="G24" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="G24" s="127" t="s">
-        <v>292</v>
-      </c>
       <c r="H24" s="130" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="116"/>
       <c r="B25" s="117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C25" s="118">
         <f>SUBTOTAL(109,C26:C40)</f>
@@ -6368,7 +6396,7 @@
         <v>45656</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26">
         <v>-3999.1</v>
@@ -6399,7 +6427,7 @@
       <c r="B27" s="132"/>
       <c r="C27" s="133"/>
       <c r="D27" s="100">
-        <f t="shared" ref="D26:D40" si="5">IF(F27=1,$C27,0)</f>
+        <f t="shared" ref="D27:D40" si="5">IF(F27=1,$C27,0)</f>
         <v>0</v>
       </c>
       <c r="E27" s="101">
@@ -6447,7 +6475,7 @@
         <v>45631</v>
       </c>
       <c r="B29" s="243" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C29" s="244">
         <v>219000</v>
@@ -6477,7 +6505,7 @@
         <v>45607</v>
       </c>
       <c r="B30" s="177" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C30" s="133">
         <v>148500</v>
@@ -6507,7 +6535,7 @@
         <v>45405</v>
       </c>
       <c r="B31" s="245" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C31" s="246">
         <v>33000</v>
@@ -6537,7 +6565,7 @@
         <v>45405</v>
       </c>
       <c r="B32" s="132" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C32" s="133">
         <v>170000</v>
@@ -6567,7 +6595,7 @@
         <v>45405</v>
       </c>
       <c r="B33" s="132" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C33" s="133">
         <v>-25000</v>
@@ -6597,7 +6625,7 @@
         <v>45397</v>
       </c>
       <c r="B34" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C34" s="133">
         <v>1000</v>
@@ -6627,7 +6655,7 @@
         <v>45397</v>
       </c>
       <c r="B35" s="247" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C35" s="244">
         <v>85000</v>
@@ -6657,7 +6685,7 @@
         <v>45321</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C36" s="173">
         <v>7000</v>
@@ -6685,7 +6713,7 @@
     <row r="37" spans="1:10">
       <c r="A37" s="134"/>
       <c r="B37" s="247" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C37" s="248">
         <v>24000</v>
@@ -6715,7 +6743,7 @@
         <v>45296</v>
       </c>
       <c r="B38" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C38" s="136">
         <v>26000</v>
@@ -6745,7 +6773,7 @@
         <v>45295</v>
       </c>
       <c r="B39" s="135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C39" s="133">
         <v>120000</v>
@@ -6775,7 +6803,7 @@
         <v>45292</v>
       </c>
       <c r="B40" s="175" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C40" s="176"/>
       <c r="D40" s="100">
@@ -6807,13 +6835,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="C43" s="100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D43" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="95" t="s">
         <v>296</v>
-      </c>
-      <c r="E43" s="95" t="s">
-        <v>297</v>
       </c>
       <c r="G43" s="106"/>
       <c r="H43" s="106"/>
@@ -6821,7 +6849,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75">
       <c r="B44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C44" s="108">
         <v>1</v>
@@ -6838,7 +6866,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="B45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C45" s="109">
         <f>$D$25*C44</f>
@@ -6856,7 +6884,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="B46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" s="100">
         <f>D46+E46</f>
@@ -6876,7 +6904,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="B47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C47" s="100">
         <f>C45-C46</f>
@@ -6908,13 +6936,13 @@
     </row>
     <row r="50" spans="2:10">
       <c r="C50" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="G50" s="95"/>
       <c r="H50" s="95"/>
@@ -6929,7 +6957,7 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="95">
         <f>D46</f>
@@ -6962,8 +6990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7085,7 +7113,7 @@
         <v>45197</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E9" s="24">
         <v>45000</v>
@@ -7098,7 +7126,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
@@ -7211,18 +7239,18 @@
         <v>31</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7243,10 +7271,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C25">
         <v>24.8</v>
@@ -7264,10 +7292,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26">
         <v>-21.12</v>
@@ -7285,10 +7313,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C27">
         <v>-52.17</v>
@@ -7305,7 +7333,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -7316,7 +7344,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
@@ -7327,7 +7355,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
@@ -7338,7 +7366,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
@@ -7349,7 +7377,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
@@ -7360,7 +7388,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="31"/>
@@ -7371,7 +7399,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31"/>
@@ -7382,7 +7410,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
@@ -7393,7 +7421,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -7432,10 +7460,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -7600,7 +7628,7 @@
         <v>45196</v>
       </c>
       <c r="B57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
@@ -7624,7 +7652,7 @@
         <v>45196</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D59" s="3"/>
       <c r="F59" s="3"/>
@@ -7940,7 +7968,7 @@
         <v>45137</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>73</v>
+        <v>477</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -7953,7 +7981,7 @@
         <v>45148</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -7966,7 +7994,7 @@
         <v>45160</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -7976,7 +8004,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="B95" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -7986,7 +8014,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="B96" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -7996,7 +8024,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="B97" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -8006,7 +8034,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="B98" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -8016,7 +8044,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="B99" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -8026,7 +8054,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="B100" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -8039,7 +8067,7 @@
         <v>45167</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -8049,7 +8077,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="B102" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -8059,7 +8087,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="B103" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -8069,7 +8097,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="B104" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C104" s="3"/>
     </row>
@@ -8101,11 +8129,11 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -8212,7 +8240,7 @@
         <v>45291</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
@@ -8223,7 +8251,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
@@ -8234,7 +8262,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
@@ -8248,7 +8276,7 @@
         <v>45295</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
@@ -8282,7 +8310,7 @@
         <v>45295</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D14" s="27">
         <v>-12432</v>
@@ -8298,7 +8326,7 @@
         <v>45295</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28">
@@ -8314,7 +8342,7 @@
         <v>45296</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="28">
@@ -8330,7 +8358,7 @@
         <v>45299</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28">
@@ -8412,7 +8440,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="26"/>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -8491,7 +8519,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="26"/>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -8504,7 +8532,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="26"/>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -8517,7 +8545,7 @@
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -8530,7 +8558,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="26"/>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="31"/>
@@ -8603,7 +8631,7 @@
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -8612,10 +8640,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -8647,7 +8675,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8"/>
@@ -8655,7 +8683,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -8665,7 +8693,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="B48" s="115" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C48" s="115"/>
       <c r="D48" s="115">
@@ -8685,7 +8713,7 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="3"/>
       <c r="F50" s="8"/>
@@ -8694,7 +8722,7 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8704,7 +8732,7 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="42">
@@ -8988,12 +9016,12 @@
     <row r="1" spans="1:7">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9010,7 +9038,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
@@ -9087,7 +9115,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8"/>
@@ -9127,7 +9155,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -9143,7 +9171,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -9158,7 +9186,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B13" s="139">
         <v>45292</v>
@@ -9181,7 +9209,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="3">
@@ -9201,7 +9229,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="26"/>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="3">
@@ -9221,7 +9249,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="26"/>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="3">
@@ -9241,7 +9269,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="26"/>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="3">
@@ -9261,7 +9289,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="26"/>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C18" s="46">
         <v>0.03</v>
@@ -9283,7 +9311,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="26"/>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C19" s="46">
         <v>0.05</v>
@@ -9305,7 +9333,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="26"/>
       <c r="B20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -9319,7 +9347,7 @@
     <row r="21" spans="1:7">
       <c r="A21" s="26"/>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -9333,7 +9361,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="26"/>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -9344,7 +9372,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="26"/>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -9355,7 +9383,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="26"/>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -9365,10 +9393,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -9379,7 +9407,7 @@
     <row r="26" spans="1:7">
       <c r="A26" s="26"/>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -9390,7 +9418,7 @@
     <row r="27" spans="1:7">
       <c r="A27" s="26"/>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9514,7 +9542,7 @@
     <row r="39" spans="1:7">
       <c r="A39" s="26"/>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39"/>
       <c r="D39">
@@ -9593,7 +9621,7 @@
     <row r="44" spans="1:7">
       <c r="A44" s="26"/>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -9606,7 +9634,7 @@
     <row r="45" spans="1:7">
       <c r="A45" s="26"/>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -9619,7 +9647,7 @@
     <row r="46" spans="1:7">
       <c r="A46" s="26"/>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -9632,7 +9660,7 @@
     <row r="47" spans="1:7">
       <c r="A47" s="26"/>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -9710,10 +9738,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
@@ -9736,7 +9764,7 @@
     <row r="55" spans="1:7">
       <c r="A55" s="7"/>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -9744,7 +9772,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="7"/>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56"/>
       <c r="D56" s="3">
@@ -9754,7 +9782,7 @@
     <row r="57" spans="1:7">
       <c r="A57" s="7"/>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57"/>
       <c r="D57" s="3">
@@ -9765,7 +9793,7 @@
     <row r="58" spans="1:7">
       <c r="A58" s="7"/>
       <c r="B58" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="42">
@@ -9777,7 +9805,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="7"/>
       <c r="B59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C59"/>
       <c r="D59" s="3">
@@ -9791,7 +9819,7 @@
         <v>45214</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C60"/>
       <c r="E60"/>
@@ -9801,7 +9829,7 @@
         <v>45214</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C61"/>
       <c r="E61"/>
@@ -9811,7 +9839,7 @@
         <v>45214</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62"/>
       <c r="E62"/>
@@ -9821,7 +9849,7 @@
         <v>44321</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63"/>
       <c r="E63"/>
@@ -9831,7 +9859,7 @@
         <v>44367</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64"/>
       <c r="E64"/>
@@ -9841,7 +9869,7 @@
         <v>44459</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65"/>
       <c r="E65"/>
@@ -9851,7 +9879,7 @@
         <v>44459</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66"/>
       <c r="E66"/>
@@ -9861,7 +9889,7 @@
         <v>44433</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67"/>
       <c r="E67"/>
@@ -9871,7 +9899,7 @@
         <v>44449</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C68"/>
       <c r="E68"/>
@@ -9881,7 +9909,7 @@
         <v>44201</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69"/>
       <c r="E69" s="2">
@@ -9893,7 +9921,7 @@
         <v>44931</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70"/>
       <c r="E70" s="2"/>
@@ -9903,11 +9931,11 @@
         <v>44252</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C71"/>
       <c r="E71" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -9915,11 +9943,11 @@
         <v>44285</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72"/>
       <c r="E72" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -9927,21 +9955,21 @@
         <v>44413</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C73"/>
       <c r="E73" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -9985,7 +10013,7 @@
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="46"/>
@@ -9998,7 +10026,7 @@
     </row>
     <row r="83" spans="2:8">
       <c r="B83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83"/>
       <c r="E83">
@@ -10013,7 +10041,7 @@
     </row>
     <row r="84" spans="2:8">
       <c r="B84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84"/>
       <c r="E84">
@@ -10026,7 +10054,7 @@
     </row>
     <row r="85" spans="2:8">
       <c r="B85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85"/>
       <c r="E85">
@@ -10039,7 +10067,7 @@
     </row>
     <row r="86" spans="2:8">
       <c r="B86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86"/>
       <c r="E86">
@@ -10052,7 +10080,7 @@
     </row>
     <row r="87" spans="2:8">
       <c r="B87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C87"/>
       <c r="E87">
@@ -10065,7 +10093,7 @@
     </row>
     <row r="88" spans="2:8">
       <c r="B88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C88"/>
       <c r="E88">
@@ -10078,7 +10106,7 @@
     </row>
     <row r="89" spans="2:8">
       <c r="B89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89"/>
       <c r="E89">
@@ -10091,7 +10119,7 @@
     </row>
     <row r="90" spans="2:8">
       <c r="B90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90"/>
       <c r="E90">
@@ -10104,7 +10132,7 @@
     </row>
     <row r="91" spans="2:8">
       <c r="B91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91"/>
       <c r="E91">
@@ -10117,7 +10145,7 @@
     </row>
     <row r="92" spans="2:8">
       <c r="B92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C92"/>
       <c r="E92">
@@ -10130,7 +10158,7 @@
     </row>
     <row r="93" spans="2:8">
       <c r="B93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C93"/>
       <c r="E93">
@@ -10143,7 +10171,7 @@
     </row>
     <row r="94" spans="2:8">
       <c r="B94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C94"/>
       <c r="E94">
@@ -10156,7 +10184,7 @@
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="51"/>
@@ -10168,7 +10196,7 @@
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="51"/>
@@ -10179,7 +10207,7 @@
     </row>
     <row r="99" spans="2:6">
       <c r="B99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99"/>
       <c r="E99">
@@ -10231,7 +10259,7 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103"/>
       <c r="E103">
@@ -10244,7 +10272,7 @@
     </row>
     <row r="104" spans="2:6">
       <c r="B104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C104"/>
       <c r="E104">
@@ -10257,7 +10285,7 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C105"/>
       <c r="E105">
@@ -10270,7 +10298,7 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C106"/>
       <c r="E106">
@@ -10283,7 +10311,7 @@
     </row>
     <row r="107" spans="2:6">
       <c r="B107" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C107"/>
       <c r="E107">
@@ -10296,7 +10324,7 @@
     </row>
     <row r="108" spans="2:6">
       <c r="B108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108"/>
       <c r="E108">
@@ -10309,7 +10337,7 @@
     </row>
     <row r="109" spans="2:6">
       <c r="B109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C109"/>
       <c r="D109" s="3">
@@ -10336,7 +10364,7 @@
     </row>
     <row r="111" spans="2:6">
       <c r="B111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C111"/>
       <c r="E111">
@@ -10349,7 +10377,7 @@
     </row>
     <row r="112" spans="2:6">
       <c r="B112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C112"/>
       <c r="D112" s="3">
@@ -10363,7 +10391,7 @@
     </row>
     <row r="113" spans="2:6">
       <c r="B113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C113"/>
       <c r="D113" s="3">
@@ -10377,7 +10405,7 @@
     </row>
     <row r="114" spans="2:6">
       <c r="B114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C114"/>
       <c r="E114"/>
@@ -10396,10 +10424,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1C87F-6CBB-48CF-9073-716B69FD2C1F}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10414,10 +10442,10 @@
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="194"/>
       <c r="B1" s="195" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C1" s="196"/>
       <c r="D1" s="197"/>
@@ -10426,7 +10454,7 @@
       <c r="G1" s="200"/>
       <c r="H1" s="200"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8">
       <c r="A2" s="201"/>
       <c r="B2" s="202"/>
       <c r="C2" s="203"/>
@@ -10436,40 +10464,40 @@
       <c r="G2" s="206"/>
       <c r="H2" s="206"/>
     </row>
-    <row r="3" spans="1:10" ht="18">
+    <row r="3" spans="1:8" ht="18">
       <c r="A3" s="207" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" s="198"/>
       <c r="C3" s="196"/>
       <c r="D3" s="197"/>
       <c r="E3" s="208"/>
       <c r="F3" s="209">
-        <f>SUM(F7:F59)</f>
-        <v>504988.41817085282</v>
+        <f>SUM(F7:F60)</f>
+        <v>523609.10782602523</v>
       </c>
       <c r="G3" s="209">
-        <f>SUM(G7:G59)</f>
+        <f>SUM(G7:G60)</f>
         <v>354000</v>
       </c>
       <c r="H3" s="210">
         <f>F3-G3</f>
-        <v>150988.41817085282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18">
+        <v>169609.10782602523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18">
       <c r="A4" s="207"/>
       <c r="B4" s="198"/>
       <c r="C4" s="196"/>
       <c r="D4" s="197"/>
       <c r="E4" s="198" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F4" s="209"/>
       <c r="G4" s="209"/>
       <c r="H4" s="210"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="211" t="s">
         <v>23</v>
       </c>
@@ -10477,16 +10505,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="213" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="214" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="215" t="s">
         <v>422</v>
       </c>
-      <c r="D5" s="214" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="215" t="s">
-        <v>423</v>
-      </c>
       <c r="F5" s="216" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G5" s="217" t="s">
         <v>3</v>
@@ -10495,7 +10523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="194"/>
       <c r="B6" s="198"/>
       <c r="C6" s="196"/>
@@ -10504,11 +10532,11 @@
       <c r="F6" s="199"/>
       <c r="G6" s="200"/>
       <c r="H6" s="200">
-        <f t="shared" ref="H6:H32" si="0">H7+F6-G6</f>
-        <v>150988.41817085279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <f t="shared" ref="H6:H33" si="0">H7+F6-G6</f>
+        <v>169609.1078260252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="194"/>
       <c r="B7" s="198"/>
       <c r="C7" s="196"/>
@@ -10518,10 +10546,10 @@
       <c r="G7" s="200"/>
       <c r="H7" s="200">
         <f t="shared" si="0"/>
-        <v>150988.41817085279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>169609.1078260252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="194"/>
       <c r="B8" s="198"/>
       <c r="C8" s="196"/>
@@ -10531,10 +10559,10 @@
       <c r="G8" s="200"/>
       <c r="H8" s="200">
         <f t="shared" si="0"/>
-        <v>150988.41817085279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>169609.1078260252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="194"/>
       <c r="B9" s="198"/>
       <c r="C9" s="196"/>
@@ -10544,10 +10572,10 @@
       <c r="G9" s="200"/>
       <c r="H9" s="200">
         <f t="shared" si="0"/>
-        <v>150988.41817085279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>169609.1078260252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="194"/>
       <c r="B10" s="198"/>
       <c r="C10" s="196"/>
@@ -10557,10 +10585,10 @@
       <c r="G10" s="200"/>
       <c r="H10" s="200">
         <f t="shared" si="0"/>
-        <v>150988.41817085279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>169609.1078260252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="194"/>
       <c r="B11" s="198"/>
       <c r="C11" s="196"/>
@@ -10570,10 +10598,10 @@
       <c r="G11" s="200"/>
       <c r="H11" s="200">
         <f t="shared" si="0"/>
-        <v>150988.41817085279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>169609.1078260252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="194"/>
       <c r="B12" s="198"/>
       <c r="C12" s="196"/>
@@ -10583,13 +10611,13 @@
       <c r="G12" s="200"/>
       <c r="H12" s="200">
         <f t="shared" si="0"/>
-        <v>150988.41817085279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>169609.1078260252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="194"/>
       <c r="B13" s="218" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C13" s="196"/>
       <c r="D13" s="197"/>
@@ -10604,21 +10632,21 @@
       <c r="G13" s="200"/>
       <c r="H13" s="200">
         <f t="shared" si="0"/>
-        <v>150988.41817085279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>169609.1078260252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="194">
         <v>45716</v>
       </c>
       <c r="B14" s="218" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C14" s="196">
         <v>3000</v>
       </c>
       <c r="D14" s="197">
-        <f>(C14/C16)-1</f>
+        <f>(C14/C17)-1</f>
         <v>3.4482758620689724E-2</v>
       </c>
       <c r="E14" s="219">
@@ -10627,23 +10655,23 @@
       </c>
       <c r="F14" s="199">
         <f>H15*D14</f>
-        <v>3369.2598986681078</v>
+        <v>3989.9495538405226</v>
       </c>
       <c r="G14" s="200"/>
       <c r="H14" s="200">
         <f t="shared" si="0"/>
-        <v>101077.79696004304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>119698.48661521544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="194"/>
       <c r="B15" s="218" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C15" s="196"/>
       <c r="D15" s="197"/>
       <c r="E15" s="199">
-        <f>E17+E16</f>
+        <f>E18+E17</f>
         <v>48246.933837116099</v>
       </c>
       <c r="F15" s="199">
@@ -10653,523 +10681,519 @@
       <c r="G15" s="200"/>
       <c r="H15" s="200">
         <f t="shared" si="0"/>
-        <v>97708.537061374926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="194">
-        <v>45687</v>
-      </c>
-      <c r="B16" s="218" t="s">
-        <v>453</v>
-      </c>
-      <c r="C16" s="196">
-        <v>2900</v>
-      </c>
-      <c r="D16" s="197">
-        <f>(C16/C18)-1</f>
-        <v>3.5714285714285809E-2</v>
-      </c>
-      <c r="E16" s="219">
-        <f>F17*D16</f>
-        <v>1663.6873736936629</v>
-      </c>
-      <c r="F16" s="199">
-        <f>H17*D16</f>
-        <v>1705.5725249744467</v>
+        <v>115708.53706137493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
+      <c r="A16" s="194"/>
+      <c r="B16" s="259" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="260">
+        <v>18000</v>
       </c>
       <c r="G16" s="200"/>
       <c r="H16" s="200">
         <f t="shared" si="0"/>
-        <v>49461.603224258826</v>
-      </c>
-      <c r="J16" s="254">
-        <v>45677</v>
+        <v>67461.603224258826</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="194"/>
+      <c r="A17" s="194">
+        <v>45687</v>
+      </c>
       <c r="B17" s="218" t="s">
-        <v>473</v>
-      </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="199">
-        <f>E19+E18</f>
-        <v>46583.246463422438</v>
+        <v>452</v>
+      </c>
+      <c r="C17" s="196">
+        <v>2900</v>
+      </c>
+      <c r="D17" s="197">
+        <f>(C17/C19)-1</f>
+        <v>3.5714285714285809E-2</v>
+      </c>
+      <c r="E17" s="219">
+        <f>F18*D17</f>
+        <v>1663.6873736936629</v>
       </c>
       <c r="F17" s="199">
-        <f>E17</f>
-        <v>46583.246463422438</v>
+        <f>H18*D17</f>
+        <v>1705.5725249744467</v>
       </c>
       <c r="G17" s="200"/>
       <c r="H17" s="200">
         <f t="shared" si="0"/>
-        <v>47756.030699284376</v>
+        <v>49461.603224258826</v>
+      </c>
+      <c r="J17" s="254">
+        <v>45677</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="194">
-        <v>45656</v>
-      </c>
+      <c r="A18" s="194"/>
       <c r="B18" s="218" t="s">
-        <v>454</v>
-      </c>
-      <c r="C18" s="196">
-        <v>2800</v>
-      </c>
-      <c r="D18" s="197">
-        <f>(C18/C22)-1</f>
-        <v>5.372888308501711E-2</v>
-      </c>
-      <c r="E18" s="219">
-        <f>F19*D18</f>
-        <v>2375.2464634224366</v>
+        <v>472</v>
+      </c>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="199">
+        <f>E20+E19</f>
+        <v>46583.246463422438</v>
       </c>
       <c r="F18" s="199">
-        <f>IF(H19&lt;=0,,(H19*D18))</f>
-        <v>59.79943048357466</v>
+        <f>E18</f>
+        <v>46583.246463422438</v>
       </c>
       <c r="G18" s="200"/>
       <c r="H18" s="200">
         <f t="shared" si="0"/>
-        <v>1172.7842358619391</v>
+        <v>47756.030699284376</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="194"/>
+      <c r="A19" s="194">
+        <v>45656</v>
+      </c>
       <c r="B19" s="218" t="s">
-        <v>469</v>
-      </c>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="199">
-        <v>44208</v>
+        <v>453</v>
+      </c>
+      <c r="C19" s="196">
+        <v>2800</v>
+      </c>
+      <c r="D19" s="197">
+        <f>(C19/C23)-1</f>
+        <v>5.372888308501711E-2</v>
+      </c>
+      <c r="E19" s="219">
+        <f>F20*D19</f>
+        <v>2375.2464634224366</v>
       </c>
       <c r="F19" s="199">
-        <f>E19</f>
-        <v>44208</v>
+        <f>IF(H20&lt;=0,,(H20*D19))</f>
+        <v>59.79943048357466</v>
       </c>
       <c r="G19" s="200"/>
       <c r="H19" s="200">
         <f t="shared" si="0"/>
-        <v>1112.9848053783644</v>
+        <v>1172.7842358619391</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="194"/>
       <c r="B20" s="218" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C20" s="196"/>
       <c r="D20" s="197"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="200">
-        <v>219000</v>
-      </c>
+      <c r="E20" s="199">
+        <v>44208</v>
+      </c>
+      <c r="F20" s="199">
+        <f>E20</f>
+        <v>44208</v>
+      </c>
+      <c r="G20" s="200"/>
       <c r="H20" s="200">
         <f t="shared" si="0"/>
-        <v>-43095.015194621636</v>
-      </c>
-      <c r="I20">
-        <v>240</v>
-      </c>
-      <c r="J20">
-        <v>60</v>
-      </c>
-      <c r="K20">
-        <f>I20*J20/100</f>
-        <v>144</v>
+        <v>1112.9848053783644</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="194"/>
       <c r="B21" s="218" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="C21" s="196"/>
       <c r="D21" s="197"/>
       <c r="E21" s="199"/>
-      <c r="F21" s="199">
-        <v>7080</v>
-      </c>
-      <c r="G21" s="200"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="200">
+        <v>219000</v>
+      </c>
       <c r="H21" s="200">
         <f t="shared" si="0"/>
-        <v>175904.98480537836</v>
+        <v>-43095.015194621636</v>
+      </c>
+      <c r="I21">
+        <v>240</v>
+      </c>
+      <c r="J21">
+        <v>60</v>
       </c>
       <c r="K21">
-        <f>K20+I20</f>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A22" s="194">
-        <v>45626</v>
-      </c>
+        <f>I21*J21/100</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="194"/>
       <c r="B22" s="218" t="s">
         <v>449</v>
       </c>
-      <c r="C22" s="224">
-        <v>2657.23</v>
-      </c>
-      <c r="D22" s="197">
-        <f>(C22/C24)-1</f>
-        <v>2.2440176843369075E-2</v>
-      </c>
-      <c r="E22" s="219">
-        <f>C22</f>
-        <v>2657.23</v>
-      </c>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="199"/>
       <c r="F22" s="199">
-        <f>H23*D22</f>
-        <v>3705.3145997334518</v>
+        <v>7080</v>
       </c>
       <c r="G22" s="200"/>
       <c r="H22" s="200">
         <f t="shared" si="0"/>
-        <v>168824.98480537836</v>
+        <v>175904.98480537836</v>
       </c>
       <c r="K22">
-        <f>K21/12</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="194"/>
+        <f>K21+I21</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A23" s="194">
+        <v>45626</v>
+      </c>
       <c r="B23" s="218" t="s">
-        <v>451</v>
-      </c>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="199">
-        <f>E25+E24</f>
-        <v>28469.068917672856</v>
+        <v>448</v>
+      </c>
+      <c r="C23" s="224">
+        <v>2657.23</v>
+      </c>
+      <c r="D23" s="197">
+        <f>(C23/C25)-1</f>
+        <v>2.2440176843369075E-2</v>
+      </c>
+      <c r="E23" s="219">
+        <f>C23</f>
+        <v>2657.23</v>
       </c>
       <c r="F23" s="199">
-        <f>E23</f>
-        <v>28469.068917672856</v>
+        <f>H24*D23</f>
+        <v>3705.3145997334518</v>
       </c>
       <c r="G23" s="200"/>
       <c r="H23" s="200">
         <f t="shared" si="0"/>
-        <v>165119.67020564491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A24" s="194">
-        <v>45595</v>
-      </c>
+        <v>168824.98480537836</v>
+      </c>
+      <c r="K23">
+        <f>K22/12</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="194"/>
       <c r="B24" s="218" t="s">
-        <v>424</v>
-      </c>
-      <c r="C24" s="223">
-        <v>2598.91</v>
-      </c>
-      <c r="D24" s="197">
-        <f>(C24/C26)-1</f>
-        <v>2.8798650916806556E-2</v>
-      </c>
-      <c r="E24" s="219">
-        <f>F25*D24</f>
-        <v>796.92054121177785</v>
+        <v>450</v>
+      </c>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="199">
+        <f>E26+E25</f>
+        <v>28469.068917672856</v>
       </c>
       <c r="F24" s="199">
-        <f>H25*D24</f>
-        <v>3825.1925783116671</v>
+        <f>E24</f>
+        <v>28469.068917672856</v>
       </c>
       <c r="G24" s="200"/>
       <c r="H24" s="200">
         <f t="shared" si="0"/>
-        <v>136650.60128797207</v>
-      </c>
-      <c r="I24" t="s">
-        <v>472</v>
-      </c>
-      <c r="J24" t="s">
-        <v>471</v>
-      </c>
-      <c r="K24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="194"/>
+        <v>165119.67020564491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A25" s="194">
+        <v>45595</v>
+      </c>
       <c r="B25" s="218" t="s">
-        <v>448</v>
-      </c>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="199">
-        <f>E27+E26</f>
-        <v>27672.148376461078</v>
+        <v>423</v>
+      </c>
+      <c r="C25" s="223">
+        <v>2598.91</v>
+      </c>
+      <c r="D25" s="197">
+        <f>(C25/C27)-1</f>
+        <v>2.8798650916806556E-2</v>
+      </c>
+      <c r="E25" s="219">
+        <f>F26*D25</f>
+        <v>796.92054121177785</v>
       </c>
       <c r="F25" s="199">
-        <f>E25</f>
-        <v>27672.148376461078</v>
+        <f>H26*D25</f>
+        <v>3825.1925783116671</v>
       </c>
       <c r="G25" s="200"/>
       <c r="H25" s="200">
         <f t="shared" si="0"/>
-        <v>132825.40870966041</v>
-      </c>
-      <c r="I25">
-        <v>24</v>
-      </c>
-      <c r="J25">
-        <v>22104</v>
-      </c>
-      <c r="K25">
-        <f>J25*I25</f>
-        <v>530496</v>
+        <v>136650.60128797207</v>
+      </c>
+      <c r="I25" t="s">
+        <v>471</v>
+      </c>
+      <c r="J25" t="s">
+        <v>470</v>
+      </c>
+      <c r="K25" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="194">
-        <v>45565</v>
-      </c>
+      <c r="A26" s="194"/>
       <c r="B26" s="218" t="s">
-        <v>425</v>
-      </c>
-      <c r="C26" s="221">
-        <v>2526.16</v>
-      </c>
-      <c r="D26" s="197">
-        <f>(C26/C28)-1</f>
-        <v>2.9681984559824404E-2</v>
-      </c>
-      <c r="E26" s="219">
-        <f>F27*D26</f>
-        <v>797.68733760881537</v>
+        <v>447</v>
+      </c>
+      <c r="C26" s="196"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="199">
+        <f>E28+E27</f>
+        <v>27672.148376461078</v>
       </c>
       <c r="F26" s="199">
-        <f>IF(H27&lt;=0,,(H27*D26))</f>
-        <v>3031.1858383726817</v>
+        <f>E26</f>
+        <v>27672.148376461078</v>
       </c>
       <c r="G26" s="200"/>
       <c r="H26" s="200">
         <f t="shared" si="0"/>
-        <v>105153.26033319932</v>
+        <v>132825.40870966041</v>
+      </c>
+      <c r="I26">
+        <v>24</v>
+      </c>
+      <c r="J26">
+        <v>22104</v>
       </c>
       <c r="K26">
-        <f>K25/12</f>
-        <v>44208</v>
+        <f>J26*I26</f>
+        <v>530496</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="194"/>
+      <c r="A27" s="194">
+        <v>45565</v>
+      </c>
       <c r="B27" s="218" t="s">
-        <v>447</v>
-      </c>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="199">
-        <f>E29+E28</f>
-        <v>26874.461038852263</v>
+        <v>424</v>
+      </c>
+      <c r="C27" s="221">
+        <v>2526.16</v>
+      </c>
+      <c r="D27" s="197">
+        <f>(C27/C29)-1</f>
+        <v>2.9681984559824404E-2</v>
+      </c>
+      <c r="E27" s="219">
+        <f>F28*D27</f>
+        <v>797.68733760881537</v>
       </c>
       <c r="F27" s="199">
-        <f>E27</f>
-        <v>26874.461038852263</v>
+        <f>IF(H28&lt;=0,,(H28*D27))</f>
+        <v>3031.1858383726817</v>
       </c>
       <c r="G27" s="200"/>
       <c r="H27" s="200">
         <f t="shared" si="0"/>
-        <v>102122.07449482664</v>
-      </c>
-      <c r="K27" t="s">
-        <v>177</v>
+        <v>105153.26033319932</v>
+      </c>
+      <c r="K27">
+        <f>K26/12</f>
+        <v>44208</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="194">
-        <v>45534</v>
-      </c>
+      <c r="A28" s="194"/>
       <c r="B28" s="218" t="s">
-        <v>426</v>
-      </c>
-      <c r="C28" s="196">
-        <v>2453.34</v>
-      </c>
-      <c r="D28" s="197">
-        <f>(C28/C30)-1</f>
-        <v>2.4744162733386421E-2</v>
-      </c>
-      <c r="E28" s="219">
-        <f>F29*D28</f>
-        <v>648.92883658262588</v>
+        <v>446</v>
+      </c>
+      <c r="C28" s="196"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="199">
+        <f>E30+E29</f>
+        <v>26874.461038852263</v>
       </c>
       <c r="F28" s="199">
-        <f>IF(H29&lt;=0,,(H29*D28))</f>
-        <v>1816.9795548647776</v>
+        <f>E28</f>
+        <v>26874.461038852263</v>
       </c>
       <c r="G28" s="200"/>
       <c r="H28" s="200">
         <f t="shared" si="0"/>
-        <v>75247.61345597438</v>
+        <v>102122.07449482664</v>
+      </c>
+      <c r="K28" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="194"/>
+      <c r="A29" s="194">
+        <v>45534</v>
+      </c>
       <c r="B29" s="218" t="s">
-        <v>446</v>
-      </c>
-      <c r="C29" s="196"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="199">
-        <f>E31+E30</f>
-        <v>26225.532202269638</v>
+        <v>425</v>
+      </c>
+      <c r="C29" s="196">
+        <v>2453.34</v>
+      </c>
+      <c r="D29" s="197">
+        <f>(C29/C31)-1</f>
+        <v>2.4744162733386421E-2</v>
+      </c>
+      <c r="E29" s="219">
+        <f>F30*D29</f>
+        <v>648.92883658262588</v>
       </c>
       <c r="F29" s="199">
-        <f>E29</f>
-        <v>26225.532202269638</v>
+        <f>IF(H30&lt;=0,,(H30*D29))</f>
+        <v>1816.9795548647776</v>
       </c>
       <c r="G29" s="200"/>
       <c r="H29" s="200">
         <f t="shared" si="0"/>
-        <v>73430.633901109599</v>
+        <v>75247.61345597438</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="194">
-        <v>45503</v>
-      </c>
+      <c r="A30" s="194"/>
       <c r="B30" s="218" t="s">
-        <v>427</v>
-      </c>
-      <c r="C30" s="196">
-        <v>2394.1</v>
-      </c>
-      <c r="D30" s="197">
-        <f>(C30/C32)-1</f>
-        <v>3.2255560969089547E-2</v>
-      </c>
-      <c r="E30" s="219">
-        <f>F31*D30</f>
-        <v>819.48626375330343</v>
+        <v>445</v>
+      </c>
+      <c r="C30" s="196"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="199">
+        <f>E32+E31</f>
+        <v>26225.532202269638</v>
       </c>
       <c r="F30" s="199">
-        <f>IF(H31&lt;=0,,(H31*D30))</f>
-        <v>1475.0485184788452</v>
+        <f>E30</f>
+        <v>26225.532202269638</v>
       </c>
       <c r="G30" s="200"/>
       <c r="H30" s="200">
         <f t="shared" si="0"/>
-        <v>47205.101698839957</v>
+        <v>73430.633901109599</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="194"/>
+      <c r="A31" s="194">
+        <v>45503</v>
+      </c>
       <c r="B31" s="218" t="s">
-        <v>445</v>
-      </c>
-      <c r="C31" s="196"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="199">
-        <f>E33+E32</f>
-        <v>25406.045938516334</v>
+        <v>426</v>
+      </c>
+      <c r="C31" s="196">
+        <v>2394.1</v>
+      </c>
+      <c r="D31" s="197">
+        <f>(C31/C33)-1</f>
+        <v>3.2255560969089547E-2</v>
+      </c>
+      <c r="E31" s="219">
+        <f>F32*D31</f>
+        <v>819.48626375330343</v>
       </c>
       <c r="F31" s="199">
-        <f>E31</f>
-        <v>25406.045938516334</v>
+        <f>IF(H32&lt;=0,,(H32*D31))</f>
+        <v>1475.0485184788452</v>
       </c>
       <c r="G31" s="200"/>
       <c r="H31" s="200">
         <f t="shared" si="0"/>
-        <v>45730.053180361108</v>
+        <v>47205.101698839957</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="194">
-        <v>45473</v>
-      </c>
+      <c r="A32" s="194"/>
       <c r="B32" s="218" t="s">
-        <v>428</v>
-      </c>
-      <c r="C32" s="196">
-        <v>2319.29</v>
-      </c>
-      <c r="D32" s="197">
-        <f>(C32/C34)-1</f>
-        <v>1.6407739334312055E-2</v>
-      </c>
-      <c r="E32" s="219">
-        <f>F33*D32</f>
-        <v>410.12653007517417</v>
+        <v>444</v>
+      </c>
+      <c r="C32" s="196"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="199">
+        <f>E34+E33</f>
+        <v>25406.045938516334</v>
       </c>
       <c r="F32" s="199">
-        <f>IF(H33&lt;=0,,(H33*D32))</f>
-        <v>328.0878334036139</v>
+        <f>E32</f>
+        <v>25406.045938516334</v>
       </c>
       <c r="G32" s="200"/>
       <c r="H32" s="200">
         <f t="shared" si="0"/>
-        <v>20324.007241844774</v>
+        <v>45730.053180361108</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="194"/>
+      <c r="A33" s="194">
+        <v>45473</v>
+      </c>
       <c r="B33" s="218" t="s">
-        <v>444</v>
-      </c>
-      <c r="C33" s="196"/>
-      <c r="D33" s="197"/>
-      <c r="E33" s="199">
-        <f>E35+E34</f>
-        <v>24995.919408441161</v>
+        <v>427</v>
+      </c>
+      <c r="C33" s="196">
+        <v>2319.29</v>
+      </c>
+      <c r="D33" s="197">
+        <f>(C33/C35)-1</f>
+        <v>1.6407739334312055E-2</v>
+      </c>
+      <c r="E33" s="219">
+        <f>F34*D33</f>
+        <v>410.12653007517417</v>
       </c>
       <c r="F33" s="199">
-        <f>E33</f>
-        <v>24995.919408441161</v>
+        <f>IF(H34&lt;=0,,(H34*D33))</f>
+        <v>328.0878334036139</v>
       </c>
       <c r="G33" s="200"/>
       <c r="H33" s="200">
-        <f t="shared" ref="H33:H45" si="1">H34+F33-G33</f>
-        <v>19995.919408441161</v>
+        <f t="shared" si="0"/>
+        <v>20324.007241844774</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="194">
-        <v>45442</v>
-      </c>
+      <c r="A34" s="194"/>
       <c r="B34" s="218" t="s">
-        <v>429</v>
-      </c>
-      <c r="C34" s="196">
-        <v>2281.85</v>
-      </c>
-      <c r="D34" s="197">
-        <f>(C34/C36)-1</f>
-        <v>3.3680634201585402E-2</v>
-      </c>
-      <c r="E34" s="219">
-        <f>F35*D34</f>
-        <v>673.612684031708</v>
+        <v>443</v>
+      </c>
+      <c r="C34" s="196"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="199">
+        <f>E36+E35</f>
+        <v>24995.919408441161</v>
       </c>
       <c r="F34" s="199">
-        <f>IF(H35&lt;=0,,(H35*D34))</f>
-        <v>0</v>
+        <f>E34</f>
+        <v>24995.919408441161</v>
       </c>
       <c r="G34" s="200"/>
       <c r="H34" s="200">
-        <f t="shared" si="1"/>
-        <v>-5000</v>
+        <f t="shared" ref="H34:H46" si="1">H35+F34-G34</f>
+        <v>19995.919408441161</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="194"/>
+      <c r="A35" s="194">
+        <v>45442</v>
+      </c>
       <c r="B35" s="218" t="s">
-        <v>443</v>
-      </c>
-      <c r="C35" s="196"/>
-      <c r="D35" s="197"/>
-      <c r="E35" s="199">
-        <f>E37+E36</f>
-        <v>24322.306724409453</v>
+        <v>428</v>
+      </c>
+      <c r="C35" s="196">
+        <v>2281.85</v>
+      </c>
+      <c r="D35" s="197">
+        <f>(C35/C37)-1</f>
+        <v>3.3680634201585402E-2</v>
+      </c>
+      <c r="E35" s="219">
+        <f>F36*D35</f>
+        <v>673.612684031708</v>
       </c>
       <c r="F35" s="199">
-        <f>F37</f>
-        <v>20000</v>
+        <f>IF(H36&lt;=0,,(H36*D35))</f>
+        <v>0</v>
       </c>
       <c r="G35" s="200"/>
       <c r="H35" s="200">
@@ -11178,47 +11202,47 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="194">
-        <v>45412</v>
-      </c>
+      <c r="A36" s="194"/>
       <c r="B36" s="218" t="s">
-        <v>430</v>
-      </c>
-      <c r="C36" s="196">
-        <v>2207.5</v>
-      </c>
-      <c r="D36" s="197">
-        <f>(C36/C38)-1</f>
-        <v>3.1797594731405532E-2</v>
-      </c>
-      <c r="E36" s="219">
-        <f>F37*D36</f>
-        <v>635.95189462811061</v>
+        <v>442</v>
+      </c>
+      <c r="C36" s="196"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="199">
+        <f>E38+E37</f>
+        <v>24322.306724409453</v>
       </c>
       <c r="F36" s="199">
-        <f>IF(H37&lt;=0,,(H37*D36))</f>
-        <v>0</v>
+        <f>F38</f>
+        <v>20000</v>
       </c>
       <c r="G36" s="200"/>
       <c r="H36" s="200">
         <f t="shared" si="1"/>
-        <v>-25000</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="194"/>
+      <c r="A37" s="194">
+        <v>45412</v>
+      </c>
       <c r="B37" s="218" t="s">
-        <v>442</v>
-      </c>
-      <c r="C37" s="196"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="199">
-        <f>E39+E38</f>
-        <v>23686.354829781343</v>
+        <v>429</v>
+      </c>
+      <c r="C37" s="196">
+        <v>2207.5</v>
+      </c>
+      <c r="D37" s="197">
+        <f>(C37/C39)-1</f>
+        <v>3.1797594731405532E-2</v>
+      </c>
+      <c r="E37" s="219">
+        <f>F38*D37</f>
+        <v>635.95189462811061</v>
       </c>
       <c r="F37" s="199">
-        <f>F39</f>
-        <v>20000</v>
+        <f>IF(H38&lt;=0,,(H38*D37))</f>
+        <v>0</v>
       </c>
       <c r="G37" s="200"/>
       <c r="H37" s="200">
@@ -11227,47 +11251,47 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="194">
-        <v>45381</v>
-      </c>
+      <c r="A38" s="194"/>
       <c r="B38" s="218" t="s">
-        <v>431</v>
-      </c>
-      <c r="C38" s="196">
-        <v>2139.4699999999998</v>
-      </c>
-      <c r="D38" s="197">
-        <f>(C38/C40)-1</f>
-        <v>3.1626709356375349E-2</v>
-      </c>
-      <c r="E38" s="219">
-        <f>E39*D38</f>
-        <v>726.15554940492348</v>
+        <v>441</v>
+      </c>
+      <c r="C38" s="196"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="199">
+        <f>E40+E39</f>
+        <v>23686.354829781343</v>
       </c>
       <c r="F38" s="199">
-        <f>IF(H39&lt;=0,,(H39*D38))</f>
-        <v>0</v>
+        <f>F40</f>
+        <v>20000</v>
       </c>
       <c r="G38" s="200"/>
       <c r="H38" s="200">
         <f t="shared" si="1"/>
-        <v>-45000</v>
+        <v>-25000</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="194"/>
+      <c r="A39" s="194">
+        <v>45381</v>
+      </c>
       <c r="B39" s="218" t="s">
-        <v>441</v>
-      </c>
-      <c r="C39" s="196"/>
-      <c r="D39" s="197"/>
-      <c r="E39" s="199">
-        <f>E41+E40</f>
-        <v>22960.199280376419</v>
+        <v>430</v>
+      </c>
+      <c r="C39" s="196">
+        <v>2139.4699999999998</v>
+      </c>
+      <c r="D39" s="197">
+        <f>(C39/C41)-1</f>
+        <v>3.1626709356375349E-2</v>
+      </c>
+      <c r="E39" s="219">
+        <f>E40*D39</f>
+        <v>726.15554940492348</v>
       </c>
       <c r="F39" s="199">
-        <f>F41</f>
-        <v>20000</v>
+        <f>IF(H40&lt;=0,,(H40*D39))</f>
+        <v>0</v>
       </c>
       <c r="G39" s="200"/>
       <c r="H39" s="200">
@@ -11276,47 +11300,47 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="194">
-        <v>45351</v>
-      </c>
+      <c r="A40" s="194"/>
       <c r="B40" s="218" t="s">
-        <v>432</v>
-      </c>
-      <c r="C40" s="196">
-        <v>2073.88</v>
-      </c>
-      <c r="D40" s="197">
-        <f>(C40/C42)-1</f>
-        <v>4.5291882138285056E-2</v>
-      </c>
-      <c r="E40" s="219">
-        <f>E41*D40</f>
-        <v>994.85192360919234</v>
+        <v>440</v>
+      </c>
+      <c r="C40" s="196"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="199">
+        <f>E42+E41</f>
+        <v>22960.199280376419</v>
       </c>
       <c r="F40" s="199">
-        <f>IF(H41&lt;=0,,(H41*D40))</f>
-        <v>0</v>
+        <f>F42</f>
+        <v>20000</v>
       </c>
       <c r="G40" s="200"/>
       <c r="H40" s="200">
         <f t="shared" si="1"/>
-        <v>-65000</v>
+        <v>-45000</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="194"/>
+      <c r="A41" s="194">
+        <v>45351</v>
+      </c>
       <c r="B41" s="218" t="s">
-        <v>440</v>
-      </c>
-      <c r="C41" s="196"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="199">
-        <f>E44+E42</f>
-        <v>21965.347356767226</v>
-      </c>
-      <c r="F41" s="253">
-        <f>F44</f>
-        <v>20000</v>
+        <v>431</v>
+      </c>
+      <c r="C41" s="196">
+        <v>2073.88</v>
+      </c>
+      <c r="D41" s="197">
+        <f>(C41/C43)-1</f>
+        <v>4.5291882138285056E-2</v>
+      </c>
+      <c r="E41" s="219">
+        <f>E42*D41</f>
+        <v>994.85192360919234</v>
+      </c>
+      <c r="F41" s="199">
+        <f>IF(H42&lt;=0,,(H42*D41))</f>
+        <v>0</v>
       </c>
       <c r="G41" s="200"/>
       <c r="H41" s="200">
@@ -11325,43 +11349,47 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="194">
-        <v>45321</v>
-      </c>
+      <c r="A42" s="194"/>
       <c r="B42" s="218" t="s">
-        <v>433</v>
-      </c>
-      <c r="C42" s="196">
-        <v>1984.02</v>
-      </c>
-      <c r="D42" s="197">
-        <f>(C42/C45)-1</f>
-        <v>6.7033097053856627E-2</v>
-      </c>
-      <c r="E42" s="219">
-        <f>E44*D42</f>
-        <v>1379.9058953778017</v>
-      </c>
-      <c r="F42" s="199">
-        <f>IF(H43&lt;=0,,(H43*D42))</f>
-        <v>0</v>
+        <v>439</v>
+      </c>
+      <c r="C42" s="196"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="199">
+        <f>E45+E43</f>
+        <v>21965.347356767226</v>
+      </c>
+      <c r="F42" s="253">
+        <f>F45</f>
+        <v>20000</v>
       </c>
       <c r="G42" s="200"/>
       <c r="H42" s="200">
         <f t="shared" si="1"/>
-        <v>-85000</v>
+        <v>-65000</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="194"/>
+      <c r="A43" s="194">
+        <v>45321</v>
+      </c>
       <c r="B43" s="218" t="s">
-        <v>455</v>
-      </c>
-      <c r="C43" s="196"/>
-      <c r="D43" s="197"/>
-      <c r="E43" s="199"/>
+        <v>432</v>
+      </c>
+      <c r="C43" s="196">
+        <v>1984.02</v>
+      </c>
+      <c r="D43" s="197">
+        <f>(C43/C46)-1</f>
+        <v>6.7033097053856627E-2</v>
+      </c>
+      <c r="E43" s="219">
+        <f>E45*D43</f>
+        <v>1379.9058953778017</v>
+      </c>
       <c r="F43" s="199">
-        <v>10000</v>
+        <f>IF(H44&lt;=0,,(H44*D43))</f>
+        <v>0</v>
       </c>
       <c r="G43" s="200"/>
       <c r="H43" s="200">
@@ -11372,126 +11400,133 @@
     <row r="44" spans="1:8">
       <c r="A44" s="194"/>
       <c r="B44" s="218" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C44" s="196"/>
       <c r="D44" s="197"/>
-      <c r="E44" s="199">
-        <f>F46+E45</f>
-        <v>20585.441461389426</v>
-      </c>
-      <c r="F44" s="253">
-        <f>F46</f>
-        <v>20000</v>
+      <c r="E44" s="199"/>
+      <c r="F44" s="199">
+        <v>10000</v>
       </c>
       <c r="G44" s="200"/>
       <c r="H44" s="200">
-        <f>H45+F44-G44</f>
-        <v>-95000</v>
+        <f t="shared" si="1"/>
+        <v>-85000</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="194">
-        <v>45290</v>
-      </c>
+      <c r="A45" s="194"/>
       <c r="B45" s="218" t="s">
-        <v>435</v>
-      </c>
-      <c r="C45" s="196">
-        <v>1859.38</v>
-      </c>
-      <c r="D45" s="197">
-        <f>(C45/C48)-1</f>
-        <v>2.9272073069471327E-2</v>
-      </c>
-      <c r="E45" s="219">
-        <f>F46*D45</f>
-        <v>585.44146138942654</v>
-      </c>
-      <c r="F45" s="199">
-        <f>IF(H46&lt;=0,,(H46*D45))</f>
-        <v>0</v>
+        <v>438</v>
+      </c>
+      <c r="C45" s="196"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="199">
+        <f>F47+E46</f>
+        <v>20585.441461389426</v>
+      </c>
+      <c r="F45" s="253">
+        <f>F47</f>
+        <v>20000</v>
       </c>
       <c r="G45" s="200"/>
       <c r="H45" s="200">
+        <f>H46+F45-G45</f>
+        <v>-95000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="194">
+        <v>45290</v>
+      </c>
+      <c r="B46" s="218" t="s">
+        <v>434</v>
+      </c>
+      <c r="C46" s="196">
+        <v>1859.38</v>
+      </c>
+      <c r="D46" s="197">
+        <f>(C46/C49)-1</f>
+        <v>2.9272073069471327E-2</v>
+      </c>
+      <c r="E46" s="219">
+        <f>F47*D46</f>
+        <v>585.44146138942654</v>
+      </c>
+      <c r="F46" s="199">
+        <f>IF(H47&lt;=0,,(H47*D46))</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="200"/>
+      <c r="H46" s="200">
         <f t="shared" si="1"/>
         <v>-115000</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="194"/>
-      <c r="B46" s="218" t="s">
-        <v>438</v>
-      </c>
-      <c r="C46" s="196"/>
-      <c r="D46" s="197"/>
-      <c r="E46" s="198"/>
-      <c r="F46" s="199">
-        <v>20000</v>
-      </c>
-      <c r="G46" s="200"/>
-      <c r="H46" s="200">
-        <f>H47+F46-G46</f>
-        <v>-115000</v>
-      </c>
-    </row>
     <row r="47" spans="1:8">
       <c r="A47" s="194"/>
-      <c r="B47" s="218"/>
+      <c r="B47" s="218" t="s">
+        <v>437</v>
+      </c>
       <c r="C47" s="196"/>
       <c r="D47" s="197"/>
       <c r="E47" s="198"/>
-      <c r="F47" s="199"/>
-      <c r="G47" s="200">
+      <c r="F47" s="199">
+        <v>20000</v>
+      </c>
+      <c r="G47" s="200"/>
+      <c r="H47" s="200">
+        <f>H48+F47-G47</f>
+        <v>-115000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="194"/>
+      <c r="B48" s="218"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="198"/>
+      <c r="F48" s="199"/>
+      <c r="G48" s="200">
         <v>135000</v>
       </c>
-      <c r="H47" s="200">
-        <f>H49+F47-G47</f>
+      <c r="H48" s="200">
+        <f>H50+F48-G48</f>
         <v>-135000</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="194">
+    <row r="49" spans="1:8">
+      <c r="A49" s="194">
         <v>45260</v>
       </c>
-      <c r="B48" s="218" t="s">
-        <v>436</v>
-      </c>
-      <c r="C48" s="196">
+      <c r="B49" s="218" t="s">
+        <v>435</v>
+      </c>
+      <c r="C49" s="196">
         <v>1806.5</v>
       </c>
-      <c r="D48" s="197"/>
-      <c r="E48" s="219"/>
-      <c r="F48" s="199"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="200"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="194"/>
-      <c r="B49" s="218"/>
-      <c r="C49" s="196"/>
       <c r="D49" s="197"/>
-      <c r="E49" s="199"/>
+      <c r="E49" s="219"/>
       <c r="F49" s="199"/>
       <c r="G49" s="200"/>
       <c r="H49" s="200"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="194"/>
-      <c r="B50" s="200"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="196"/>
       <c r="D50" s="197"/>
-      <c r="E50" s="198"/>
+      <c r="E50" s="199"/>
       <c r="F50" s="199"/>
       <c r="G50" s="200"/>
       <c r="H50" s="200"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="194"/>
-      <c r="B51" s="218"/>
+      <c r="B51" s="200"/>
       <c r="C51" s="196"/>
       <c r="D51" s="197"/>
-      <c r="E51" s="219"/>
+      <c r="E51" s="198"/>
       <c r="F51" s="199"/>
       <c r="G51" s="200"/>
       <c r="H51" s="200"/>
@@ -11501,7 +11536,7 @@
       <c r="B52" s="218"/>
       <c r="C52" s="196"/>
       <c r="D52" s="197"/>
-      <c r="E52" s="199"/>
+      <c r="E52" s="219"/>
       <c r="F52" s="199"/>
       <c r="G52" s="200"/>
       <c r="H52" s="200"/>
@@ -11511,7 +11546,7 @@
       <c r="B53" s="218"/>
       <c r="C53" s="196"/>
       <c r="D53" s="197"/>
-      <c r="E53" s="198"/>
+      <c r="E53" s="199"/>
       <c r="F53" s="199"/>
       <c r="G53" s="200"/>
       <c r="H53" s="200"/>
@@ -11538,7 +11573,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="194"/>
-      <c r="B56" s="200"/>
+      <c r="B56" s="218"/>
       <c r="C56" s="196"/>
       <c r="D56" s="197"/>
       <c r="E56" s="198"/>
@@ -11548,12 +11583,12 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="194"/>
-      <c r="B57" s="218"/>
+      <c r="B57" s="200"/>
       <c r="C57" s="196"/>
       <c r="D57" s="197"/>
-      <c r="E57" s="219"/>
+      <c r="E57" s="198"/>
       <c r="F57" s="199"/>
-      <c r="G57" s="220"/>
+      <c r="G57" s="200"/>
       <c r="H57" s="200"/>
     </row>
     <row r="58" spans="1:8">
@@ -11561,23 +11596,34 @@
       <c r="B58" s="218"/>
       <c r="C58" s="196"/>
       <c r="D58" s="197"/>
-      <c r="E58" s="199"/>
+      <c r="E58" s="219"/>
       <c r="F58" s="199"/>
       <c r="G58" s="220"/>
       <c r="H58" s="200"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="194"/>
-      <c r="B59" s="200"/>
+      <c r="B59" s="218"/>
       <c r="C59" s="196"/>
       <c r="D59" s="197"/>
-      <c r="E59" s="198"/>
+      <c r="E59" s="199"/>
       <c r="F59" s="199"/>
-      <c r="G59" s="200"/>
+      <c r="G59" s="220"/>
       <c r="H59" s="200"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="194"/>
+      <c r="B60" s="200"/>
+      <c r="C60" s="196"/>
+      <c r="D60" s="197"/>
+      <c r="E60" s="198"/>
+      <c r="F60" s="199"/>
+      <c r="G60" s="200"/>
+      <c r="H60" s="200"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11605,11 +11651,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="B1" s="179" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C1" s="8"/>
       <c r="F1" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11700,7 +11746,7 @@
         <v>45167</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="24">
@@ -11714,7 +11760,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="24"/>
@@ -11728,7 +11774,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="24"/>
@@ -11742,7 +11788,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C12" s="92"/>
       <c r="D12" s="24"/>
@@ -11756,7 +11802,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C13" s="92"/>
       <c r="D13" s="24"/>
@@ -11770,7 +11816,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="27"/>
@@ -11878,7 +11924,7 @@
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11896,7 +11942,7 @@
     <row r="25" spans="1:6">
       <c r="A25" s="26"/>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -11965,7 +12011,7 @@
     <row r="30" spans="1:6">
       <c r="A30" s="26"/>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30"/>
       <c r="D30" s="31"/>
@@ -11978,7 +12024,7 @@
     <row r="31" spans="1:6">
       <c r="A31" s="26"/>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31"/>
       <c r="D31" s="31"/>
@@ -11991,7 +12037,7 @@
     <row r="32" spans="1:6">
       <c r="A32" s="26"/>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32"/>
       <c r="D32" s="31"/>
@@ -12004,7 +12050,7 @@
     <row r="33" spans="1:6">
       <c r="A33" s="26"/>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33"/>
       <c r="D33" s="30"/>
@@ -12085,10 +12131,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -12107,7 +12153,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="1"/>
     </row>
@@ -12116,13 +12162,13 @@
         <v>45402</v>
       </c>
       <c r="B43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C43"/>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="3">
@@ -12134,7 +12180,7 @@
         <v>45402</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45"/>
     </row>
@@ -12147,7 +12193,7 @@
         <v>45449</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47"/>
     </row>
@@ -12156,14 +12202,14 @@
         <v>45813</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48"/>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C49">
         <f>A48-A45</f>
@@ -12190,7 +12236,7 @@
         <v>45402</v>
       </c>
       <c r="B52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C52" s="147"/>
       <c r="D52" s="148"/>
@@ -12202,7 +12248,7 @@
     <row r="53" spans="1:8">
       <c r="A53" s="147"/>
       <c r="B53" s="146" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C53" s="147"/>
       <c r="D53" s="148"/>
@@ -12222,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="148" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -12230,7 +12276,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="145"/>
       <c r="B55" s="147" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C55" s="147"/>
       <c r="D55" s="148">
@@ -12262,7 +12308,7 @@
         <v>45402</v>
       </c>
       <c r="B57" s="147" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C57" s="147"/>
       <c r="D57" s="148"/>
@@ -12279,7 +12325,7 @@
         <v>45813</v>
       </c>
       <c r="B58" s="147" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C58" s="147"/>
       <c r="E58"/>
@@ -12295,7 +12341,7 @@
         <v>45170</v>
       </c>
       <c r="B59" s="147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C59" s="147"/>
       <c r="E59">
@@ -12313,7 +12359,7 @@
         <v>45199</v>
       </c>
       <c r="B60" s="147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C60" s="147"/>
       <c r="E60">
@@ -12331,7 +12377,7 @@
         <v>45229</v>
       </c>
       <c r="B61" s="147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C61" s="147"/>
       <c r="E61">
@@ -12349,7 +12395,7 @@
         <v>45260</v>
       </c>
       <c r="B62" s="147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C62" s="147"/>
       <c r="E62">
@@ -12365,7 +12411,7 @@
     <row r="63" spans="1:8">
       <c r="A63" s="145"/>
       <c r="B63" s="147" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C63" s="147"/>
       <c r="E63">
@@ -12388,7 +12434,7 @@
     <row r="65" spans="1:6" ht="15">
       <c r="A65" s="145"/>
       <c r="B65" s="147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C65" s="150">
         <f>A58-A57</f>
@@ -12400,7 +12446,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="145"/>
       <c r="B66" s="147" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C66" s="146">
         <f>(D55-24)/C65</f>
@@ -12414,7 +12460,7 @@
         <v>45813</v>
       </c>
       <c r="B67" s="152" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C67" s="153"/>
       <c r="D67" s="154"/>
@@ -12424,7 +12470,7 @@
     <row r="68" spans="1:6" ht="13.5" thickTop="1">
       <c r="A68"/>
       <c r="B68" s="147" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C68" s="146">
         <f>A67-A57</f>
@@ -12437,7 +12483,7 @@
     <row r="69" spans="1:6">
       <c r="A69" s="145"/>
       <c r="B69" s="147" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C69" s="147"/>
       <c r="D69" s="3">
@@ -12450,7 +12496,7 @@
     <row r="70" spans="1:6">
       <c r="A70" s="145"/>
       <c r="B70" s="147" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C70" s="147"/>
       <c r="D70" s="3">
@@ -12463,10 +12509,10 @@
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
       <c r="A71" s="145"/>
       <c r="B71" s="155" t="s">
+        <v>379</v>
+      </c>
+      <c r="C71" s="155" t="s">
         <v>380</v>
-      </c>
-      <c r="C71" s="155" t="s">
-        <v>381</v>
       </c>
       <c r="D71" s="156">
         <f>SUM(D70:D70)</f>
@@ -12478,10 +12524,10 @@
     <row r="72" spans="1:6" ht="13.5" thickTop="1">
       <c r="A72" s="145"/>
       <c r="B72" s="147" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C72" s="147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="148"/>
@@ -12489,10 +12535,10 @@
     <row r="73" spans="1:6">
       <c r="A73" s="145"/>
       <c r="B73" s="147" t="s">
+        <v>382</v>
+      </c>
+      <c r="C73" s="147" t="s">
         <v>383</v>
-      </c>
-      <c r="C73" s="147" t="s">
-        <v>384</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="148"/>
@@ -12500,10 +12546,10 @@
     <row r="74" spans="1:6">
       <c r="A74" s="145"/>
       <c r="B74" s="147" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C74" s="147" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E74"/>
       <c r="F74" s="148"/>
@@ -12518,10 +12564,10 @@
     <row r="76" spans="1:6" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="147"/>
       <c r="B76" s="158" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C76" s="159" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D76" s="156">
         <f>SUM(D71:D75)</f>
@@ -12564,11 +12610,11 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="8"/>
       <c r="F1" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12722,7 +12768,7 @@
         <v>44956</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="92">
         <v>45322</v>
@@ -12822,7 +12868,7 @@
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -12840,7 +12886,7 @@
     <row r="25" spans="1:6">
       <c r="A25" s="26"/>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -12919,7 +12965,7 @@
     <row r="30" spans="1:6">
       <c r="A30" s="26"/>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30"/>
       <c r="D30" s="31"/>
@@ -12932,7 +12978,7 @@
     <row r="31" spans="1:6">
       <c r="A31" s="26"/>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31"/>
       <c r="D31" s="31"/>
@@ -12945,7 +12991,7 @@
     <row r="32" spans="1:6">
       <c r="A32" s="26"/>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32"/>
       <c r="D32" s="31"/>
@@ -12958,7 +13004,7 @@
     <row r="33" spans="1:6">
       <c r="A33" s="26"/>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33"/>
       <c r="D33" s="30"/>
@@ -13039,10 +13085,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -13061,7 +13107,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="1"/>
     </row>
@@ -13070,13 +13116,13 @@
         <v>44774</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43"/>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="3">
@@ -13088,7 +13134,7 @@
         <v>44774</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45"/>
     </row>
@@ -13101,7 +13147,7 @@
         <v>44803</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47"/>
     </row>
@@ -13110,14 +13156,14 @@
         <v>45167</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48"/>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49">
         <f>A48-A45</f>
@@ -13136,7 +13182,7 @@
         <v>45127</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -13144,7 +13190,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="B52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -13152,7 +13198,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="B53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -13160,7 +13206,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="B54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -13168,7 +13214,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="B55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55"/>
       <c r="D55">
@@ -13200,7 +13246,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="B60" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60"/>
@@ -13212,7 +13258,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="B61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C61"/>
       <c r="E61">
@@ -13225,7 +13271,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62"/>
       <c r="E62">
@@ -13238,7 +13284,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="B63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63"/>
       <c r="E63" s="3">
@@ -13252,7 +13298,7 @@
     <row r="64" spans="1:6" customFormat="1">
       <c r="A64" s="7"/>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3">
@@ -13265,7 +13311,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -13281,7 +13327,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="B66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -13297,7 +13343,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C67"/>
       <c r="D67">
@@ -13315,7 +13361,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -13331,7 +13377,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -13363,7 +13409,7 @@
         <v>45139</v>
       </c>
       <c r="B72" s="146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C72" s="147"/>
       <c r="D72" s="148"/>
@@ -13375,7 +13421,7 @@
     <row r="73" spans="1:8">
       <c r="A73" s="147"/>
       <c r="B73" s="146" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C73" s="147"/>
       <c r="D73" s="148"/>
@@ -13395,7 +13441,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="148" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -13433,7 +13479,7 @@
         <v>45168</v>
       </c>
       <c r="B77" s="147" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C77" s="147"/>
       <c r="D77" s="148"/>
@@ -13450,7 +13496,7 @@
         <v>45533</v>
       </c>
       <c r="B78" s="147" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C78" s="147"/>
       <c r="E78"/>
@@ -13466,7 +13512,7 @@
         <v>45170</v>
       </c>
       <c r="B79" s="147" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C79" s="147"/>
       <c r="E79">
@@ -13484,7 +13530,7 @@
         <v>45199</v>
       </c>
       <c r="B80" s="147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C80" s="147"/>
       <c r="E80">
@@ -13502,7 +13548,7 @@
         <v>45229</v>
       </c>
       <c r="B81" s="147" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C81" s="147"/>
       <c r="E81">
@@ -13520,7 +13566,7 @@
         <v>45260</v>
       </c>
       <c r="B82" s="147" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C82" s="147"/>
       <c r="E82">
@@ -13538,7 +13584,7 @@
         <v>45290</v>
       </c>
       <c r="B83" s="147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C83" s="147"/>
       <c r="E83">
@@ -13556,10 +13602,10 @@
         <v>45321</v>
       </c>
       <c r="B84" s="147" t="s">
+        <v>371</v>
+      </c>
+      <c r="C84" s="149" t="s">
         <v>372</v>
-      </c>
-      <c r="C84" s="149" t="s">
-        <v>373</v>
       </c>
       <c r="E84"/>
       <c r="F84" s="148">
@@ -13579,7 +13625,7 @@
     <row r="86" spans="1:8" ht="15">
       <c r="A86" s="145"/>
       <c r="B86" s="147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C86" s="150">
         <f>A78-A77</f>
@@ -13591,7 +13637,7 @@
     <row r="87" spans="1:8">
       <c r="A87" s="145"/>
       <c r="B87" s="147" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C87" s="146">
         <f>D75/C86</f>
@@ -13605,7 +13651,7 @@
         <v>45413</v>
       </c>
       <c r="B88" s="152" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C88" s="153"/>
       <c r="D88" s="154"/>
@@ -13614,7 +13660,7 @@
     <row r="89" spans="1:8" ht="13.5" thickTop="1">
       <c r="A89"/>
       <c r="B89" s="147" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C89" s="146">
         <f>A88-A77</f>
@@ -13626,7 +13672,7 @@
     <row r="90" spans="1:8">
       <c r="A90" s="145"/>
       <c r="B90" s="147" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C90" s="147"/>
       <c r="D90" s="3">
@@ -13638,7 +13684,7 @@
     <row r="91" spans="1:8">
       <c r="A91" s="145"/>
       <c r="B91" s="147" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C91" s="147"/>
       <c r="D91" s="3">
@@ -13651,10 +13697,10 @@
     <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="145"/>
       <c r="B92" s="155" t="s">
+        <v>379</v>
+      </c>
+      <c r="C92" s="155" t="s">
         <v>380</v>
-      </c>
-      <c r="C92" s="155" t="s">
-        <v>381</v>
       </c>
       <c r="D92" s="156">
         <f>SUM(D91:D91)</f>
@@ -13666,10 +13712,10 @@
     <row r="93" spans="1:8" ht="13.5" thickTop="1">
       <c r="A93" s="145"/>
       <c r="B93" s="147" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C93" s="147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D93" s="3">
         <v>794.6</v>
@@ -13680,10 +13726,10 @@
     <row r="94" spans="1:8">
       <c r="A94" s="145"/>
       <c r="B94" s="147" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C94" s="147" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D94" s="3">
         <v>-30</v>
@@ -13694,10 +13740,10 @@
     <row r="95" spans="1:8" ht="13.5" thickBot="1">
       <c r="A95" s="145"/>
       <c r="B95" s="157" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C95" s="147" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D95" s="3">
         <f>F84*-1</f>
@@ -13709,10 +13755,10 @@
     <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A96" s="147"/>
       <c r="B96" s="158" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C96" s="159" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D96" s="156">
         <f>SUM(D92:D95)</f>
@@ -13726,7 +13772,7 @@
         <v>45412</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D97" s="3">
         <v>24000</v>
@@ -13734,7 +13780,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="B98" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D98" s="3">
         <v>1000</v>
@@ -13742,17 +13788,17 @@
     </row>
     <row r="99" spans="1:4">
       <c r="B99" s="178" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="D101" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D102" s="3">
         <v>2</v>
@@ -13831,7 +13877,7 @@
     <row r="114" spans="1:5">
       <c r="A114" s="148"/>
       <c r="B114" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D114" s="3">
         <v>7000</v>
@@ -13849,7 +13895,7 @@
         <v>3.5264483627204029</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="14.25" thickTop="1" thickBot="1">
@@ -13870,7 +13916,7 @@
         <v>2.904564315352697</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -13908,12 +13954,12 @@
     <row r="1" spans="1:7">
       <c r="A1" s="161"/>
       <c r="B1" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="G1" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -13931,7 +13977,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -13992,7 +14038,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="164" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
@@ -14020,7 +14066,7 @@
         <v>44957</v>
       </c>
       <c r="B9" s="141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9">
         <v>6.65</v>
@@ -14039,7 +14085,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="167"/>
       <c r="B10" s="141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10">
         <v>3.15</v>
@@ -14057,7 +14103,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="167"/>
       <c r="B11" s="141" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11">
         <v>2.29</v>
@@ -14075,7 +14121,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="167"/>
       <c r="B12" s="141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12">
         <v>2.39</v>
@@ -14095,7 +14141,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="167"/>
       <c r="B13" s="141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13">
         <v>0.04</v>
@@ -14115,7 +14161,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="167"/>
       <c r="B14" s="141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C14">
         <v>3.92</v>
@@ -14133,7 +14179,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="167"/>
       <c r="B15" s="141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15">
         <v>9.49</v>
@@ -14153,7 +14199,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="167"/>
       <c r="B16" s="141" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16">
         <v>9.09</v>
@@ -14171,7 +14217,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="167"/>
       <c r="B17" s="141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17">
         <v>4.75</v>
@@ -14189,7 +14235,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="167"/>
       <c r="B18" s="141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C18">
         <v>3.43</v>
@@ -14209,7 +14255,7 @@
         <v>45260</v>
       </c>
       <c r="B19" s="141" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19">
         <v>42.645099999999999</v>
@@ -14231,7 +14277,7 @@
         <v>45291</v>
       </c>
       <c r="B20" s="141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C20">
         <v>2.93</v>
@@ -14260,7 +14306,7 @@
         <v>45322</v>
       </c>
       <c r="B22" s="142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22">
         <v>6.71</v>
@@ -14277,7 +14323,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="167"/>
       <c r="B23" s="142" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23">
         <v>4.53</v>
@@ -14295,7 +14341,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="167"/>
       <c r="B24" s="142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24">
         <v>3.16</v>
@@ -14313,7 +14359,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="167"/>
       <c r="B25" s="144" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C25"/>
       <c r="E25" s="60"/>
@@ -14330,7 +14376,7 @@
         <v>45397</v>
       </c>
       <c r="B26" s="142" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C26">
         <v>3.18</v>
@@ -14350,7 +14396,7 @@
     <row r="27" spans="1:7">
       <c r="A27" s="167"/>
       <c r="B27" s="144" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27"/>
       <c r="E27" s="60"/>
@@ -14365,7 +14411,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="167"/>
       <c r="B28" s="143" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C28">
         <v>3.37</v>
@@ -14383,7 +14429,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="167"/>
       <c r="B29" s="143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C29">
         <v>3.6</v>
@@ -14401,7 +14447,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="167"/>
       <c r="B30" s="143" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C30">
         <v>3.6</v>
@@ -14419,7 +14465,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="167"/>
       <c r="B31" s="143" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C31"/>
       <c r="E31" s="60">
@@ -14435,7 +14481,7 @@
     <row r="32" spans="1:7">
       <c r="A32" s="167"/>
       <c r="B32" s="143" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C32"/>
       <c r="E32" s="60">
@@ -14451,7 +14497,7 @@
     <row r="33" spans="1:13">
       <c r="A33" s="167"/>
       <c r="B33" s="143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33"/>
       <c r="E33" s="60">
@@ -14467,7 +14513,7 @@
     <row r="34" spans="1:13">
       <c r="A34" s="167"/>
       <c r="B34" s="143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34"/>
       <c r="E34" s="60">
@@ -14483,7 +14529,7 @@
     <row r="35" spans="1:13">
       <c r="A35" s="167"/>
       <c r="B35" s="143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35"/>
       <c r="E35" s="60">
@@ -14499,7 +14545,7 @@
     <row r="36" spans="1:13">
       <c r="A36" s="167"/>
       <c r="B36" s="143" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36"/>
       <c r="E36" s="60">
@@ -14515,7 +14561,7 @@
     <row r="37" spans="1:13">
       <c r="A37" s="167"/>
       <c r="B37" s="143" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C37"/>
       <c r="E37" s="60">
@@ -14531,7 +14577,7 @@
     <row r="38" spans="1:13">
       <c r="A38" s="167"/>
       <c r="B38" s="143" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38"/>
       <c r="E38" s="60">
@@ -14547,7 +14593,7 @@
     <row r="39" spans="1:13">
       <c r="A39" s="167"/>
       <c r="B39" s="143" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C39"/>
       <c r="E39" s="60">
@@ -14595,7 +14641,7 @@
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -14619,7 +14665,7 @@
     <row r="44" spans="1:13">
       <c r="A44" s="163"/>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -14714,7 +14760,7 @@
     <row r="49" spans="1:13">
       <c r="A49" s="163"/>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -14730,7 +14776,7 @@
     <row r="50" spans="1:13">
       <c r="A50" s="163"/>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -14746,7 +14792,7 @@
     <row r="51" spans="1:13">
       <c r="A51" s="163"/>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -14762,7 +14808,7 @@
     <row r="52" spans="1:13">
       <c r="A52" s="163"/>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -14878,10 +14924,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="166" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="40"/>
@@ -14926,7 +14972,7 @@
     <row r="63" spans="1:13">
       <c r="A63" s="167"/>
       <c r="B63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -14946,7 +14992,7 @@
     <row r="65" spans="1:7">
       <c r="A65" s="167"/>
       <c r="B65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C65"/>
       <c r="E65" s="3">
@@ -14962,7 +15008,7 @@
         <v>44651</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C66"/>
       <c r="F66">
@@ -14978,7 +15024,7 @@
         <v>44681</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C67"/>
       <c r="F67">
@@ -14994,7 +15040,7 @@
         <v>44711</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C68"/>
       <c r="F68">
@@ -15010,7 +15056,7 @@
         <v>44742</v>
       </c>
       <c r="B69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C69"/>
       <c r="F69"/>
@@ -15024,7 +15070,7 @@
         <v>44772</v>
       </c>
       <c r="B70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C70"/>
       <c r="F70"/>
@@ -15038,7 +15084,7 @@
         <v>44803</v>
       </c>
       <c r="B71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C71"/>
       <c r="F71"/>
@@ -15058,7 +15104,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="B73" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -15068,7 +15114,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="B74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -15154,7 +15200,7 @@
         <v>45315</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -15167,7 +15213,7 @@
         <v>45236</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -15178,7 +15224,7 @@
         <v>45236</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -15197,7 +15243,7 @@
         <v>45236</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -15205,7 +15251,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -15213,7 +15259,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="B89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -15221,7 +15267,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -15229,7 +15275,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="B91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
@@ -15237,7 +15283,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="B92" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -15253,10 +15299,10 @@
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -15264,7 +15310,7 @@
         <v>45236</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C95">
         <v>0.65</v>
@@ -15294,18 +15340,18 @@
       </c>
       <c r="B98"/>
       <c r="E98" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="F98" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="F98" s="63" t="s">
+      <c r="G98" s="63" t="s">
         <v>181</v>
-      </c>
-      <c r="G98" s="63" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="25.5">
       <c r="B99" s="63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C99" s="3">
         <v>11.5</v>
@@ -15316,7 +15362,7 @@
     </row>
     <row r="100" spans="1:11" ht="38.25">
       <c r="B100" s="64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C100" s="3">
         <v>12</v>
@@ -15333,7 +15379,7 @@
     </row>
     <row r="101" spans="1:11" ht="37.5" customHeight="1">
       <c r="B101" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C101" s="3">
         <v>14</v>
@@ -15364,7 +15410,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="B104" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G104" s="3">
         <f t="shared" ref="G104:G115" si="5">G103+E104-F104</f>
@@ -15374,7 +15420,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="B105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
@@ -15389,7 +15435,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="B106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
@@ -15405,7 +15451,7 @@
     <row r="107" spans="1:11">
       <c r="A107" s="171"/>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
@@ -15421,7 +15467,7 @@
     <row r="108" spans="1:11">
       <c r="A108" s="171"/>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
@@ -15437,7 +15483,7 @@
     <row r="109" spans="1:11">
       <c r="A109" s="172"/>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C109"/>
       <c r="D109"/>
@@ -15452,7 +15498,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="B110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
@@ -15468,7 +15514,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="B111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
@@ -15484,7 +15530,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="B112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
@@ -15500,7 +15546,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="B113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
@@ -15530,7 +15576,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="B115" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -15559,7 +15605,7 @@
     <row r="118" spans="1:11">
       <c r="A118" s="167"/>
       <c r="B118" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C118" s="66"/>
       <c r="D118" s="66"/>
@@ -15569,7 +15615,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="167"/>
       <c r="B119" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
@@ -15585,7 +15631,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="167"/>
       <c r="B120" s="72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -15600,7 +15646,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="B121" s="74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -15615,7 +15661,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="B122" s="75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
@@ -15627,7 +15673,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="B123" s="75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
@@ -15640,7 +15686,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="B124" s="75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
@@ -15653,7 +15699,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="B125" s="76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
@@ -15666,7 +15712,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="B126" s="75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
@@ -15679,7 +15725,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="B127" s="72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -15710,7 +15756,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="B130" s="78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
@@ -15723,7 +15769,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="B131" s="75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
@@ -15735,7 +15781,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="B132" s="75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -15747,7 +15793,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="B133" s="79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
@@ -15759,7 +15805,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="B134" s="78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
@@ -15782,7 +15828,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="B136" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
@@ -15797,7 +15843,7 @@
     </row>
     <row r="137" spans="1:7" ht="13.5" thickBot="1">
       <c r="B137" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C137" s="81"/>
       <c r="D137" s="81"/>
@@ -15817,14 +15863,14 @@
     </row>
     <row r="139" spans="1:7">
       <c r="B139" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F139" s="51"/>
       <c r="G139" s="51"/>
     </row>
     <row r="140" spans="1:7">
       <c r="B140" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
@@ -15835,7 +15881,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="B141" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -15846,7 +15892,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="B142" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
@@ -15860,7 +15906,7 @@
         <v>45015</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
@@ -15871,7 +15917,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="B144" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -15902,15 +15948,15 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="B148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C148"/>
       <c r="D148"/>
@@ -15920,7 +15966,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="B149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
@@ -15931,7 +15977,7 @@
     <row r="150" spans="1:7">
       <c r="A150" s="167"/>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
@@ -15943,7 +15989,7 @@
     <row r="151" spans="1:7">
       <c r="A151" s="167"/>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
@@ -15961,10 +16007,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFC9CE6-0D54-443A-AAB2-0B9FD02F7EE3}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="B4:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A45" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15986,12 +16035,12 @@
   <sheetData>
     <row r="4" spans="2:10">
       <c r="C4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="C6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="3">
         <v>48000</v>
@@ -16008,7 +16057,7 @@
         <v>44651</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -16025,7 +16074,7 @@
         <v>44681</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -16042,7 +16091,7 @@
         <v>44711</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -16059,7 +16108,7 @@
         <v>44742</v>
       </c>
       <c r="C10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -16073,7 +16122,7 @@
         <v>44772</v>
       </c>
       <c r="C11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -16087,7 +16136,7 @@
         <v>44803</v>
       </c>
       <c r="C12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -16101,34 +16150,34 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E15" s="186" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10">
       <c r="D16" s="186" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E16" s="186" t="s">
+        <v>457</v>
+      </c>
+      <c r="F16" s="85" t="s">
         <v>458</v>
       </c>
-      <c r="F16" s="85" t="s">
-        <v>459</v>
-      </c>
       <c r="G16" s="186" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H16" s="186" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -16137,7 +16186,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17">
         <v>6.65</v>
@@ -16156,7 +16205,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="C18" s="141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18">
         <v>3.15</v>
@@ -16177,7 +16226,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="C19" s="141" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D19">
         <v>2.29</v>
@@ -16198,7 +16247,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="C20" s="141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D20">
         <v>2.39</v>
@@ -16221,7 +16270,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="C21" s="141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D21">
         <v>0.04</v>
@@ -16244,7 +16293,7 @@
     </row>
     <row r="22" spans="2:8">
       <c r="C22" s="141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22">
         <v>3.92</v>
@@ -16265,7 +16314,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="C23" s="141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23">
         <v>9.49</v>
@@ -16288,7 +16337,7 @@
     </row>
     <row r="24" spans="2:8">
       <c r="C24" s="141" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D24">
         <v>9.09</v>
@@ -16309,7 +16358,7 @@
     </row>
     <row r="25" spans="2:8">
       <c r="C25" s="141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D25">
         <v>4.75</v>
@@ -16330,7 +16379,7 @@
     </row>
     <row r="26" spans="2:8">
       <c r="C26" s="141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D26">
         <v>3.43</v>
@@ -16351,7 +16400,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="C27" s="141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D27">
         <v>3.28</v>
@@ -16377,7 +16426,7 @@
         <v>45291</v>
       </c>
       <c r="C28" s="141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D28">
         <v>2.93</v>
@@ -16401,7 +16450,7 @@
         <v>45322</v>
       </c>
       <c r="C29" s="142" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D29">
         <v>6.71</v>
@@ -16421,7 +16470,7 @@
     </row>
     <row r="30" spans="2:8">
       <c r="C30" s="142" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D30">
         <v>4.53</v>
@@ -16442,7 +16491,7 @@
     </row>
     <row r="31" spans="2:8">
       <c r="C31" s="142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D31">
         <v>3.16</v>
@@ -16463,7 +16512,7 @@
     </row>
     <row r="32" spans="2:8">
       <c r="C32" s="144" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E32" s="60">
         <v>3795</v>
@@ -16480,7 +16529,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="C33" s="144" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E33" s="60">
         <v>5600</v>
@@ -16497,7 +16546,7 @@
     </row>
     <row r="34" spans="2:8">
       <c r="C34" s="143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E34" s="60">
         <v>278.97000000000003</v>
@@ -16514,7 +16563,7 @@
     </row>
     <row r="35" spans="2:8">
       <c r="C35" s="143" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E35" s="60">
         <v>10000</v>
@@ -16531,7 +16580,7 @@
     </row>
     <row r="36" spans="2:8">
       <c r="C36" s="142" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D36">
         <v>3.18</v>
@@ -16554,7 +16603,7 @@
     </row>
     <row r="37" spans="2:8">
       <c r="C37" s="190" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D37">
         <v>3.37</v>
@@ -16575,7 +16624,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="C38" s="190" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D38" s="143">
         <v>1.64</v>
@@ -16596,7 +16645,7 @@
     </row>
     <row r="39" spans="2:8">
       <c r="C39" s="190" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" s="143">
         <v>3.23</v>
@@ -16617,7 +16666,7 @@
     </row>
     <row r="40" spans="2:8">
       <c r="C40" s="190" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D40" s="143">
         <v>2.4700000000000002</v>
@@ -16638,7 +16687,7 @@
     </row>
     <row r="41" spans="2:8">
       <c r="C41" s="190" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D41" s="143">
         <v>2.97</v>
@@ -16659,10 +16708,10 @@
     </row>
     <row r="42" spans="2:8">
       <c r="C42" s="191" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D42" s="143">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="E42" s="187">
         <f t="shared" si="5"/>
@@ -16680,27 +16729,27 @@
     </row>
     <row r="43" spans="2:8">
       <c r="C43" s="143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D43" s="143">
-        <v>5</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E43" s="60">
         <f t="shared" si="5"/>
-        <v>19972.977418573162</v>
+        <v>19569.713493550542</v>
       </c>
       <c r="F43" s="187">
         <f>E43</f>
-        <v>19972.977418573162</v>
+        <v>19569.713493550542</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="3"/>
-        <v>101389.92718176162</v>
+        <v>100986.663256739</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="C44" s="143" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D44" s="143"/>
       <c r="E44" s="60"/>
@@ -16709,39 +16758,42 @@
       </c>
       <c r="H44" s="3">
         <f t="shared" si="3"/>
-        <v>106389.92718176162</v>
+        <v>105986.663256739</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="C45" s="143" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D45" s="143"/>
       <c r="E45" s="60"/>
       <c r="F45" s="187"/>
       <c r="G45">
-        <v>185000</v>
+        <v>148500</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="3"/>
-        <v>-78610.072818238375</v>
+        <v>-42513.336743260996</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="C46" s="143" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="D46" s="143">
+        <v>1.03</v>
       </c>
       <c r="E46" s="60">
         <f>E43+(E43*D43/100)</f>
-        <v>20971.626289501819</v>
+        <v>20008.075075806075</v>
       </c>
       <c r="F46" s="187">
         <f>E46</f>
-        <v>20971.626289501819</v>
+        <v>20008.075075806075</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="3"/>
-        <v>-57638.44652873656</v>
+        <v>-22505.261667454921</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -16749,18 +16801,22 @@
         <v>2025</v>
       </c>
       <c r="C47" s="142" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="D47" s="143">
+        <v>5.03</v>
       </c>
       <c r="E47" s="60">
-        <v>25000</v>
-      </c>
-      <c r="F47" s="187">
-        <f>E47</f>
-        <v>25000</v>
+        <f t="shared" ref="E47" si="6">E46+(E46*D46/100)</f>
+        <v>20214.158249086879</v>
+      </c>
+      <c r="F47" s="193">
+        <f>E46</f>
+        <v>20008.075075806075</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="3"/>
-        <v>-32638.44652873656</v>
+        <v>-2497.1865916488459</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -16769,89 +16825,83 @@
       <c r="F48" s="60"/>
       <c r="H48" s="3">
         <f t="shared" si="3"/>
-        <v>-32638.44652873656</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="C49" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="E49" s="60">
-        <v>26000</v>
-      </c>
-      <c r="F49" s="187">
-        <f>E49</f>
-        <v>26000</v>
-      </c>
-      <c r="H49" s="3">
+        <v>-2497.1865916488459</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="255">
+        <v>45691</v>
+      </c>
+      <c r="C49" s="256" t="s">
+        <v>475</v>
+      </c>
+      <c r="D49" s="256"/>
+      <c r="E49" s="257"/>
+      <c r="F49" s="257"/>
+      <c r="G49" s="256"/>
+      <c r="H49" s="258">
         <f t="shared" si="3"/>
-        <v>-6638.4465287365601</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="C50" s="142" t="s">
-        <v>276</v>
-      </c>
-      <c r="E50" s="60">
-        <v>27000</v>
-      </c>
-      <c r="F50" s="187">
-        <f>E50</f>
-        <v>27000</v>
-      </c>
+        <v>-2497.1865916488459</v>
+      </c>
+      <c r="I49" s="256"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="C50" s="142"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="187"/>
       <c r="H50" s="3">
         <f t="shared" si="3"/>
-        <v>20361.55347126344</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
+        <v>-2497.1865916488459</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
       <c r="C51" s="143"/>
       <c r="E51" s="60"/>
       <c r="F51" s="60"/>
       <c r="H51" s="29"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:9">
       <c r="C52" s="143"/>
       <c r="E52" s="60"/>
       <c r="F52" s="60"/>
       <c r="H52" s="29"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:9">
       <c r="C53" s="143"/>
       <c r="E53" s="60"/>
       <c r="F53" s="60"/>
       <c r="H53" s="29"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:9">
       <c r="B58" s="92">
         <v>45421</v>
       </c>
       <c r="C58" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" s="92"/>
       <c r="C59" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" s="92"/>
       <c r="C60" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" s="92"/>
       <c r="C61" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62" s="92"/>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:9">
       <c r="B63" s="92"/>
     </row>
     <row r="65" spans="2:8">
@@ -16859,7 +16909,7 @@
         <v>44957</v>
       </c>
       <c r="C65" s="141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D65">
         <v>6.65</v>
@@ -16878,49 +16928,49 @@
     </row>
     <row r="66" spans="2:8">
       <c r="C66" s="141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D66">
         <v>3.15</v>
       </c>
       <c r="E66" s="60">
-        <f t="shared" ref="E66:E71" si="6">E65+(E65*D65/100)</f>
+        <f t="shared" ref="E66:E71" si="7">E65+(E65*D65/100)</f>
         <v>7380.18</v>
       </c>
       <c r="F66" s="60"/>
       <c r="G66" s="25"/>
       <c r="H66" s="3">
-        <f t="shared" ref="H66:H90" si="7">E66-G66+H65</f>
+        <f t="shared" ref="H66:H90" si="8">E66-G66+H65</f>
         <v>7380.18</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="C67" s="141" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D67">
         <v>2.29</v>
       </c>
       <c r="E67" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7612.6556700000001</v>
       </c>
       <c r="F67" s="60"/>
       <c r="G67" s="25"/>
       <c r="H67" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14992.83567</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="C68" s="141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D68">
         <v>2.39</v>
       </c>
       <c r="E68" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7786.9854848430004</v>
       </c>
       <c r="F68" s="60"/>
@@ -16928,19 +16978,19 @@
         <v>8425.4599999999991</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14354.361154843002</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="C69" s="141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D69">
         <v>0.04</v>
       </c>
       <c r="E69" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7973.0944379307484</v>
       </c>
       <c r="F69" s="60"/>
@@ -16948,37 +16998,37 @@
         <v>28080</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
     <row r="70" spans="2:8">
       <c r="C70" s="141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D70">
         <v>3.92</v>
       </c>
       <c r="E70" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7976.2836757059204</v>
       </c>
       <c r="F70" s="60"/>
       <c r="G70" s="28"/>
       <c r="H70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="C71" s="141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D71">
         <v>9.49</v>
       </c>
       <c r="E71" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F71" s="60"/>
@@ -16986,13 +17036,13 @@
         <v>50000</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
     <row r="72" spans="2:8">
       <c r="C72" s="141" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D72">
         <v>9.09</v>
@@ -17004,55 +17054,55 @@
       <c r="F72" s="60"/>
       <c r="G72" s="28"/>
       <c r="H72" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="C73" s="141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D73">
         <v>4.75</v>
       </c>
       <c r="E73" s="60">
-        <f t="shared" ref="E73:E76" si="8">E72</f>
+        <f t="shared" ref="E73:E76" si="9">E72</f>
         <v>8288.9539957935922</v>
       </c>
       <c r="F73" s="60"/>
       <c r="G73" s="28"/>
       <c r="H73" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
     <row r="74" spans="2:8">
       <c r="C74" s="141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D74">
         <v>3.43</v>
       </c>
       <c r="E74" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F74" s="60"/>
       <c r="G74" s="28"/>
       <c r="H74" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
     <row r="75" spans="2:8">
       <c r="C75" s="141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D75">
         <v>3.28</v>
       </c>
       <c r="E75" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F75" s="60"/>
@@ -17060,7 +17110,7 @@
         <v>15887.06</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
@@ -17069,19 +17119,19 @@
         <v>45291</v>
       </c>
       <c r="C76" s="141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D76">
         <v>2.93</v>
       </c>
       <c r="E76" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F76" s="60"/>
       <c r="G76" s="28"/>
       <c r="H76" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
@@ -17090,7 +17140,7 @@
         <v>45322</v>
       </c>
       <c r="C77" s="142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D77">
         <v>6.71</v>
@@ -17101,49 +17151,49 @@
       <c r="F77" s="60"/>
       <c r="G77" s="28"/>
       <c r="H77" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70.403243241227756</v>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="C78" s="142" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D78">
         <v>4.53</v>
       </c>
       <c r="E78" s="60">
-        <f t="shared" ref="E78:E79" si="9">E77+(E77*D77/100)</f>
+        <f t="shared" ref="E78:E79" si="10">E77+(E77*D77/100)</f>
         <v>14939.4</v>
       </c>
       <c r="F78" s="60"/>
       <c r="G78" s="28"/>
       <c r="H78" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15009.803243241227</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="C79" s="142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D79">
         <v>3.16</v>
       </c>
       <c r="E79" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15616.15482</v>
       </c>
       <c r="F79" s="60"/>
       <c r="G79" s="28"/>
       <c r="H79" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30625.958063241225</v>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="C80" s="144" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E80" s="60"/>
       <c r="F80" s="60"/>
@@ -17151,13 +17201,13 @@
         <v>-3795</v>
       </c>
       <c r="H80" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34420.958063241225</v>
       </c>
     </row>
     <row r="81" spans="3:8">
       <c r="C81" s="142" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D81">
         <v>3.16</v>
@@ -17177,7 +17227,7 @@
     </row>
     <row r="82" spans="3:8">
       <c r="C82" s="144" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82">
         <v>5.54</v>
@@ -17194,7 +17244,7 @@
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="143" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E83" s="60">
         <f>E81+(E81*D82/100)</f>
@@ -17209,7 +17259,7 @@
     </row>
     <row r="84" spans="3:8">
       <c r="C84" s="143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E84" s="60">
         <f>E83+(E83*D83/100)</f>
@@ -17217,91 +17267,91 @@
       </c>
       <c r="F84" s="60"/>
       <c r="H84" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5134.7804847813895</v>
       </c>
     </row>
     <row r="85" spans="3:8">
       <c r="C85" s="143" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E85" s="60">
-        <f t="shared" ref="E85:E90" si="10">E84+(E84*D84/100)</f>
+        <f t="shared" ref="E85:E90" si="11">E84+(E84*D84/100)</f>
         <v>17002.098554614084</v>
       </c>
       <c r="F85" s="60"/>
       <c r="H85" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22136.879039395473</v>
       </c>
     </row>
     <row r="86" spans="3:8">
       <c r="C86" s="143" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E86" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F86" s="60"/>
       <c r="H86" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39138.977594009557</v>
       </c>
     </row>
     <row r="87" spans="3:8">
       <c r="C87" s="143" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E87" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F87" s="60"/>
       <c r="H87" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56141.076148623644</v>
       </c>
     </row>
     <row r="88" spans="3:8">
       <c r="C88" s="143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E88" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F88" s="60"/>
       <c r="H88" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>73143.174703237732</v>
       </c>
     </row>
     <row r="89" spans="3:8">
       <c r="C89" s="143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E89" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F89" s="60"/>
       <c r="H89" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90145.273257851819</v>
       </c>
     </row>
     <row r="90" spans="3:8">
       <c r="C90" s="143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E90" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F90" s="60"/>
       <c r="H90" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>107147.37181246591</v>
       </c>
     </row>

--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C643330-70A0-47A4-BE96-FE032519A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8D6108-6187-465B-943D-5CFFE69D7C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="SnyE502-22" sheetId="5" r:id="rId7"/>
     <sheet name="SnyF601-22" sheetId="6" r:id="rId8"/>
     <sheet name="snyF-HSP" sheetId="15" r:id="rId9"/>
-    <sheet name="SnyG702-22" sheetId="7" r:id="rId10"/>
-    <sheet name="SnH_yazıhane" sheetId="8" r:id="rId11"/>
-    <sheet name="NAZAN_25" sheetId="19" r:id="rId12"/>
-    <sheet name="NAZAN_24" sheetId="16" r:id="rId13"/>
+    <sheet name="snyF-HSP (2025)" sheetId="20" r:id="rId10"/>
+    <sheet name="SnyG702-22" sheetId="7" r:id="rId11"/>
+    <sheet name="SnH_yazıhane" sheetId="8" r:id="rId12"/>
+    <sheet name="NAZAN_25" sheetId="19" r:id="rId13"/>
+    <sheet name="NAZAN_24" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="482">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1546,12 +1547,25 @@
   <si>
     <t>Tahliye taahütnamesi avukata verildi.</t>
   </si>
+  <si>
+    <t>b.fiyat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20-06-2022  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10-05-2022</t>
+  </si>
+  <si>
+    <t>icradan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="20">
+  <numFmts count="21">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy;@"/>
     <numFmt numFmtId="165" formatCode="[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
@@ -1994,7 +2008,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2277,8 +2291,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2518,8 +2538,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
@@ -2544,8 +2579,9 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2997,8 +3033,55 @@
     <xf numFmtId="180" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="48" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="23">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3020,6 +3103,7 @@
     <cellStyle name="Result" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Status" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Text" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Virgül" xfId="22" builtinId="3"/>
     <cellStyle name="Warning" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3825,6 +3909,1033 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D4C3FD-4A16-44DB-81EE-49DCD2069EA7}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B4:J54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10">
+      <c r="E4" s="186"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="261"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="262" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" s="262" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="263" t="s">
+        <v>458</v>
+      </c>
+      <c r="G5" s="262" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="262" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="261"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="264"/>
+      <c r="H6" s="264">
+        <f>I4+E6-G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="265">
+        <v>44651</v>
+      </c>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="264">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="264">
+        <v>36000</v>
+      </c>
+      <c r="G7" s="261">
+        <v>28000</v>
+      </c>
+      <c r="H7" s="264">
+        <f t="shared" ref="H7:H18" si="0">F7-G7+H6</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="265">
+        <v>44681</v>
+      </c>
+      <c r="C8" s="266" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" s="261"/>
+      <c r="E8" s="267">
+        <f t="shared" ref="E8:E31" si="1">E7+(E7*D7/100)</f>
+        <v>4000</v>
+      </c>
+      <c r="F8" s="264"/>
+      <c r="G8" s="261">
+        <v>4000</v>
+      </c>
+      <c r="H8" s="264">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="265">
+        <v>44711</v>
+      </c>
+      <c r="C9" s="261" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" s="261"/>
+      <c r="E9" s="267">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F9" s="264"/>
+      <c r="G9" s="261">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="265">
+        <v>44742</v>
+      </c>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="267">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F10" s="264"/>
+      <c r="G10" s="261"/>
+      <c r="H10" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="265">
+        <v>44772</v>
+      </c>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="267">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F11" s="264"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="265">
+        <v>44803</v>
+      </c>
+      <c r="C12" s="261"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="267">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F12" s="264"/>
+      <c r="G12" s="261"/>
+      <c r="H12" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="265">
+        <v>44834</v>
+      </c>
+      <c r="C13" s="261"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="267">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F13" s="261"/>
+      <c r="G13" s="261"/>
+      <c r="H13" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="265">
+        <v>44864</v>
+      </c>
+      <c r="C14" s="261"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="267">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F14" s="264"/>
+      <c r="G14" s="261"/>
+      <c r="H14" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="265">
+        <v>44895</v>
+      </c>
+      <c r="C15" s="261"/>
+      <c r="D15" s="261"/>
+      <c r="E15" s="267">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F15" s="264"/>
+      <c r="G15" s="261"/>
+      <c r="H15" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="265">
+        <v>44925</v>
+      </c>
+      <c r="C16" s="270"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="267">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F16" s="264"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="265">
+        <v>44956</v>
+      </c>
+      <c r="C17" s="261"/>
+      <c r="D17" s="261">
+        <v>6.65</v>
+      </c>
+      <c r="E17" s="267">
+        <v>6920</v>
+      </c>
+      <c r="F17" s="264">
+        <f>E17</f>
+        <v>6920</v>
+      </c>
+      <c r="G17" s="264">
+        <v>6920</v>
+      </c>
+      <c r="H17" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B18" s="278">
+        <v>44985</v>
+      </c>
+      <c r="C18" s="279"/>
+      <c r="D18" s="279">
+        <v>3.15</v>
+      </c>
+      <c r="E18" s="267">
+        <f t="shared" si="1"/>
+        <v>7380.18</v>
+      </c>
+      <c r="F18" s="267">
+        <f t="shared" ref="F18:F23" si="2">E18</f>
+        <v>7380.18</v>
+      </c>
+      <c r="G18" s="280"/>
+      <c r="H18" s="280">
+        <f t="shared" si="0"/>
+        <v>7380.18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B19" s="273">
+        <v>45015</v>
+      </c>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274">
+        <v>2.29</v>
+      </c>
+      <c r="E19" s="275">
+        <f t="shared" si="1"/>
+        <v>7612.6556700000001</v>
+      </c>
+      <c r="F19" s="275">
+        <f t="shared" si="2"/>
+        <v>7612.6556700000001</v>
+      </c>
+      <c r="G19" s="276"/>
+      <c r="H19" s="283">
+        <f t="shared" ref="H19:H51" si="3">F19-G19+H18</f>
+        <v>14992.83567</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="266">
+        <v>45046</v>
+      </c>
+      <c r="C20" s="293" t="s">
+        <v>481</v>
+      </c>
+      <c r="D20" s="261">
+        <v>2.39</v>
+      </c>
+      <c r="E20" s="267">
+        <f t="shared" si="1"/>
+        <v>7786.9854848430004</v>
+      </c>
+      <c r="F20" s="267">
+        <f t="shared" si="2"/>
+        <v>7786.9854848430004</v>
+      </c>
+      <c r="G20" s="272">
+        <v>8425.4599999999991</v>
+      </c>
+      <c r="H20" s="264">
+        <f t="shared" si="3"/>
+        <v>14354.361154843002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="266">
+        <v>45076</v>
+      </c>
+      <c r="C21" s="261"/>
+      <c r="D21" s="261">
+        <v>0.04</v>
+      </c>
+      <c r="E21" s="267">
+        <f t="shared" si="1"/>
+        <v>7973.0944379307484</v>
+      </c>
+      <c r="F21" s="267">
+        <f t="shared" si="2"/>
+        <v>7973.0944379307484</v>
+      </c>
+      <c r="G21" s="264">
+        <v>28080</v>
+      </c>
+      <c r="H21" s="264">
+        <f t="shared" si="3"/>
+        <v>-5752.5444072262508</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="266">
+        <v>45107</v>
+      </c>
+      <c r="C22" s="261"/>
+      <c r="D22" s="261">
+        <v>3.92</v>
+      </c>
+      <c r="E22" s="267">
+        <f t="shared" si="1"/>
+        <v>7976.2836757059204</v>
+      </c>
+      <c r="F22" s="267">
+        <f t="shared" si="2"/>
+        <v>7976.2836757059204</v>
+      </c>
+      <c r="G22" s="268"/>
+      <c r="H22" s="264">
+        <f t="shared" si="3"/>
+        <v>2223.7392684796696</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="266">
+        <v>45137</v>
+      </c>
+      <c r="C23" s="261"/>
+      <c r="D23" s="261">
+        <v>9.49</v>
+      </c>
+      <c r="E23" s="294">
+        <f t="shared" si="1"/>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="F23" s="294">
+        <f t="shared" si="2"/>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G23" s="268">
+        <v>50000</v>
+      </c>
+      <c r="H23" s="264">
+        <f t="shared" si="3"/>
+        <v>-39487.306735726735</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="266">
+        <v>45168</v>
+      </c>
+      <c r="C24" s="261"/>
+      <c r="D24" s="261">
+        <v>9.09</v>
+      </c>
+      <c r="E24" s="267">
+        <f t="shared" si="1"/>
+        <v>9075.5757299944034</v>
+      </c>
+      <c r="F24" s="294">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G24" s="268"/>
+      <c r="H24" s="264">
+        <f t="shared" si="3"/>
+        <v>-31198.352739933143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="266">
+        <v>45199</v>
+      </c>
+      <c r="C25" s="261"/>
+      <c r="D25" s="261">
+        <v>4.75</v>
+      </c>
+      <c r="E25" s="267">
+        <f t="shared" si="1"/>
+        <v>9900.5455638508938</v>
+      </c>
+      <c r="F25" s="294">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G25" s="269"/>
+      <c r="H25" s="264">
+        <f t="shared" si="3"/>
+        <v>-22909.398744139551</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="266">
+        <v>45229</v>
+      </c>
+      <c r="C26" s="261"/>
+      <c r="D26" s="261">
+        <v>3.43</v>
+      </c>
+      <c r="E26" s="267">
+        <f t="shared" si="1"/>
+        <v>10370.821478133812</v>
+      </c>
+      <c r="F26" s="294">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G26" s="268"/>
+      <c r="H26" s="264">
+        <f t="shared" si="3"/>
+        <v>-14620.444748345959</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="266">
+        <v>45260</v>
+      </c>
+      <c r="C27" s="261"/>
+      <c r="D27" s="261">
+        <v>3.28</v>
+      </c>
+      <c r="E27" s="267">
+        <f t="shared" si="1"/>
+        <v>10726.540654833801</v>
+      </c>
+      <c r="F27" s="294">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G27" s="268">
+        <v>15887.06</v>
+      </c>
+      <c r="H27" s="264">
+        <f t="shared" si="3"/>
+        <v>-22218.550752552364</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="266">
+        <v>45290</v>
+      </c>
+      <c r="C28" s="261"/>
+      <c r="D28" s="261">
+        <v>2.93</v>
+      </c>
+      <c r="E28" s="267">
+        <f t="shared" si="1"/>
+        <v>11078.371188312351</v>
+      </c>
+      <c r="F28" s="294">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G28" s="268"/>
+      <c r="H28" s="264">
+        <f t="shared" si="3"/>
+        <v>-13929.596756758772</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="266">
+        <v>45321</v>
+      </c>
+      <c r="C29" s="261"/>
+      <c r="D29" s="261">
+        <v>6.71</v>
+      </c>
+      <c r="E29" s="267">
+        <f t="shared" si="1"/>
+        <v>11402.967464129903</v>
+      </c>
+      <c r="F29" s="294">
+        <f>E23</f>
+        <v>8288.9539957935922</v>
+      </c>
+      <c r="G29" s="268"/>
+      <c r="H29" s="264">
+        <f t="shared" si="3"/>
+        <v>-5640.6427609651801</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="278">
+        <v>45350</v>
+      </c>
+      <c r="C30" s="279"/>
+      <c r="D30" s="279">
+        <v>4.53</v>
+      </c>
+      <c r="E30" s="267">
+        <f t="shared" si="1"/>
+        <v>12168.106580973019</v>
+      </c>
+      <c r="F30" s="267">
+        <f t="shared" ref="F30:F36" si="4">E30</f>
+        <v>12168.106580973019</v>
+      </c>
+      <c r="G30" s="268"/>
+      <c r="H30" s="280">
+        <f t="shared" si="3"/>
+        <v>6527.4638200078389</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="273">
+        <v>45381</v>
+      </c>
+      <c r="C31" s="274"/>
+      <c r="D31" s="274">
+        <v>3.16</v>
+      </c>
+      <c r="E31" s="275">
+        <f t="shared" si="1"/>
+        <v>12719.321809091096</v>
+      </c>
+      <c r="F31" s="275">
+        <f t="shared" si="4"/>
+        <v>12719.321809091096</v>
+      </c>
+      <c r="G31" s="277"/>
+      <c r="H31" s="276">
+        <f t="shared" si="3"/>
+        <v>19246.785629098937</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="261"/>
+      <c r="C32" s="282" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="261"/>
+      <c r="E32" s="267">
+        <v>3795</v>
+      </c>
+      <c r="F32" s="267">
+        <f t="shared" si="4"/>
+        <v>3795</v>
+      </c>
+      <c r="G32" s="268"/>
+      <c r="H32" s="264">
+        <f t="shared" si="3"/>
+        <v>23041.785629098937</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="261"/>
+      <c r="C33" s="282" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="261"/>
+      <c r="E33" s="267">
+        <v>5600</v>
+      </c>
+      <c r="F33" s="267">
+        <f t="shared" si="4"/>
+        <v>5600</v>
+      </c>
+      <c r="G33" s="268"/>
+      <c r="H33" s="264">
+        <f t="shared" si="3"/>
+        <v>28641.785629098937</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="261"/>
+      <c r="C34" s="261" t="s">
+        <v>412</v>
+      </c>
+      <c r="D34" s="261"/>
+      <c r="E34" s="267">
+        <v>278.97000000000003</v>
+      </c>
+      <c r="F34" s="267">
+        <f t="shared" si="4"/>
+        <v>278.97000000000003</v>
+      </c>
+      <c r="G34" s="268"/>
+      <c r="H34" s="264">
+        <f t="shared" si="3"/>
+        <v>28920.755629098938</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="261"/>
+      <c r="C35" s="261" t="s">
+        <v>413</v>
+      </c>
+      <c r="D35" s="261"/>
+      <c r="E35" s="267">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="267">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="G35" s="268"/>
+      <c r="H35" s="264">
+        <f t="shared" si="3"/>
+        <v>38920.755629098938</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="266">
+        <v>45412</v>
+      </c>
+      <c r="C36" s="261"/>
+      <c r="D36" s="261">
+        <v>3.18</v>
+      </c>
+      <c r="E36" s="294">
+        <f>E31+(E31*D31/100)</f>
+        <v>13121.252378258374</v>
+      </c>
+      <c r="F36" s="294">
+        <f t="shared" si="4"/>
+        <v>13121.252378258374</v>
+      </c>
+      <c r="G36" s="268">
+        <v>85000</v>
+      </c>
+      <c r="H36" s="264">
+        <f t="shared" si="3"/>
+        <v>-32957.991992642688</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="266">
+        <v>45442</v>
+      </c>
+      <c r="C37" s="279"/>
+      <c r="D37" s="261">
+        <v>3.37</v>
+      </c>
+      <c r="E37" s="267">
+        <f>E36+(E36*D36/100)</f>
+        <v>13538.50820388699</v>
+      </c>
+      <c r="F37" s="294">
+        <f>E36</f>
+        <v>13121.252378258374</v>
+      </c>
+      <c r="G37" s="268"/>
+      <c r="H37" s="264">
+        <f t="shared" si="3"/>
+        <v>-19836.739614384314</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="266">
+        <v>45473</v>
+      </c>
+      <c r="C38" s="279"/>
+      <c r="D38" s="261">
+        <v>1.64</v>
+      </c>
+      <c r="E38" s="267">
+        <f>E37+(E37*D37/100)</f>
+        <v>13994.755930357982</v>
+      </c>
+      <c r="F38" s="267">
+        <f>E38</f>
+        <v>13994.755930357982</v>
+      </c>
+      <c r="G38" s="261"/>
+      <c r="H38" s="264">
+        <f t="shared" si="3"/>
+        <v>-5841.9836840263324</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="266">
+        <v>45503</v>
+      </c>
+      <c r="C39" s="279"/>
+      <c r="D39" s="261">
+        <v>3.23</v>
+      </c>
+      <c r="E39" s="267">
+        <f t="shared" ref="E39:E43" si="5">E38+(E38*D38/100)</f>
+        <v>14224.269927615853</v>
+      </c>
+      <c r="F39" s="267">
+        <f>E39</f>
+        <v>14224.269927615853</v>
+      </c>
+      <c r="G39" s="261"/>
+      <c r="H39" s="264">
+        <f t="shared" si="3"/>
+        <v>8382.2862435895204</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="266">
+        <v>45534</v>
+      </c>
+      <c r="C40" s="279"/>
+      <c r="D40" s="261">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E40" s="267">
+        <f t="shared" si="5"/>
+        <v>14683.713846277846</v>
+      </c>
+      <c r="F40" s="267">
+        <f>E40</f>
+        <v>14683.713846277846</v>
+      </c>
+      <c r="G40" s="261"/>
+      <c r="H40" s="264">
+        <f t="shared" si="3"/>
+        <v>23066.000089867368</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="266">
+        <v>45565</v>
+      </c>
+      <c r="C41" s="279"/>
+      <c r="D41" s="261">
+        <v>2.97</v>
+      </c>
+      <c r="E41" s="267">
+        <f t="shared" si="5"/>
+        <v>15046.401578280909</v>
+      </c>
+      <c r="F41" s="267">
+        <f>E41</f>
+        <v>15046.401578280909</v>
+      </c>
+      <c r="G41" s="261"/>
+      <c r="H41" s="264">
+        <f t="shared" si="3"/>
+        <v>38112.401668148275</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="266">
+        <v>45595</v>
+      </c>
+      <c r="C42" s="270"/>
+      <c r="D42" s="261">
+        <v>2.88</v>
+      </c>
+      <c r="E42" s="267">
+        <f t="shared" si="5"/>
+        <v>15493.279705155852</v>
+      </c>
+      <c r="F42" s="267">
+        <f>E42</f>
+        <v>15493.279705155852</v>
+      </c>
+      <c r="G42" s="270"/>
+      <c r="H42" s="264">
+        <f t="shared" si="3"/>
+        <v>53605.681373304127</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="266">
+        <v>45626</v>
+      </c>
+      <c r="C43" s="279"/>
+      <c r="D43" s="261">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E43" s="267">
+        <f t="shared" si="5"/>
+        <v>15939.486160664341</v>
+      </c>
+      <c r="F43" s="267">
+        <f>E43</f>
+        <v>15939.486160664341</v>
+      </c>
+      <c r="G43" s="261"/>
+      <c r="H43" s="264">
+        <f t="shared" si="3"/>
+        <v>69545.167533968473</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="261"/>
+      <c r="C44" s="293" t="s">
+        <v>481</v>
+      </c>
+      <c r="D44" s="261"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="267"/>
+      <c r="G44" s="281">
+        <v>148500</v>
+      </c>
+      <c r="H44" s="264">
+        <f t="shared" si="3"/>
+        <v>-78954.832466031527</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="261"/>
+      <c r="C45" s="261" t="s">
+        <v>459</v>
+      </c>
+      <c r="D45" s="261"/>
+      <c r="E45" s="267"/>
+      <c r="F45" s="267">
+        <v>8000</v>
+      </c>
+      <c r="G45" s="261"/>
+      <c r="H45" s="264">
+        <f t="shared" si="3"/>
+        <v>-70954.832466031527</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="266">
+        <v>45656</v>
+      </c>
+      <c r="C46" s="261"/>
+      <c r="D46" s="261">
+        <v>1.03</v>
+      </c>
+      <c r="E46" s="294">
+        <f>E43+(E43*D43/100)</f>
+        <v>16296.530650663222</v>
+      </c>
+      <c r="F46" s="294">
+        <f>E46</f>
+        <v>16296.530650663222</v>
+      </c>
+      <c r="G46" s="261"/>
+      <c r="H46" s="264">
+        <f t="shared" si="3"/>
+        <v>-54658.301815368308</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B47" s="266">
+        <v>45687</v>
+      </c>
+      <c r="C47" s="261"/>
+      <c r="D47" s="261">
+        <v>5.03</v>
+      </c>
+      <c r="E47" s="267">
+        <f t="shared" ref="E47" si="6">E46+(E46*D46/100)</f>
+        <v>16464.384916365052</v>
+      </c>
+      <c r="F47" s="294">
+        <f>E46</f>
+        <v>16296.530650663222</v>
+      </c>
+      <c r="G47" s="261"/>
+      <c r="H47" s="264">
+        <f t="shared" si="3"/>
+        <v>-38361.771164705089</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B48" s="288">
+        <v>45716</v>
+      </c>
+      <c r="C48" s="289"/>
+      <c r="D48" s="289">
+        <v>5.03</v>
+      </c>
+      <c r="E48" s="286">
+        <f>E47+(E47*D47/100)</f>
+        <v>17292.543477658215</v>
+      </c>
+      <c r="F48" s="295">
+        <f>E46</f>
+        <v>16296.530650663222</v>
+      </c>
+      <c r="G48" s="289"/>
+      <c r="H48" s="287">
+        <f t="shared" si="3"/>
+        <v>-22065.240514041867</v>
+      </c>
+      <c r="I48" s="261"/>
+      <c r="J48" s="261"/>
+    </row>
+    <row r="49" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B49" s="290">
+        <v>45746</v>
+      </c>
+      <c r="C49" s="291"/>
+      <c r="D49" s="291"/>
+      <c r="E49" s="285">
+        <f>E48+(E48*D48/100)</f>
+        <v>18162.358414584425</v>
+      </c>
+      <c r="F49" s="295">
+        <f>E46</f>
+        <v>16296.530650663222</v>
+      </c>
+      <c r="G49" s="284"/>
+      <c r="H49" s="292">
+        <f t="shared" si="3"/>
+        <v>-5768.7098633786445</v>
+      </c>
+      <c r="I49" s="261"/>
+      <c r="J49" s="261"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="271"/>
+      <c r="G50" s="261"/>
+      <c r="H50" s="264">
+        <f t="shared" si="3"/>
+        <v>-5768.7098633786445</v>
+      </c>
+      <c r="I50" s="261"/>
+      <c r="J50" s="261"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="261"/>
+      <c r="C51" s="261"/>
+      <c r="D51" s="261"/>
+      <c r="E51" s="267"/>
+      <c r="F51" s="267"/>
+      <c r="G51" s="261"/>
+      <c r="H51" s="264">
+        <f t="shared" si="3"/>
+        <v>-5768.7098633786445</v>
+      </c>
+      <c r="I51" s="261"/>
+      <c r="J51" s="261"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="261"/>
+      <c r="C52" s="261"/>
+      <c r="D52" s="261"/>
+      <c r="E52" s="267"/>
+      <c r="F52" s="267"/>
+      <c r="G52" s="261"/>
+      <c r="H52" s="268"/>
+      <c r="I52" s="261"/>
+      <c r="J52" s="261"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="261"/>
+      <c r="C53" s="261"/>
+      <c r="D53" s="261"/>
+      <c r="E53" s="267"/>
+      <c r="F53" s="267"/>
+      <c r="G53" s="261"/>
+      <c r="H53" s="268"/>
+      <c r="I53" s="261"/>
+      <c r="J53" s="261"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="261"/>
+      <c r="C54" s="261"/>
+      <c r="D54" s="261"/>
+      <c r="E54" s="267"/>
+      <c r="F54" s="267"/>
+      <c r="G54" s="261"/>
+      <c r="H54" s="268"/>
+      <c r="I54" s="261"/>
+      <c r="J54" s="261"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
@@ -4621,7 +5732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -5015,7 +6126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F3B4BF-5428-4CFE-9CCD-7224C312B45E}">
   <dimension ref="A2:J53"/>
   <sheetViews>
@@ -5949,7 +7060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J53"/>
   <sheetViews>
@@ -6990,7 +8101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
@@ -16012,7 +17123,7 @@
   </sheetPr>
   <dimension ref="B4:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>

--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8D6108-6187-465B-943D-5CFFE69D7C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740A6770-45EC-497F-9BA2-03BEFBB0B970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,7 +1564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="21">
+  <numFmts count="22">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy;@"/>
     <numFmt numFmtId="165" formatCode="[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0.00"/>
@@ -1586,8 +1586,9 @@
     <numFmt numFmtId="181" formatCode="[$-409]#,##0.00"/>
     <numFmt numFmtId="182" formatCode="[$-41F]#,##0.00"/>
     <numFmt numFmtId="183" formatCode="%0.0000"/>
+    <numFmt numFmtId="185" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2005,6 +2006,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Abyssinica SIL"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans1"/>
       <charset val="162"/>
     </font>
   </fonts>
@@ -2581,7 +2590,7 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3080,6 +3089,7 @@
     </xf>
     <xf numFmtId="4" fontId="17" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="17" fillId="48" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="59" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3915,8 +3925,8 @@
   </sheetPr>
   <dimension ref="B4:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3926,7 +3936,7 @@
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3976,18 +3986,15 @@
       </c>
       <c r="C7" s="261"/>
       <c r="D7" s="261"/>
-      <c r="E7" s="264">
+      <c r="F7" s="264">
         <v>4000</v>
-      </c>
-      <c r="F7" s="264">
-        <v>36000</v>
       </c>
       <c r="G7" s="261">
         <v>28000</v>
       </c>
       <c r="H7" s="264">
-        <f t="shared" ref="H7:H18" si="0">F7-G7+H6</f>
-        <v>8000</v>
+        <f>F7-G7+H6</f>
+        <v>-24000</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -3998,17 +4005,15 @@
         <v>480</v>
       </c>
       <c r="D8" s="261"/>
-      <c r="E8" s="267">
-        <f t="shared" ref="E8:E31" si="1">E7+(E7*D7/100)</f>
+      <c r="F8" s="264">
         <v>4000</v>
       </c>
-      <c r="F8" s="264"/>
       <c r="G8" s="261">
         <v>4000</v>
       </c>
       <c r="H8" s="264">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <f t="shared" ref="H8:H17" si="0">F8-G8+H7</f>
+        <v>-24000</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -4019,17 +4024,15 @@
         <v>479</v>
       </c>
       <c r="D9" s="261"/>
-      <c r="E9" s="267">
-        <f t="shared" si="1"/>
+      <c r="F9" s="264">
         <v>4000</v>
       </c>
-      <c r="F9" s="264"/>
       <c r="G9" s="261">
         <v>4000</v>
       </c>
       <c r="H9" s="264">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-24000</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -4038,15 +4041,13 @@
       </c>
       <c r="C10" s="261"/>
       <c r="D10" s="261"/>
-      <c r="E10" s="267">
-        <f t="shared" si="1"/>
+      <c r="F10" s="264">
         <v>4000</v>
       </c>
-      <c r="F10" s="264"/>
       <c r="G10" s="261"/>
       <c r="H10" s="264">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -4055,15 +4056,13 @@
       </c>
       <c r="C11" s="261"/>
       <c r="D11" s="261"/>
-      <c r="E11" s="267">
-        <f t="shared" si="1"/>
+      <c r="F11" s="264">
         <v>4000</v>
       </c>
-      <c r="F11" s="264"/>
       <c r="G11" s="261"/>
       <c r="H11" s="264">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-16000</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -4072,15 +4071,13 @@
       </c>
       <c r="C12" s="261"/>
       <c r="D12" s="261"/>
-      <c r="E12" s="267">
-        <f t="shared" si="1"/>
+      <c r="F12" s="264">
         <v>4000</v>
       </c>
-      <c r="F12" s="264"/>
       <c r="G12" s="261"/>
       <c r="H12" s="264">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -4089,15 +4086,13 @@
       </c>
       <c r="C13" s="261"/>
       <c r="D13" s="261"/>
-      <c r="E13" s="267">
-        <f t="shared" si="1"/>
+      <c r="F13" s="264">
         <v>4000</v>
       </c>
-      <c r="F13" s="261"/>
       <c r="G13" s="261"/>
       <c r="H13" s="264">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8000</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -4107,15 +4102,13 @@
       </c>
       <c r="C14" s="261"/>
       <c r="D14" s="261"/>
-      <c r="E14" s="267">
-        <f t="shared" si="1"/>
+      <c r="F14" s="264">
         <v>4000</v>
       </c>
-      <c r="F14" s="264"/>
       <c r="G14" s="261"/>
       <c r="H14" s="264">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="J14" s="3"/>
     </row>
@@ -4125,11 +4118,9 @@
       </c>
       <c r="C15" s="261"/>
       <c r="D15" s="261"/>
-      <c r="E15" s="267">
-        <f t="shared" si="1"/>
+      <c r="F15" s="264">
         <v>4000</v>
       </c>
-      <c r="F15" s="264"/>
       <c r="G15" s="261"/>
       <c r="H15" s="264">
         <f t="shared" si="0"/>
@@ -4143,11 +4134,9 @@
       </c>
       <c r="C16" s="270"/>
       <c r="D16" s="261"/>
-      <c r="E16" s="267">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="264">
+        <v>0</v>
+      </c>
       <c r="G16" s="261"/>
       <c r="H16" s="264">
         <f t="shared" si="0"/>
@@ -4187,7 +4176,7 @@
         <v>3.15</v>
       </c>
       <c r="E18" s="267">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E8:F31" si="1">E17+(E17*D17/100)</f>
         <v>7380.18</v>
       </c>
       <c r="F18" s="267">
@@ -4196,7 +4185,7 @@
       </c>
       <c r="G18" s="280"/>
       <c r="H18" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H17:H18" si="3">F18-G18+H17</f>
         <v>7380.18</v>
       </c>
     </row>
@@ -4218,7 +4207,7 @@
       </c>
       <c r="G19" s="276"/>
       <c r="H19" s="283">
-        <f t="shared" ref="H19:H51" si="3">F19-G19+H18</f>
+        <f t="shared" ref="H19:H51" si="4">F19-G19+H18</f>
         <v>14992.83567</v>
       </c>
     </row>
@@ -4244,7 +4233,7 @@
         <v>8425.4599999999991</v>
       </c>
       <c r="H20" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14354.361154843002</v>
       </c>
     </row>
@@ -4268,7 +4257,7 @@
         <v>28080</v>
       </c>
       <c r="H21" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
@@ -4290,7 +4279,7 @@
       </c>
       <c r="G22" s="268"/>
       <c r="H22" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
@@ -4314,7 +4303,7 @@
         <v>50000</v>
       </c>
       <c r="H23" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
@@ -4336,7 +4325,7 @@
       </c>
       <c r="G24" s="268"/>
       <c r="H24" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
@@ -4358,7 +4347,7 @@
       </c>
       <c r="G25" s="269"/>
       <c r="H25" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
@@ -4380,7 +4369,7 @@
       </c>
       <c r="G26" s="268"/>
       <c r="H26" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
@@ -4404,7 +4393,7 @@
         <v>15887.06</v>
       </c>
       <c r="H27" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
@@ -4426,7 +4415,7 @@
       </c>
       <c r="G28" s="268"/>
       <c r="H28" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
@@ -4448,7 +4437,7 @@
       </c>
       <c r="G29" s="268"/>
       <c r="H29" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5640.6427609651801</v>
       </c>
     </row>
@@ -4465,12 +4454,12 @@
         <v>12168.106580973019</v>
       </c>
       <c r="F30" s="267">
-        <f t="shared" ref="F30:F36" si="4">E30</f>
+        <f t="shared" ref="F30:F36" si="5">E30</f>
         <v>12168.106580973019</v>
       </c>
       <c r="G30" s="268"/>
       <c r="H30" s="280">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6527.4638200078389</v>
       </c>
     </row>
@@ -4487,12 +4476,12 @@
         <v>12719.321809091096</v>
       </c>
       <c r="F31" s="275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12719.321809091096</v>
       </c>
       <c r="G31" s="277"/>
       <c r="H31" s="276">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19246.785629098937</v>
       </c>
     </row>
@@ -4506,12 +4495,12 @@
         <v>3795</v>
       </c>
       <c r="F32" s="267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3795</v>
       </c>
       <c r="G32" s="268"/>
       <c r="H32" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23041.785629098937</v>
       </c>
     </row>
@@ -4525,12 +4514,12 @@
         <v>5600</v>
       </c>
       <c r="F33" s="267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5600</v>
       </c>
       <c r="G33" s="268"/>
       <c r="H33" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28641.785629098937</v>
       </c>
     </row>
@@ -4544,12 +4533,12 @@
         <v>278.97000000000003</v>
       </c>
       <c r="F34" s="267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>278.97000000000003</v>
       </c>
       <c r="G34" s="268"/>
       <c r="H34" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28920.755629098938</v>
       </c>
     </row>
@@ -4563,12 +4552,12 @@
         <v>10000</v>
       </c>
       <c r="F35" s="267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G35" s="268"/>
       <c r="H35" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38920.755629098938</v>
       </c>
     </row>
@@ -4585,14 +4574,14 @@
         <v>13121.252378258374</v>
       </c>
       <c r="F36" s="294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13121.252378258374</v>
       </c>
       <c r="G36" s="268">
         <v>85000</v>
       </c>
       <c r="H36" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-32957.991992642688</v>
       </c>
     </row>
@@ -4614,7 +4603,7 @@
       </c>
       <c r="G37" s="268"/>
       <c r="H37" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-19836.739614384314</v>
       </c>
     </row>
@@ -4631,12 +4620,12 @@
         <v>13994.755930357982</v>
       </c>
       <c r="F38" s="267">
-        <f>E38</f>
+        <f t="shared" ref="F38:F43" si="6">E38</f>
         <v>13994.755930357982</v>
       </c>
       <c r="G38" s="261"/>
       <c r="H38" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5841.9836840263324</v>
       </c>
     </row>
@@ -4649,16 +4638,16 @@
         <v>3.23</v>
       </c>
       <c r="E39" s="267">
-        <f t="shared" ref="E39:E43" si="5">E38+(E38*D38/100)</f>
+        <f t="shared" ref="E39:E43" si="7">E38+(E38*D38/100)</f>
         <v>14224.269927615853</v>
       </c>
       <c r="F39" s="267">
-        <f>E39</f>
+        <f t="shared" si="6"/>
         <v>14224.269927615853</v>
       </c>
       <c r="G39" s="261"/>
       <c r="H39" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8382.2862435895204</v>
       </c>
     </row>
@@ -4671,16 +4660,16 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="E40" s="267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14683.713846277846</v>
       </c>
       <c r="F40" s="267">
-        <f>E40</f>
+        <f t="shared" si="6"/>
         <v>14683.713846277846</v>
       </c>
       <c r="G40" s="261"/>
       <c r="H40" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23066.000089867368</v>
       </c>
     </row>
@@ -4693,16 +4682,16 @@
         <v>2.97</v>
       </c>
       <c r="E41" s="267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15046.401578280909</v>
       </c>
       <c r="F41" s="267">
-        <f>E41</f>
+        <f t="shared" si="6"/>
         <v>15046.401578280909</v>
       </c>
       <c r="G41" s="261"/>
       <c r="H41" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38112.401668148275</v>
       </c>
     </row>
@@ -4715,16 +4704,16 @@
         <v>2.88</v>
       </c>
       <c r="E42" s="267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15493.279705155852</v>
       </c>
       <c r="F42" s="267">
-        <f>E42</f>
+        <f t="shared" si="6"/>
         <v>15493.279705155852</v>
       </c>
       <c r="G42" s="270"/>
       <c r="H42" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53605.681373304127</v>
       </c>
     </row>
@@ -4737,16 +4726,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="E43" s="267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15939.486160664341</v>
       </c>
       <c r="F43" s="267">
-        <f>E43</f>
+        <f t="shared" si="6"/>
         <v>15939.486160664341</v>
       </c>
       <c r="G43" s="261"/>
       <c r="H43" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69545.167533968473</v>
       </c>
     </row>
@@ -4762,7 +4751,7 @@
         <v>148500</v>
       </c>
       <c r="H44" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-78954.832466031527</v>
       </c>
     </row>
@@ -4778,7 +4767,7 @@
       </c>
       <c r="G45" s="261"/>
       <c r="H45" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-70954.832466031527</v>
       </c>
     </row>
@@ -4800,7 +4789,7 @@
       </c>
       <c r="G46" s="261"/>
       <c r="H46" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-54658.301815368308</v>
       </c>
     </row>
@@ -4813,8 +4802,7 @@
         <v>5.03</v>
       </c>
       <c r="E47" s="267">
-        <f t="shared" ref="E47" si="6">E46+(E46*D46/100)</f>
-        <v>16464.384916365052</v>
+        <v>22104</v>
       </c>
       <c r="F47" s="294">
         <f>E46</f>
@@ -4822,7 +4810,7 @@
       </c>
       <c r="G47" s="261"/>
       <c r="H47" s="264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-38361.771164705089</v>
       </c>
     </row>
@@ -4836,7 +4824,7 @@
       </c>
       <c r="E48" s="286">
         <f>E47+(E47*D47/100)</f>
-        <v>17292.543477658215</v>
+        <v>23215.831200000001</v>
       </c>
       <c r="F48" s="295">
         <f>E46</f>
@@ -4844,7 +4832,7 @@
       </c>
       <c r="G48" s="289"/>
       <c r="H48" s="287">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-22065.240514041867</v>
       </c>
       <c r="I48" s="261"/>
@@ -4858,16 +4846,16 @@
       <c r="D49" s="291"/>
       <c r="E49" s="285">
         <f>E48+(E48*D48/100)</f>
-        <v>18162.358414584425</v>
-      </c>
-      <c r="F49" s="295">
-        <f>E46</f>
-        <v>16296.530650663222</v>
+        <v>24383.587509360001</v>
+      </c>
+      <c r="F49" s="267">
+        <f t="shared" ref="F49" si="8">E49</f>
+        <v>24383.587509360001</v>
       </c>
       <c r="G49" s="284"/>
       <c r="H49" s="292">
-        <f t="shared" si="3"/>
-        <v>-5768.7098633786445</v>
+        <f t="shared" si="4"/>
+        <v>2318.3469953181338</v>
       </c>
       <c r="I49" s="261"/>
       <c r="J49" s="261"/>
@@ -4876,8 +4864,8 @@
       <c r="B50" s="271"/>
       <c r="G50" s="261"/>
       <c r="H50" s="264">
-        <f t="shared" si="3"/>
-        <v>-5768.7098633786445</v>
+        <f t="shared" si="4"/>
+        <v>2318.3469953181338</v>
       </c>
       <c r="I50" s="261"/>
       <c r="J50" s="261"/>
@@ -4890,15 +4878,17 @@
       <c r="F51" s="267"/>
       <c r="G51" s="261"/>
       <c r="H51" s="264">
-        <f t="shared" si="3"/>
-        <v>-5768.7098633786445</v>
+        <f t="shared" si="4"/>
+        <v>2318.3469953181338</v>
       </c>
       <c r="I51" s="261"/>
       <c r="J51" s="261"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" ht="15">
       <c r="B52" s="261"/>
-      <c r="C52" s="261"/>
+      <c r="C52" s="296">
+        <v>45701</v>
+      </c>
       <c r="D52" s="261"/>
       <c r="E52" s="267"/>
       <c r="F52" s="267"/>
@@ -17123,8 +17113,8 @@
   </sheetPr>
   <dimension ref="B4:J90"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A29" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17865,11 +17855,11 @@
       <c r="D44" s="143"/>
       <c r="E44" s="60"/>
       <c r="F44" s="187">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="3"/>
-        <v>105986.663256739</v>
+        <v>108986.663256739</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -17884,7 +17874,7 @@
       </c>
       <c r="H45" s="3">
         <f t="shared" si="3"/>
-        <v>-42513.336743260996</v>
+        <v>-39513.336743260996</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -17904,7 +17894,7 @@
       </c>
       <c r="H46" s="3">
         <f t="shared" si="3"/>
-        <v>-22505.261667454921</v>
+        <v>-19505.261667454921</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -17918,16 +17908,15 @@
         <v>5.03</v>
       </c>
       <c r="E47" s="60">
-        <f t="shared" ref="E47" si="6">E46+(E46*D46/100)</f>
-        <v>20214.158249086879</v>
-      </c>
-      <c r="F47" s="193">
-        <f>E46</f>
-        <v>20008.075075806075</v>
+        <v>22104</v>
+      </c>
+      <c r="F47" s="187">
+        <f>E47</f>
+        <v>22104</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="3"/>
-        <v>-2497.1865916488459</v>
+        <v>2598.7383325450792</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -17936,7 +17925,7 @@
       <c r="F48" s="60"/>
       <c r="H48" s="3">
         <f t="shared" si="3"/>
-        <v>-2497.1865916488459</v>
+        <v>2598.7383325450792</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -17952,7 +17941,7 @@
       <c r="G49" s="256"/>
       <c r="H49" s="258">
         <f t="shared" si="3"/>
-        <v>-2497.1865916488459</v>
+        <v>2598.7383325450792</v>
       </c>
       <c r="I49" s="256"/>
     </row>
@@ -17962,7 +17951,7 @@
       <c r="F50" s="187"/>
       <c r="H50" s="3">
         <f t="shared" si="3"/>
-        <v>-2497.1865916488459</v>
+        <v>2598.7383325450792</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -18045,13 +18034,13 @@
         <v>3.15</v>
       </c>
       <c r="E66" s="60">
-        <f t="shared" ref="E66:E71" si="7">E65+(E65*D65/100)</f>
+        <f t="shared" ref="E66:E71" si="6">E65+(E65*D65/100)</f>
         <v>7380.18</v>
       </c>
       <c r="F66" s="60"/>
       <c r="G66" s="25"/>
       <c r="H66" s="3">
-        <f t="shared" ref="H66:H90" si="8">E66-G66+H65</f>
+        <f t="shared" ref="H66:H90" si="7">E66-G66+H65</f>
         <v>7380.18</v>
       </c>
     </row>
@@ -18063,13 +18052,13 @@
         <v>2.29</v>
       </c>
       <c r="E67" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7612.6556700000001</v>
       </c>
       <c r="F67" s="60"/>
       <c r="G67" s="25"/>
       <c r="H67" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14992.83567</v>
       </c>
     </row>
@@ -18081,7 +18070,7 @@
         <v>2.39</v>
       </c>
       <c r="E68" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7786.9854848430004</v>
       </c>
       <c r="F68" s="60"/>
@@ -18089,7 +18078,7 @@
         <v>8425.4599999999991</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14354.361154843002</v>
       </c>
     </row>
@@ -18101,7 +18090,7 @@
         <v>0.04</v>
       </c>
       <c r="E69" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7973.0944379307484</v>
       </c>
       <c r="F69" s="60"/>
@@ -18109,7 +18098,7 @@
         <v>28080</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
@@ -18121,13 +18110,13 @@
         <v>3.92</v>
       </c>
       <c r="E70" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7976.2836757059204</v>
       </c>
       <c r="F70" s="60"/>
       <c r="G70" s="28"/>
       <c r="H70" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
@@ -18139,7 +18128,7 @@
         <v>9.49</v>
       </c>
       <c r="E71" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F71" s="60"/>
@@ -18147,7 +18136,7 @@
         <v>50000</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
@@ -18165,7 +18154,7 @@
       <c r="F72" s="60"/>
       <c r="G72" s="28"/>
       <c r="H72" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
@@ -18177,13 +18166,13 @@
         <v>4.75</v>
       </c>
       <c r="E73" s="60">
-        <f t="shared" ref="E73:E76" si="9">E72</f>
+        <f t="shared" ref="E73:E76" si="8">E72</f>
         <v>8288.9539957935922</v>
       </c>
       <c r="F73" s="60"/>
       <c r="G73" s="28"/>
       <c r="H73" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
@@ -18195,13 +18184,13 @@
         <v>3.43</v>
       </c>
       <c r="E74" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F74" s="60"/>
       <c r="G74" s="28"/>
       <c r="H74" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
@@ -18213,7 +18202,7 @@
         <v>3.28</v>
       </c>
       <c r="E75" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F75" s="60"/>
@@ -18221,7 +18210,7 @@
         <v>15887.06</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
@@ -18236,13 +18225,13 @@
         <v>2.93</v>
       </c>
       <c r="E76" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>8288.9539957935922</v>
       </c>
       <c r="F76" s="60"/>
       <c r="G76" s="28"/>
       <c r="H76" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
@@ -18262,7 +18251,7 @@
       <c r="F77" s="60"/>
       <c r="G77" s="28"/>
       <c r="H77" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>70.403243241227756</v>
       </c>
     </row>
@@ -18274,13 +18263,13 @@
         <v>4.53</v>
       </c>
       <c r="E78" s="60">
-        <f t="shared" ref="E78:E79" si="10">E77+(E77*D77/100)</f>
+        <f t="shared" ref="E78:E79" si="9">E77+(E77*D77/100)</f>
         <v>14939.4</v>
       </c>
       <c r="F78" s="60"/>
       <c r="G78" s="28"/>
       <c r="H78" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15009.803243241227</v>
       </c>
     </row>
@@ -18292,13 +18281,13 @@
         <v>3.16</v>
       </c>
       <c r="E79" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15616.15482</v>
       </c>
       <c r="F79" s="60"/>
       <c r="G79" s="28"/>
       <c r="H79" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>30625.958063241225</v>
       </c>
     </row>
@@ -18312,7 +18301,7 @@
         <v>-3795</v>
       </c>
       <c r="H80" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>34420.958063241225</v>
       </c>
     </row>
@@ -18378,7 +18367,7 @@
       </c>
       <c r="F84" s="60"/>
       <c r="H84" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5134.7804847813895</v>
       </c>
     </row>
@@ -18387,12 +18376,12 @@
         <v>279</v>
       </c>
       <c r="E85" s="60">
-        <f t="shared" ref="E85:E90" si="11">E84+(E84*D84/100)</f>
+        <f t="shared" ref="E85:E90" si="10">E84+(E84*D84/100)</f>
         <v>17002.098554614084</v>
       </c>
       <c r="F85" s="60"/>
       <c r="H85" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22136.879039395473</v>
       </c>
     </row>
@@ -18401,12 +18390,12 @@
         <v>280</v>
       </c>
       <c r="E86" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F86" s="60"/>
       <c r="H86" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>39138.977594009557</v>
       </c>
     </row>
@@ -18415,12 +18404,12 @@
         <v>361</v>
       </c>
       <c r="E87" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F87" s="60"/>
       <c r="H87" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>56141.076148623644</v>
       </c>
     </row>
@@ -18429,12 +18418,12 @@
         <v>262</v>
       </c>
       <c r="E88" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F88" s="60"/>
       <c r="H88" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>73143.174703237732</v>
       </c>
     </row>
@@ -18443,12 +18432,12 @@
         <v>263</v>
       </c>
       <c r="E89" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F89" s="60"/>
       <c r="H89" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>90145.273257851819</v>
       </c>
     </row>
@@ -18457,12 +18446,12 @@
         <v>264</v>
       </c>
       <c r="E90" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>17002.098554614084</v>
       </c>
       <c r="F90" s="60"/>
       <c r="H90" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>107147.37181246591</v>
       </c>
     </row>

--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740A6770-45EC-497F-9BA2-03BEFBB0B970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53B0670-D602-4BD8-9BFD-81028A9A26B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="912" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="705" windowWidth="18180" windowHeight="14700" tabRatio="773" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
     <sheet name="SnyA105-22" sheetId="2" r:id="rId2"/>
-    <sheet name="SnyB202-22" sheetId="3" r:id="rId3"/>
+    <sheet name="SnyB202-24" sheetId="3" r:id="rId3"/>
     <sheet name="SnyC301-22" sheetId="4" r:id="rId4"/>
     <sheet name="SnyCD-HSP" sheetId="18" r:id="rId5"/>
     <sheet name="SnyE503-24" sheetId="17" r:id="rId6"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="498">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1076,9 +1076,6 @@
     <t>Salih Ant - 2.yıl</t>
   </si>
   <si>
-    <t>01-01-23 - 31-12-23 kira bedeli</t>
-  </si>
-  <si>
     <t>3. yıl yıllık kira bedeli 16 asgari ücret uygulanacak</t>
   </si>
   <si>
@@ -1377,9 +1374,6 @@
     <t xml:space="preserve"> - 2024 - 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Tüfe endeks </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bedel</t>
   </si>
   <si>
@@ -1521,9 +1515,6 @@
     <t>2025 - 1/12 aralık</t>
   </si>
   <si>
-    <t>240000* % 60 tüfe</t>
-  </si>
-  <si>
     <t>asg ücret</t>
   </si>
   <si>
@@ -1558,13 +1549,70 @@
   </si>
   <si>
     <t>icradan</t>
+  </si>
+  <si>
+    <t>08/01/2024-15:58:33</t>
+  </si>
+  <si>
+    <t>08/01/2024</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>SALİH ANT*0111*2024 yılı iş yeri kira bedeli*1307883986*FAST</t>
+  </si>
+  <si>
+    <t>15800126861620240108155833647</t>
+  </si>
+  <si>
+    <t>Salih Ant - 3.yıl</t>
+  </si>
+  <si>
+    <t>2024 de yapılan sözleşme de"3. yıl yıllık kira bedeli 16 asgari ücret uygulanacak" tı</t>
+  </si>
+  <si>
+    <t>01-01-24 - 31-12-24 kira bedeli</t>
+  </si>
+  <si>
+    <t>01-01-25 - 31-12-25 kira bedeli</t>
+  </si>
+  <si>
+    <t>Yapılan Ödeme</t>
+  </si>
+  <si>
+    <t>16 asgari ücret</t>
+  </si>
+  <si>
+    <t>Mahkemede</t>
+  </si>
+  <si>
+    <t>15/04/2024</t>
+  </si>
+  <si>
+    <t>MERDAL KİPEL*0010*31,03,2024 DEN 31,03,2025 E KADAR İŞ YERİ ÖDEMESİDİR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (PİYASANIN BELİRSİZLİĞİNDEN DOLAYI YILLIK TEFE TÜFEDEN FAZL*2688774034*FAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endeks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tüfe </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %</t>
+  </si>
+  <si>
+    <t>aylık 2 asgari ücret</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="22">
+  <numFmts count="23">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy;@"/>
     <numFmt numFmtId="165" formatCode="[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0.00"/>
@@ -1586,7 +1634,8 @@
     <numFmt numFmtId="181" formatCode="[$-409]#,##0.00"/>
     <numFmt numFmtId="182" formatCode="[$-41F]#,##0.00"/>
     <numFmt numFmtId="183" formatCode="%0.0000"/>
-    <numFmt numFmtId="185" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="184" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="186" formatCode="###,###,###,###,##0.00"/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -2590,7 +2639,7 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3032,7 +3081,6 @@
     <xf numFmtId="183" fontId="33" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
@@ -3070,7 +3118,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3089,7 +3136,41 @@
     </xf>
     <xf numFmtId="4" fontId="17" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="17" fillId="48" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="59" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="59" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="32" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="50" fillId="0" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="50" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3534,11 +3615,11 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <f>'SnyB202-22'!D4</f>
+        <f>'SnyB202-24'!D4</f>
         <v>170000</v>
       </c>
       <c r="D9" s="3">
-        <f>'SnyB202-22'!E4</f>
+        <f>'SnyB202-24'!E4</f>
         <v>170000</v>
       </c>
       <c r="E9" s="4">
@@ -3546,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <f>'SnyB202-22'!D6</f>
+        <f>'SnyB202-24'!D6</f>
         <v>-1225.58</v>
       </c>
     </row>
@@ -3559,7 +3640,7 @@
       </c>
       <c r="C10" s="3">
         <f>'SnyC301-22'!E4</f>
-        <v>162230</v>
+        <v>239273.86062455762</v>
       </c>
       <c r="D10" s="3">
         <f>'SnyC301-22'!F4</f>
@@ -3567,7 +3648,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>27230</v>
+        <v>104273.86062455762</v>
       </c>
       <c r="F10" s="4">
         <f>'SnyC301-22'!E6</f>
@@ -3675,7 +3756,7 @@
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
-        <v>878449.43578899361</v>
+        <v>955493.2964135512</v>
       </c>
       <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
@@ -3683,7 +3764,7 @@
       </c>
       <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
-        <v>392531.01578899368</v>
+        <v>469574.87641355128</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
@@ -3758,13 +3839,13 @@
         <v>250</v>
       </c>
       <c r="F22" s="4">
-        <f>'SnyB202-22'!D19</f>
+        <f>'SnyB202-24'!D19</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C23" s="3">
         <v>170</v>
@@ -3779,12 +3860,12 @@
       </c>
       <c r="F23" s="4">
         <f>'SnyC301-22'!E20</f>
-        <v>0</v>
+        <v>26411.625999579901</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C24" s="3">
         <v>170</v>
@@ -3923,10 +4004,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B4:J54"/>
+  <dimension ref="A4:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="D9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3950,974 +4031,1021 @@
       <c r="E4" s="186"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="261"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="262" t="s">
-        <v>414</v>
-      </c>
-      <c r="E5" s="262" t="s">
-        <v>478</v>
-      </c>
-      <c r="F5" s="263" t="s">
-        <v>458</v>
-      </c>
-      <c r="G5" s="262" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="261" t="s">
+        <v>413</v>
+      </c>
+      <c r="E5" s="261" t="s">
+        <v>475</v>
+      </c>
+      <c r="F5" s="262" t="s">
+        <v>456</v>
+      </c>
+      <c r="G5" s="261" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="262" t="s">
-        <v>416</v>
+      <c r="H5" s="261" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="261"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264">
+      <c r="B6" s="260"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263">
         <f>I4+E6-G6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="265">
+      <c r="B7" s="264">
         <v>44651</v>
       </c>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="F7" s="264">
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="F7" s="263">
         <v>4000</v>
       </c>
-      <c r="G7" s="261">
+      <c r="G7" s="260">
         <v>28000</v>
       </c>
-      <c r="H7" s="264">
+      <c r="H7" s="263">
         <f>F7-G7+H6</f>
         <v>-24000</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="265">
+      <c r="B8" s="264">
         <v>44681</v>
       </c>
-      <c r="C8" s="266" t="s">
-        <v>480</v>
-      </c>
-      <c r="D8" s="261"/>
-      <c r="F8" s="264">
+      <c r="C8" s="265" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="260"/>
+      <c r="F8" s="263">
         <v>4000</v>
       </c>
-      <c r="G8" s="261">
+      <c r="G8" s="260">
         <v>4000</v>
       </c>
-      <c r="H8" s="264">
+      <c r="H8" s="263">
         <f t="shared" ref="H8:H17" si="0">F8-G8+H7</f>
         <v>-24000</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="265">
+      <c r="B9" s="264">
         <v>44711</v>
       </c>
-      <c r="C9" s="261" t="s">
-        <v>479</v>
-      </c>
-      <c r="D9" s="261"/>
-      <c r="F9" s="264">
+      <c r="C9" s="260" t="s">
+        <v>476</v>
+      </c>
+      <c r="D9" s="260"/>
+      <c r="F9" s="263">
         <v>4000</v>
       </c>
-      <c r="G9" s="261">
+      <c r="G9" s="260">
         <v>4000</v>
       </c>
-      <c r="H9" s="264">
+      <c r="H9" s="263">
         <f t="shared" si="0"/>
         <v>-24000</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="265">
+      <c r="B10" s="264">
         <v>44742</v>
       </c>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="F10" s="264">
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="F10" s="263">
         <v>4000</v>
       </c>
-      <c r="G10" s="261"/>
-      <c r="H10" s="264">
+      <c r="G10" s="260"/>
+      <c r="H10" s="263">
         <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="265">
+      <c r="B11" s="264">
         <v>44772</v>
       </c>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="F11" s="264">
+      <c r="C11" s="260"/>
+      <c r="D11" s="260"/>
+      <c r="F11" s="263">
         <v>4000</v>
       </c>
-      <c r="G11" s="261"/>
-      <c r="H11" s="264">
+      <c r="G11" s="260"/>
+      <c r="H11" s="263">
         <f t="shared" si="0"/>
         <v>-16000</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="265">
+      <c r="B12" s="264">
         <v>44803</v>
       </c>
-      <c r="C12" s="261"/>
-      <c r="D12" s="261"/>
-      <c r="F12" s="264">
+      <c r="C12" s="260"/>
+      <c r="D12" s="260"/>
+      <c r="F12" s="263">
         <v>4000</v>
       </c>
-      <c r="G12" s="261"/>
-      <c r="H12" s="264">
+      <c r="G12" s="260"/>
+      <c r="H12" s="263">
         <f t="shared" si="0"/>
         <v>-12000</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="265">
+      <c r="B13" s="264">
         <v>44834</v>
       </c>
-      <c r="C13" s="261"/>
-      <c r="D13" s="261"/>
-      <c r="F13" s="264">
+      <c r="C13" s="260"/>
+      <c r="D13" s="260"/>
+      <c r="F13" s="263">
         <v>4000</v>
       </c>
-      <c r="G13" s="261"/>
-      <c r="H13" s="264">
+      <c r="G13" s="260"/>
+      <c r="H13" s="263">
         <f t="shared" si="0"/>
         <v>-8000</v>
       </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="265">
+      <c r="B14" s="264">
         <v>44864</v>
       </c>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
-      <c r="F14" s="264">
+      <c r="C14" s="260"/>
+      <c r="D14" s="260"/>
+      <c r="F14" s="263">
         <v>4000</v>
       </c>
-      <c r="G14" s="261"/>
-      <c r="H14" s="264">
+      <c r="G14" s="260"/>
+      <c r="H14" s="263">
         <f t="shared" si="0"/>
         <v>-4000</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="265">
+      <c r="B15" s="264">
         <v>44895</v>
       </c>
-      <c r="C15" s="261"/>
-      <c r="D15" s="261"/>
-      <c r="F15" s="264">
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
+      <c r="F15" s="263">
         <v>4000</v>
       </c>
-      <c r="G15" s="261"/>
-      <c r="H15" s="264">
+      <c r="G15" s="260"/>
+      <c r="H15" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="265">
+      <c r="B16" s="264">
         <v>44925</v>
       </c>
-      <c r="C16" s="270"/>
-      <c r="D16" s="261"/>
-      <c r="F16" s="264">
-        <v>0</v>
-      </c>
-      <c r="G16" s="261"/>
-      <c r="H16" s="264">
+      <c r="C16" s="269"/>
+      <c r="D16" s="260"/>
+      <c r="F16" s="263">
+        <v>0</v>
+      </c>
+      <c r="G16" s="260"/>
+      <c r="H16" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="265">
+      <c r="B17" s="264">
         <v>44956</v>
       </c>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261">
+      <c r="C17" s="260"/>
+      <c r="D17" s="260">
         <v>6.65</v>
       </c>
-      <c r="E17" s="267">
+      <c r="E17" s="266">
         <v>6920</v>
       </c>
-      <c r="F17" s="264">
+      <c r="F17" s="263">
         <f>E17</f>
         <v>6920</v>
       </c>
-      <c r="G17" s="264">
+      <c r="G17" s="263">
         <v>6920</v>
       </c>
-      <c r="H17" s="264">
+      <c r="H17" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B18" s="278">
+      <c r="B18" s="277">
         <v>44985</v>
       </c>
-      <c r="C18" s="279"/>
-      <c r="D18" s="279">
+      <c r="C18" s="278"/>
+      <c r="D18" s="278">
         <v>3.15</v>
       </c>
-      <c r="E18" s="267">
-        <f t="shared" ref="E8:F31" si="1">E17+(E17*D17/100)</f>
+      <c r="E18" s="266">
+        <f t="shared" ref="E18:E31" si="1">E17+(E17*D17/100)</f>
         <v>7380.18</v>
       </c>
-      <c r="F18" s="267">
+      <c r="F18" s="266">
         <f t="shared" ref="F18:F23" si="2">E18</f>
         <v>7380.18</v>
       </c>
-      <c r="G18" s="280"/>
-      <c r="H18" s="280">
-        <f t="shared" ref="H17:H18" si="3">F18-G18+H17</f>
+      <c r="G18" s="279"/>
+      <c r="H18" s="279">
+        <f t="shared" ref="H18" si="3">F18-G18+H17</f>
         <v>7380.18</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B19" s="273">
+      <c r="B19" s="272">
         <v>45015</v>
       </c>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274">
+      <c r="C19" s="273"/>
+      <c r="D19" s="273">
         <v>2.29</v>
       </c>
-      <c r="E19" s="275">
+      <c r="E19" s="274">
         <f t="shared" si="1"/>
         <v>7612.6556700000001</v>
       </c>
-      <c r="F19" s="275">
+      <c r="F19" s="274">
         <f t="shared" si="2"/>
         <v>7612.6556700000001</v>
       </c>
-      <c r="G19" s="276"/>
-      <c r="H19" s="283">
+      <c r="G19" s="275"/>
+      <c r="H19" s="281">
         <f t="shared" ref="H19:H51" si="4">F19-G19+H18</f>
         <v>14992.83567</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="266">
+      <c r="B20" s="265">
         <v>45046</v>
       </c>
-      <c r="C20" s="293" t="s">
-        <v>481</v>
-      </c>
-      <c r="D20" s="261">
+      <c r="C20" s="291" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" s="260">
         <v>2.39</v>
       </c>
-      <c r="E20" s="267">
+      <c r="E20" s="266">
         <f t="shared" si="1"/>
         <v>7786.9854848430004</v>
       </c>
-      <c r="F20" s="267">
+      <c r="F20" s="266">
         <f t="shared" si="2"/>
         <v>7786.9854848430004</v>
       </c>
-      <c r="G20" s="272">
+      <c r="G20" s="271">
         <v>8425.4599999999991</v>
       </c>
-      <c r="H20" s="264">
+      <c r="H20" s="263">
         <f t="shared" si="4"/>
         <v>14354.361154843002</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="266">
+      <c r="B21" s="265">
         <v>45076</v>
       </c>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261">
+      <c r="C21" s="260"/>
+      <c r="D21" s="260">
         <v>0.04</v>
       </c>
-      <c r="E21" s="267">
+      <c r="E21" s="266">
         <f t="shared" si="1"/>
         <v>7973.0944379307484</v>
       </c>
-      <c r="F21" s="267">
+      <c r="F21" s="266">
         <f t="shared" si="2"/>
         <v>7973.0944379307484</v>
       </c>
-      <c r="G21" s="264">
+      <c r="G21" s="263">
         <v>28080</v>
       </c>
-      <c r="H21" s="264">
+      <c r="H21" s="263">
         <f t="shared" si="4"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="266">
+      <c r="B22" s="265">
         <v>45107</v>
       </c>
-      <c r="C22" s="261"/>
-      <c r="D22" s="261">
+      <c r="C22" s="260"/>
+      <c r="D22" s="260">
         <v>3.92</v>
       </c>
-      <c r="E22" s="267">
+      <c r="E22" s="266">
         <f t="shared" si="1"/>
         <v>7976.2836757059204</v>
       </c>
-      <c r="F22" s="267">
+      <c r="F22" s="266">
         <f t="shared" si="2"/>
         <v>7976.2836757059204</v>
       </c>
-      <c r="G22" s="268"/>
-      <c r="H22" s="264">
+      <c r="G22" s="267"/>
+      <c r="H22" s="263">
         <f t="shared" si="4"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="266">
+      <c r="B23" s="265">
         <v>45137</v>
       </c>
-      <c r="C23" s="261"/>
-      <c r="D23" s="261">
+      <c r="C23" s="260"/>
+      <c r="D23" s="260">
         <v>9.49</v>
       </c>
-      <c r="E23" s="294">
+      <c r="E23" s="292">
         <f t="shared" si="1"/>
         <v>8288.9539957935922</v>
       </c>
-      <c r="F23" s="294">
+      <c r="F23" s="292">
         <f t="shared" si="2"/>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G23" s="268">
+      <c r="G23" s="267">
         <v>50000</v>
       </c>
-      <c r="H23" s="264">
+      <c r="H23" s="263">
         <f t="shared" si="4"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="266">
+      <c r="B24" s="265">
         <v>45168</v>
       </c>
-      <c r="C24" s="261"/>
-      <c r="D24" s="261">
+      <c r="C24" s="260"/>
+      <c r="D24" s="260">
         <v>9.09</v>
       </c>
-      <c r="E24" s="267">
+      <c r="E24" s="266">
         <f t="shared" si="1"/>
         <v>9075.5757299944034</v>
       </c>
-      <c r="F24" s="294">
+      <c r="F24" s="292">
         <f>E23</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G24" s="268"/>
-      <c r="H24" s="264">
+      <c r="G24" s="267"/>
+      <c r="H24" s="263">
         <f t="shared" si="4"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="266">
+      <c r="B25" s="265">
         <v>45199</v>
       </c>
-      <c r="C25" s="261"/>
-      <c r="D25" s="261">
+      <c r="C25" s="260"/>
+      <c r="D25" s="260">
         <v>4.75</v>
       </c>
-      <c r="E25" s="267">
+      <c r="E25" s="266">
         <f t="shared" si="1"/>
         <v>9900.5455638508938</v>
       </c>
-      <c r="F25" s="294">
+      <c r="F25" s="292">
         <f>E23</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G25" s="269"/>
-      <c r="H25" s="264">
+      <c r="G25" s="268"/>
+      <c r="H25" s="263">
         <f t="shared" si="4"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="266">
+      <c r="B26" s="265">
         <v>45229</v>
       </c>
-      <c r="C26" s="261"/>
-      <c r="D26" s="261">
+      <c r="C26" s="260"/>
+      <c r="D26" s="260">
         <v>3.43</v>
       </c>
-      <c r="E26" s="267">
+      <c r="E26" s="266">
         <f t="shared" si="1"/>
         <v>10370.821478133812</v>
       </c>
-      <c r="F26" s="294">
+      <c r="F26" s="292">
         <f>E23</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G26" s="268"/>
-      <c r="H26" s="264">
+      <c r="G26" s="267"/>
+      <c r="H26" s="263">
         <f t="shared" si="4"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="266">
+      <c r="B27" s="265">
         <v>45260</v>
       </c>
-      <c r="C27" s="261"/>
-      <c r="D27" s="261">
+      <c r="C27" s="260"/>
+      <c r="D27" s="260">
         <v>3.28</v>
       </c>
-      <c r="E27" s="267">
+      <c r="E27" s="266">
         <f t="shared" si="1"/>
         <v>10726.540654833801</v>
       </c>
-      <c r="F27" s="294">
+      <c r="F27" s="292">
         <f>E23</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G27" s="268">
+      <c r="G27" s="267">
         <v>15887.06</v>
       </c>
-      <c r="H27" s="264">
+      <c r="H27" s="263">
         <f t="shared" si="4"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="266">
+      <c r="B28" s="265">
         <v>45290</v>
       </c>
-      <c r="C28" s="261"/>
-      <c r="D28" s="261">
+      <c r="C28" s="260"/>
+      <c r="D28" s="260">
         <v>2.93</v>
       </c>
-      <c r="E28" s="267">
+      <c r="E28" s="266">
         <f t="shared" si="1"/>
         <v>11078.371188312351</v>
       </c>
-      <c r="F28" s="294">
+      <c r="F28" s="292">
         <f>E23</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G28" s="268"/>
-      <c r="H28" s="264">
+      <c r="G28" s="267"/>
+      <c r="H28" s="263">
         <f t="shared" si="4"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="266">
+      <c r="B29" s="265">
         <v>45321</v>
       </c>
-      <c r="C29" s="261"/>
-      <c r="D29" s="261">
+      <c r="C29" s="260"/>
+      <c r="D29" s="260">
         <v>6.71</v>
       </c>
-      <c r="E29" s="267">
+      <c r="E29" s="266">
         <f t="shared" si="1"/>
         <v>11402.967464129903</v>
       </c>
-      <c r="F29" s="294">
+      <c r="F29" s="292">
         <f>E23</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G29" s="268"/>
-      <c r="H29" s="264">
+      <c r="G29" s="267"/>
+      <c r="H29" s="263">
         <f t="shared" si="4"/>
         <v>-5640.6427609651801</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="278">
+      <c r="B30" s="277">
         <v>45350</v>
       </c>
-      <c r="C30" s="279"/>
-      <c r="D30" s="279">
+      <c r="C30" s="278"/>
+      <c r="D30" s="278">
         <v>4.53</v>
       </c>
-      <c r="E30" s="267">
+      <c r="E30" s="266">
         <f t="shared" si="1"/>
         <v>12168.106580973019</v>
       </c>
-      <c r="F30" s="267">
+      <c r="F30" s="266">
         <f t="shared" ref="F30:F36" si="5">E30</f>
         <v>12168.106580973019</v>
       </c>
-      <c r="G30" s="268"/>
-      <c r="H30" s="280">
+      <c r="G30" s="267"/>
+      <c r="H30" s="279">
         <f t="shared" si="4"/>
         <v>6527.4638200078389</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="273">
+      <c r="B31" s="272">
         <v>45381</v>
       </c>
-      <c r="C31" s="274"/>
-      <c r="D31" s="274">
+      <c r="C31" s="273"/>
+      <c r="D31" s="273">
         <v>3.16</v>
       </c>
-      <c r="E31" s="275">
+      <c r="E31" s="274">
         <f t="shared" si="1"/>
         <v>12719.321809091096</v>
       </c>
-      <c r="F31" s="275">
+      <c r="F31" s="274">
         <f t="shared" si="5"/>
         <v>12719.321809091096</v>
       </c>
-      <c r="G31" s="277"/>
-      <c r="H31" s="276">
+      <c r="G31" s="276"/>
+      <c r="H31" s="275">
         <f t="shared" si="4"/>
         <v>19246.785629098937</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="261"/>
-      <c r="C32" s="282" t="s">
-        <v>348</v>
-      </c>
-      <c r="D32" s="261"/>
-      <c r="E32" s="267">
+      <c r="B32" s="260"/>
+      <c r="C32" s="280" t="s">
+        <v>347</v>
+      </c>
+      <c r="D32" s="260"/>
+      <c r="E32" s="266">
         <v>3795</v>
       </c>
-      <c r="F32" s="267">
+      <c r="F32" s="266">
         <f t="shared" si="5"/>
         <v>3795</v>
       </c>
-      <c r="G32" s="268"/>
-      <c r="H32" s="264">
+      <c r="G32" s="267"/>
+      <c r="H32" s="263">
         <f t="shared" si="4"/>
         <v>23041.785629098937</v>
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="261"/>
-      <c r="C33" s="282" t="s">
+      <c r="B33" s="260"/>
+      <c r="C33" s="280" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="261"/>
-      <c r="E33" s="267">
+      <c r="D33" s="260"/>
+      <c r="E33" s="266">
         <v>5600</v>
       </c>
-      <c r="F33" s="267">
+      <c r="F33" s="266">
         <f t="shared" si="5"/>
         <v>5600</v>
       </c>
-      <c r="G33" s="268"/>
-      <c r="H33" s="264">
+      <c r="G33" s="267"/>
+      <c r="H33" s="263">
         <f t="shared" si="4"/>
         <v>28641.785629098937</v>
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="261"/>
-      <c r="C34" s="261" t="s">
-        <v>412</v>
-      </c>
-      <c r="D34" s="261"/>
-      <c r="E34" s="267">
+      <c r="B34" s="260"/>
+      <c r="C34" s="260" t="s">
+        <v>411</v>
+      </c>
+      <c r="D34" s="260"/>
+      <c r="E34" s="266">
         <v>278.97000000000003</v>
       </c>
-      <c r="F34" s="267">
+      <c r="F34" s="266">
         <f t="shared" si="5"/>
         <v>278.97000000000003</v>
       </c>
-      <c r="G34" s="268"/>
-      <c r="H34" s="264">
+      <c r="G34" s="267"/>
+      <c r="H34" s="263">
         <f t="shared" si="4"/>
         <v>28920.755629098938</v>
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="261"/>
-      <c r="C35" s="261" t="s">
-        <v>413</v>
-      </c>
-      <c r="D35" s="261"/>
-      <c r="E35" s="267">
+      <c r="B35" s="260"/>
+      <c r="C35" s="260" t="s">
+        <v>412</v>
+      </c>
+      <c r="D35" s="260"/>
+      <c r="E35" s="266">
         <v>10000</v>
       </c>
-      <c r="F35" s="267">
+      <c r="F35" s="266">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G35" s="268"/>
-      <c r="H35" s="264">
+      <c r="G35" s="267"/>
+      <c r="H35" s="263">
         <f t="shared" si="4"/>
         <v>38920.755629098938</v>
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="266">
-        <v>45412</v>
-      </c>
-      <c r="C36" s="261"/>
-      <c r="D36" s="261">
+      <c r="B36" s="265">
+        <v>45762</v>
+      </c>
+      <c r="C36" s="260"/>
+      <c r="D36" s="260">
         <v>3.18</v>
       </c>
-      <c r="E36" s="294">
+      <c r="E36" s="292">
         <f>E31+(E31*D31/100)</f>
         <v>13121.252378258374</v>
       </c>
-      <c r="F36" s="294">
+      <c r="F36" s="292">
         <f t="shared" si="5"/>
         <v>13121.252378258374</v>
       </c>
-      <c r="G36" s="268">
+      <c r="G36" s="267">
         <v>85000</v>
       </c>
-      <c r="H36" s="264">
+      <c r="H36" s="263">
         <f t="shared" si="4"/>
         <v>-32957.991992642688</v>
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="266">
+      <c r="B37" s="265">
         <v>45442</v>
       </c>
-      <c r="C37" s="279"/>
-      <c r="D37" s="261">
+      <c r="C37" s="278"/>
+      <c r="D37" s="260">
         <v>3.37</v>
       </c>
-      <c r="E37" s="267">
+      <c r="E37" s="266">
         <f>E36+(E36*D36/100)</f>
         <v>13538.50820388699</v>
       </c>
-      <c r="F37" s="294">
+      <c r="F37" s="292">
         <f>E36</f>
         <v>13121.252378258374</v>
       </c>
-      <c r="G37" s="268"/>
-      <c r="H37" s="264">
+      <c r="G37" s="267"/>
+      <c r="H37" s="263">
         <f t="shared" si="4"/>
         <v>-19836.739614384314</v>
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="266">
+      <c r="B38" s="265">
         <v>45473</v>
       </c>
-      <c r="C38" s="279"/>
-      <c r="D38" s="261">
+      <c r="C38" s="278"/>
+      <c r="D38" s="260">
         <v>1.64</v>
       </c>
-      <c r="E38" s="267">
+      <c r="E38" s="266">
         <f>E37+(E37*D37/100)</f>
         <v>13994.755930357982</v>
       </c>
-      <c r="F38" s="267">
+      <c r="F38" s="266">
         <f t="shared" ref="F38:F43" si="6">E38</f>
         <v>13994.755930357982</v>
       </c>
-      <c r="G38" s="261"/>
-      <c r="H38" s="264">
+      <c r="G38" s="260"/>
+      <c r="H38" s="263">
         <f t="shared" si="4"/>
         <v>-5841.9836840263324</v>
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="266">
+      <c r="B39" s="265">
         <v>45503</v>
       </c>
-      <c r="C39" s="279"/>
-      <c r="D39" s="261">
+      <c r="C39" s="278"/>
+      <c r="D39" s="260">
         <v>3.23</v>
       </c>
-      <c r="E39" s="267">
+      <c r="E39" s="266">
         <f t="shared" ref="E39:E43" si="7">E38+(E38*D38/100)</f>
         <v>14224.269927615853</v>
       </c>
-      <c r="F39" s="267">
+      <c r="F39" s="266">
         <f t="shared" si="6"/>
         <v>14224.269927615853</v>
       </c>
-      <c r="G39" s="261"/>
-      <c r="H39" s="264">
+      <c r="G39" s="260"/>
+      <c r="H39" s="263">
         <f t="shared" si="4"/>
         <v>8382.2862435895204</v>
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="266">
+      <c r="B40" s="265">
         <v>45534</v>
       </c>
-      <c r="C40" s="279"/>
-      <c r="D40" s="261">
+      <c r="C40" s="278"/>
+      <c r="D40" s="260">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E40" s="267">
+      <c r="E40" s="266">
         <f t="shared" si="7"/>
         <v>14683.713846277846</v>
       </c>
-      <c r="F40" s="267">
+      <c r="F40" s="266">
         <f t="shared" si="6"/>
         <v>14683.713846277846</v>
       </c>
-      <c r="G40" s="261"/>
-      <c r="H40" s="264">
+      <c r="G40" s="260"/>
+      <c r="H40" s="263">
         <f t="shared" si="4"/>
         <v>23066.000089867368</v>
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="266">
+      <c r="B41" s="265">
         <v>45565</v>
       </c>
-      <c r="C41" s="279"/>
-      <c r="D41" s="261">
+      <c r="C41" s="278"/>
+      <c r="D41" s="260">
         <v>2.97</v>
       </c>
-      <c r="E41" s="267">
+      <c r="E41" s="266">
         <f t="shared" si="7"/>
         <v>15046.401578280909</v>
       </c>
-      <c r="F41" s="267">
+      <c r="F41" s="266">
         <f t="shared" si="6"/>
         <v>15046.401578280909</v>
       </c>
-      <c r="G41" s="261"/>
-      <c r="H41" s="264">
+      <c r="G41" s="260"/>
+      <c r="H41" s="263">
         <f t="shared" si="4"/>
         <v>38112.401668148275</v>
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="266">
+      <c r="B42" s="265">
         <v>45595</v>
       </c>
-      <c r="C42" s="270"/>
-      <c r="D42" s="261">
+      <c r="C42" s="269"/>
+      <c r="D42" s="260">
         <v>2.88</v>
       </c>
-      <c r="E42" s="267">
+      <c r="E42" s="266">
         <f t="shared" si="7"/>
         <v>15493.279705155852</v>
       </c>
-      <c r="F42" s="267">
+      <c r="F42" s="266">
         <f t="shared" si="6"/>
         <v>15493.279705155852</v>
       </c>
-      <c r="G42" s="270"/>
-      <c r="H42" s="264">
+      <c r="G42" s="269"/>
+      <c r="H42" s="263">
         <f t="shared" si="4"/>
         <v>53605.681373304127</v>
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="266">
+      <c r="B43" s="265">
         <v>45626</v>
       </c>
-      <c r="C43" s="279"/>
-      <c r="D43" s="261">
+      <c r="C43" s="278"/>
+      <c r="D43" s="260">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E43" s="267">
+      <c r="E43" s="266">
         <f t="shared" si="7"/>
         <v>15939.486160664341</v>
       </c>
-      <c r="F43" s="267">
+      <c r="F43" s="266">
         <f t="shared" si="6"/>
         <v>15939.486160664341</v>
       </c>
-      <c r="G43" s="261"/>
-      <c r="H43" s="264">
+      <c r="G43" s="260"/>
+      <c r="H43" s="263">
         <f t="shared" si="4"/>
         <v>69545.167533968473</v>
       </c>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="261"/>
-      <c r="C44" s="293" t="s">
-        <v>481</v>
-      </c>
-      <c r="D44" s="261"/>
-      <c r="E44" s="267"/>
-      <c r="F44" s="267"/>
-      <c r="G44" s="281">
+      <c r="B44" s="260"/>
+      <c r="C44" s="299" t="s">
+        <v>478</v>
+      </c>
+      <c r="D44" s="255"/>
+      <c r="E44" s="256"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="300">
         <v>148500</v>
       </c>
-      <c r="H44" s="264">
+      <c r="H44" s="263">
         <f t="shared" si="4"/>
         <v>-78954.832466031527</v>
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="261"/>
-      <c r="C45" s="261" t="s">
-        <v>459</v>
-      </c>
-      <c r="D45" s="261"/>
-      <c r="E45" s="267"/>
-      <c r="F45" s="267">
+      <c r="B45" s="260"/>
+      <c r="C45" s="260" t="s">
+        <v>457</v>
+      </c>
+      <c r="D45" s="260"/>
+      <c r="E45" s="266"/>
+      <c r="F45" s="266">
         <v>8000</v>
       </c>
-      <c r="G45" s="261"/>
-      <c r="H45" s="264">
+      <c r="G45" s="260"/>
+      <c r="H45" s="263">
         <f t="shared" si="4"/>
         <v>-70954.832466031527</v>
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="266">
+      <c r="B46" s="265">
         <v>45656</v>
       </c>
-      <c r="C46" s="261"/>
-      <c r="D46" s="261">
+      <c r="C46" s="260"/>
+      <c r="D46" s="260">
         <v>1.03</v>
       </c>
-      <c r="E46" s="294">
+      <c r="E46" s="292">
         <f>E43+(E43*D43/100)</f>
         <v>16296.530650663222</v>
       </c>
-      <c r="F46" s="294">
+      <c r="F46" s="292">
         <f>E46</f>
         <v>16296.530650663222</v>
       </c>
-      <c r="G46" s="261"/>
-      <c r="H46" s="264">
+      <c r="G46" s="260"/>
+      <c r="H46" s="263">
         <f t="shared" si="4"/>
         <v>-54658.301815368308</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B47" s="266">
+      <c r="B47" s="265">
         <v>45687</v>
       </c>
-      <c r="C47" s="261"/>
-      <c r="D47" s="261">
+      <c r="C47" s="260"/>
+      <c r="D47" s="260">
         <v>5.03</v>
       </c>
-      <c r="E47" s="267">
+      <c r="E47" s="266">
         <v>22104</v>
       </c>
-      <c r="F47" s="294">
+      <c r="F47" s="292">
         <f>E46</f>
         <v>16296.530650663222</v>
       </c>
-      <c r="G47" s="261"/>
-      <c r="H47" s="264">
+      <c r="G47" s="260"/>
+      <c r="H47" s="263">
         <f t="shared" si="4"/>
         <v>-38361.771164705089</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B48" s="288">
+      <c r="B48" s="286">
         <v>45716</v>
       </c>
-      <c r="C48" s="289"/>
-      <c r="D48" s="289">
+      <c r="C48" s="287"/>
+      <c r="D48" s="287">
         <v>5.03</v>
       </c>
-      <c r="E48" s="286">
+      <c r="E48" s="284">
         <f>E47+(E47*D47/100)</f>
         <v>23215.831200000001</v>
       </c>
-      <c r="F48" s="295">
+      <c r="F48" s="293">
         <f>E46</f>
         <v>16296.530650663222</v>
       </c>
-      <c r="G48" s="289"/>
-      <c r="H48" s="287">
+      <c r="G48" s="287"/>
+      <c r="H48" s="285">
         <f t="shared" si="4"/>
         <v>-22065.240514041867</v>
       </c>
-      <c r="I48" s="261"/>
-      <c r="J48" s="261"/>
-    </row>
-    <row r="49" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B49" s="290">
+      <c r="I48" s="260"/>
+      <c r="J48" s="260"/>
+    </row>
+    <row r="49" spans="1:14" ht="13.5" thickBot="1">
+      <c r="B49" s="288">
         <v>45746</v>
       </c>
-      <c r="C49" s="291"/>
-      <c r="D49" s="291"/>
-      <c r="E49" s="285">
+      <c r="C49" s="289"/>
+      <c r="D49" s="289"/>
+      <c r="E49" s="283">
         <f>E48+(E48*D48/100)</f>
         <v>24383.587509360001</v>
       </c>
-      <c r="F49" s="267">
+      <c r="F49" s="266">
         <f t="shared" ref="F49" si="8">E49</f>
         <v>24383.587509360001</v>
       </c>
-      <c r="G49" s="284"/>
-      <c r="H49" s="292">
+      <c r="G49" s="282"/>
+      <c r="H49" s="290">
         <f t="shared" si="4"/>
         <v>2318.3469953181338</v>
       </c>
-      <c r="I49" s="261"/>
-      <c r="J49" s="261"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="271"/>
-      <c r="G50" s="261"/>
-      <c r="H50" s="264">
+      <c r="I49" s="260"/>
+      <c r="J49" s="260"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="B50" s="270"/>
+      <c r="G50" s="260"/>
+      <c r="H50" s="263">
         <f t="shared" si="4"/>
         <v>2318.3469953181338</v>
       </c>
-      <c r="I50" s="261"/>
-      <c r="J50" s="261"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="261"/>
-      <c r="C51" s="261"/>
-      <c r="D51" s="261"/>
-      <c r="E51" s="267"/>
-      <c r="F51" s="267"/>
-      <c r="G51" s="261"/>
-      <c r="H51" s="264">
+      <c r="I50" s="260"/>
+      <c r="J50" s="260"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="B51" s="260"/>
+      <c r="C51" s="260"/>
+      <c r="D51" s="260"/>
+      <c r="E51" s="266"/>
+      <c r="F51" s="266"/>
+      <c r="G51" s="260"/>
+      <c r="H51" s="263">
         <f t="shared" si="4"/>
         <v>2318.3469953181338</v>
       </c>
-      <c r="I51" s="261"/>
-      <c r="J51" s="261"/>
-    </row>
-    <row r="52" spans="2:10" ht="15">
-      <c r="B52" s="261"/>
-      <c r="C52" s="296">
+      <c r="I51" s="260"/>
+      <c r="J51" s="260"/>
+    </row>
+    <row r="52" spans="1:14" ht="15">
+      <c r="B52" s="260"/>
+      <c r="C52" s="294">
         <v>45701</v>
       </c>
-      <c r="D52" s="261"/>
-      <c r="E52" s="267"/>
-      <c r="F52" s="267"/>
-      <c r="G52" s="261"/>
-      <c r="H52" s="268"/>
-      <c r="I52" s="261"/>
-      <c r="J52" s="261"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="261"/>
-      <c r="C53" s="261"/>
-      <c r="D53" s="261"/>
-      <c r="E53" s="267"/>
-      <c r="F53" s="267"/>
-      <c r="G53" s="261"/>
-      <c r="H53" s="268"/>
-      <c r="I53" s="261"/>
-      <c r="J53" s="261"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="261"/>
-      <c r="C54" s="261"/>
-      <c r="D54" s="261"/>
-      <c r="E54" s="267"/>
-      <c r="F54" s="267"/>
-      <c r="G54" s="261"/>
-      <c r="H54" s="268"/>
-      <c r="I54" s="261"/>
-      <c r="J54" s="261"/>
+      <c r="D52" s="260"/>
+      <c r="E52" s="266"/>
+      <c r="F52" s="266"/>
+      <c r="G52" s="260"/>
+      <c r="H52" s="267"/>
+      <c r="I52" s="260"/>
+      <c r="J52" s="260"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="B53" s="260"/>
+      <c r="C53" s="260"/>
+      <c r="D53" s="260"/>
+      <c r="E53" s="266"/>
+      <c r="F53" s="266"/>
+      <c r="G53" s="260"/>
+      <c r="H53" s="267"/>
+      <c r="I53" s="260"/>
+      <c r="J53" s="260"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="B54" s="260"/>
+      <c r="C54" s="260"/>
+      <c r="D54" s="260"/>
+      <c r="E54" s="266"/>
+      <c r="F54" s="266"/>
+      <c r="G54" s="260"/>
+      <c r="H54" s="267"/>
+      <c r="I54" s="260"/>
+      <c r="J54" s="260"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="298"/>
+      <c r="B55" s="295" t="s">
+        <v>491</v>
+      </c>
+      <c r="C55" s="255"/>
+      <c r="D55" s="255"/>
+      <c r="E55" s="296">
+        <v>86793.59</v>
+      </c>
+      <c r="F55" s="295">
+        <v>0</v>
+      </c>
+      <c r="G55" s="295" t="s">
+        <v>481</v>
+      </c>
+      <c r="H55" s="296">
+        <v>85000</v>
+      </c>
+      <c r="J55" s="260"/>
+      <c r="K55" s="260"/>
+      <c r="L55" s="260"/>
+      <c r="M55" s="260"/>
+      <c r="N55" s="260"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="B56" s="255"/>
+      <c r="C56" s="297" t="s">
+        <v>492</v>
+      </c>
+      <c r="D56" s="255"/>
+      <c r="E56" s="255"/>
+      <c r="F56" s="255"/>
+      <c r="G56" s="255"/>
+      <c r="H56" s="255"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="B57" s="255"/>
+      <c r="C57" s="255" t="s">
+        <v>493</v>
+      </c>
+      <c r="D57" s="255"/>
+      <c r="E57" s="255"/>
+      <c r="F57" s="255"/>
+      <c r="G57" s="255"/>
+      <c r="H57" s="255"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5064,7 +5192,7 @@
         <v>45194</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
@@ -6139,18 +6267,18 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="93" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -6179,7 +6307,7 @@
       <c r="E5" s="102"/>
       <c r="F5" s="102"/>
       <c r="G5" s="120" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H5" s="121">
         <f>D5</f>
@@ -6189,7 +6317,7 @@
     <row r="6" spans="1:8" ht="14.25">
       <c r="D6" s="95"/>
       <c r="G6" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H6" s="122">
         <f>H25*-1</f>
@@ -6865,7 +6993,7 @@
         <v>45660</v>
       </c>
       <c r="B40" s="175" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C40" s="176">
         <v>290000</v>
@@ -7073,18 +7201,18 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="93" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -7113,7 +7241,7 @@
       <c r="E5" s="102"/>
       <c r="F5" s="102"/>
       <c r="G5" s="120" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H5" s="121">
         <f>D5</f>
@@ -7123,7 +7251,7 @@
     <row r="6" spans="1:8" ht="14.25">
       <c r="D6" s="95"/>
       <c r="G6" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H6" s="122">
         <f>H25*-1</f>
@@ -7153,7 +7281,7 @@
       </c>
       <c r="F8" s="125"/>
       <c r="G8" s="125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H8" s="126">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
@@ -7176,7 +7304,7 @@
       </c>
       <c r="F9" s="125"/>
       <c r="G9" s="125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H9" s="90">
         <f t="shared" si="0"/>
@@ -7199,7 +7327,7 @@
       </c>
       <c r="F10" s="125"/>
       <c r="G10" s="125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H10" s="90">
         <f t="shared" si="0"/>
@@ -7222,7 +7350,7 @@
       </c>
       <c r="F11" s="125"/>
       <c r="G11" s="125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H11" s="90">
         <f t="shared" si="0"/>
@@ -7245,7 +7373,7 @@
       </c>
       <c r="F12" s="125"/>
       <c r="G12" s="125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H12" s="90">
         <f t="shared" si="0"/>
@@ -7267,7 +7395,7 @@
         <v>10000</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H13" s="90">
         <f t="shared" si="0"/>
@@ -7289,7 +7417,7 @@
         <v>10000</v>
       </c>
       <c r="G14" s="125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
@@ -7308,7 +7436,7 @@
         <v>228749.71184560005</v>
       </c>
       <c r="F15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
@@ -7327,7 +7455,7 @@
         <v>218749.71184560005</v>
       </c>
       <c r="F16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
@@ -7346,7 +7474,7 @@
         <v>208749.71184560005</v>
       </c>
       <c r="F17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
@@ -7393,7 +7521,7 @@
         <v>60000</v>
       </c>
       <c r="G19" s="250" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H19" s="241">
         <f t="shared" si="0"/>
@@ -7404,7 +7532,7 @@
       <c r="A20" s="123"/>
       <c r="C20" s="238"/>
       <c r="D20" s="239" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E20" s="240">
         <f>SUM(E8:E19)</f>
@@ -7576,7 +7704,7 @@
         <v>45631</v>
       </c>
       <c r="B29" s="243" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C29" s="244">
         <v>219000</v>
@@ -7606,7 +7734,7 @@
         <v>45607</v>
       </c>
       <c r="B30" s="177" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C30" s="133">
         <v>148500</v>
@@ -7636,7 +7764,7 @@
         <v>45405</v>
       </c>
       <c r="B31" s="245" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C31" s="246">
         <v>33000</v>
@@ -7666,7 +7794,7 @@
         <v>45405</v>
       </c>
       <c r="B32" s="132" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C32" s="133">
         <v>170000</v>
@@ -7696,7 +7824,7 @@
         <v>45405</v>
       </c>
       <c r="B33" s="132" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C33" s="133">
         <v>-25000</v>
@@ -7726,7 +7854,7 @@
         <v>45397</v>
       </c>
       <c r="B34" s="132" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C34" s="133">
         <v>1000</v>
@@ -7756,7 +7884,7 @@
         <v>45397</v>
       </c>
       <c r="B35" s="247" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C35" s="244">
         <v>85000</v>
@@ -7814,7 +7942,7 @@
     <row r="37" spans="1:10">
       <c r="A37" s="134"/>
       <c r="B37" s="247" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C37" s="248">
         <v>24000</v>
@@ -7844,7 +7972,7 @@
         <v>45296</v>
       </c>
       <c r="B38" s="135" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="136">
         <v>26000</v>
@@ -7874,7 +8002,7 @@
         <v>45295</v>
       </c>
       <c r="B39" s="135" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C39" s="133">
         <v>120000</v>
@@ -8091,7 +8219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
@@ -8417,7 +8545,7 @@
         <v>275</v>
       </c>
       <c r="B27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C27">
         <v>-52.17</v>
@@ -9069,7 +9197,7 @@
         <v>45137</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -9211,10 +9339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9294,8 +9422,8 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="18">
-        <f>F40</f>
-        <v>0</v>
+        <f>F42</f>
+        <v>643664</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -9305,7 +9433,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="19">
-        <f>F37</f>
+        <f>F39</f>
         <v>-1225.58</v>
       </c>
       <c r="E6" s="14"/>
@@ -9323,7 +9451,7 @@
       </c>
       <c r="F7" s="23">
         <f>E4-D5</f>
-        <v>170000</v>
+        <v>-473664</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -9454,7 +9582,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:18">
       <c r="A17" s="26">
         <v>45299</v>
       </c>
@@ -9470,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:18">
       <c r="A18" s="26"/>
       <c r="D18" s="27"/>
       <c r="E18" s="28"/>
@@ -9479,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:18">
       <c r="A19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
@@ -9488,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:18">
       <c r="A20" s="26"/>
       <c r="D20" s="27"/>
       <c r="E20" s="28"/>
@@ -9497,117 +9625,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="26"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="26"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    <row r="21" spans="1:18">
+      <c r="A21" s="295" t="s">
+        <v>479</v>
+      </c>
+      <c r="B21" s="295" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" s="296"/>
+      <c r="D21" s="296">
+        <v>24000</v>
+      </c>
+      <c r="E21" s="296"/>
+      <c r="F21" s="298"/>
+      <c r="G21" s="298"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="260"/>
+      <c r="J21" s="260"/>
+      <c r="K21" s="260"/>
+      <c r="L21" s="260"/>
+      <c r="M21" s="260"/>
+      <c r="N21" s="260"/>
+      <c r="O21" s="260"/>
+      <c r="P21" s="260"/>
+      <c r="Q21" s="260"/>
+      <c r="R21" s="260"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="295"/>
+      <c r="B22" s="297" t="s">
+        <v>482</v>
+      </c>
+      <c r="C22" s="296"/>
+      <c r="D22" s="296"/>
+      <c r="E22" s="296"/>
+      <c r="F22" s="298"/>
+      <c r="G22" s="298"/>
+      <c r="H22" s="280"/>
+      <c r="I22" s="280"/>
+      <c r="J22" s="260"/>
+      <c r="K22" s="260"/>
+      <c r="L22" s="260"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="260"/>
+      <c r="O22" s="260"/>
+      <c r="P22" s="260"/>
+      <c r="Q22" s="260"/>
+      <c r="R22" s="260"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="295"/>
+      <c r="B23" s="255" t="s">
+        <v>483</v>
+      </c>
+      <c r="C23" s="296"/>
+      <c r="D23" s="296"/>
+      <c r="E23" s="296"/>
+      <c r="F23" s="298"/>
+      <c r="G23" s="298"/>
+      <c r="H23" s="280"/>
+      <c r="I23" s="280"/>
+      <c r="J23" s="260"/>
+      <c r="K23" s="260"/>
+      <c r="L23" s="260"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="260"/>
+      <c r="O23" s="260"/>
+      <c r="P23" s="260"/>
+      <c r="Q23" s="260"/>
+      <c r="R23" s="260"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="26"/>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
       <c r="D24" s="30"/>
       <c r="E24" s="31"/>
-      <c r="F24" s="31">
-        <v>-1000.12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="26"/>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="31">
-        <v>900.36</v>
-      </c>
-      <c r="E25" s="31">
-        <v>999.4</v>
-      </c>
-      <c r="F25" s="31">
-        <f t="shared" ref="F25:F36" si="1">D25-E25+F24</f>
-        <v>-1099.1599999999999</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="26"/>
       <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="31">
-        <v>841.46</v>
-      </c>
-      <c r="E26" s="31">
-        <v>967.88</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="31">
-        <f t="shared" si="1"/>
-        <v>-1225.58</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-1000.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="26"/>
       <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+        <v>87</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="31">
+        <v>900.36</v>
+      </c>
+      <c r="E27" s="31">
+        <v>999.4</v>
+      </c>
       <c r="F27" s="31">
-        <f t="shared" si="1"/>
-        <v>-1225.58</v>
+        <f t="shared" ref="F27:F38" si="1">D27-E27+F26</f>
+        <v>-1099.1599999999999</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:18">
       <c r="A28" s="26"/>
       <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="31">
+        <v>841.46</v>
+      </c>
+      <c r="E28" s="31">
+        <v>967.88</v>
+      </c>
       <c r="F28" s="31">
         <f t="shared" si="1"/>
         <v>-1225.58</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:18">
       <c r="A29" s="26"/>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
@@ -9617,10 +9783,10 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:18">
       <c r="A30" s="26"/>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -9630,10 +9796,10 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:18">
       <c r="A31" s="26"/>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -9643,10 +9809,10 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:18">
       <c r="A32" s="26"/>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -9656,12 +9822,12 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" s="26"/>
       <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="30"/>
+        <v>89</v>
+      </c>
+      <c r="D33" s="31"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31">
         <f t="shared" si="1"/>
@@ -9669,12 +9835,12 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" s="26"/>
       <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="30"/>
+        <v>90</v>
+      </c>
+      <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31">
         <f t="shared" si="1"/>
@@ -9682,10 +9848,10 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" s="26"/>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
@@ -9695,359 +9861,382 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="32"/>
-      <c r="B36" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34">
+    <row r="36" spans="1:7">
+      <c r="A36" s="26"/>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31">
         <f t="shared" si="1"/>
         <v>-1225.58</v>
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="35">
+    <row r="37" spans="1:7">
+      <c r="A37" s="26"/>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31">
+        <f t="shared" si="1"/>
+        <v>-1225.58</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="32"/>
+      <c r="B38" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34">
+        <f t="shared" si="1"/>
+        <v>-1225.58</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="35">
         <v>45291</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B39" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="36">
-        <f>SUM(C25:C36)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39">
-        <f>D37-E37+F36</f>
+      <c r="C39" s="36">
+        <f>SUM(C27:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39">
+        <f>D39-E39+F38</f>
         <v>-1225.58</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="26"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="26"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="D39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="88" t="s">
+    <row r="41" spans="1:7">
+      <c r="D41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B42" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43">
-        <f>SUM(E41:E57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="F44" s="44"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="45"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43">
+        <f>SUM(E43:E67)</f>
+        <v>643664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:7">
       <c r="B46" t="s">
-        <v>327</v>
+        <v>484</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8"/>
-      <c r="F46" s="45"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="B47" t="s">
-        <v>329</v>
+        <v>485</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="51"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="B48" s="115" t="s">
-        <v>328</v>
+        <v>487</v>
       </c>
       <c r="C48" s="115"/>
       <c r="D48" s="115">
-        <v>170000</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="51"/>
+        <f>E49</f>
+        <v>353664</v>
+      </c>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="51"/>
+      <c r="B49" t="s">
+        <v>489</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>22104</v>
+      </c>
+      <c r="E49" s="3">
+        <f>D49*C49</f>
+        <v>353664</v>
+      </c>
+      <c r="F49" s="44"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="51"/>
+      <c r="B50" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="8"/>
+      <c r="F50" s="45"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
+      <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="51"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="3">
+        <v>290000</v>
+      </c>
+      <c r="F51" s="45"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42">
-        <v>84000</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="8"/>
+      <c r="F52" s="45"/>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="D53" s="8"/>
+      <c r="F53" s="45"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="D54" s="8"/>
+      <c r="F54" s="45"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="D55" s="8"/>
+      <c r="F55" s="45"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="3"/>
+      <c r="B56" t="s">
+        <v>327</v>
+      </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="D56" s="8"/>
+      <c r="F56" s="45"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="B57" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="B58" s="115" t="s">
+        <v>486</v>
+      </c>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115">
+        <v>170000</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="51"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="45"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="51"/>
     </row>
     <row r="60" spans="2:8">
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
       <c r="D60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="51"/>
     </row>
     <row r="61" spans="2:8">
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="51"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="D62" s="3"/>
+      <c r="B62" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42">
+        <v>84000</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="2:8">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="2:8">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="2:8">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="3"/>
-      <c r="F67" s="45"/>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="3"/>
-      <c r="F68" s="45"/>
+      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="F69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="F70" s="45"/>
+      <c r="D70" s="3"/>
+      <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="E71"/>
-      <c r="F71" s="45"/>
+      <c r="D71" s="3"/>
+      <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
       <c r="D78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="45"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="E81"/>
+      <c r="F81" s="45"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
@@ -10080,10 +10269,90 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157505" right="0.23622047244094502" top="0.70905511811023614" bottom="0.7062992125984251" header="0.31535433070866109" footer="0.3125984251968501"/>
@@ -10094,10 +10363,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10139,7 +10408,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
@@ -10161,7 +10430,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15">
         <f>SUM(E9:E21)</f>
-        <v>162230</v>
+        <v>239273.86062455762</v>
       </c>
       <c r="F4" s="16">
         <f>SUM(F9:F21)</f>
@@ -10169,7 +10438,7 @@
       </c>
       <c r="G4" s="17">
         <f>G21</f>
-        <v>27230</v>
+        <v>104273.86062455762</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10180,7 +10449,7 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="18">
-        <f>G53</f>
+        <f>G56</f>
         <v>0</v>
       </c>
       <c r="G5"/>
@@ -10193,7 +10462,7 @@
       <c r="C6" s="14"/>
       <c r="D6"/>
       <c r="E6" s="52">
-        <f>G50</f>
+        <f>G53</f>
         <v>-4079.59</v>
       </c>
       <c r="F6" s="14"/>
@@ -10216,7 +10485,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8"/>
@@ -10272,7 +10541,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -10287,24 +10556,26 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B13" s="139">
         <v>45292</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="46">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="D13" s="3">
         <f>C13*E11</f>
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="E13" s="138">
         <f>D13+E11</f>
-        <v>20000</v>
+        <v>21340</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>-95000</v>
+        <v>-93660</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -10312,19 +10583,21 @@
       <c r="B14" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="46">
+        <v>4.53E-2</v>
+      </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D19" si="1">C14*E13</f>
-        <v>0</v>
+        <f t="shared" ref="D14:D24" si="1">C14*E13</f>
+        <v>966.702</v>
       </c>
       <c r="E14" s="138">
-        <f t="shared" ref="E14:E19" si="2">D14+E13</f>
-        <v>20000</v>
+        <f t="shared" ref="E14:E24" si="2">D14+E13</f>
+        <v>22306.702000000001</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>-75000</v>
+        <v>-71353.297999999995</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -10332,19 +10605,21 @@
       <c r="B15" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="46">
+        <v>3.1600000000000003E-2</v>
+      </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>704.89178320000008</v>
       </c>
       <c r="E15" s="138">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>23011.593783200002</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>-55000</v>
+        <v>-48341.70421679999</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10352,19 +10627,21 @@
       <c r="B16" t="s">
         <v>318</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="46">
+        <v>3.1800000000000002E-2</v>
+      </c>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>731.76868230576008</v>
       </c>
       <c r="E16" s="138">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>23743.362465505761</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>-35000</v>
+        <v>-24598.341751294229</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10372,19 +10649,21 @@
       <c r="B17" t="s">
         <v>319</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="46">
+        <v>3.3700000000000001E-2</v>
+      </c>
       <c r="D17" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>800.15131508754416</v>
       </c>
       <c r="E17" s="138">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>24543.513780593305</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>-15000</v>
+        <v>-54.827970700924197</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10393,20 +10672,20 @@
         <v>278</v>
       </c>
       <c r="C18" s="46">
-        <v>0.03</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>402.51362600173024</v>
       </c>
       <c r="E18" s="138">
         <f t="shared" si="2"/>
-        <v>20600</v>
+        <v>24946.027406595036</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>5600</v>
+        <v>24891.199435894112</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10415,20 +10694,20 @@
         <v>279</v>
       </c>
       <c r="C19" s="46">
-        <v>0.05</v>
+        <v>3.3230000000000003E-2</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>1030</v>
+        <v>828.95649072115316</v>
       </c>
       <c r="E19" s="138">
         <f t="shared" si="2"/>
-        <v>21630</v>
+        <v>25774.98389731619</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>27230</v>
+        <v>50666.183333210298</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10436,13 +10715,21 @@
       <c r="B20" t="s">
         <v>280</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="46">
+        <v>2.4700000000000003E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>636.64210226370994</v>
+      </c>
+      <c r="E20" s="138">
+        <f t="shared" si="2"/>
+        <v>26411.625999579901</v>
+      </c>
       <c r="F20" s="28"/>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>27230</v>
+        <v>77077.809332790202</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10450,13 +10737,21 @@
       <c r="B21" t="s">
         <v>261</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21" s="27"/>
+      <c r="C21" s="46">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>784.42529218752304</v>
+      </c>
+      <c r="E21" s="138">
+        <f t="shared" si="2"/>
+        <v>27196.051291767424</v>
+      </c>
       <c r="F21" s="28"/>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>27230</v>
+        <v>104273.86062455762</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10464,9 +10759,17 @@
       <c r="B22" t="s">
         <v>262</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="46">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>783.24627720290175</v>
+      </c>
+      <c r="E22" s="138">
+        <f t="shared" si="2"/>
+        <v>27979.297568970327</v>
+      </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
     </row>
@@ -10475,9 +10778,17 @@
       <c r="B23" t="s">
         <v>263</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="46">
+        <v>2.2400000000000003E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>626.73626554493546</v>
+      </c>
+      <c r="E23" s="138">
+        <f t="shared" si="2"/>
+        <v>28606.033834515263</v>
+      </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
     </row>
@@ -10486,19 +10797,23 @@
       <c r="B24" t="s">
         <v>264</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24" s="30"/>
+      <c r="C24" s="46">
+        <v>1.03E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>294.64214849550723</v>
+      </c>
+      <c r="E24" s="138">
+        <f t="shared" si="2"/>
+        <v>28900.675983010769</v>
+      </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="B25" t="s">
-        <v>273</v>
-      </c>
+      <c r="A25" s="26"/>
+      <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25" s="30"/>
@@ -10507,9 +10822,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="26"/>
-      <c r="B26" t="s">
-        <v>274</v>
-      </c>
+      <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26" s="30"/>
@@ -10518,39 +10831,73 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="26"/>
-      <c r="B27" t="s">
-        <v>275</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" s="30"/>
+      <c r="B27"/>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>17002</v>
+      </c>
+      <c r="E27" s="30">
+        <f>D27*C27</f>
+        <v>408048</v>
+      </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="26"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
+      <c r="A28" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28">
+        <v>6.03</v>
+      </c>
+      <c r="D28" s="3">
+        <f>C28*E24</f>
+        <v>174271.07617755493</v>
+      </c>
+      <c r="E28" s="138">
+        <f>D28+E24</f>
+        <v>203171.75216056569</v>
+      </c>
+      <c r="F28" s="31">
+        <v>219000</v>
+      </c>
       <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="26"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" s="30"/>
+      <c r="B29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29">
+        <v>2.27</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" ref="D28:D29" si="3">C29*E28</f>
+        <v>461199.87740448414</v>
+      </c>
+      <c r="E29" s="138">
+        <f t="shared" ref="E28:E30" si="4">D29+E28</f>
+        <v>664371.62956504989</v>
+      </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26"/>
-      <c r="B30"/>
+      <c r="B30" t="s">
+        <v>275</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="E30" s="30"/>
+      <c r="E30" s="138">
+        <f t="shared" si="4"/>
+        <v>664371.62956504989</v>
+      </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
     </row>
@@ -10609,909 +10956,936 @@
       <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34">
-        <v>3000</v>
-      </c>
+      <c r="A37" s="26"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="26"/>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
+      <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38" s="30"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="31">
-        <v>-3924.11</v>
-      </c>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="26"/>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
+      <c r="B39"/>
       <c r="C39"/>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>875.64</v>
-      </c>
-      <c r="F39">
-        <v>875.64</v>
-      </c>
-      <c r="G39" s="31">
-        <f t="shared" ref="G39:G50" si="3">E39-F39+G38</f>
-        <v>-3924.11</v>
-      </c>
+      <c r="D39"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="26"/>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1036.52</v>
-      </c>
-      <c r="F40">
-        <v>1192</v>
-      </c>
-      <c r="G40" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
+      <c r="A40" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34">
+        <v>3000</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="26"/>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
-      <c r="F41"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
+        <v>-3924.11</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="26"/>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C42"/>
-      <c r="D42"/>
-      <c r="F42"/>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>875.64</v>
+      </c>
+      <c r="F42">
+        <v>875.64</v>
+      </c>
       <c r="G42" s="31">
-        <f t="shared" si="3"/>
-        <v>-4079.59</v>
+        <f t="shared" ref="G42:G53" si="5">E42-F42+G41</f>
+        <v>-3924.11</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="26"/>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43"/>
-      <c r="D43"/>
-      <c r="F43"/>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1036.52</v>
+      </c>
+      <c r="F43">
+        <v>1192</v>
+      </c>
       <c r="G43" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4079.59</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="26"/>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
       <c r="F44"/>
       <c r="G44" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4079.59</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="26"/>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
       <c r="F45"/>
       <c r="G45" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4079.59</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="26"/>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
       <c r="F46"/>
       <c r="G46" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4079.59</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="26"/>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="F47"/>
       <c r="G47" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4079.59</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="26"/>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
       <c r="F48"/>
       <c r="G48" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4079.59</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="26"/>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
+      <c r="F49"/>
       <c r="G49" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4079.59</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="32"/>
-      <c r="B50" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34">
-        <f t="shared" si="3"/>
+      <c r="A50" s="26"/>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="F50"/>
+      <c r="G50" s="31">
+        <f t="shared" si="5"/>
         <v>-4079.59</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="35">
-        <v>45291</v>
-      </c>
-      <c r="B51" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="36">
-        <f>SUM(D39:D50)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39">
-        <f>E51-F51+G50</f>
+      <c r="A51" s="26"/>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="F51"/>
+      <c r="G51" s="31">
+        <f t="shared" si="5"/>
         <v>-4079.59</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="7"/>
-      <c r="B52"/>
+      <c r="A52" s="26"/>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31">
+        <f t="shared" si="5"/>
+        <v>-4079.59</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="43">
-        <f>SUM(F54:F58)</f>
-        <v>0</v>
+      <c r="A53" s="32"/>
+      <c r="B53" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34">
+        <f t="shared" si="5"/>
+        <v>-4079.59</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
+      <c r="A54" s="35">
+        <v>45291</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="36">
+        <f>SUM(D42:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="37"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39">
+        <f>E54-F54+G53</f>
+        <v>-4079.59</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="7"/>
-      <c r="B55" t="s">
-        <v>96</v>
-      </c>
+      <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="7"/>
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56"/>
-      <c r="D56" s="3">
-        <v>36000</v>
+      <c r="A56" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43">
+        <f>SUM(F57:F61)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="7"/>
-      <c r="B57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57"/>
-      <c r="D57" s="3">
-        <v>43160</v>
-      </c>
-      <c r="G57" s="44"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="7"/>
-      <c r="B58" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="42">
-        <v>82000</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="G58" s="45"/>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="7"/>
       <c r="B59" t="s">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="C59"/>
       <c r="D59" s="3">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="7"/>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60" s="3">
+        <v>43160</v>
+      </c>
+      <c r="G60" s="44"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="7"/>
+      <c r="B61" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="42">
+        <v>82000</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="G61" s="45"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="7"/>
+      <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" s="3">
         <v>135000</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="G59" s="45"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="54">
-        <v>45214</v>
-      </c>
-      <c r="B60" t="s">
-        <v>266</v>
-      </c>
-      <c r="C60"/>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="54">
-        <v>45214</v>
-      </c>
-      <c r="B61" t="s">
-        <v>267</v>
-      </c>
-      <c r="C61"/>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="54">
-        <v>45214</v>
-      </c>
-      <c r="B62" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62"/>
-      <c r="E62"/>
+      <c r="E62" s="8"/>
+      <c r="G62" s="45"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="54">
-        <v>44321</v>
+        <v>45214</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="C63"/>
       <c r="E63"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="54">
-        <v>44367</v>
+        <v>45214</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="C64"/>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:5">
       <c r="A65" s="54">
-        <v>44459</v>
+        <v>45214</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C65"/>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:5">
       <c r="A66" s="54">
-        <v>44459</v>
+        <v>44321</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C66"/>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:5">
       <c r="A67" s="54">
-        <v>44433</v>
+        <v>44367</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C67"/>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:5">
       <c r="A68" s="54">
-        <v>44449</v>
+        <v>44459</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C68"/>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:5">
       <c r="A69" s="54">
+        <v>44459</v>
+      </c>
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69"/>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="54">
+        <v>44433</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70"/>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="54">
+        <v>44449</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71"/>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="54">
         <v>44201</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" t="s">
         <v>107</v>
       </c>
-      <c r="C69"/>
-      <c r="E69" s="2">
+      <c r="C72"/>
+      <c r="E72" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="54">
+    <row r="73" spans="1:5">
+      <c r="A73" s="54">
         <v>44931</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>108</v>
       </c>
-      <c r="C70"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="54">
+      <c r="C73"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="54">
         <v>44252</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>109</v>
       </c>
-      <c r="C71"/>
-      <c r="E71" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="54">
-        <v>44285</v>
-      </c>
-      <c r="B72" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72"/>
-      <c r="E72" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="54">
-        <v>44413</v>
-      </c>
-      <c r="B73" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73"/>
-      <c r="E73" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="B74" t="s">
-        <v>114</v>
-      </c>
       <c r="C74"/>
-      <c r="D74"/>
       <c r="E74" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="54"/>
-      <c r="B75"/>
+    <row r="75" spans="1:5">
+      <c r="A75" s="54">
+        <v>44285</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
       <c r="C75"/>
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="54"/>
-      <c r="B76"/>
+      <c r="E75" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="54">
+        <v>44413</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
       <c r="C76"/>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="B77"/>
+      <c r="E76" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
       <c r="C77"/>
       <c r="D77"/>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="E77" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="54"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="E78"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="51"/>
-    </row>
-    <row r="79" spans="1:8">
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="54"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="E79"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="51"/>
-    </row>
-    <row r="80" spans="1:8">
+    </row>
+    <row r="80" spans="1:5">
       <c r="B80"/>
       <c r="C80"/>
+      <c r="D80"/>
       <c r="E80"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="51"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F81" s="1"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="E81"/>
       <c r="G81" s="46"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="F82" s="1"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="E82"/>
       <c r="G82" s="46"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" t="s">
-        <v>116</v>
-      </c>
+      <c r="B83"/>
       <c r="C83"/>
-      <c r="E83">
-        <v>42.07</v>
-      </c>
-      <c r="F83" s="3">
-        <f>D83-E83</f>
-        <v>-42.07</v>
-      </c>
+      <c r="E83"/>
       <c r="G83" s="46"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84"/>
-      <c r="E84">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="F84" s="3">
-        <f t="shared" ref="F84:F95" si="4">F83+D84-E84</f>
-        <v>-76.52000000000001</v>
-      </c>
+      <c r="B84" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="51"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85"/>
-      <c r="E85">
-        <v>20.05</v>
-      </c>
-      <c r="F85" s="3">
-        <f t="shared" si="4"/>
-        <v>-96.570000000000007</v>
-      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="51"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C86"/>
       <c r="E86">
-        <v>34.700000000000003</v>
+        <v>42.07</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="4"/>
-        <v>-131.27000000000001</v>
-      </c>
+        <f>D86-E86</f>
+        <v>-42.07</v>
+      </c>
+      <c r="G86" s="46"/>
+      <c r="H86" s="51"/>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C87"/>
       <c r="E87">
-        <v>34.340000000000003</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" si="4"/>
-        <v>-165.61</v>
+        <f t="shared" ref="F87:F98" si="6">F86+D87-E87</f>
+        <v>-76.52000000000001</v>
       </c>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C88"/>
       <c r="E88">
-        <v>-65.91</v>
+        <v>20.05</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="4"/>
-        <v>-99.700000000000017</v>
+        <f t="shared" si="6"/>
+        <v>-96.570000000000007</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C89"/>
       <c r="E89">
-        <v>31.54</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="4"/>
-        <v>-131.24</v>
+        <f t="shared" si="6"/>
+        <v>-131.27000000000001</v>
       </c>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C90"/>
       <c r="E90">
-        <v>0</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="4"/>
-        <v>-131.24</v>
+        <f t="shared" si="6"/>
+        <v>-165.61</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C91"/>
       <c r="E91">
-        <v>45.99</v>
+        <v>-65.91</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="4"/>
-        <v>-177.23000000000002</v>
+        <f t="shared" si="6"/>
+        <v>-99.700000000000017</v>
       </c>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C92"/>
       <c r="E92">
-        <v>42.89</v>
+        <v>31.54</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="4"/>
-        <v>-220.12</v>
+        <f t="shared" si="6"/>
+        <v>-131.24</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C93"/>
       <c r="E93">
-        <v>34.979999999999997</v>
+        <v>0</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" si="4"/>
-        <v>-255.1</v>
+        <f t="shared" si="6"/>
+        <v>-131.24</v>
       </c>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C94"/>
       <c r="E94">
-        <v>0</v>
+        <v>45.99</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>-177.23000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95"/>
+      <c r="E95">
+        <v>42.89</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="6"/>
+        <v>-220.12</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96"/>
+      <c r="E96">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" si="6"/>
         <v>-255.1</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="51">
-        <f t="shared" si="4"/>
+    <row r="97" spans="2:6">
+      <c r="B97" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97"/>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="6"/>
         <v>-255.1</v>
       </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="51"/>
       <c r="E98" s="1"/>
       <c r="F98" s="51">
+        <f t="shared" si="6"/>
         <v>-255.1</v>
       </c>
     </row>
-    <row r="99" spans="2:6">
-      <c r="B99" t="s">
+    <row r="101" spans="2:6">
+      <c r="B101" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="51">
+        <v>-255.1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" t="s">
         <v>130</v>
       </c>
-      <c r="C99"/>
-      <c r="E99">
+      <c r="C102"/>
+      <c r="E102">
         <v>30.04</v>
       </c>
-      <c r="F99" s="3">
-        <f t="shared" ref="F99:F114" si="5">F98+D99-E99</f>
+      <c r="F102" s="3">
+        <f t="shared" ref="F102:F117" si="7">F101+D102-E102</f>
         <v>-285.14</v>
       </c>
     </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="55">
+    <row r="103" spans="2:6">
+      <c r="B103" s="55">
         <v>44593</v>
       </c>
-      <c r="C100" s="55"/>
-      <c r="E100">
+      <c r="C103" s="55"/>
+      <c r="E103">
         <v>135.32</v>
       </c>
-      <c r="F100" s="3">
-        <f t="shared" si="5"/>
+      <c r="F103" s="3">
+        <f t="shared" si="7"/>
         <v>-420.46</v>
       </c>
     </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="55">
+    <row r="104" spans="2:6">
+      <c r="B104" s="55">
         <v>44621</v>
       </c>
-      <c r="C101" s="55"/>
-      <c r="E101">
+      <c r="C104" s="55"/>
+      <c r="E104">
         <v>98.9</v>
       </c>
-      <c r="F101" s="3">
-        <f t="shared" si="5"/>
+      <c r="F104" s="3">
+        <f t="shared" si="7"/>
         <v>-519.36</v>
       </c>
     </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="55">
+    <row r="105" spans="2:6">
+      <c r="B105" s="55">
         <v>44652</v>
       </c>
-      <c r="C102" s="55"/>
-      <c r="E102">
+      <c r="C105" s="55"/>
+      <c r="E105">
         <v>135.6</v>
       </c>
-      <c r="F102" s="3">
-        <f t="shared" si="5"/>
+      <c r="F105" s="3">
+        <f t="shared" si="7"/>
         <v>-654.96</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" t="s">
-        <v>131</v>
-      </c>
-      <c r="C103"/>
-      <c r="E103">
-        <v>214.37</v>
-      </c>
-      <c r="F103" s="3">
-        <f t="shared" si="5"/>
-        <v>-869.33</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104"/>
-      <c r="E104">
-        <v>427.65</v>
-      </c>
-      <c r="F104" s="3">
-        <f t="shared" si="5"/>
-        <v>-1296.98</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C105"/>
-      <c r="E105">
-        <v>446.55</v>
-      </c>
-      <c r="F105" s="3">
-        <f t="shared" si="5"/>
-        <v>-1743.53</v>
       </c>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C106"/>
       <c r="E106">
-        <v>333.96</v>
+        <v>214.37</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="5"/>
-        <v>-2077.4899999999998</v>
+        <f t="shared" si="7"/>
+        <v>-869.33</v>
       </c>
     </row>
     <row r="107" spans="2:6">
       <c r="B107" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C107"/>
       <c r="E107">
-        <v>324.51</v>
+        <v>427.65</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="5"/>
-        <v>-2402</v>
+        <f t="shared" si="7"/>
+        <v>-1296.98</v>
       </c>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C108"/>
       <c r="E108">
-        <v>331.27</v>
+        <v>446.55</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="5"/>
-        <v>-2733.27</v>
+        <f t="shared" si="7"/>
+        <v>-1743.53</v>
       </c>
     </row>
     <row r="109" spans="2:6">
       <c r="B109" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C109"/>
-      <c r="D109" s="3">
-        <v>50</v>
-      </c>
-      <c r="E109"/>
+      <c r="E109">
+        <v>333.96</v>
+      </c>
       <c r="F109" s="3">
-        <f t="shared" si="5"/>
-        <v>-2683.27</v>
+        <f t="shared" si="7"/>
+        <v>-2077.4899999999998</v>
       </c>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="55">
-        <v>44866</v>
-      </c>
-      <c r="C110" s="55"/>
+      <c r="B110" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110"/>
       <c r="E110">
-        <v>412.42</v>
+        <v>324.51</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="5"/>
-        <v>-3095.69</v>
+        <f t="shared" si="7"/>
+        <v>-2402</v>
       </c>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C111"/>
       <c r="E111">
-        <v>426.12</v>
+        <v>331.27</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" si="5"/>
-        <v>-3521.81</v>
+        <f t="shared" si="7"/>
+        <v>-2733.27</v>
       </c>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C112"/>
       <c r="D112" s="3">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="E112"/>
       <c r="F112" s="3">
-        <f t="shared" si="5"/>
-        <v>-1521.81</v>
+        <f t="shared" si="7"/>
+        <v>-2683.27</v>
       </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" t="s">
-        <v>139</v>
-      </c>
-      <c r="C113"/>
-      <c r="D113" s="3">
-        <v>500</v>
-      </c>
-      <c r="E113"/>
+      <c r="B113" s="55">
+        <v>44866</v>
+      </c>
+      <c r="C113" s="55"/>
+      <c r="E113">
+        <v>412.42</v>
+      </c>
       <c r="F113" s="3">
-        <f t="shared" si="5"/>
-        <v>-1021.81</v>
+        <f t="shared" si="7"/>
+        <v>-3095.69</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114"/>
+      <c r="E114">
+        <v>426.12</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" si="7"/>
+        <v>-3521.81</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" s="3">
+        <f t="shared" si="7"/>
+        <v>-1521.81</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116" s="3">
+        <v>500</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" s="3">
+        <f t="shared" si="7"/>
+        <v>-1021.81</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" t="s">
         <v>140</v>
       </c>
-      <c r="C114"/>
-      <c r="E114"/>
-      <c r="F114" s="51">
-        <f t="shared" si="5"/>
+      <c r="C117"/>
+      <c r="E117"/>
+      <c r="F117" s="51">
+        <f t="shared" si="7"/>
         <v>-1021.81</v>
       </c>
     </row>
@@ -11527,16 +11901,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1C87F-6CBB-48CF-9073-716B69FD2C1F}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -11546,7 +11920,7 @@
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="194"/>
       <c r="B1" s="195" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C1" s="196"/>
       <c r="D1" s="197"/>
@@ -11567,7 +11941,7 @@
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="207" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B3" s="198"/>
       <c r="C3" s="196"/>
@@ -11575,7 +11949,7 @@
       <c r="E3" s="208"/>
       <c r="F3" s="209">
         <f>SUM(F7:F60)</f>
-        <v>523609.10782602523</v>
+        <v>521637.74996196217</v>
       </c>
       <c r="G3" s="209">
         <f>SUM(G7:G60)</f>
@@ -11583,16 +11957,18 @@
       </c>
       <c r="H3" s="210">
         <f>F3-G3</f>
-        <v>169609.10782602523</v>
+        <v>167637.74996196217</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="207"/>
       <c r="B4" s="198"/>
-      <c r="C4" s="196"/>
+      <c r="C4" s="196" t="s">
+        <v>495</v>
+      </c>
       <c r="D4" s="197"/>
       <c r="E4" s="198" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F4" s="209"/>
       <c r="G4" s="209"/>
@@ -11606,13 +11982,13 @@
         <v>24</v>
       </c>
       <c r="C5" s="213" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="D5" s="214" t="s">
-        <v>349</v>
+        <v>496</v>
       </c>
       <c r="E5" s="215" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F5" s="216" t="s">
         <v>212</v>
@@ -11634,7 +12010,7 @@
       <c r="G6" s="200"/>
       <c r="H6" s="200">
         <f t="shared" ref="H6:H33" si="0">H7+F6-G6</f>
-        <v>169609.1078260252</v>
+        <v>167637.74996196217</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -11647,7 +12023,7 @@
       <c r="G7" s="200"/>
       <c r="H7" s="200">
         <f t="shared" si="0"/>
-        <v>169609.1078260252</v>
+        <v>167637.74996196217</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11660,7 +12036,7 @@
       <c r="G8" s="200"/>
       <c r="H8" s="200">
         <f t="shared" si="0"/>
-        <v>169609.1078260252</v>
+        <v>167637.74996196217</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11673,7 +12049,7 @@
       <c r="G9" s="200"/>
       <c r="H9" s="200">
         <f t="shared" si="0"/>
-        <v>169609.1078260252</v>
+        <v>167637.74996196217</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -11686,7 +12062,7 @@
       <c r="G10" s="200"/>
       <c r="H10" s="200">
         <f t="shared" si="0"/>
-        <v>169609.1078260252</v>
+        <v>167637.74996196217</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -11699,7 +12075,7 @@
       <c r="G11" s="200"/>
       <c r="H11" s="200">
         <f t="shared" si="0"/>
-        <v>169609.1078260252</v>
+        <v>167637.74996196217</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11712,28 +12088,28 @@
       <c r="G12" s="200"/>
       <c r="H12" s="200">
         <f t="shared" si="0"/>
-        <v>169609.1078260252</v>
+        <v>167637.74996196217</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="194"/>
       <c r="B13" s="218" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C13" s="196"/>
       <c r="D13" s="197"/>
       <c r="E13" s="199">
         <f>E15+E14</f>
-        <v>49910.621210809761</v>
+        <v>47976.584638890883</v>
       </c>
       <c r="F13" s="199">
         <f>E13</f>
-        <v>49910.621210809761</v>
+        <v>47976.584638890883</v>
       </c>
       <c r="G13" s="200"/>
       <c r="H13" s="200">
         <f t="shared" si="0"/>
-        <v>169609.1078260252</v>
+        <v>167637.74996196217</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11741,65 +12117,65 @@
         <v>45716</v>
       </c>
       <c r="B14" s="218" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C14" s="196">
-        <v>3000</v>
+        <v>2883.75</v>
       </c>
       <c r="D14" s="197">
         <f>(C14/C17)-1</f>
-        <v>3.4482758620689724E-2</v>
+        <v>2.2733317964995559E-2</v>
       </c>
       <c r="E14" s="219">
         <f>F15*D14</f>
-        <v>1663.6873736936618</v>
+        <v>1066.4236065376308</v>
       </c>
       <c r="F14" s="199">
         <f>H15*D14</f>
-        <v>3989.9495538405226</v>
+        <v>2659.8285902761463</v>
       </c>
       <c r="G14" s="200"/>
       <c r="H14" s="200">
         <f t="shared" si="0"/>
-        <v>119698.48661521544</v>
+        <v>119661.16532307127</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="194"/>
       <c r="B15" s="218" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C15" s="196"/>
       <c r="D15" s="197"/>
       <c r="E15" s="199">
         <f>E18+E17</f>
-        <v>48246.933837116099</v>
+        <v>46910.161032353251</v>
       </c>
       <c r="F15" s="199">
         <f>E15</f>
-        <v>48246.933837116099</v>
+        <v>46910.161032353251</v>
       </c>
       <c r="G15" s="200"/>
       <c r="H15" s="200">
         <f t="shared" si="0"/>
-        <v>115708.53706137493</v>
+        <v>117001.33673279513</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="194"/>
-      <c r="B16" s="259" t="s">
-        <v>476</v>
+      <c r="B16" s="258" t="s">
+        <v>473</v>
       </c>
       <c r="C16" s="196"/>
       <c r="D16" s="197"/>
       <c r="E16" s="199"/>
-      <c r="F16" s="260">
-        <v>18000</v>
+      <c r="F16" s="259">
+        <v>22000</v>
       </c>
       <c r="G16" s="200"/>
       <c r="H16" s="200">
         <f t="shared" si="0"/>
-        <v>67461.603224258826</v>
+        <v>70091.175700441876</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -11807,51 +12183,51 @@
         <v>45687</v>
       </c>
       <c r="B17" s="218" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C17" s="196">
-        <v>2900</v>
+        <v>2819.65</v>
       </c>
       <c r="D17" s="197">
         <f>(C17/C19)-1</f>
-        <v>3.5714285714285809E-2</v>
+        <v>5.0325007915665632E-2</v>
       </c>
       <c r="E17" s="219">
         <f>F18*D17</f>
-        <v>1663.6873736936629</v>
+        <v>2247.6416418601357</v>
       </c>
       <c r="F17" s="199">
         <f>H18*D17</f>
-        <v>1705.5725249744467</v>
+        <v>2304.2284812404746</v>
       </c>
       <c r="G17" s="200"/>
       <c r="H17" s="200">
         <f t="shared" si="0"/>
-        <v>49461.603224258826</v>
-      </c>
-      <c r="J17" s="254">
+        <v>48091.175700441869</v>
+      </c>
+      <c r="J17" s="253">
         <v>45677</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="194"/>
       <c r="B18" s="218" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C18" s="196"/>
       <c r="D18" s="197"/>
       <c r="E18" s="199">
         <f>E20+E19</f>
-        <v>46583.246463422438</v>
+        <v>44662.519390493115</v>
       </c>
       <c r="F18" s="199">
         <f>E18</f>
-        <v>46583.246463422438</v>
+        <v>44662.519390493115</v>
       </c>
       <c r="G18" s="200"/>
       <c r="H18" s="200">
         <f t="shared" si="0"/>
-        <v>47756.030699284376</v>
+        <v>45786.947219201393</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -11859,33 +12235,33 @@
         <v>45656</v>
       </c>
       <c r="B19" s="218" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C19" s="196">
-        <v>2800</v>
+        <v>2684.55</v>
       </c>
       <c r="D19" s="197">
         <f>(C19/C23)-1</f>
-        <v>5.372888308501711E-2</v>
+        <v>1.0281383244958198E-2</v>
       </c>
       <c r="E19" s="219">
         <f>F20*D19</f>
-        <v>2375.2464634224366</v>
+        <v>454.51939049311198</v>
       </c>
       <c r="F19" s="199">
         <f>IF(H20&lt;=0,,(H20*D19))</f>
-        <v>59.79943048357466</v>
+        <v>11.443023329910176</v>
       </c>
       <c r="G19" s="200"/>
       <c r="H19" s="200">
         <f t="shared" si="0"/>
-        <v>1172.7842358619391</v>
+        <v>1124.4278287082745</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="194"/>
       <c r="B20" s="218" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C20" s="196"/>
       <c r="D20" s="197"/>
@@ -11905,7 +12281,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="194"/>
       <c r="B21" s="218" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="C21" s="196"/>
       <c r="D21" s="197"/>
@@ -11932,7 +12308,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="194"/>
       <c r="B22" s="218" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C22" s="196"/>
       <c r="D22" s="197"/>
@@ -11955,7 +12331,7 @@
         <v>45626</v>
       </c>
       <c r="B23" s="218" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C23" s="224">
         <v>2657.23</v>
@@ -11985,7 +12361,7 @@
     <row r="24" spans="1:11">
       <c r="A24" s="194"/>
       <c r="B24" s="218" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C24" s="196"/>
       <c r="D24" s="197"/>
@@ -12008,7 +12384,7 @@
         <v>45595</v>
       </c>
       <c r="B25" s="218" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C25" s="223">
         <v>2598.91</v>
@@ -12031,10 +12407,10 @@
         <v>136650.60128797207</v>
       </c>
       <c r="I25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J25" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K25" t="s">
         <v>177</v>
@@ -12043,7 +12419,7 @@
     <row r="26" spans="1:11">
       <c r="A26" s="194"/>
       <c r="B26" s="218" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C26" s="196"/>
       <c r="D26" s="197"/>
@@ -12076,7 +12452,7 @@
         <v>45565</v>
       </c>
       <c r="B27" s="218" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C27" s="221">
         <v>2526.16</v>
@@ -12106,7 +12482,7 @@
     <row r="28" spans="1:11">
       <c r="A28" s="194"/>
       <c r="B28" s="218" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C28" s="196"/>
       <c r="D28" s="197"/>
@@ -12132,7 +12508,7 @@
         <v>45534</v>
       </c>
       <c r="B29" s="218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C29" s="196">
         <v>2453.34</v>
@@ -12158,7 +12534,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="194"/>
       <c r="B30" s="218" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C30" s="196"/>
       <c r="D30" s="197"/>
@@ -12181,7 +12557,7 @@
         <v>45503</v>
       </c>
       <c r="B31" s="218" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C31" s="196">
         <v>2394.1</v>
@@ -12207,7 +12583,7 @@
     <row r="32" spans="1:11">
       <c r="A32" s="194"/>
       <c r="B32" s="218" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C32" s="196"/>
       <c r="D32" s="197"/>
@@ -12230,7 +12606,7 @@
         <v>45473</v>
       </c>
       <c r="B33" s="218" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C33" s="196">
         <v>2319.29</v>
@@ -12256,7 +12632,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="194"/>
       <c r="B34" s="218" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C34" s="196"/>
       <c r="D34" s="197"/>
@@ -12279,7 +12655,7 @@
         <v>45442</v>
       </c>
       <c r="B35" s="218" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C35" s="196">
         <v>2281.85</v>
@@ -12305,7 +12681,7 @@
     <row r="36" spans="1:8">
       <c r="A36" s="194"/>
       <c r="B36" s="218" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C36" s="196"/>
       <c r="D36" s="197"/>
@@ -12328,7 +12704,7 @@
         <v>45412</v>
       </c>
       <c r="B37" s="218" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C37" s="196">
         <v>2207.5</v>
@@ -12354,7 +12730,7 @@
     <row r="38" spans="1:8">
       <c r="A38" s="194"/>
       <c r="B38" s="218" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C38" s="196"/>
       <c r="D38" s="197"/>
@@ -12377,7 +12753,7 @@
         <v>45381</v>
       </c>
       <c r="B39" s="218" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C39" s="196">
         <v>2139.4699999999998</v>
@@ -12403,7 +12779,7 @@
     <row r="40" spans="1:8">
       <c r="A40" s="194"/>
       <c r="B40" s="218" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C40" s="196"/>
       <c r="D40" s="197"/>
@@ -12426,7 +12802,7 @@
         <v>45351</v>
       </c>
       <c r="B41" s="218" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C41" s="196">
         <v>2073.88</v>
@@ -12450,22 +12826,22 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="194"/>
-      <c r="B42" s="218" t="s">
-        <v>439</v>
-      </c>
-      <c r="C42" s="196"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="199">
+      <c r="A42" s="301"/>
+      <c r="B42" s="302" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" s="303"/>
+      <c r="D42" s="304"/>
+      <c r="E42" s="306">
         <f>E45+E43</f>
         <v>21965.347356767226</v>
       </c>
-      <c r="F42" s="253">
+      <c r="F42" s="308">
         <f>F45</f>
         <v>20000</v>
       </c>
-      <c r="G42" s="200"/>
-      <c r="H42" s="200">
+      <c r="G42" s="307"/>
+      <c r="H42" s="307">
         <f t="shared" si="1"/>
         <v>-65000</v>
       </c>
@@ -12475,7 +12851,7 @@
         <v>45321</v>
       </c>
       <c r="B43" s="218" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C43" s="196">
         <v>1984.02</v>
@@ -12501,7 +12877,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="194"/>
       <c r="B44" s="218" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C44" s="196"/>
       <c r="D44" s="197"/>
@@ -12516,22 +12892,22 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="194"/>
-      <c r="B45" s="218" t="s">
-        <v>438</v>
-      </c>
-      <c r="C45" s="196"/>
-      <c r="D45" s="197"/>
-      <c r="E45" s="199">
+      <c r="A45" s="301"/>
+      <c r="B45" s="302" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" s="303"/>
+      <c r="D45" s="304"/>
+      <c r="E45" s="306">
         <f>F47+E46</f>
         <v>20585.441461389426</v>
       </c>
-      <c r="F45" s="253">
+      <c r="F45" s="308">
         <f>F47</f>
         <v>20000</v>
       </c>
-      <c r="G45" s="200"/>
-      <c r="H45" s="200">
+      <c r="G45" s="307"/>
+      <c r="H45" s="307">
         <f>H46+F45-G45</f>
         <v>-95000</v>
       </c>
@@ -12541,7 +12917,7 @@
         <v>45290</v>
       </c>
       <c r="B46" s="218" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C46" s="196">
         <v>1859.38</v>
@@ -12565,18 +12941,18 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="194"/>
-      <c r="B47" s="218" t="s">
-        <v>437</v>
-      </c>
-      <c r="C47" s="196"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="198"/>
-      <c r="F47" s="199">
+      <c r="A47" s="301"/>
+      <c r="B47" s="302" t="s">
+        <v>435</v>
+      </c>
+      <c r="C47" s="303"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="305"/>
+      <c r="F47" s="306">
         <v>20000</v>
       </c>
-      <c r="G47" s="200"/>
-      <c r="H47" s="200">
+      <c r="G47" s="307"/>
+      <c r="H47" s="307">
         <f>H48+F47-G47</f>
         <v>-115000</v>
       </c>
@@ -12601,7 +12977,7 @@
         <v>45260</v>
       </c>
       <c r="B49" s="218" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C49" s="196">
         <v>1806.5</v>
@@ -12752,7 +13128,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="B1" s="179" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C1" s="8"/>
       <c r="F1" s="9" t="s">
@@ -12847,7 +13223,7 @@
         <v>45167</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="24">
@@ -12861,7 +13237,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="24"/>
@@ -12875,7 +13251,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="24"/>
@@ -12889,7 +13265,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" s="92"/>
       <c r="D12" s="24"/>
@@ -12903,7 +13279,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C13" s="92"/>
       <c r="D13" s="24"/>
@@ -12917,7 +13293,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="27"/>
@@ -13025,7 +13401,7 @@
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -13263,13 +13639,13 @@
         <v>45402</v>
       </c>
       <c r="B43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C43"/>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="3">
@@ -13310,7 +13686,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C49">
         <f>A48-A45</f>
@@ -13337,7 +13713,7 @@
         <v>45402</v>
       </c>
       <c r="B52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C52" s="147"/>
       <c r="D52" s="148"/>
@@ -13349,7 +13725,7 @@
     <row r="53" spans="1:8">
       <c r="A53" s="147"/>
       <c r="B53" s="146" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C53" s="147"/>
       <c r="D53" s="148"/>
@@ -13369,7 +13745,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="148" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -13377,7 +13753,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="145"/>
       <c r="B55" s="147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C55" s="147"/>
       <c r="D55" s="148">
@@ -13409,7 +13785,7 @@
         <v>45402</v>
       </c>
       <c r="B57" s="147" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C57" s="147"/>
       <c r="D57" s="148"/>
@@ -13426,7 +13802,7 @@
         <v>45813</v>
       </c>
       <c r="B58" s="147" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C58" s="147"/>
       <c r="E58"/>
@@ -13442,7 +13818,7 @@
         <v>45170</v>
       </c>
       <c r="B59" s="147" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C59" s="147"/>
       <c r="E59">
@@ -13460,7 +13836,7 @@
         <v>45199</v>
       </c>
       <c r="B60" s="147" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C60" s="147"/>
       <c r="E60">
@@ -13478,7 +13854,7 @@
         <v>45229</v>
       </c>
       <c r="B61" s="147" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C61" s="147"/>
       <c r="E61">
@@ -13496,7 +13872,7 @@
         <v>45260</v>
       </c>
       <c r="B62" s="147" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C62" s="147"/>
       <c r="E62">
@@ -13512,7 +13888,7 @@
     <row r="63" spans="1:8">
       <c r="A63" s="145"/>
       <c r="B63" s="147" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C63" s="147"/>
       <c r="E63">
@@ -13535,7 +13911,7 @@
     <row r="65" spans="1:6" ht="15">
       <c r="A65" s="145"/>
       <c r="B65" s="147" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C65" s="150">
         <f>A58-A57</f>
@@ -13547,7 +13923,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="145"/>
       <c r="B66" s="147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C66" s="146">
         <f>(D55-24)/C65</f>
@@ -13561,7 +13937,7 @@
         <v>45813</v>
       </c>
       <c r="B67" s="152" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C67" s="153"/>
       <c r="D67" s="154"/>
@@ -13571,7 +13947,7 @@
     <row r="68" spans="1:6" ht="13.5" thickTop="1">
       <c r="A68"/>
       <c r="B68" s="147" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C68" s="146">
         <f>A67-A57</f>
@@ -13584,7 +13960,7 @@
     <row r="69" spans="1:6">
       <c r="A69" s="145"/>
       <c r="B69" s="147" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C69" s="147"/>
       <c r="D69" s="3">
@@ -13597,7 +13973,7 @@
     <row r="70" spans="1:6">
       <c r="A70" s="145"/>
       <c r="B70" s="147" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C70" s="147"/>
       <c r="D70" s="3">
@@ -13610,10 +13986,10 @@
     <row r="71" spans="1:6" ht="15.75" thickBot="1">
       <c r="A71" s="145"/>
       <c r="B71" s="155" t="s">
+        <v>378</v>
+      </c>
+      <c r="C71" s="155" t="s">
         <v>379</v>
-      </c>
-      <c r="C71" s="155" t="s">
-        <v>380</v>
       </c>
       <c r="D71" s="156">
         <f>SUM(D70:D70)</f>
@@ -13625,10 +14001,10 @@
     <row r="72" spans="1:6" ht="13.5" thickTop="1">
       <c r="A72" s="145"/>
       <c r="B72" s="147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C72" s="147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="148"/>
@@ -13636,10 +14012,10 @@
     <row r="73" spans="1:6">
       <c r="A73" s="145"/>
       <c r="B73" s="147" t="s">
+        <v>381</v>
+      </c>
+      <c r="C73" s="147" t="s">
         <v>382</v>
-      </c>
-      <c r="C73" s="147" t="s">
-        <v>383</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="148"/>
@@ -13647,10 +14023,10 @@
     <row r="74" spans="1:6">
       <c r="A74" s="145"/>
       <c r="B74" s="147" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C74" s="147" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E74"/>
       <c r="F74" s="148"/>
@@ -13665,10 +14041,10 @@
     <row r="76" spans="1:6" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A76" s="147"/>
       <c r="B76" s="158" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C76" s="159" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D76" s="156">
         <f>SUM(D71:D75)</f>
@@ -13969,7 +14345,7 @@
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -14522,7 +14898,7 @@
     <row r="73" spans="1:8">
       <c r="A73" s="147"/>
       <c r="B73" s="146" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C73" s="147"/>
       <c r="D73" s="148"/>
@@ -14542,7 +14918,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="148" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -14580,7 +14956,7 @@
         <v>45168</v>
       </c>
       <c r="B77" s="147" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C77" s="147"/>
       <c r="D77" s="148"/>
@@ -14597,7 +14973,7 @@
         <v>45533</v>
       </c>
       <c r="B78" s="147" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" s="147"/>
       <c r="E78"/>
@@ -14613,7 +14989,7 @@
         <v>45170</v>
       </c>
       <c r="B79" s="147" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C79" s="147"/>
       <c r="E79">
@@ -14631,7 +15007,7 @@
         <v>45199</v>
       </c>
       <c r="B80" s="147" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C80" s="147"/>
       <c r="E80">
@@ -14649,7 +15025,7 @@
         <v>45229</v>
       </c>
       <c r="B81" s="147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C81" s="147"/>
       <c r="E81">
@@ -14667,7 +15043,7 @@
         <v>45260</v>
       </c>
       <c r="B82" s="147" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82" s="147"/>
       <c r="E82">
@@ -14685,7 +15061,7 @@
         <v>45290</v>
       </c>
       <c r="B83" s="147" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C83" s="147"/>
       <c r="E83">
@@ -14703,10 +15079,10 @@
         <v>45321</v>
       </c>
       <c r="B84" s="147" t="s">
+        <v>370</v>
+      </c>
+      <c r="C84" s="149" t="s">
         <v>371</v>
-      </c>
-      <c r="C84" s="149" t="s">
-        <v>372</v>
       </c>
       <c r="E84"/>
       <c r="F84" s="148">
@@ -14726,7 +15102,7 @@
     <row r="86" spans="1:8" ht="15">
       <c r="A86" s="145"/>
       <c r="B86" s="147" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C86" s="150">
         <f>A78-A77</f>
@@ -14738,7 +15114,7 @@
     <row r="87" spans="1:8">
       <c r="A87" s="145"/>
       <c r="B87" s="147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C87" s="146">
         <f>D75/C86</f>
@@ -14752,7 +15128,7 @@
         <v>45413</v>
       </c>
       <c r="B88" s="152" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C88" s="153"/>
       <c r="D88" s="154"/>
@@ -14761,7 +15137,7 @@
     <row r="89" spans="1:8" ht="13.5" thickTop="1">
       <c r="A89"/>
       <c r="B89" s="147" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C89" s="146">
         <f>A88-A77</f>
@@ -14773,7 +15149,7 @@
     <row r="90" spans="1:8">
       <c r="A90" s="145"/>
       <c r="B90" s="147" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C90" s="147"/>
       <c r="D90" s="3">
@@ -14785,7 +15161,7 @@
     <row r="91" spans="1:8">
       <c r="A91" s="145"/>
       <c r="B91" s="147" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C91" s="147"/>
       <c r="D91" s="3">
@@ -14798,10 +15174,10 @@
     <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="145"/>
       <c r="B92" s="155" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" s="155" t="s">
         <v>379</v>
-      </c>
-      <c r="C92" s="155" t="s">
-        <v>380</v>
       </c>
       <c r="D92" s="156">
         <f>SUM(D91:D91)</f>
@@ -14813,10 +15189,10 @@
     <row r="93" spans="1:8" ht="13.5" thickTop="1">
       <c r="A93" s="145"/>
       <c r="B93" s="147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C93" s="147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D93" s="3">
         <v>794.6</v>
@@ -14827,10 +15203,10 @@
     <row r="94" spans="1:8">
       <c r="A94" s="145"/>
       <c r="B94" s="147" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C94" s="147" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D94" s="3">
         <v>-30</v>
@@ -14841,10 +15217,10 @@
     <row r="95" spans="1:8" ht="13.5" thickBot="1">
       <c r="A95" s="145"/>
       <c r="B95" s="157" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C95" s="147" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D95" s="3">
         <f>F84*-1</f>
@@ -14856,10 +15232,10 @@
     <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A96" s="147"/>
       <c r="B96" s="158" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C96" s="159" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D96" s="156">
         <f>SUM(D92:D95)</f>
@@ -14881,7 +15257,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="B98" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D98" s="3">
         <v>1000</v>
@@ -14889,12 +15265,12 @@
     </row>
     <row r="99" spans="1:4">
       <c r="B99" s="178" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="D101" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -14978,7 +15354,7 @@
     <row r="114" spans="1:5">
       <c r="A114" s="148"/>
       <c r="B114" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D114" s="3">
         <v>7000</v>
@@ -14996,7 +15372,7 @@
         <v>3.5264483627204029</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="14.25" thickTop="1" thickBot="1">
@@ -15017,7 +15393,7 @@
         <v>2.904564315352697</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -15031,7 +15407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -15078,7 +15454,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -15139,7 +15515,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="164" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
@@ -15356,7 +15732,7 @@
         <v>45260</v>
       </c>
       <c r="B19" s="141" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C19">
         <v>42.645099999999999</v>
@@ -15460,7 +15836,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="167"/>
       <c r="B25" s="144" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C25"/>
       <c r="E25" s="60"/>
@@ -15477,7 +15853,7 @@
         <v>45397</v>
       </c>
       <c r="B26" s="142" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C26">
         <v>3.18</v>
@@ -15512,7 +15888,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="167"/>
       <c r="B28" s="143" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C28">
         <v>3.37</v>
@@ -15582,7 +15958,7 @@
     <row r="32" spans="1:7">
       <c r="A32" s="167"/>
       <c r="B32" s="143" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C32"/>
       <c r="E32" s="60">
@@ -15694,7 +16070,7 @@
     <row r="39" spans="1:13">
       <c r="A39" s="167"/>
       <c r="B39" s="143" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C39"/>
       <c r="E39" s="60">
@@ -15742,7 +16118,7 @@
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -16073,7 +16449,7 @@
     <row r="63" spans="1:13">
       <c r="A63" s="167"/>
       <c r="B63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -16157,7 +16533,7 @@
         <v>44742</v>
       </c>
       <c r="B69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C69"/>
       <c r="F69"/>
@@ -16171,7 +16547,7 @@
         <v>44772</v>
       </c>
       <c r="B70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C70"/>
       <c r="F70"/>
@@ -16185,7 +16561,7 @@
         <v>44803</v>
       </c>
       <c r="B71" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C71"/>
       <c r="F71"/>
@@ -16205,7 +16581,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="B73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -16215,7 +16591,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="B74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -16301,7 +16677,7 @@
         <v>45315</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -17113,7 +17489,7 @@
   </sheetPr>
   <dimension ref="B4:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A59" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -17136,7 +17512,7 @@
   <sheetData>
     <row r="4" spans="2:10">
       <c r="C4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -17209,7 +17585,7 @@
         <v>44742</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -17223,7 +17599,7 @@
         <v>44772</v>
       </c>
       <c r="C11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -17237,7 +17613,7 @@
         <v>44803</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -17251,34 +17627,34 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E15" s="186" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10">
       <c r="D16" s="186" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E16" s="186" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G16" s="186" t="s">
         <v>213</v>
       </c>
       <c r="H16" s="186" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -17551,7 +17927,7 @@
         <v>45322</v>
       </c>
       <c r="C29" s="142" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D29">
         <v>6.71</v>
@@ -17613,7 +17989,7 @@
     </row>
     <row r="32" spans="2:8">
       <c r="C32" s="144" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E32" s="60">
         <v>3795</v>
@@ -17647,7 +18023,7 @@
     </row>
     <row r="34" spans="2:8">
       <c r="C34" s="143" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E34" s="60">
         <v>278.97000000000003</v>
@@ -17664,7 +18040,7 @@
     </row>
     <row r="35" spans="2:8">
       <c r="C35" s="143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E35" s="60">
         <v>10000</v>
@@ -17681,7 +18057,7 @@
     </row>
     <row r="36" spans="2:8">
       <c r="C36" s="142" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D36">
         <v>3.18</v>
@@ -17704,7 +18080,7 @@
     </row>
     <row r="37" spans="2:8">
       <c r="C37" s="190" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D37">
         <v>3.37</v>
@@ -17788,7 +18164,7 @@
     </row>
     <row r="41" spans="2:8">
       <c r="C41" s="190" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D41" s="143">
         <v>2.97</v>
@@ -17850,7 +18226,7 @@
     </row>
     <row r="44" spans="2:8">
       <c r="C44" s="143" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D44" s="143"/>
       <c r="E44" s="60"/>
@@ -17864,7 +18240,7 @@
     </row>
     <row r="45" spans="2:8">
       <c r="C45" s="143" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D45" s="143"/>
       <c r="E45" s="60"/>
@@ -17902,7 +18278,7 @@
         <v>2025</v>
       </c>
       <c r="C47" s="142" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D47" s="143">
         <v>5.03</v>
@@ -17929,21 +18305,21 @@
       </c>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="255">
+      <c r="B49" s="254">
         <v>45691</v>
       </c>
-      <c r="C49" s="256" t="s">
-        <v>475</v>
-      </c>
-      <c r="D49" s="256"/>
-      <c r="E49" s="257"/>
-      <c r="F49" s="257"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="258">
+      <c r="C49" s="255" t="s">
+        <v>472</v>
+      </c>
+      <c r="D49" s="255"/>
+      <c r="E49" s="256"/>
+      <c r="F49" s="256"/>
+      <c r="G49" s="255"/>
+      <c r="H49" s="257">
         <f t="shared" si="3"/>
         <v>2598.7383325450792</v>
       </c>
-      <c r="I49" s="256"/>
+      <c r="I49" s="255"/>
     </row>
     <row r="50" spans="2:9">
       <c r="C50" s="142"/>
@@ -17977,25 +18353,25 @@
         <v>45421</v>
       </c>
       <c r="C58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="92"/>
       <c r="C59" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="92"/>
       <c r="C60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="92"/>
       <c r="C61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -18293,7 +18669,7 @@
     </row>
     <row r="80" spans="2:8">
       <c r="C80" s="144" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E80" s="60"/>
       <c r="F80" s="60"/>
@@ -18307,7 +18683,7 @@
     </row>
     <row r="81" spans="3:8">
       <c r="C81" s="142" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D81">
         <v>3.16</v>
@@ -18344,7 +18720,7 @@
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="143" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E83" s="60">
         <f>E81+(E81*D82/100)</f>
@@ -18401,7 +18777,7 @@
     </row>
     <row r="87" spans="3:8">
       <c r="C87" s="143" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E87" s="60">
         <f t="shared" si="10"/>

--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\comprg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790752DF-9200-4EAA-92DA-1A1E03218799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD85D8DD-DDD6-4AC2-B5F6-2481335229DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="4140" windowWidth="21600" windowHeight="11280" tabRatio="773" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="526">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1673,12 +1673,30 @@
   <si>
     <t>OTURDUĞU SÜRE  2024-2025</t>
   </si>
+  <si>
+    <t xml:space="preserve"> + </t>
+  </si>
+  <si>
+    <t>Sütun2</t>
+  </si>
+  <si>
+    <t>ay</t>
+  </si>
+  <si>
+    <t>2025 te</t>
+  </si>
+  <si>
+    <t>eddddddddddddddddddddddddddddddd</t>
+  </si>
+  <si>
+    <t>havale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="23">
+  <numFmts count="24">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy;@"/>
     <numFmt numFmtId="165" formatCode="[$₺-41F]#,##0.00;[Red]&quot;-&quot;[$₺-41F]#,##0.00"/>
@@ -1702,6 +1720,7 @@
     <numFmt numFmtId="183" formatCode="%0.0000"/>
     <numFmt numFmtId="184" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="185" formatCode="###,###,###,###,##0.00"/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -2740,7 +2759,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
@@ -2766,8 +2785,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3336,8 +3356,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="21" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="19" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="19" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="27" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="40" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="3" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="24">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3361,6 +3404,7 @@
     <cellStyle name="Text" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Virgül" xfId="22" builtinId="3"/>
     <cellStyle name="Warning" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Yüzde" xfId="23" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3376,27 +3420,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CD5396B-AF3B-4E02-B816-7FFFC3CDB203}" name="Tablo142" displayName="Tablo142" ref="A24:I40" totalsRowShown="0">
-  <autoFilter ref="A24:I40" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CD5396B-AF3B-4E02-B816-7FFFC3CDB203}" name="Tablo142" displayName="Tablo142" ref="A25:J42" totalsRowShown="0">
+  <autoFilter ref="A25:J42" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{411BB1D6-998E-4B35-80A9-FDD140F71C9B}" name="Tarih"/>
     <tableColumn id="2" xr3:uid="{279E89D5-CF7B-4AA4-8F3F-A2F7799804F3}" name="Açıklama"/>
     <tableColumn id="3" xr3:uid="{7B6F3018-A9BB-490E-873E-D93844513DCF}" name="snyA-H"/>
     <tableColumn id="4" xr3:uid="{FA32F072-E2EA-46AC-B242-F6C7256D57BC}" name="Oran %"/>
     <tableColumn id="5" xr3:uid="{D9E41724-8CD4-47D3-8C33-64A9C6B329F5}" name="Oran TL Tutar"/>
-    <tableColumn id="6" xr3:uid="{ABC94480-EC81-475F-9675-83716669439E}" name="Ödendi"/>
+    <tableColumn id="6" xr3:uid="{ABC94480-EC81-475F-9675-83716669439E}" name="Ödendi" dataCellStyle="Virgül"/>
     <tableColumn id="7" xr3:uid="{DA0E4B3E-9561-4A95-BB81-1101733DF7BB}" name="Oran TL"/>
     <tableColumn id="8" xr3:uid="{92FAC635-681E-4D15-B288-C760EFC78F48}" name="Genel Toplam"/>
     <tableColumn id="9" xr3:uid="{70504408-8625-4F99-9B1A-046A560DAC22}" name="Sütun1"/>
+    <tableColumn id="10" xr3:uid="{C361FDEB-46F3-4734-B0AD-6596A0B4A0CA}" name="Sütun2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}" name="Tablo14" displayName="Tablo14" ref="A24:H40" totalsRowShown="0">
-  <autoFilter ref="A24:H40" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}" name="Tablo14" displayName="Tablo14" ref="A24:I40" totalsRowShown="0">
+  <autoFilter ref="A24:I40" xr:uid="{2302621F-B3C3-4429-8379-CD484CA39087}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D3DD65DA-8808-4B04-9C86-0D85ADD82B5F}" name="Tarih"/>
     <tableColumn id="2" xr3:uid="{5717C5FB-B766-4D73-8672-0AAAD2937C24}" name="Açıklama"/>
     <tableColumn id="3" xr3:uid="{89EE31E2-A42F-4877-981F-1AD43D1BA579}" name="snyA-H"/>
@@ -3405,6 +3450,7 @@
     <tableColumn id="6" xr3:uid="{C8EE4F5A-3B03-4513-A996-F1054732C903}" name="Ödendi"/>
     <tableColumn id="7" xr3:uid="{DFDC7D2F-5C5D-4ABD-B796-80B42B53CF4F}" name="Oran TL"/>
     <tableColumn id="8" xr3:uid="{E37AF0A7-7DD7-4037-8EEA-4D76051BEE3C}" name="Genel Toplam"/>
+    <tableColumn id="9" xr3:uid="{FCAB6E33-8A24-4412-8B6B-AEAF2AFB603D}" name="Sütun1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6132,7 +6178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -6524,10 +6570,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F3B4BF-5428-4CFE-9CCD-7224C312B45E}">
-  <dimension ref="A2:J53"/>
+  <dimension ref="A2:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C19"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6537,7 +6583,7 @@
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13" style="338" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
@@ -6558,7 +6604,7 @@
       <c r="E3" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="339"/>
       <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
@@ -6573,246 +6619,250 @@
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="339"/>
       <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="D5" s="242">
-        <v>138749.71</v>
+        <v>138749.76000000001</v>
       </c>
       <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
+      <c r="F5" s="340"/>
       <c r="G5" s="120" t="s">
         <v>456</v>
       </c>
       <c r="H5" s="121">
         <f>D5</f>
-        <v>138749.71</v>
+        <v>138749.76000000001</v>
       </c>
       <c r="I5" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
-      <c r="D6" s="95"/>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="242"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="340"/>
+      <c r="G6" s="348"/>
+      <c r="H6" s="121"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
+      <c r="D7" s="95" t="s">
+        <v>520</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H6" s="122">
-        <f>H25*-1</f>
+      <c r="H7" s="122">
+        <f>H26*-1</f>
         <v>68261.360000000015</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
-      <c r="D7" s="95"/>
-      <c r="H7" s="122">
-        <f>H6+H5</f>
-        <v>207011.07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="123">
-        <v>45661</v>
-      </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="90">
-        <f>H7-C8</f>
-        <v>207011.07</v>
-      </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="126">
-        <f t="shared" ref="H8:H19" si="0">H7-E8</f>
-        <v>207011.07</v>
+    <row r="8" spans="1:9" ht="14.25">
+      <c r="D8" s="95"/>
+      <c r="H8" s="122">
+        <f>H7+H5</f>
+        <v>207011.12000000002</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="123">
-        <v>45689</v>
+        <v>45661</v>
       </c>
       <c r="C9" s="94"/>
       <c r="D9" s="90">
-        <f t="shared" ref="D9:D19" si="1">D8-C9</f>
-        <v>207011.07</v>
+        <f>H8-C9</f>
+        <v>207011.12000000002</v>
       </c>
       <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
+      <c r="F9" s="341"/>
       <c r="G9" s="125"/>
-      <c r="H9" s="90">
-        <f t="shared" si="0"/>
-        <v>207011.07</v>
+      <c r="H9" s="126">
+        <f t="shared" ref="H9:H20" si="0">H8-E9</f>
+        <v>207011.12000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="123">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="C10" s="94"/>
       <c r="D10" s="90">
-        <f t="shared" si="1"/>
-        <v>207011.07</v>
+        <f t="shared" ref="D10:D20" si="1">D9-C10</f>
+        <v>207011.12000000002</v>
       </c>
       <c r="E10" s="124"/>
-      <c r="F10" s="125"/>
+      <c r="F10" s="341"/>
       <c r="G10" s="125"/>
       <c r="H10" s="90">
         <f t="shared" si="0"/>
-        <v>207011.07</v>
+        <v>207011.12000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="123">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="C11" s="94"/>
       <c r="D11" s="90">
         <f t="shared" si="1"/>
-        <v>207011.07</v>
+        <v>207011.12000000002</v>
       </c>
       <c r="E11" s="124"/>
-      <c r="F11" s="125"/>
+      <c r="F11" s="341"/>
       <c r="G11" s="125"/>
       <c r="H11" s="90">
         <f t="shared" si="0"/>
-        <v>207011.07</v>
+        <v>207011.12000000002</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="123">
-        <v>45778</v>
+        <v>45755</v>
+      </c>
+      <c r="B12" t="s">
+        <v>525</v>
       </c>
       <c r="C12" s="94"/>
       <c r="D12" s="90">
         <f t="shared" si="1"/>
-        <v>207011.07</v>
-      </c>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
+        <v>207011.12000000002</v>
+      </c>
+      <c r="E12" s="124">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="341"/>
       <c r="G12" s="125"/>
       <c r="H12" s="90">
         <f t="shared" si="0"/>
-        <v>207011.07</v>
+        <v>187011.12000000002</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="123">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="C13" s="94"/>
       <c r="D13" s="90">
         <f t="shared" si="1"/>
-        <v>207011.07</v>
+        <v>207011.12000000002</v>
       </c>
       <c r="E13" s="124"/>
+      <c r="F13" s="341"/>
       <c r="G13" s="125"/>
       <c r="H13" s="90">
         <f t="shared" si="0"/>
-        <v>207011.07</v>
+        <v>187011.12000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="123">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="C14" s="94"/>
       <c r="D14" s="90">
         <f t="shared" si="1"/>
-        <v>207011.07</v>
+        <v>207011.12000000002</v>
       </c>
       <c r="E14" s="124"/>
       <c r="G14" s="125"/>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
-        <v>207011.07</v>
+        <v>187011.12000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="123">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="90">
         <f t="shared" si="1"/>
-        <v>207011.07</v>
-      </c>
+        <v>207011.12000000002</v>
+      </c>
+      <c r="E15" s="124"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
-        <v>207011.07</v>
+        <v>187011.12000000002</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="123">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="C16" s="94"/>
       <c r="D16" s="90">
         <f t="shared" si="1"/>
-        <v>207011.07</v>
+        <v>207011.12000000002</v>
       </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
-        <v>207011.07</v>
+        <v>187011.12000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="123">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="C17" s="94"/>
       <c r="D17" s="90">
         <f t="shared" si="1"/>
-        <v>207011.07</v>
+        <v>207011.12000000002</v>
       </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
-        <v>207011.07</v>
+        <v>187011.12000000002</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="123">
-        <v>45988</v>
-      </c>
-      <c r="B18" t="s">
-        <v>252</v>
+        <v>45931</v>
       </c>
       <c r="C18" s="94"/>
       <c r="D18" s="90">
         <f t="shared" si="1"/>
-        <v>207011.07</v>
-      </c>
-      <c r="E18" s="124"/>
+        <v>207011.12000000002</v>
+      </c>
       <c r="H18" s="90">
         <f t="shared" si="0"/>
-        <v>207011.07</v>
+        <v>187011.12000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="123">
-        <v>45992</v>
-      </c>
-      <c r="B19" t="s">
-        <v>254</v>
+        <v>45988</v>
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="90">
         <f t="shared" si="1"/>
-        <v>207011.07</v>
+        <v>207011.12000000002</v>
       </c>
       <c r="E19" s="124"/>
       <c r="H19" s="90">
         <f t="shared" si="0"/>
-        <v>207011.07</v>
+        <v>187011.12000000002</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="123"/>
+      <c r="A20" s="123">
+        <v>45992</v>
+      </c>
       <c r="C20" s="94"/>
-      <c r="D20" s="90"/>
+      <c r="D20" s="90">
+        <f t="shared" si="1"/>
+        <v>207011.12000000002</v>
+      </c>
       <c r="E20" s="124"/>
-      <c r="H20" s="90"/>
+      <c r="H20" s="90">
+        <f t="shared" si="0"/>
+        <v>187011.12000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="123"/>
@@ -6822,137 +6872,123 @@
       <c r="H21" s="90"/>
     </row>
     <row r="22" spans="1:10">
+      <c r="A22" s="123"/>
       <c r="C22" s="94"/>
       <c r="D22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="95"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75">
-      <c r="B23" s="96" t="s">
+      <c r="E22" s="124"/>
+      <c r="H22" s="90"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" s="94"/>
+      <c r="D23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="95"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
+      <c r="B24" s="96" t="s">
         <v>285</v>
       </c>
-      <c r="D23" s="251">
+      <c r="D24" s="251">
         <v>0.76461599999999996</v>
       </c>
-      <c r="E23" s="251">
-        <f>1-D23</f>
+      <c r="E24" s="251">
+        <f>1-D24</f>
         <v>0.23538400000000004</v>
       </c>
-      <c r="H23" s="95"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="116" t="s">
+      <c r="H24" s="95"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B25" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C25" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="D24" s="128" t="s">
+      <c r="D25" s="128" t="s">
         <v>287</v>
       </c>
-      <c r="E24" s="127" t="s">
+      <c r="E25" s="127" t="s">
         <v>288</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F25" s="342" t="s">
         <v>289</v>
       </c>
-      <c r="G24" s="127" t="s">
+      <c r="G25" s="127" t="s">
         <v>290</v>
       </c>
-      <c r="H24" s="130" t="s">
+      <c r="H25" s="130" t="s">
         <v>246</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117" t="s">
+      <c r="J25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="116"/>
+      <c r="B26" s="117" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="118">
-        <f>SUBTOTAL(109,C26:C40)</f>
+      <c r="C26" s="118">
+        <f>SUBTOTAL(109,C27:C41)</f>
         <v>290000</v>
       </c>
-      <c r="D25" s="118">
-        <f>SUBTOTAL(109,D26:D40)</f>
+      <c r="D26" s="118">
+        <f>SUBTOTAL(109,D27:D41)</f>
         <v>290000</v>
       </c>
-      <c r="E25" s="118">
-        <f>SUM(E26:E40)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="117"/>
-      <c r="G25" s="118">
-        <f>SUBTOTAL(109,$G$26:$G$40)</f>
+      <c r="E26" s="118">
+        <f>SUM(E27:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="343"/>
+      <c r="G26" s="118">
+        <f>SUBTOTAL(109,$G$27:$G$41)</f>
         <v>-68261.360000000015</v>
       </c>
-      <c r="H25" s="118">
-        <f>H26</f>
+      <c r="H26" s="118">
+        <f>H27</f>
         <v>-68261.360000000015</v>
       </c>
-      <c r="J25" s="98"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="99">
+      <c r="J26" s="98"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="99">
         <v>46021</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>291</v>
       </c>
-      <c r="D26" s="100">
-        <f t="shared" ref="D26:D40" si="2">IF(F26=1,$C26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="101">
-        <f t="shared" ref="E26:E40" si="3">IF(F26=0,C26*$E$23*-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="97">
-        <v>0</v>
-      </c>
-      <c r="G26" s="100">
-        <f t="shared" ref="G26:G40" si="4">IF(F26=1,C26*$E$23*-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="95">
-        <f t="shared" ref="H26:H39" si="5">H27+G26</f>
+      <c r="D27" s="100">
+        <f t="shared" ref="D27:D40" si="2">IF(F27=1,$C27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="101">
+        <f t="shared" ref="E27:E41" si="3">IF(F27=0,C27*$E$24*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="344">
+        <v>0</v>
+      </c>
+      <c r="G27" s="100">
+        <f t="shared" ref="G27:G40" si="4">IF(F27=1,C27*$E$24*-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="95">
+        <f t="shared" ref="H27:H40" si="5">H28+G27</f>
         <v>-68261.360000000015</v>
       </c>
-      <c r="J26" s="98"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="227"/>
-      <c r="B27" s="228"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="100">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="97">
-        <v>0</v>
-      </c>
-      <c r="G27" s="100">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="95">
-        <f t="shared" si="5"/>
-        <v>-68261.360000000015</v>
-      </c>
+      <c r="J27" s="98"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="229"/>
-      <c r="B28" s="230"/>
-      <c r="C28" s="234"/>
+      <c r="A28" s="227"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="233"/>
       <c r="D28" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6961,7 +6997,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F28" s="97">
+      <c r="F28" s="344">
         <v>0</v>
       </c>
       <c r="G28" s="100">
@@ -6985,7 +7021,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F29" s="97">
+      <c r="F29" s="344">
         <v>0</v>
       </c>
       <c r="G29" s="100">
@@ -6998,9 +7034,9 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="227"/>
-      <c r="B30" s="231"/>
-      <c r="C30" s="233"/>
+      <c r="A30" s="229"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="234"/>
       <c r="D30" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7009,7 +7045,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F30" s="97">
+      <c r="F30" s="344">
         <v>0</v>
       </c>
       <c r="G30" s="100">
@@ -7023,8 +7059,8 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="227"/>
-      <c r="B31" s="232"/>
-      <c r="C31" s="235"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="233"/>
       <c r="D31" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7033,7 +7069,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F31" s="97">
+      <c r="F31" s="344">
         <v>0</v>
       </c>
       <c r="G31" s="100">
@@ -7047,8 +7083,8 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="227"/>
-      <c r="B32" s="228"/>
-      <c r="C32" s="233"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="235"/>
       <c r="D32" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7057,7 +7093,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F32" s="97">
+      <c r="F32" s="344">
         <v>0</v>
       </c>
       <c r="G32" s="100">
@@ -7081,7 +7117,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F33" s="97">
+      <c r="F33" s="344">
         <v>0</v>
       </c>
       <c r="G33" s="100">
@@ -7105,7 +7141,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F34" s="97">
+      <c r="F34" s="344">
         <v>0</v>
       </c>
       <c r="G34" s="100">
@@ -7118,9 +7154,9 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="229"/>
-      <c r="B35" s="231"/>
-      <c r="C35" s="234"/>
+      <c r="A35" s="227"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="233"/>
       <c r="D35" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7129,7 +7165,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="97">
+      <c r="F35" s="344">
         <v>0</v>
       </c>
       <c r="G35" s="100">
@@ -7142,9 +7178,9 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="225"/>
-      <c r="B36" s="226"/>
-      <c r="C36" s="236"/>
+      <c r="A36" s="229"/>
+      <c r="B36" s="231"/>
+      <c r="C36" s="234"/>
       <c r="D36" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7153,7 +7189,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F36" s="97">
+      <c r="F36" s="344">
         <v>0</v>
       </c>
       <c r="G36" s="100">
@@ -7166,9 +7202,9 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="229"/>
-      <c r="B37" s="231"/>
-      <c r="C37" s="237"/>
+      <c r="A37" s="225"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="236"/>
       <c r="D37" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7177,7 +7213,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F37" s="97">
+      <c r="F37" s="344">
         <v>0</v>
       </c>
       <c r="G37" s="100">
@@ -7191,8 +7227,8 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="229"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="234"/>
+      <c r="B38" s="231"/>
+      <c r="C38" s="237"/>
       <c r="D38" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7201,7 +7237,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="97">
+      <c r="F38" s="344">
         <v>0</v>
       </c>
       <c r="G38" s="100">
@@ -7214,9 +7250,9 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="227"/>
+      <c r="A39" s="229"/>
       <c r="B39" s="230"/>
-      <c r="C39" s="233"/>
+      <c r="C39" s="234"/>
       <c r="D39" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7225,7 +7261,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="97">
+      <c r="F39" s="344">
         <v>0</v>
       </c>
       <c r="G39" s="100">
@@ -7238,190 +7274,453 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="174">
-        <v>45660</v>
-      </c>
-      <c r="B40" s="175" t="s">
-        <v>454</v>
-      </c>
-      <c r="C40" s="176">
-        <v>290000</v>
-      </c>
+      <c r="A40" s="227"/>
+      <c r="B40" s="230"/>
+      <c r="C40" s="233"/>
       <c r="D40" s="100">
         <f t="shared" si="2"/>
-        <v>290000</v>
+        <v>0</v>
       </c>
       <c r="E40" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="105">
+      <c r="F40" s="344">
         <v>1</v>
       </c>
       <c r="G40" s="100">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="95">
+        <f t="shared" si="5"/>
         <v>-68261.360000000015</v>
       </c>
-      <c r="H40" s="95">
-        <f>G40</f>
+      <c r="J40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="174">
+        <v>45660</v>
+      </c>
+      <c r="B41" s="175" t="s">
+        <v>454</v>
+      </c>
+      <c r="C41" s="176">
+        <v>290000</v>
+      </c>
+      <c r="D41" s="100">
+        <f>IF(F41=1,$C41,0)</f>
+        <v>290000</v>
+      </c>
+      <c r="E41" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="345">
+        <v>1</v>
+      </c>
+      <c r="G41" s="100">
+        <f>IF(F41=1,C41*$E$24*-1,0)</f>
         <v>-68261.360000000015</v>
       </c>
-      <c r="I40" t="s">
-        <v>490</v>
+      <c r="H41" s="95">
+        <f>G41</f>
+        <v>-68261.360000000015</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
+      <c r="J42" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="C43" s="100" t="s">
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="C44" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="D43" s="95" t="s">
+      <c r="D44" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="E43" s="95" t="s">
+      <c r="E44" s="95" t="s">
         <v>295</v>
       </c>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="107"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75">
-      <c r="B44" t="s">
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="107"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75">
+      <c r="B45" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="108">
+      <c r="C45" s="108">
         <v>1</v>
       </c>
-      <c r="D44" s="252">
-        <f>D23</f>
+      <c r="D45" s="252">
+        <f>D24</f>
         <v>0.76461599999999996</v>
       </c>
-      <c r="E44" s="252">
-        <f>1-D44</f>
+      <c r="E45" s="252">
+        <f>1-D45</f>
         <v>0.23538400000000004</v>
-      </c>
-      <c r="H44" s="95"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="B45" t="s">
-        <v>296</v>
-      </c>
-      <c r="C45" s="109">
-        <f>$D$25*C44</f>
-        <v>290000</v>
-      </c>
-      <c r="D45" s="110">
-        <f>$D$25*D44</f>
-        <v>221738.63999999998</v>
-      </c>
-      <c r="E45" s="110">
-        <f>$D$25*E44</f>
-        <v>68261.360000000015</v>
       </c>
       <c r="H45" s="95"/>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" t="s">
-        <v>249</v>
-      </c>
-      <c r="C46" s="100">
-        <f>D46+E46</f>
+        <v>296</v>
+      </c>
+      <c r="C46" s="109">
+        <f>$D$26*C45</f>
         <v>290000</v>
       </c>
-      <c r="D46" s="95">
-        <f>C45-E46</f>
+      <c r="D46" s="110">
+        <f>$D$26*D45</f>
         <v>221738.63999999998</v>
       </c>
-      <c r="E46" s="95">
-        <f>$H$25*-1</f>
+      <c r="E46" s="110">
+        <f>$D$26*E45</f>
         <v>68261.360000000015</v>
       </c>
-      <c r="G46" s="111"/>
-      <c r="H46" s="95"/>
-      <c r="J46" s="95"/>
+      <c r="G46" s="346"/>
+      <c r="H46" s="347"/>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="C47" s="100">
-        <f>C45-C46</f>
-        <v>0</v>
+        <f>D47+E47</f>
+        <v>290000</v>
       </c>
       <c r="D47" s="95">
-        <f>D45-D46</f>
-        <v>0</v>
+        <f>C46-E47</f>
+        <v>221738.63999999998</v>
       </c>
       <c r="E47" s="95">
-        <f>E45-E46</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="95"/>
+        <f>$H$26*-1</f>
+        <v>68261.360000000015</v>
+      </c>
+      <c r="G47" s="338"/>
       <c r="H47" s="95"/>
       <c r="J47" s="95"/>
     </row>
-    <row r="48" spans="1:10" ht="13.5" thickBot="1">
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
+    <row r="48" spans="1:10">
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="100">
+        <f>C46-C47</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="95">
+        <f>D46-D47</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="95">
+        <f>E46-E47</f>
+        <v>0</v>
+      </c>
       <c r="G48" s="95"/>
       <c r="H48" s="95"/>
       <c r="J48" s="95"/>
     </row>
-    <row r="49" spans="2:10">
-      <c r="H49" s="95"/>
+    <row r="49" spans="2:10" ht="13.5" thickBot="1">
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
       <c r="J49" s="95"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="C50" s="5" t="s">
+      <c r="J50" s="95"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="C51" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="J50" s="95"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="C51" s="95"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="95"/>
+      <c r="G51" s="338"/>
       <c r="H51" s="95"/>
       <c r="J51" s="95"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="95" t="s">
+      <c r="C52" s="95"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="95"/>
+      <c r="G52" s="346" t="s">
+        <v>524</v>
+      </c>
+      <c r="H52" s="347"/>
+      <c r="J52" s="95"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="95">
-        <f>D46</f>
+      <c r="C53" s="95">
+        <f>D47</f>
         <v>221738.63999999998</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D53" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E52" s="95">
-        <f>C52*D52</f>
+      <c r="E53" s="95">
+        <f>C53*D53</f>
         <v>5543.4660000000003</v>
       </c>
-      <c r="H52" s="95"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="E53" s="95"/>
-      <c r="G53" s="95"/>
+      <c r="G53" s="338"/>
       <c r="H53" s="95"/>
     </row>
+    <row r="54" spans="2:10">
+      <c r="E54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56" s="349">
+        <f>D24</f>
+        <v>0.76461599999999996</v>
+      </c>
+      <c r="G56" s="350">
+        <f>1-E56</f>
+        <v>0.23538400000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="C57">
+        <v>219</v>
+      </c>
+      <c r="D57" s="338">
+        <f>C57/D56</f>
+        <v>18.25</v>
+      </c>
+      <c r="E57" s="352">
+        <f>D57*E56</f>
+        <v>13.954241999999999</v>
+      </c>
+      <c r="G57" s="352">
+        <f>D57*G56</f>
+        <v>4.2957580000000011</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="C58">
+        <v>290</v>
+      </c>
+      <c r="D58" s="338">
+        <f>C58/D56</f>
+        <v>24.166666666666668</v>
+      </c>
+      <c r="E58" s="352">
+        <f>D58*E56</f>
+        <v>18.47822</v>
+      </c>
+      <c r="G58" s="352">
+        <f>D58*G56</f>
+        <v>5.6884466666666675</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="D59" s="351">
+        <f>SUM(D57:D58)</f>
+        <v>42.416666666666671</v>
+      </c>
+      <c r="E59" s="353">
+        <f>SUM(E57:E58)</f>
+        <v>32.432462000000001</v>
+      </c>
+      <c r="G59" s="354">
+        <f>SUM(G57:G58)</f>
+        <v>9.9842046666666686</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="G60" s="338"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="139">
+        <v>45627</v>
+      </c>
+      <c r="E61">
+        <v>13.95</v>
+      </c>
+      <c r="F61" s="339">
+        <f>E61</f>
+        <v>13.95</v>
+      </c>
+      <c r="G61" s="338">
+        <v>4.3</v>
+      </c>
+      <c r="H61" s="339">
+        <f>G61</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="139">
+        <v>45658</v>
+      </c>
+      <c r="E62">
+        <v>32.43</v>
+      </c>
+      <c r="F62" s="339">
+        <f>F61+E62</f>
+        <v>46.379999999999995</v>
+      </c>
+      <c r="G62" s="338">
+        <f>G59</f>
+        <v>9.9842046666666686</v>
+      </c>
+      <c r="H62" s="339">
+        <f>H61+G62</f>
+        <v>14.284204666666668</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="139">
+        <v>45689</v>
+      </c>
+      <c r="E63">
+        <v>32.43</v>
+      </c>
+      <c r="F63" s="339">
+        <f t="shared" ref="F63:H65" si="6">F62+E63</f>
+        <v>78.81</v>
+      </c>
+      <c r="G63" s="338">
+        <f>G62</f>
+        <v>9.9842046666666686</v>
+      </c>
+      <c r="H63" s="339">
+        <f t="shared" si="6"/>
+        <v>24.268409333333338</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="139">
+        <v>45717</v>
+      </c>
+      <c r="E64">
+        <v>32.43</v>
+      </c>
+      <c r="F64" s="339">
+        <f t="shared" si="6"/>
+        <v>111.24000000000001</v>
+      </c>
+      <c r="G64" s="338">
+        <f>G63</f>
+        <v>9.9842046666666686</v>
+      </c>
+      <c r="H64" s="339">
+        <f t="shared" si="6"/>
+        <v>34.252614000000008</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="139">
+        <v>45748</v>
+      </c>
+      <c r="E65">
+        <v>32.43</v>
+      </c>
+      <c r="F65" s="339">
+        <f t="shared" si="6"/>
+        <v>143.67000000000002</v>
+      </c>
+      <c r="G65" s="338">
+        <f>G64</f>
+        <v>9.9842046666666686</v>
+      </c>
+      <c r="H65" s="339">
+        <f t="shared" si="6"/>
+        <v>44.236818666666679</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="139">
+        <v>45778</v>
+      </c>
+      <c r="F66" s="339"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="139">
+        <v>45809</v>
+      </c>
+      <c r="F67" s="339"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="139">
+        <v>45839</v>
+      </c>
+      <c r="F68" s="339"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="139">
+        <v>45870</v>
+      </c>
+      <c r="F69" s="339"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="139">
+        <v>45901</v>
+      </c>
+      <c r="F70" s="339"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="139">
+        <v>45931</v>
+      </c>
+      <c r="F71" s="339"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="139">
+        <v>45962</v>
+      </c>
+      <c r="F72" s="339"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="139">
+        <v>45992</v>
+      </c>
+      <c r="F73" s="339"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="139"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="139"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="139"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -7434,8 +7733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A30478E-2956-4964-9AD6-7F9D21C896C5}">
   <dimension ref="A2:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7843,6 +8142,9 @@
       <c r="H24" s="130" t="s">
         <v>246</v>
       </c>
+      <c r="I24" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="116"/>
@@ -7979,6 +8281,9 @@
       <c r="H29" s="95">
         <f t="shared" si="4"/>
         <v>-188660.27600000007</v>
+      </c>
+      <c r="I29" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:10">

--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\comprg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD85D8DD-DDD6-4AC2-B5F6-2481335229DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C9158-8527-4F1A-8B49-8FC107FE21C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="4140" windowWidth="21600" windowHeight="11280" tabRatio="773" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -6572,7 +6572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F3B4BF-5428-4CFE-9CCD-7224C312B45E}">
   <dimension ref="A2:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C9158-8527-4F1A-8B49-8FC107FE21C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963A6D19-3EB6-49D0-8283-A7F46393BD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6573,7 +6573,7 @@
   <dimension ref="A2:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6745,19 +6745,21 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="123">
-        <v>45778</v>
+        <v>45786</v>
       </c>
       <c r="C13" s="94"/>
       <c r="D13" s="90">
         <f t="shared" si="1"/>
         <v>207011.12000000002</v>
       </c>
-      <c r="E13" s="124"/>
+      <c r="E13" s="124">
+        <v>20000</v>
+      </c>
       <c r="F13" s="341"/>
       <c r="G13" s="125"/>
       <c r="H13" s="90">
         <f t="shared" si="0"/>
-        <v>187011.12000000002</v>
+        <v>167011.12000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6773,7 +6775,7 @@
       <c r="G14" s="125"/>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
-        <v>187011.12000000002</v>
+        <v>167011.12000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6789,7 +6791,7 @@
       <c r="G15" s="125"/>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
-        <v>187011.12000000002</v>
+        <v>167011.12000000002</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6803,7 +6805,7 @@
       </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
-        <v>187011.12000000002</v>
+        <v>167011.12000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6817,7 +6819,7 @@
       </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
-        <v>187011.12000000002</v>
+        <v>167011.12000000002</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6831,7 +6833,7 @@
       </c>
       <c r="H18" s="90">
         <f t="shared" si="0"/>
-        <v>187011.12000000002</v>
+        <v>167011.12000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6846,7 +6848,7 @@
       <c r="E19" s="124"/>
       <c r="H19" s="90">
         <f t="shared" si="0"/>
-        <v>187011.12000000002</v>
+        <v>167011.12000000002</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6861,7 +6863,7 @@
       <c r="E20" s="124"/>
       <c r="H20" s="90">
         <f t="shared" si="0"/>
-        <v>187011.12000000002</v>
+        <v>167011.12000000002</v>
       </c>
     </row>
     <row r="21" spans="1:10">

--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963A6D19-3EB6-49D0-8283-A7F46393BD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC31A4C-A4CE-45D4-A2F8-130F14B0E2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="526">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -6573,7 +6573,7 @@
   <dimension ref="A2:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6747,6 +6747,9 @@
       <c r="A13" s="123">
         <v>45786</v>
       </c>
+      <c r="B13" t="s">
+        <v>525</v>
+      </c>
       <c r="C13" s="94"/>
       <c r="D13" s="90">
         <f t="shared" si="1"/>
@@ -6764,18 +6767,23 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="123">
-        <v>45809</v>
+        <v>45818</v>
+      </c>
+      <c r="B14" t="s">
+        <v>525</v>
       </c>
       <c r="C14" s="94"/>
       <c r="D14" s="90">
         <f t="shared" si="1"/>
         <v>207011.12000000002</v>
       </c>
-      <c r="E14" s="124"/>
+      <c r="E14" s="124">
+        <v>20000</v>
+      </c>
       <c r="G14" s="125"/>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
-        <v>167011.12000000002</v>
+        <v>147011.12000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6791,7 +6799,7 @@
       <c r="G15" s="125"/>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
-        <v>167011.12000000002</v>
+        <v>147011.12000000002</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6805,7 +6813,7 @@
       </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
-        <v>167011.12000000002</v>
+        <v>147011.12000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6819,7 +6827,7 @@
       </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
-        <v>167011.12000000002</v>
+        <v>147011.12000000002</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6833,7 +6841,7 @@
       </c>
       <c r="H18" s="90">
         <f t="shared" si="0"/>
-        <v>167011.12000000002</v>
+        <v>147011.12000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6848,7 +6856,7 @@
       <c r="E19" s="124"/>
       <c r="H19" s="90">
         <f t="shared" si="0"/>
-        <v>167011.12000000002</v>
+        <v>147011.12000000002</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6863,7 +6871,7 @@
       <c r="E20" s="124"/>
       <c r="H20" s="90">
         <f t="shared" si="0"/>
-        <v>167011.12000000002</v>
+        <v>147011.12000000002</v>
       </c>
     </row>
     <row r="21" spans="1:10">

--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC31A4C-A4CE-45D4-A2F8-130F14B0E2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3A8AAD-4CEF-49A4-B5B0-6CCB40A85B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="527">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1690,6 +1690,9 @@
   </si>
   <si>
     <t>havale</t>
+  </si>
+  <si>
+    <t>bankadan ödeme</t>
   </si>
 </sst>
 </file>
@@ -6572,8 +6575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F3B4BF-5428-4CFE-9CCD-7224C312B45E}">
   <dimension ref="A2:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A5" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6788,32 +6791,37 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="123">
-        <v>45839</v>
+        <v>45846</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="90">
         <f t="shared" si="1"/>
         <v>207011.12000000002</v>
       </c>
-      <c r="E15" s="124"/>
+      <c r="E15" s="124">
+        <v>20000</v>
+      </c>
       <c r="G15" s="125"/>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
-        <v>147011.12000000002</v>
+        <v>127011.12000000002</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="123">
-        <v>45870</v>
+        <v>45855</v>
       </c>
       <c r="C16" s="94"/>
       <c r="D16" s="90">
         <f t="shared" si="1"/>
         <v>207011.12000000002</v>
       </c>
+      <c r="E16" s="124">
+        <v>30000</v>
+      </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
-        <v>147011.12000000002</v>
+        <v>97011.120000000024</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6827,7 +6835,7 @@
       </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
-        <v>147011.12000000002</v>
+        <v>97011.120000000024</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6841,7 +6849,7 @@
       </c>
       <c r="H18" s="90">
         <f t="shared" si="0"/>
-        <v>147011.12000000002</v>
+        <v>97011.120000000024</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6856,7 +6864,7 @@
       <c r="E19" s="124"/>
       <c r="H19" s="90">
         <f t="shared" si="0"/>
-        <v>147011.12000000002</v>
+        <v>97011.120000000024</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6871,7 +6879,7 @@
       <c r="E20" s="124"/>
       <c r="H20" s="90">
         <f t="shared" si="0"/>
-        <v>147011.12000000002</v>
+        <v>97011.120000000024</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -9910,8 +9918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10542,7 +10550,9 @@
       <c r="F50" s="45"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="B51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="8"/>
       <c r="E51" s="257">

--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3A8AAD-4CEF-49A4-B5B0-6CCB40A85B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FBD9E8-2166-44E2-B6F5-EF097254C976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="528">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -1614,9 +1614,6 @@
     <t>30-11-23 * 29-11-24</t>
   </si>
   <si>
-    <t>23-24 bedel 530000 TL</t>
-  </si>
-  <si>
     <t>2024-25</t>
   </si>
   <si>
@@ -1693,6 +1690,12 @@
   </si>
   <si>
     <t>bankadan ödeme</t>
+  </si>
+  <si>
+    <t>24-25 bedel 530000 TL</t>
+  </si>
+  <si>
+    <t>30-09-2025 – 31-09-2026</t>
   </si>
 </sst>
 </file>
@@ -4221,7 +4224,7 @@
   </sheetPr>
   <dimension ref="A3:N62"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4362,7 +4365,7 @@
         <v>44803</v>
       </c>
       <c r="C12" s="327" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D12" s="328"/>
       <c r="E12" s="314"/>
@@ -4378,7 +4381,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="329" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D13" s="330"/>
       <c r="E13" s="319"/>
@@ -4409,7 +4412,7 @@
         <v>44895</v>
       </c>
       <c r="C15" s="260" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D15" s="260"/>
       <c r="F15" s="263">
@@ -4425,7 +4428,7 @@
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="264"/>
       <c r="C16" s="331" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D16" s="260"/>
       <c r="F16" s="263"/>
@@ -4438,7 +4441,7 @@
         <v>44925</v>
       </c>
       <c r="C17" s="287" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D17" s="282"/>
       <c r="E17" s="289"/>
@@ -4522,7 +4525,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="332"/>
       <c r="C21" s="333" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D21" s="333"/>
       <c r="E21" s="334"/>
@@ -5081,7 +5084,7 @@
     <row r="47" spans="2:8">
       <c r="B47" s="260"/>
       <c r="C47" s="299" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D47" s="255"/>
       <c r="E47" s="256"/>
@@ -5306,7 +5309,7 @@
         <v>45611</v>
       </c>
       <c r="C62" s="255" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D62" s="255"/>
       <c r="E62" s="255"/>
@@ -5326,7 +5329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -5455,7 +5458,7 @@
         <v>45564</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C9" s="337"/>
       <c r="E9" s="24"/>
@@ -5468,7 +5471,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="54"/>
       <c r="B10" s="91" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C10" s="91">
         <v>12</v>
@@ -5495,7 +5498,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="54"/>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
@@ -5507,7 +5510,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="92"/>
       <c r="B13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
@@ -5519,7 +5522,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="26"/>
       <c r="C14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
@@ -5531,7 +5534,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="26"/>
       <c r="B15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C15">
         <v>3.5</v>
@@ -5552,7 +5555,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="26"/>
       <c r="B16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -6181,8 +6184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A5" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6575,8 +6578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F3B4BF-5428-4CFE-9CCD-7224C312B45E}">
   <dimension ref="A2:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6653,7 +6656,7 @@
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="D7" s="95" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E7" t="s">
         <v>118</v>
@@ -6729,7 +6732,7 @@
         <v>45755</v>
       </c>
       <c r="B12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C12" s="94"/>
       <c r="D12" s="90">
@@ -6751,7 +6754,7 @@
         <v>45786</v>
       </c>
       <c r="B13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C13" s="94"/>
       <c r="D13" s="90">
@@ -6773,7 +6776,7 @@
         <v>45818</v>
       </c>
       <c r="B14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C14" s="94"/>
       <c r="D14" s="90">
@@ -6793,6 +6796,9 @@
       <c r="A15" s="123">
         <v>45846</v>
       </c>
+      <c r="B15" t="s">
+        <v>524</v>
+      </c>
       <c r="C15" s="94"/>
       <c r="D15" s="90">
         <f t="shared" si="1"/>
@@ -6811,6 +6817,9 @@
       <c r="A16" s="123">
         <v>45855</v>
       </c>
+      <c r="B16" t="s">
+        <v>524</v>
+      </c>
       <c r="C16" s="94"/>
       <c r="D16" s="90">
         <f t="shared" si="1"/>
@@ -6828,48 +6837,68 @@
       <c r="A17" s="123">
         <v>45901</v>
       </c>
+      <c r="B17" t="s">
+        <v>524</v>
+      </c>
       <c r="C17" s="94"/>
       <c r="D17" s="90">
         <f t="shared" si="1"/>
         <v>207011.12000000002</v>
       </c>
+      <c r="E17" s="124">
+        <v>20000</v>
+      </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
-        <v>97011.120000000024</v>
+        <v>77011.120000000024</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="123">
-        <v>45931</v>
+        <v>45944</v>
+      </c>
+      <c r="B18" t="s">
+        <v>524</v>
       </c>
       <c r="C18" s="94"/>
       <c r="D18" s="90">
         <f t="shared" si="1"/>
         <v>207011.12000000002</v>
       </c>
+      <c r="E18" s="124">
+        <v>20000</v>
+      </c>
       <c r="H18" s="90">
         <f t="shared" si="0"/>
-        <v>97011.120000000024</v>
+        <v>57011.120000000024</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="123">
-        <v>45988</v>
+        <v>45966</v>
+      </c>
+      <c r="B19" t="s">
+        <v>524</v>
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="90">
         <f t="shared" si="1"/>
         <v>207011.12000000002</v>
       </c>
-      <c r="E19" s="124"/>
+      <c r="E19" s="124">
+        <v>20000</v>
+      </c>
       <c r="H19" s="90">
         <f t="shared" si="0"/>
-        <v>97011.120000000024</v>
+        <v>37011.120000000024</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="123">
         <v>45992</v>
+      </c>
+      <c r="B20" t="s">
+        <v>524</v>
       </c>
       <c r="C20" s="94"/>
       <c r="D20" s="90">
@@ -6879,7 +6908,7 @@
       <c r="E20" s="124"/>
       <c r="H20" s="90">
         <f t="shared" si="0"/>
-        <v>97011.120000000024</v>
+        <v>37011.120000000024</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6944,7 +6973,7 @@
         <v>491</v>
       </c>
       <c r="J25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7353,7 +7382,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="J42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7481,7 +7510,7 @@
       <c r="D52" s="113"/>
       <c r="E52" s="95"/>
       <c r="G52" s="346" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H52" s="347"/>
       <c r="J52" s="95"/>
@@ -8301,7 +8330,7 @@
         <v>-188660.27600000007</v>
       </c>
       <c r="I29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -8795,7 +8824,7 @@
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8927,7 +8956,6 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="14"/>
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
       <c r="G10" s="3">
@@ -8985,6 +9013,9 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="26"/>
+      <c r="B16" t="s">
+        <v>527</v>
+      </c>
       <c r="E16" s="27"/>
       <c r="F16" s="28"/>
       <c r="G16" s="3">
@@ -9918,7 +9949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -10551,7 +10582,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="B51" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="8"/>
@@ -11089,8 +11120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11174,7 +11205,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="18">
         <f>G44</f>
-        <v>0</v>
+        <v>161160</v>
       </c>
       <c r="G5"/>
     </row>
@@ -11203,7 +11234,7 @@
       </c>
       <c r="G7" s="23">
         <f>F4-E5</f>
-        <v>135000</v>
+        <v>-26160</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11562,7 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="26"/>
       <c r="B33" t="s">
         <v>37</v>
@@ -11544,7 +11575,7 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="26"/>
       <c r="B34" t="s">
         <v>38</v>
@@ -11557,7 +11588,7 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="26"/>
       <c r="B35" t="s">
         <v>87</v>
@@ -11570,7 +11601,7 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="26"/>
       <c r="B36" t="s">
         <v>88</v>
@@ -11583,7 +11614,7 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="26"/>
       <c r="B37" t="s">
         <v>89</v>
@@ -11596,7 +11627,7 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="26"/>
       <c r="B38" t="s">
         <v>90</v>
@@ -11609,7 +11640,7 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="26"/>
       <c r="B39" t="s">
         <v>39</v>
@@ -11622,7 +11653,7 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="26"/>
       <c r="B40" t="s">
         <v>40</v>
@@ -11636,7 +11667,7 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="32"/>
       <c r="B41" s="21" t="s">
         <v>41</v>
@@ -11650,7 +11681,7 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="35">
         <v>45291</v>
       </c>
@@ -11669,13 +11700,13 @@
         <v>-4079.59</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="7"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="88" t="s">
         <v>254</v>
       </c>
@@ -11688,10 +11719,10 @@
       <c r="F44" s="42"/>
       <c r="G44" s="43">
         <f>SUM(F45:F49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>161160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -11700,7 +11731,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>95</v>
@@ -11708,75 +11739,104 @@
       <c r="C46"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>96</v>
       </c>
       <c r="C47"/>
       <c r="D47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3">
+        <f>E47*D47</f>
         <v>36000</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="3">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>97</v>
       </c>
       <c r="C48"/>
       <c r="D48" s="3">
+        <f>F48/E48</f>
+        <v>3596.6666666666665</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3">
         <v>43160</v>
       </c>
       <c r="G48" s="44"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="3">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="7"/>
       <c r="B49" s="21" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="21"/>
-      <c r="D49" s="42">
+      <c r="D49" s="3">
+        <f>F49/E49</f>
+        <v>6833.333333333333</v>
+      </c>
+      <c r="E49" s="8">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3">
         <v>82000</v>
       </c>
-      <c r="E49" s="8"/>
       <c r="G49" s="45"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="42">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="7"/>
       <c r="B50" t="s">
         <v>498</v>
       </c>
       <c r="C50"/>
-      <c r="D50" s="3">
-        <v>135000</v>
-      </c>
       <c r="E50" s="8"/>
       <c r="G50" s="45"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="3">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="7"/>
       <c r="B51" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="C51"/>
       <c r="E51" s="8"/>
       <c r="G51" s="45"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="7"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="E52" s="8"/>
       <c r="G52" s="45"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="7"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="E53" s="8"/>
       <c r="G53" s="45"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="54">
         <v>45214</v>
       </c>
@@ -11786,7 +11846,7 @@
       <c r="C54"/>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="54">
         <v>45214</v>
       </c>
@@ -11796,7 +11856,7 @@
       <c r="C55"/>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="54">
         <v>45214</v>
       </c>
@@ -11806,7 +11866,7 @@
       <c r="C56"/>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="54">
         <v>44321</v>
       </c>
@@ -11816,7 +11876,7 @@
       <c r="C57"/>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="54">
         <v>44367</v>
       </c>
@@ -11826,7 +11886,7 @@
       <c r="C58"/>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="54">
         <v>44459</v>
       </c>
@@ -11836,7 +11896,7 @@
       <c r="C59"/>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="54">
         <v>44459</v>
       </c>
@@ -11846,7 +11906,7 @@
       <c r="C60"/>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="54">
         <v>44433</v>
       </c>
@@ -11856,7 +11916,7 @@
       <c r="C61"/>
       <c r="E61"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="54">
         <v>44449</v>
       </c>
@@ -11866,7 +11926,7 @@
       <c r="C62"/>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="54">
         <v>44201</v>
       </c>
@@ -11878,7 +11938,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="54">
         <v>44931</v>
       </c>
@@ -12388,8 +12448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1C87F-6CBB-48CF-9073-716B69FD2C1F}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12768,7 +12828,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A21" s="194"/>
+      <c r="A21" s="194">
+        <v>45626</v>
+      </c>
       <c r="C21" s="196"/>
       <c r="D21" s="197"/>
       <c r="E21" s="199"/>
@@ -13745,7 +13807,7 @@
         <v>45806</v>
       </c>
       <c r="B9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -14173,7 +14235,7 @@
     <row r="42" spans="1:7">
       <c r="A42" s="309"/>
       <c r="B42" s="310" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C42" s="310"/>
       <c r="D42" s="310"/>
@@ -14287,7 +14349,7 @@
     <row r="55" spans="1:9">
       <c r="A55" s="309"/>
       <c r="B55" s="310" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C55" s="310"/>
       <c r="D55" s="310"/>
@@ -14539,7 +14601,7 @@
         <v>45229</v>
       </c>
       <c r="B75" s="147" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C75" s="147"/>
       <c r="D75" s="147"/>
@@ -14768,7 +14830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B106" sqref="B106:B107"/>
     </sheetView>
   </sheetViews>
@@ -16108,7 +16170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/02-25-sny.xlsx
+++ b/02-25-sny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FBD9E8-2166-44E2-B6F5-EF097254C976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C7863C-589C-405E-93E6-9FF19D755863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="780" windowWidth="24045" windowHeight="14160" tabRatio="773" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TPLM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="524">
   <si>
     <t>Ödeme Teminat Tablosu</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>tmm</t>
-  </si>
-  <si>
-    <t>arsa önüne malzeme yığıntısı var OKKK</t>
   </si>
   <si>
     <t>karonun çatısı kameracı tarafından ezilmiş</t>
@@ -1437,12 +1434,6 @@
     <t>2024 - 12/12 Kasım</t>
   </si>
   <si>
-    <t>tüfe 2025-02</t>
-  </si>
-  <si>
-    <t>tüfe 2025-01</t>
-  </si>
-  <si>
     <t>tüfe 2024-12</t>
   </si>
   <si>
@@ -1488,24 +1479,12 @@
     <t>2025 e DEVREDEN</t>
   </si>
   <si>
-    <t>2025 - 1/12 aralık</t>
-  </si>
-  <si>
     <t>asg ücret</t>
   </si>
   <si>
     <t>adet</t>
   </si>
   <si>
-    <t>2025 - 2/12 ocak</t>
-  </si>
-  <si>
-    <t>2025 - 3/12 şubat</t>
-  </si>
-  <si>
-    <t>2025 - 4/12 mart</t>
-  </si>
-  <si>
     <t>İSTİNAFTAN TAHLİYE KARARI GELDİ</t>
   </si>
   <si>
@@ -1696,6 +1675,15 @@
   </si>
   <si>
     <t>30-09-2025 – 31-09-2026</t>
+  </si>
+  <si>
+    <t>sny C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arsa önüne malzeme yığıntısı var </t>
+  </si>
+  <si>
+    <t>2025 - 12 ay</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2781,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3235,7 +3223,6 @@
     <xf numFmtId="183" fontId="33" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="19" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -4063,7 +4050,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C23" s="3">
         <v>170</v>
@@ -4083,7 +4070,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C24" s="3">
         <v>170</v>
@@ -4245,7 +4232,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15">
-      <c r="C3" s="294">
+      <c r="C3" s="293">
         <v>45739</v>
       </c>
     </row>
@@ -4253,1069 +4240,1069 @@
       <c r="E4" s="186"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="260"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="261" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" s="261" t="s">
-        <v>467</v>
-      </c>
-      <c r="F5" s="262" t="s">
-        <v>448</v>
-      </c>
-      <c r="G5" s="261" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="261" t="s">
-        <v>407</v>
+      <c r="B5" s="259"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="260" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="260" t="s">
+        <v>460</v>
+      </c>
+      <c r="F5" s="261" t="s">
+        <v>445</v>
+      </c>
+      <c r="G5" s="260" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="260" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263">
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262">
         <f>I4+E6-G6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="264">
+      <c r="B7" s="263">
         <v>44651</v>
       </c>
-      <c r="C7" s="260"/>
-      <c r="D7" s="260"/>
-      <c r="F7" s="263">
+      <c r="C7" s="259"/>
+      <c r="D7" s="259"/>
+      <c r="F7" s="262">
         <v>48000</v>
       </c>
-      <c r="G7" s="260">
+      <c r="G7" s="259">
         <v>28000</v>
       </c>
-      <c r="H7" s="263">
+      <c r="H7" s="262">
         <f>F7-G7+H6</f>
         <v>20000</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="264">
+      <c r="B8" s="263">
         <v>44681</v>
       </c>
-      <c r="C8" s="265" t="s">
-        <v>469</v>
-      </c>
-      <c r="D8" s="260"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="260">
+      <c r="C8" s="264" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="259"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="259">
         <v>4000</v>
       </c>
-      <c r="H8" s="263">
+      <c r="H8" s="262">
         <f t="shared" ref="H8:H18" si="0">F8-G8+H7</f>
         <v>16000</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="264">
+      <c r="B9" s="263">
         <v>44711</v>
       </c>
-      <c r="C9" s="260" t="s">
-        <v>468</v>
-      </c>
-      <c r="D9" s="260"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="260">
+      <c r="C9" s="259" t="s">
+        <v>461</v>
+      </c>
+      <c r="D9" s="259"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="259">
         <v>4000</v>
       </c>
-      <c r="H9" s="263">
+      <c r="H9" s="262">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="264">
+      <c r="B10" s="263">
         <v>44742</v>
       </c>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="260"/>
-      <c r="H10" s="263">
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="262">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B11" s="264">
+      <c r="B11" s="263">
         <v>44772</v>
       </c>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="260"/>
-      <c r="H11" s="263">
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
+      <c r="F11" s="262"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="262">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="264">
+      <c r="B12" s="263">
         <v>44803</v>
       </c>
-      <c r="C12" s="327" t="s">
-        <v>506</v>
-      </c>
-      <c r="D12" s="328"/>
-      <c r="E12" s="314"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="260"/>
-      <c r="H12" s="263">
+      <c r="C12" s="326" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" s="327"/>
+      <c r="E12" s="313"/>
+      <c r="F12" s="262"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="262">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B13" s="264">
+      <c r="B13" s="263">
         <v>44834</v>
       </c>
-      <c r="C13" s="329" t="s">
-        <v>507</v>
-      </c>
-      <c r="D13" s="330"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="263">
+      <c r="C13" s="328" t="s">
+        <v>500</v>
+      </c>
+      <c r="D13" s="329"/>
+      <c r="E13" s="318"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="262">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="264">
+      <c r="B14" s="263">
         <v>44864</v>
       </c>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="F14" s="263"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="263">
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="262">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="264">
+      <c r="B15" s="263">
         <v>44895</v>
       </c>
-      <c r="C15" s="260" t="s">
-        <v>509</v>
-      </c>
-      <c r="D15" s="260"/>
-      <c r="F15" s="263">
+      <c r="C15" s="259" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" s="259"/>
+      <c r="F15" s="262">
         <v>-12000</v>
       </c>
-      <c r="G15" s="260"/>
-      <c r="H15" s="263">
+      <c r="G15" s="259"/>
+      <c r="H15" s="262">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B16" s="264"/>
-      <c r="C16" s="331" t="s">
-        <v>510</v>
-      </c>
-      <c r="D16" s="260"/>
-      <c r="F16" s="263"/>
-      <c r="G16" s="260"/>
-      <c r="H16" s="263"/>
+      <c r="B16" s="263"/>
+      <c r="C16" s="330" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" s="259"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="259"/>
+      <c r="H16" s="262"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B17" s="325">
+      <c r="B17" s="324">
         <v>44925</v>
       </c>
-      <c r="C17" s="287" t="s">
-        <v>508</v>
-      </c>
-      <c r="D17" s="282"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="282"/>
-      <c r="H17" s="326">
+      <c r="C17" s="286" t="s">
+        <v>501</v>
+      </c>
+      <c r="D17" s="281"/>
+      <c r="E17" s="288"/>
+      <c r="F17" s="289"/>
+      <c r="G17" s="281"/>
+      <c r="H17" s="325">
         <f>F17-G17+H15</f>
         <v>0</v>
       </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="264">
+      <c r="B18" s="263">
         <v>44956</v>
       </c>
-      <c r="C18" s="331" t="s">
-        <v>496</v>
-      </c>
-      <c r="D18" s="260">
+      <c r="C18" s="330" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" s="259">
         <v>6.65</v>
       </c>
-      <c r="E18" s="266">
+      <c r="E18" s="265">
         <v>6920</v>
       </c>
-      <c r="F18" s="263">
+      <c r="F18" s="262">
         <f>E18</f>
         <v>6920</v>
       </c>
-      <c r="G18" s="263">
+      <c r="G18" s="262">
         <v>6920</v>
       </c>
-      <c r="H18" s="263">
+      <c r="H18" s="262">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B19" s="277">
+      <c r="B19" s="276">
         <v>44985</v>
       </c>
-      <c r="C19" s="278"/>
-      <c r="D19" s="278">
+      <c r="C19" s="277"/>
+      <c r="D19" s="277">
         <v>3.15</v>
       </c>
-      <c r="E19" s="266">
+      <c r="E19" s="265">
         <f t="shared" ref="E19:E33" si="1">E18+(E18*D18/100)</f>
         <v>7380.18</v>
       </c>
-      <c r="F19" s="266">
+      <c r="F19" s="265">
         <f t="shared" ref="F19:F25" si="2">E19</f>
         <v>7380.18</v>
       </c>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279">
+      <c r="G19" s="278"/>
+      <c r="H19" s="278">
         <f t="shared" ref="H19" si="3">F19-G19+H18</f>
         <v>7380.18</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B20" s="272">
+      <c r="B20" s="271">
         <v>45015</v>
       </c>
-      <c r="C20" s="273"/>
-      <c r="D20" s="273">
+      <c r="C20" s="272"/>
+      <c r="D20" s="272">
         <v>2.29</v>
       </c>
-      <c r="E20" s="274">
+      <c r="E20" s="273">
         <f t="shared" si="1"/>
         <v>7612.6556700000001</v>
       </c>
-      <c r="F20" s="274">
+      <c r="F20" s="273">
         <f t="shared" si="2"/>
         <v>7612.6556700000001</v>
       </c>
-      <c r="G20" s="275"/>
-      <c r="H20" s="281">
+      <c r="G20" s="274"/>
+      <c r="H20" s="280">
         <f t="shared" ref="H20:H54" si="4">F20-G20+H19</f>
         <v>14992.83567</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="332"/>
-      <c r="C21" s="333" t="s">
-        <v>511</v>
-      </c>
-      <c r="D21" s="333"/>
-      <c r="E21" s="334"/>
-      <c r="F21" s="334"/>
-      <c r="G21" s="335"/>
-      <c r="H21" s="335"/>
+      <c r="B21" s="331"/>
+      <c r="C21" s="332" t="s">
+        <v>504</v>
+      </c>
+      <c r="D21" s="332"/>
+      <c r="E21" s="333"/>
+      <c r="F21" s="333"/>
+      <c r="G21" s="334"/>
+      <c r="H21" s="334"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="265">
+      <c r="B22" s="264">
         <v>45046</v>
       </c>
-      <c r="C22" s="291" t="s">
-        <v>470</v>
-      </c>
-      <c r="D22" s="260">
+      <c r="C22" s="290" t="s">
+        <v>463</v>
+      </c>
+      <c r="D22" s="259">
         <v>2.39</v>
       </c>
-      <c r="E22" s="266">
+      <c r="E22" s="265">
         <f>E20+(E20*D20/100)</f>
         <v>7786.9854848430004</v>
       </c>
-      <c r="F22" s="266">
+      <c r="F22" s="265">
         <f t="shared" si="2"/>
         <v>7786.9854848430004</v>
       </c>
-      <c r="G22" s="271">
+      <c r="G22" s="270">
         <v>8425.4599999999991</v>
       </c>
-      <c r="H22" s="263">
+      <c r="H22" s="262">
         <f>F22-G22+H20</f>
         <v>14354.361154843002</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="265">
+      <c r="B23" s="264">
         <v>45076</v>
       </c>
-      <c r="C23" s="260" t="s">
-        <v>496</v>
-      </c>
-      <c r="D23" s="260">
+      <c r="C23" s="259" t="s">
+        <v>489</v>
+      </c>
+      <c r="D23" s="259">
         <v>0.04</v>
       </c>
-      <c r="E23" s="266">
+      <c r="E23" s="265">
         <f t="shared" si="1"/>
         <v>7973.0944379307484</v>
       </c>
-      <c r="F23" s="266">
+      <c r="F23" s="265">
         <f t="shared" si="2"/>
         <v>7973.0944379307484</v>
       </c>
-      <c r="G23" s="263">
+      <c r="G23" s="262">
         <v>28080</v>
       </c>
-      <c r="H23" s="263">
+      <c r="H23" s="262">
         <f t="shared" si="4"/>
         <v>-5752.5444072262508</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="265">
+      <c r="B24" s="264">
         <v>45107</v>
       </c>
-      <c r="C24" s="260"/>
-      <c r="D24" s="260">
+      <c r="C24" s="259"/>
+      <c r="D24" s="259">
         <v>3.92</v>
       </c>
-      <c r="E24" s="266">
+      <c r="E24" s="265">
         <f t="shared" si="1"/>
         <v>7976.2836757059204</v>
       </c>
-      <c r="F24" s="266">
+      <c r="F24" s="265">
         <f t="shared" si="2"/>
         <v>7976.2836757059204</v>
       </c>
-      <c r="G24" s="267"/>
-      <c r="H24" s="263">
+      <c r="G24" s="266"/>
+      <c r="H24" s="262">
         <f t="shared" si="4"/>
         <v>2223.7392684796696</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="265">
+      <c r="B25" s="264">
         <v>45137</v>
       </c>
-      <c r="C25" s="260"/>
-      <c r="D25" s="260">
+      <c r="C25" s="259"/>
+      <c r="D25" s="259">
         <v>9.49</v>
       </c>
-      <c r="E25" s="292">
+      <c r="E25" s="291">
         <f t="shared" si="1"/>
         <v>8288.9539957935922</v>
       </c>
-      <c r="F25" s="292">
+      <c r="F25" s="291">
         <f t="shared" si="2"/>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G25" s="267">
+      <c r="G25" s="266">
         <v>50000</v>
       </c>
-      <c r="H25" s="263">
+      <c r="H25" s="262">
         <f t="shared" si="4"/>
         <v>-39487.306735726735</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="265">
+      <c r="B26" s="264">
         <v>45168</v>
       </c>
-      <c r="C26" s="260"/>
-      <c r="D26" s="260">
+      <c r="C26" s="259"/>
+      <c r="D26" s="259">
         <v>9.09</v>
       </c>
-      <c r="E26" s="266">
+      <c r="E26" s="265">
         <f t="shared" si="1"/>
         <v>9075.5757299944034</v>
       </c>
-      <c r="F26" s="292">
+      <c r="F26" s="291">
         <f>E25</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G26" s="267"/>
-      <c r="H26" s="263">
+      <c r="G26" s="266"/>
+      <c r="H26" s="262">
         <f t="shared" si="4"/>
         <v>-31198.352739933143</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="265">
+      <c r="B27" s="264">
         <v>45199</v>
       </c>
-      <c r="C27" s="260"/>
-      <c r="D27" s="260">
+      <c r="C27" s="259"/>
+      <c r="D27" s="259">
         <v>4.75</v>
       </c>
-      <c r="E27" s="266">
+      <c r="E27" s="265">
         <f t="shared" si="1"/>
         <v>9900.5455638508938</v>
       </c>
-      <c r="F27" s="292">
+      <c r="F27" s="291">
         <f>E25</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G27" s="268"/>
-      <c r="H27" s="263">
+      <c r="G27" s="267"/>
+      <c r="H27" s="262">
         <f t="shared" si="4"/>
         <v>-22909.398744139551</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="265">
+      <c r="B28" s="264">
         <v>45229</v>
       </c>
-      <c r="C28" s="260"/>
-      <c r="D28" s="260">
+      <c r="C28" s="259"/>
+      <c r="D28" s="259">
         <v>3.43</v>
       </c>
-      <c r="E28" s="266">
+      <c r="E28" s="265">
         <f t="shared" si="1"/>
         <v>10370.821478133812</v>
       </c>
-      <c r="F28" s="292">
+      <c r="F28" s="291">
         <f>E25</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G28" s="267"/>
-      <c r="H28" s="263">
+      <c r="G28" s="266"/>
+      <c r="H28" s="262">
         <f t="shared" si="4"/>
         <v>-14620.444748345959</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="265">
+      <c r="B29" s="264">
         <v>45260</v>
       </c>
-      <c r="C29" s="260"/>
-      <c r="D29" s="260">
+      <c r="C29" s="259"/>
+      <c r="D29" s="259">
         <v>3.28</v>
       </c>
-      <c r="E29" s="266">
+      <c r="E29" s="265">
         <f t="shared" si="1"/>
         <v>10726.540654833801</v>
       </c>
-      <c r="F29" s="292">
+      <c r="F29" s="291">
         <f>E25</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G29" s="267">
+      <c r="G29" s="266">
         <v>15887.06</v>
       </c>
-      <c r="H29" s="263">
+      <c r="H29" s="262">
         <f t="shared" si="4"/>
         <v>-22218.550752552364</v>
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="265">
+      <c r="B30" s="264">
         <v>45290</v>
       </c>
-      <c r="C30" s="260"/>
-      <c r="D30" s="260">
+      <c r="C30" s="259"/>
+      <c r="D30" s="259">
         <v>2.93</v>
       </c>
-      <c r="E30" s="266">
+      <c r="E30" s="265">
         <f t="shared" si="1"/>
         <v>11078.371188312351</v>
       </c>
-      <c r="F30" s="292">
+      <c r="F30" s="291">
         <f>E25</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G30" s="267"/>
-      <c r="H30" s="263">
+      <c r="G30" s="266"/>
+      <c r="H30" s="262">
         <f t="shared" si="4"/>
         <v>-13929.596756758772</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="265">
+      <c r="B31" s="264">
         <v>45321</v>
       </c>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260">
+      <c r="C31" s="259"/>
+      <c r="D31" s="259">
         <v>6.71</v>
       </c>
-      <c r="E31" s="266">
+      <c r="E31" s="265">
         <f t="shared" si="1"/>
         <v>11402.967464129903</v>
       </c>
-      <c r="F31" s="292">
+      <c r="F31" s="291">
         <f>E25</f>
         <v>8288.9539957935922</v>
       </c>
-      <c r="G31" s="267"/>
-      <c r="H31" s="263">
+      <c r="G31" s="266"/>
+      <c r="H31" s="262">
         <f t="shared" si="4"/>
         <v>-5640.6427609651801</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="277">
+      <c r="B32" s="276">
         <v>45350</v>
       </c>
-      <c r="C32" s="278"/>
-      <c r="D32" s="278">
+      <c r="C32" s="277"/>
+      <c r="D32" s="277">
         <v>4.53</v>
       </c>
-      <c r="E32" s="266">
+      <c r="E32" s="265">
         <f t="shared" si="1"/>
         <v>12168.106580973019</v>
       </c>
-      <c r="F32" s="266">
+      <c r="F32" s="265">
         <f t="shared" ref="F32:F38" si="5">E32</f>
         <v>12168.106580973019</v>
       </c>
-      <c r="G32" s="267"/>
-      <c r="H32" s="279">
+      <c r="G32" s="266"/>
+      <c r="H32" s="278">
         <f t="shared" si="4"/>
         <v>6527.4638200078389</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="272">
+      <c r="B33" s="271">
         <v>45381</v>
       </c>
-      <c r="C33" s="273"/>
-      <c r="D33" s="273">
+      <c r="C33" s="272"/>
+      <c r="D33" s="272">
         <v>3.16</v>
       </c>
-      <c r="E33" s="274">
+      <c r="E33" s="273">
         <f t="shared" si="1"/>
         <v>12719.321809091096</v>
       </c>
-      <c r="F33" s="274">
+      <c r="F33" s="273">
         <f t="shared" si="5"/>
         <v>12719.321809091096</v>
       </c>
-      <c r="G33" s="276"/>
-      <c r="H33" s="275">
+      <c r="G33" s="275"/>
+      <c r="H33" s="274">
         <f t="shared" si="4"/>
         <v>19246.785629098937</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="260"/>
-      <c r="C34" s="280" t="s">
-        <v>342</v>
-      </c>
-      <c r="D34" s="260"/>
-      <c r="E34" s="266">
+      <c r="B34" s="259"/>
+      <c r="C34" s="279" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="259"/>
+      <c r="E34" s="265">
         <v>3795</v>
       </c>
-      <c r="F34" s="266">
+      <c r="F34" s="265">
         <f t="shared" si="5"/>
         <v>3795</v>
       </c>
-      <c r="G34" s="267"/>
-      <c r="H34" s="263">
+      <c r="G34" s="266"/>
+      <c r="H34" s="262">
         <f t="shared" si="4"/>
         <v>23041.785629098937</v>
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="260"/>
-      <c r="C35" s="280" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="260"/>
-      <c r="E35" s="266">
+      <c r="B35" s="259"/>
+      <c r="C35" s="279" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="259"/>
+      <c r="E35" s="265">
         <v>5600</v>
       </c>
-      <c r="F35" s="266">
+      <c r="F35" s="265">
         <f t="shared" si="5"/>
         <v>5600</v>
       </c>
-      <c r="G35" s="267"/>
-      <c r="H35" s="263">
+      <c r="G35" s="266"/>
+      <c r="H35" s="262">
         <f t="shared" si="4"/>
         <v>28641.785629098937</v>
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="260"/>
-      <c r="C36" s="260" t="s">
-        <v>403</v>
-      </c>
-      <c r="D36" s="260"/>
-      <c r="E36" s="266">
+      <c r="B36" s="259"/>
+      <c r="C36" s="259" t="s">
+        <v>402</v>
+      </c>
+      <c r="D36" s="259"/>
+      <c r="E36" s="265">
         <v>278.97000000000003</v>
       </c>
-      <c r="F36" s="266">
+      <c r="F36" s="265">
         <f t="shared" si="5"/>
         <v>278.97000000000003</v>
       </c>
-      <c r="G36" s="267"/>
-      <c r="H36" s="263">
+      <c r="G36" s="266"/>
+      <c r="H36" s="262">
         <f t="shared" si="4"/>
         <v>28920.755629098938</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="260"/>
-      <c r="C37" s="260" t="s">
-        <v>404</v>
-      </c>
-      <c r="D37" s="260"/>
-      <c r="E37" s="266">
+      <c r="B37" s="259"/>
+      <c r="C37" s="259" t="s">
+        <v>403</v>
+      </c>
+      <c r="D37" s="259"/>
+      <c r="E37" s="265">
         <v>10000</v>
       </c>
-      <c r="F37" s="266">
+      <c r="F37" s="265">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G37" s="267"/>
-      <c r="H37" s="263">
+      <c r="G37" s="266"/>
+      <c r="H37" s="262">
         <f t="shared" si="4"/>
         <v>38920.755629098938</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="265">
+      <c r="B38" s="264">
         <v>45762</v>
       </c>
-      <c r="C38" s="260" t="s">
-        <v>496</v>
-      </c>
-      <c r="D38" s="260">
+      <c r="C38" s="259" t="s">
+        <v>489</v>
+      </c>
+      <c r="D38" s="259">
         <v>3.18</v>
       </c>
-      <c r="E38" s="292">
+      <c r="E38" s="291">
         <f>E33+(E33*D33/100)</f>
         <v>13121.252378258374</v>
       </c>
-      <c r="F38" s="292">
+      <c r="F38" s="291">
         <f t="shared" si="5"/>
         <v>13121.252378258374</v>
       </c>
-      <c r="G38" s="267">
+      <c r="G38" s="266">
         <v>85000</v>
       </c>
-      <c r="H38" s="263">
+      <c r="H38" s="262">
         <f t="shared" si="4"/>
         <v>-32957.991992642688</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="265">
+      <c r="B39" s="264">
         <v>45442</v>
       </c>
-      <c r="C39" s="278"/>
-      <c r="D39" s="260">
+      <c r="C39" s="277"/>
+      <c r="D39" s="259">
         <v>3.37</v>
       </c>
-      <c r="E39" s="266">
+      <c r="E39" s="265">
         <f>E38+(E38*D38/100)</f>
         <v>13538.50820388699</v>
       </c>
-      <c r="F39" s="292">
+      <c r="F39" s="291">
         <f>E38</f>
         <v>13121.252378258374</v>
       </c>
-      <c r="G39" s="267"/>
-      <c r="H39" s="263">
+      <c r="G39" s="266"/>
+      <c r="H39" s="262">
         <f t="shared" si="4"/>
         <v>-19836.739614384314</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="265">
+      <c r="B40" s="264">
         <v>45473</v>
       </c>
-      <c r="C40" s="278"/>
-      <c r="D40" s="260">
+      <c r="C40" s="277"/>
+      <c r="D40" s="259">
         <v>1.64</v>
       </c>
-      <c r="E40" s="266">
+      <c r="E40" s="265">
         <f>E39+(E39*D39/100)</f>
         <v>13994.755930357982</v>
       </c>
-      <c r="F40" s="266">
+      <c r="F40" s="265">
         <f t="shared" ref="F40:F45" si="6">E40</f>
         <v>13994.755930357982</v>
       </c>
-      <c r="G40" s="260"/>
-      <c r="H40" s="263">
+      <c r="G40" s="259"/>
+      <c r="H40" s="262">
         <f t="shared" si="4"/>
         <v>-5841.9836840263324</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="265">
+      <c r="B41" s="264">
         <v>45503</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="260">
+      <c r="C41" s="277"/>
+      <c r="D41" s="259">
         <v>3.23</v>
       </c>
-      <c r="E41" s="266">
+      <c r="E41" s="265">
         <f t="shared" ref="E41:E45" si="7">E40+(E40*D40/100)</f>
         <v>14224.269927615853</v>
       </c>
-      <c r="F41" s="266">
+      <c r="F41" s="265">
         <f t="shared" si="6"/>
         <v>14224.269927615853</v>
       </c>
-      <c r="G41" s="260"/>
-      <c r="H41" s="263">
+      <c r="G41" s="259"/>
+      <c r="H41" s="262">
         <f t="shared" si="4"/>
         <v>8382.2862435895204</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="265">
+      <c r="B42" s="264">
         <v>45534</v>
       </c>
-      <c r="C42" s="278"/>
-      <c r="D42" s="260">
+      <c r="C42" s="277"/>
+      <c r="D42" s="259">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E42" s="266">
+      <c r="E42" s="265">
         <f t="shared" si="7"/>
         <v>14683.713846277846</v>
       </c>
-      <c r="F42" s="266">
+      <c r="F42" s="265">
         <f t="shared" si="6"/>
         <v>14683.713846277846</v>
       </c>
-      <c r="G42" s="260"/>
-      <c r="H42" s="263">
+      <c r="G42" s="259"/>
+      <c r="H42" s="262">
         <f t="shared" si="4"/>
         <v>23066.000089867368</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="265">
+      <c r="B43" s="264">
         <v>45565</v>
       </c>
-      <c r="C43" s="278"/>
-      <c r="D43" s="260">
+      <c r="C43" s="277"/>
+      <c r="D43" s="259">
         <v>2.97</v>
       </c>
-      <c r="E43" s="266">
+      <c r="E43" s="265">
         <f t="shared" si="7"/>
         <v>15046.401578280909</v>
       </c>
-      <c r="F43" s="266">
+      <c r="F43" s="265">
         <f t="shared" si="6"/>
         <v>15046.401578280909</v>
       </c>
-      <c r="G43" s="260"/>
-      <c r="H43" s="263">
+      <c r="G43" s="259"/>
+      <c r="H43" s="262">
         <f t="shared" si="4"/>
         <v>38112.401668148275</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="265">
+      <c r="B44" s="264">
         <v>45595</v>
       </c>
-      <c r="C44" s="269"/>
-      <c r="D44" s="260">
+      <c r="C44" s="268"/>
+      <c r="D44" s="259">
         <v>2.88</v>
       </c>
-      <c r="E44" s="266">
+      <c r="E44" s="265">
         <f t="shared" si="7"/>
         <v>15493.279705155852</v>
       </c>
-      <c r="F44" s="266">
+      <c r="F44" s="265">
         <f t="shared" si="6"/>
         <v>15493.279705155852</v>
       </c>
-      <c r="G44" s="269"/>
-      <c r="H44" s="263">
+      <c r="G44" s="268"/>
+      <c r="H44" s="262">
         <f t="shared" si="4"/>
         <v>53605.681373304127</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="265">
+      <c r="B45" s="264">
         <v>45626</v>
       </c>
-      <c r="C45" s="278"/>
-      <c r="D45" s="260">
+      <c r="C45" s="277"/>
+      <c r="D45" s="259">
         <v>2.2400000000000002</v>
       </c>
-      <c r="E45" s="266">
+      <c r="E45" s="265">
         <f t="shared" si="7"/>
         <v>15939.486160664341</v>
       </c>
-      <c r="F45" s="266">
+      <c r="F45" s="265">
         <f t="shared" si="6"/>
         <v>15939.486160664341</v>
       </c>
-      <c r="G45" s="260"/>
-      <c r="H45" s="263">
+      <c r="G45" s="259"/>
+      <c r="H45" s="262">
         <f t="shared" si="4"/>
         <v>69545.167533968473</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="260"/>
-      <c r="C46" s="299" t="s">
-        <v>470</v>
-      </c>
-      <c r="D46" s="255"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="300">
+      <c r="B46" s="259"/>
+      <c r="C46" s="298" t="s">
+        <v>463</v>
+      </c>
+      <c r="D46" s="254"/>
+      <c r="E46" s="255"/>
+      <c r="F46" s="255"/>
+      <c r="G46" s="299">
         <v>150000</v>
       </c>
-      <c r="H46" s="263">
+      <c r="H46" s="262">
         <f t="shared" si="4"/>
         <v>-80454.832466031527</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="260"/>
-      <c r="C47" s="299" t="s">
-        <v>505</v>
-      </c>
-      <c r="D47" s="255"/>
-      <c r="E47" s="256"/>
-      <c r="F47" s="256"/>
-      <c r="G47" s="300">
+      <c r="B47" s="259"/>
+      <c r="C47" s="298" t="s">
+        <v>498</v>
+      </c>
+      <c r="D47" s="254"/>
+      <c r="E47" s="255"/>
+      <c r="F47" s="255"/>
+      <c r="G47" s="299">
         <v>-1500</v>
       </c>
-      <c r="H47" s="263">
+      <c r="H47" s="262">
         <f t="shared" si="4"/>
         <v>-78954.832466031527</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="260"/>
-      <c r="C48" s="260" t="s">
-        <v>449</v>
-      </c>
-      <c r="D48" s="260"/>
-      <c r="E48" s="266"/>
-      <c r="F48" s="266">
+      <c r="B48" s="259"/>
+      <c r="C48" s="259" t="s">
+        <v>446</v>
+      </c>
+      <c r="D48" s="259"/>
+      <c r="E48" s="265"/>
+      <c r="F48" s="265">
         <v>8000</v>
       </c>
-      <c r="G48" s="260"/>
-      <c r="H48" s="263">
+      <c r="G48" s="259"/>
+      <c r="H48" s="262">
         <f t="shared" si="4"/>
         <v>-70954.832466031527</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="B49" s="265">
+      <c r="B49" s="264">
         <v>45656</v>
       </c>
-      <c r="C49" s="260"/>
-      <c r="D49" s="260">
+      <c r="C49" s="259"/>
+      <c r="D49" s="259">
         <v>1.03</v>
       </c>
-      <c r="E49" s="292">
+      <c r="E49" s="291">
         <f>E45+(E45*D45/100)</f>
         <v>16296.530650663222</v>
       </c>
-      <c r="F49" s="292">
+      <c r="F49" s="291">
         <f>E49</f>
         <v>16296.530650663222</v>
       </c>
-      <c r="G49" s="260"/>
-      <c r="H49" s="263">
+      <c r="G49" s="259"/>
+      <c r="H49" s="262">
         <f t="shared" si="4"/>
         <v>-54658.301815368308</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B50" s="265">
+      <c r="B50" s="264">
         <v>45687</v>
       </c>
-      <c r="C50" s="260"/>
-      <c r="D50" s="260">
+      <c r="C50" s="259"/>
+      <c r="D50" s="259">
         <v>5.03</v>
       </c>
-      <c r="E50" s="266">
+      <c r="E50" s="265">
         <v>22104</v>
       </c>
-      <c r="F50" s="292">
+      <c r="F50" s="291">
         <f>E49</f>
         <v>16296.530650663222</v>
       </c>
-      <c r="G50" s="260"/>
-      <c r="H50" s="263">
+      <c r="G50" s="259"/>
+      <c r="H50" s="262">
         <f t="shared" si="4"/>
         <v>-38361.771164705089</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B51" s="286">
+      <c r="B51" s="285">
         <v>45716</v>
       </c>
-      <c r="C51" s="287"/>
-      <c r="D51" s="287">
+      <c r="C51" s="286"/>
+      <c r="D51" s="286">
         <v>5.03</v>
       </c>
-      <c r="E51" s="284">
+      <c r="E51" s="283">
         <f>E50+(E50*D50/100)</f>
         <v>23215.831200000001</v>
       </c>
-      <c r="F51" s="293">
+      <c r="F51" s="292">
         <f>E49</f>
         <v>16296.530650663222</v>
       </c>
-      <c r="G51" s="287"/>
-      <c r="H51" s="285">
+      <c r="G51" s="286"/>
+      <c r="H51" s="284">
         <f t="shared" si="4"/>
         <v>-22065.240514041867</v>
       </c>
-      <c r="I51" s="260"/>
-      <c r="J51" s="260"/>
+      <c r="I51" s="259"/>
+      <c r="J51" s="259"/>
     </row>
     <row r="52" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B52" s="288">
+      <c r="B52" s="287">
         <v>45746</v>
       </c>
-      <c r="C52" s="289"/>
-      <c r="D52" s="289"/>
-      <c r="E52" s="283">
+      <c r="C52" s="288"/>
+      <c r="D52" s="288"/>
+      <c r="E52" s="282">
         <f>E51+(E51*D51/100)</f>
         <v>24383.587509360001</v>
       </c>
-      <c r="F52" s="266">
+      <c r="F52" s="265">
         <f t="shared" ref="F52" si="8">E52</f>
         <v>24383.587509360001</v>
       </c>
-      <c r="G52" s="282"/>
-      <c r="H52" s="290">
+      <c r="G52" s="281"/>
+      <c r="H52" s="289">
         <f t="shared" si="4"/>
         <v>2318.3469953181338</v>
       </c>
-      <c r="I52" s="260"/>
-      <c r="J52" s="260"/>
+      <c r="I52" s="259"/>
+      <c r="J52" s="259"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="B53" s="270"/>
-      <c r="G53" s="260"/>
-      <c r="H53" s="263">
+      <c r="B53" s="269"/>
+      <c r="G53" s="259"/>
+      <c r="H53" s="262">
         <f t="shared" si="4"/>
         <v>2318.3469953181338</v>
       </c>
-      <c r="I53" s="260"/>
-      <c r="J53" s="260"/>
+      <c r="I53" s="259"/>
+      <c r="J53" s="259"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="B54" s="260"/>
-      <c r="C54" s="260"/>
-      <c r="D54" s="260"/>
-      <c r="E54" s="266"/>
-      <c r="F54" s="266"/>
-      <c r="G54" s="260"/>
-      <c r="H54" s="263">
+      <c r="B54" s="259"/>
+      <c r="C54" s="259"/>
+      <c r="D54" s="259"/>
+      <c r="E54" s="265"/>
+      <c r="F54" s="265"/>
+      <c r="G54" s="259"/>
+      <c r="H54" s="262">
         <f t="shared" si="4"/>
         <v>2318.3469953181338</v>
       </c>
-      <c r="I54" s="260"/>
-      <c r="J54" s="260"/>
+      <c r="I54" s="259"/>
+      <c r="J54" s="259"/>
     </row>
     <row r="55" spans="1:14" ht="15">
-      <c r="B55" s="260"/>
-      <c r="C55" s="294"/>
-      <c r="D55" s="260"/>
-      <c r="E55" s="266"/>
-      <c r="F55" s="266"/>
-      <c r="G55" s="260"/>
-      <c r="H55" s="267"/>
-      <c r="I55" s="260"/>
-      <c r="J55" s="260"/>
+      <c r="B55" s="259"/>
+      <c r="C55" s="293"/>
+      <c r="D55" s="259"/>
+      <c r="E55" s="265"/>
+      <c r="F55" s="265"/>
+      <c r="G55" s="259"/>
+      <c r="H55" s="266"/>
+      <c r="I55" s="259"/>
+      <c r="J55" s="259"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="B56" s="260"/>
-      <c r="C56" s="260"/>
-      <c r="D56" s="260"/>
-      <c r="E56" s="266"/>
-      <c r="F56" s="266"/>
-      <c r="G56" s="260"/>
-      <c r="H56" s="267"/>
-      <c r="I56" s="260"/>
-      <c r="J56" s="260"/>
+      <c r="B56" s="259"/>
+      <c r="C56" s="259"/>
+      <c r="D56" s="259"/>
+      <c r="E56" s="265"/>
+      <c r="F56" s="265"/>
+      <c r="G56" s="259"/>
+      <c r="H56" s="266"/>
+      <c r="I56" s="259"/>
+      <c r="J56" s="259"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="B57" s="260"/>
-      <c r="C57" s="260"/>
-      <c r="D57" s="260"/>
-      <c r="E57" s="266"/>
-      <c r="F57" s="266"/>
-      <c r="G57" s="260"/>
-      <c r="H57" s="267"/>
-      <c r="I57" s="260"/>
-      <c r="J57" s="260"/>
+      <c r="B57" s="259"/>
+      <c r="C57" s="259"/>
+      <c r="D57" s="259"/>
+      <c r="E57" s="265"/>
+      <c r="F57" s="265"/>
+      <c r="G57" s="259"/>
+      <c r="H57" s="266"/>
+      <c r="I57" s="259"/>
+      <c r="J57" s="259"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="298"/>
-      <c r="B58" s="295" t="s">
-        <v>483</v>
-      </c>
-      <c r="C58" s="255"/>
-      <c r="D58" s="255"/>
-      <c r="E58" s="296"/>
-      <c r="F58" s="295">
-        <v>0</v>
-      </c>
-      <c r="G58" s="295" t="s">
-        <v>473</v>
-      </c>
-      <c r="H58" s="296">
+      <c r="A58" s="297"/>
+      <c r="B58" s="294" t="s">
+        <v>476</v>
+      </c>
+      <c r="C58" s="254"/>
+      <c r="D58" s="254"/>
+      <c r="E58" s="295"/>
+      <c r="F58" s="294">
+        <v>0</v>
+      </c>
+      <c r="G58" s="294" t="s">
+        <v>466</v>
+      </c>
+      <c r="H58" s="295">
         <v>85000</v>
       </c>
-      <c r="J58" s="260"/>
-      <c r="K58" s="260"/>
-      <c r="L58" s="260"/>
-      <c r="M58" s="260"/>
-      <c r="N58" s="260"/>
+      <c r="J58" s="259"/>
+      <c r="K58" s="259"/>
+      <c r="L58" s="259"/>
+      <c r="M58" s="259"/>
+      <c r="N58" s="259"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="B59" s="255"/>
-      <c r="C59" s="297" t="s">
-        <v>484</v>
-      </c>
-      <c r="D59" s="255"/>
-      <c r="E59" s="255"/>
-      <c r="F59" s="255"/>
-      <c r="G59" s="255"/>
-      <c r="H59" s="255"/>
+      <c r="B59" s="254"/>
+      <c r="C59" s="296" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" s="254"/>
+      <c r="E59" s="254"/>
+      <c r="F59" s="254"/>
+      <c r="G59" s="254"/>
+      <c r="H59" s="254"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="B60" s="255"/>
-      <c r="C60" s="255" t="s">
-        <v>485</v>
-      </c>
-      <c r="D60" s="255"/>
-      <c r="E60" s="255"/>
-      <c r="F60" s="255"/>
-      <c r="G60" s="255"/>
-      <c r="H60" s="255"/>
+      <c r="B60" s="254"/>
+      <c r="C60" s="254" t="s">
+        <v>478</v>
+      </c>
+      <c r="D60" s="254"/>
+      <c r="E60" s="254"/>
+      <c r="F60" s="254"/>
+      <c r="G60" s="254"/>
+      <c r="H60" s="254"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="B62" s="324">
+      <c r="B62" s="323">
         <v>45611</v>
       </c>
-      <c r="C62" s="255" t="s">
-        <v>504</v>
-      </c>
-      <c r="D62" s="255"/>
-      <c r="E62" s="255"/>
-      <c r="F62" s="255"/>
-      <c r="G62" s="255"/>
-      <c r="H62" s="323">
+      <c r="C62" s="254" t="s">
+        <v>497</v>
+      </c>
+      <c r="D62" s="254"/>
+      <c r="E62" s="254"/>
+      <c r="F62" s="254"/>
+      <c r="G62" s="254"/>
+      <c r="H62" s="322">
         <v>150000</v>
       </c>
     </row>
@@ -5329,8 +5316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5346,14 +5333,14 @@
     <row r="1" spans="1:7">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="45"/>
       <c r="F1" s="3"/>
       <c r="G1" s="83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5389,7 +5376,7 @@
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="336"/>
+      <c r="C4" s="335"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15">
         <f>SUM(E9:E20)</f>
@@ -5458,9 +5445,9 @@
         <v>45564</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>512</v>
-      </c>
-      <c r="C9" s="337"/>
+        <v>505</v>
+      </c>
+      <c r="C9" s="336"/>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
       <c r="G9" s="3">
@@ -5471,7 +5458,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="54"/>
       <c r="B10" s="91" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C10" s="91">
         <v>12</v>
@@ -5498,7 +5485,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="54"/>
       <c r="B12" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
@@ -5510,7 +5497,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="92"/>
       <c r="B13" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
@@ -5522,7 +5509,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="26"/>
       <c r="C14" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="28"/>
@@ -5534,7 +5521,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="26"/>
       <c r="B15" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C15">
         <v>3.5</v>
@@ -5555,7 +5542,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="26"/>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -5584,7 +5571,7 @@
     </row>
     <row r="18" spans="1:8" ht="15">
       <c r="A18" s="26"/>
-      <c r="B18" s="294">
+      <c r="B18" s="293">
         <v>45739</v>
       </c>
       <c r="E18" s="27"/>
@@ -5640,7 +5627,7 @@
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5855,10 +5842,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -5878,7 +5865,7 @@
     <row r="42" spans="1:8">
       <c r="A42" s="7"/>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -5897,7 +5884,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="7"/>
       <c r="B44" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
@@ -5912,7 +5899,7 @@
         <v>45237</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="1"/>
       <c r="F45" s="3"/>
@@ -5920,7 +5907,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="B46" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C46" s="1"/>
       <c r="F46" s="3"/>
@@ -5928,7 +5915,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="B47" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C47" s="1"/>
       <c r="F47" s="3"/>
@@ -5936,7 +5923,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="B48" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C48" s="1"/>
       <c r="F48" s="3"/>
@@ -5944,7 +5931,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="B49" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C49" s="1"/>
       <c r="F49" s="3"/>
@@ -5952,7 +5939,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C50" s="1"/>
       <c r="F50" s="3"/>
@@ -5960,7 +5947,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="B51" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C51" s="1"/>
       <c r="F51" s="3"/>
@@ -5968,7 +5955,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="B52" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C52" s="1"/>
       <c r="F52" s="3"/>
@@ -5976,7 +5963,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="B56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5984,7 +5971,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="B57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -6006,7 +5993,7 @@
         <v>44956</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D59" s="3">
         <v>1000</v>
@@ -6021,7 +6008,7 @@
         <v>44985</v>
       </c>
       <c r="B60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D60" s="3">
         <v>1000</v>
@@ -6036,7 +6023,7 @@
         <v>45015</v>
       </c>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D61" s="3">
         <v>1000</v>
@@ -6052,7 +6039,7 @@
         <v>45046</v>
       </c>
       <c r="B62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D62" s="3">
         <v>1000</v>
@@ -6073,7 +6060,7 @@
     <row r="64" spans="1:7">
       <c r="A64" s="54"/>
       <c r="B64" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="3">
@@ -6087,7 +6074,7 @@
     <row r="65" spans="1:6">
       <c r="A65" s="54"/>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -6099,7 +6086,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="54"/>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -6121,7 +6108,7 @@
         <v>44998</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68">
@@ -6137,7 +6124,7 @@
         <v>44998</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E69">
         <v>2400</v>
@@ -6149,7 +6136,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="B70" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C70" s="1"/>
       <c r="E70">
@@ -6162,7 +6149,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="B71" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C71" s="1"/>
       <c r="E71">
@@ -6184,7 +6171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -6209,10 +6196,10 @@
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2" s="51">
         <f>SUM(F6:F55)</f>
@@ -6255,7 +6242,7 @@
         <v>45321</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -6272,7 +6259,7 @@
         <v>45350</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -6289,7 +6276,7 @@
         <v>45381</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -6306,7 +6293,7 @@
         <v>45412</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -6323,7 +6310,7 @@
         <v>45442</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -6340,7 +6327,7 @@
         <v>45426</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6357,7 +6344,7 @@
         <v>45426</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -6374,7 +6361,7 @@
         <v>45473</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -6391,7 +6378,7 @@
         <v>45503</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -6405,7 +6392,7 @@
         <v>45534</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -6419,7 +6406,7 @@
         <v>45565</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -6433,7 +6420,7 @@
         <v>45595</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -6447,7 +6434,7 @@
         <v>45579</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -6464,7 +6451,7 @@
         <v>45579</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -6481,7 +6468,7 @@
         <v>45626</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -6495,7 +6482,7 @@
         <v>45656</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C21"/>
       <c r="G21" s="3">
@@ -6505,7 +6492,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -6578,8 +6565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F3B4BF-5428-4CFE-9CCD-7224C312B45E}">
   <dimension ref="A2:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6589,7 +6576,7 @@
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13" style="338" customWidth="1"/>
+    <col min="6" max="6" width="13" style="337" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
@@ -6597,20 +6584,20 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="B2" s="93" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="C3" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="F3" s="339"/>
+      <c r="F3" s="338"/>
       <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
@@ -6625,7 +6612,7 @@
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="339"/>
+      <c r="F4" s="338"/>
       <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
@@ -6635,45 +6622,42 @@
         <v>138749.76000000001</v>
       </c>
       <c r="E5" s="102"/>
-      <c r="F5" s="340"/>
+      <c r="F5" s="339"/>
       <c r="G5" s="120" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H5" s="121">
         <f>D5</f>
         <v>138749.76000000001</v>
       </c>
       <c r="I5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="D6" s="242"/>
       <c r="E6" s="102"/>
-      <c r="F6" s="340"/>
-      <c r="G6" s="348"/>
+      <c r="F6" s="339"/>
+      <c r="G6" s="347"/>
       <c r="H6" s="121"/>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="D7" s="95" t="s">
-        <v>519</v>
-      </c>
-      <c r="E7" t="s">
-        <v>118</v>
+        <v>512</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H7" s="122">
         <f>H26*-1</f>
-        <v>68261.360000000015</v>
+        <v>139111.94400000002</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="D8" s="95"/>
       <c r="H8" s="122">
         <f>H7+H5</f>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6683,14 +6667,14 @@
       <c r="C9" s="94"/>
       <c r="D9" s="90">
         <f>H8-C9</f>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E9" s="124"/>
-      <c r="F9" s="341"/>
+      <c r="F9" s="340"/>
       <c r="G9" s="125"/>
       <c r="H9" s="126">
         <f t="shared" ref="H9:H20" si="0">H8-E9</f>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6700,14 +6684,14 @@
       <c r="C10" s="94"/>
       <c r="D10" s="90">
         <f t="shared" ref="D10:D20" si="1">D9-C10</f>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E10" s="124"/>
-      <c r="F10" s="341"/>
+      <c r="F10" s="340"/>
       <c r="G10" s="125"/>
       <c r="H10" s="90">
         <f t="shared" si="0"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6717,14 +6701,14 @@
       <c r="C11" s="94"/>
       <c r="D11" s="90">
         <f t="shared" si="1"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E11" s="124"/>
-      <c r="F11" s="341"/>
+      <c r="F11" s="340"/>
       <c r="G11" s="125"/>
       <c r="H11" s="90">
         <f t="shared" si="0"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6732,21 +6716,21 @@
         <v>45755</v>
       </c>
       <c r="B12" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C12" s="94"/>
       <c r="D12" s="90">
         <f t="shared" si="1"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E12" s="124">
         <v>20000</v>
       </c>
-      <c r="F12" s="341"/>
+      <c r="F12" s="340"/>
       <c r="G12" s="125"/>
       <c r="H12" s="90">
         <f t="shared" si="0"/>
-        <v>187011.12000000002</v>
+        <v>257861.70400000003</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6754,21 +6738,21 @@
         <v>45786</v>
       </c>
       <c r="B13" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C13" s="94"/>
       <c r="D13" s="90">
         <f t="shared" si="1"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E13" s="124">
         <v>20000</v>
       </c>
-      <c r="F13" s="341"/>
+      <c r="F13" s="340"/>
       <c r="G13" s="125"/>
       <c r="H13" s="90">
         <f t="shared" si="0"/>
-        <v>167011.12000000002</v>
+        <v>237861.70400000003</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6776,12 +6760,12 @@
         <v>45818</v>
       </c>
       <c r="B14" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C14" s="94"/>
       <c r="D14" s="90">
         <f t="shared" si="1"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E14" s="124">
         <v>20000</v>
@@ -6789,7 +6773,7 @@
       <c r="G14" s="125"/>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
-        <v>147011.12000000002</v>
+        <v>217861.70400000003</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6797,12 +6781,12 @@
         <v>45846</v>
       </c>
       <c r="B15" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="90">
         <f t="shared" si="1"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E15" s="124">
         <v>20000</v>
@@ -6810,7 +6794,7 @@
       <c r="G15" s="125"/>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
-        <v>127011.12000000002</v>
+        <v>197861.70400000003</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6818,19 +6802,19 @@
         <v>45855</v>
       </c>
       <c r="B16" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C16" s="94"/>
       <c r="D16" s="90">
         <f t="shared" si="1"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E16" s="124">
         <v>30000</v>
       </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
-        <v>97011.120000000024</v>
+        <v>167861.70400000003</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6838,19 +6822,19 @@
         <v>45901</v>
       </c>
       <c r="B17" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C17" s="94"/>
       <c r="D17" s="90">
         <f t="shared" si="1"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E17" s="124">
         <v>20000</v>
       </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
-        <v>77011.120000000024</v>
+        <v>147861.70400000003</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6858,19 +6842,19 @@
         <v>45944</v>
       </c>
       <c r="B18" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C18" s="94"/>
       <c r="D18" s="90">
         <f t="shared" si="1"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E18" s="124">
         <v>20000</v>
       </c>
       <c r="H18" s="90">
         <f t="shared" si="0"/>
-        <v>57011.120000000024</v>
+        <v>127861.70400000003</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6878,19 +6862,19 @@
         <v>45966</v>
       </c>
       <c r="B19" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="90">
         <f t="shared" si="1"/>
-        <v>207011.12000000002</v>
+        <v>277861.70400000003</v>
       </c>
       <c r="E19" s="124">
         <v>20000</v>
       </c>
       <c r="H19" s="90">
         <f t="shared" si="0"/>
-        <v>37011.120000000024</v>
+        <v>107861.70400000003</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6898,17 +6882,19 @@
         <v>45992</v>
       </c>
       <c r="B20" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C20" s="94"/>
       <c r="D20" s="90">
         <f t="shared" si="1"/>
-        <v>207011.12000000002</v>
-      </c>
-      <c r="E20" s="124"/>
+        <v>277861.70400000003</v>
+      </c>
+      <c r="E20" s="124">
+        <v>20000</v>
+      </c>
       <c r="H20" s="90">
         <f t="shared" si="0"/>
-        <v>37011.120000000024</v>
+        <v>87861.704000000027</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6933,7 +6919,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="B24" s="96" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D24" s="251">
         <v>0.76461599999999996</v>
@@ -6952,55 +6938,55 @@
         <v>24</v>
       </c>
       <c r="C25" s="127" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="128" t="s">
         <v>286</v>
       </c>
-      <c r="D25" s="128" t="s">
+      <c r="E25" s="127" t="s">
         <v>287</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="F25" s="341" t="s">
         <v>288</v>
       </c>
-      <c r="F25" s="342" t="s">
+      <c r="G25" s="127" t="s">
         <v>289</v>
       </c>
-      <c r="G25" s="127" t="s">
-        <v>290</v>
-      </c>
       <c r="H25" s="130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I25" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="J25" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="116"/>
       <c r="B26" s="117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26" s="118">
         <f>SUBTOTAL(109,C27:C41)</f>
-        <v>290000</v>
+        <v>591000</v>
       </c>
       <c r="D26" s="118">
         <f>SUBTOTAL(109,D27:D41)</f>
-        <v>290000</v>
+        <v>591000</v>
       </c>
       <c r="E26" s="118">
         <f>SUM(E27:E41)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="343"/>
+      <c r="F26" s="342"/>
       <c r="G26" s="118">
         <f>SUBTOTAL(109,$G$27:$G$41)</f>
-        <v>-68261.360000000015</v>
+        <v>-139111.94400000002</v>
       </c>
       <c r="H26" s="118">
         <f>H27</f>
-        <v>-68261.360000000015</v>
+        <v>-139111.94400000002</v>
       </c>
       <c r="J26" s="98"/>
     </row>
@@ -7009,7 +6995,7 @@
         <v>46021</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D27" s="100">
         <f t="shared" ref="D27:D40" si="2">IF(F27=1,$C27,0)</f>
@@ -7019,7 +7005,7 @@
         <f t="shared" ref="E27:E41" si="3">IF(F27=0,C27*$E$24*-1,0)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="344">
+      <c r="F27" s="343">
         <v>0</v>
       </c>
       <c r="G27" s="100">
@@ -7028,32 +7014,38 @@
       </c>
       <c r="H27" s="95">
         <f t="shared" ref="H27:H40" si="5">H28+G27</f>
-        <v>-68261.360000000015</v>
+        <v>-139111.94400000002</v>
       </c>
       <c r="J27" s="98"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="227"/>
-      <c r="B28" s="228"/>
-      <c r="C28" s="233"/>
+      <c r="A28" s="227">
+        <v>45992</v>
+      </c>
+      <c r="B28" s="228" t="s">
+        <v>521</v>
+      </c>
+      <c r="C28" s="233">
+        <v>301000</v>
+      </c>
       <c r="D28" s="100">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>301000</v>
       </c>
       <c r="E28" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F28" s="344">
-        <v>0</v>
+      <c r="F28" s="343">
+        <v>1</v>
       </c>
       <c r="G28" s="100">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-70850.584000000017</v>
       </c>
       <c r="H28" s="95">
         <f t="shared" si="5"/>
-        <v>-68261.360000000015</v>
+        <v>-139111.94400000002</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7068,7 +7060,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F29" s="344">
+      <c r="F29" s="343">
         <v>0</v>
       </c>
       <c r="G29" s="100">
@@ -7092,7 +7084,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F30" s="344">
+      <c r="F30" s="343">
         <v>0</v>
       </c>
       <c r="G30" s="100">
@@ -7116,7 +7108,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F31" s="344">
+      <c r="F31" s="343">
         <v>0</v>
       </c>
       <c r="G31" s="100">
@@ -7140,7 +7132,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F32" s="344">
+      <c r="F32" s="343">
         <v>0</v>
       </c>
       <c r="G32" s="100">
@@ -7164,7 +7156,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F33" s="344">
+      <c r="F33" s="343">
         <v>0</v>
       </c>
       <c r="G33" s="100">
@@ -7188,7 +7180,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F34" s="344">
+      <c r="F34" s="343">
         <v>0</v>
       </c>
       <c r="G34" s="100">
@@ -7212,7 +7204,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="344">
+      <c r="F35" s="343">
         <v>0</v>
       </c>
       <c r="G35" s="100">
@@ -7236,7 +7228,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F36" s="344">
+      <c r="F36" s="343">
         <v>0</v>
       </c>
       <c r="G36" s="100">
@@ -7260,7 +7252,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F37" s="344">
+      <c r="F37" s="343">
         <v>0</v>
       </c>
       <c r="G37" s="100">
@@ -7284,7 +7276,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="344">
+      <c r="F38" s="343">
         <v>0</v>
       </c>
       <c r="G38" s="100">
@@ -7308,7 +7300,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="344">
+      <c r="F39" s="343">
         <v>0</v>
       </c>
       <c r="G39" s="100">
@@ -7332,7 +7324,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="344">
+      <c r="F40" s="343">
         <v>1</v>
       </c>
       <c r="G40" s="100">
@@ -7352,7 +7344,7 @@
         <v>45660</v>
       </c>
       <c r="B41" s="175" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C41" s="176">
         <v>290000</v>
@@ -7365,7 +7357,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="345">
+      <c r="F41" s="344">
         <v>1</v>
       </c>
       <c r="G41" s="100">
@@ -7382,7 +7374,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="J42" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7394,13 +7386,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="C44" s="100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D44" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="E44" s="95" t="s">
         <v>294</v>
-      </c>
-      <c r="E44" s="95" t="s">
-        <v>295</v>
       </c>
       <c r="G44" s="106"/>
       <c r="H44" s="106"/>
@@ -7408,7 +7400,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75">
       <c r="B45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" s="108">
         <v>1</v>
@@ -7425,46 +7417,46 @@
     </row>
     <row r="46" spans="1:10">
       <c r="B46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C46" s="109">
         <f>$D$26*C45</f>
-        <v>290000</v>
+        <v>591000</v>
       </c>
       <c r="D46" s="110">
         <f>$D$26*D45</f>
-        <v>221738.63999999998</v>
+        <v>451888.05599999998</v>
       </c>
       <c r="E46" s="110">
         <f>$D$26*E45</f>
-        <v>68261.360000000015</v>
-      </c>
-      <c r="G46" s="346"/>
-      <c r="H46" s="347"/>
+        <v>139111.94400000002</v>
+      </c>
+      <c r="G46" s="345"/>
+      <c r="H46" s="346"/>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="100">
         <f>D47+E47</f>
-        <v>290000</v>
+        <v>591000</v>
       </c>
       <c r="D47" s="95">
         <f>C46-E47</f>
-        <v>221738.63999999998</v>
+        <v>451888.05599999998</v>
       </c>
       <c r="E47" s="95">
         <f>$H$26*-1</f>
-        <v>68261.360000000015</v>
-      </c>
-      <c r="G47" s="338"/>
+        <v>139111.94400000002</v>
+      </c>
+      <c r="G47" s="337"/>
       <c r="H47" s="95"/>
       <c r="J47" s="95"/>
     </row>
     <row r="48" spans="1:10">
       <c r="B48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C48" s="100">
         <f>C46-C47</f>
@@ -7493,15 +7485,15 @@
     </row>
     <row r="51" spans="2:10">
       <c r="C51" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G51" s="338"/>
+      <c r="G51" s="337"/>
       <c r="H51" s="95"/>
       <c r="J51" s="95"/>
     </row>
@@ -7509,28 +7501,28 @@
       <c r="C52" s="95"/>
       <c r="D52" s="113"/>
       <c r="E52" s="95"/>
-      <c r="G52" s="346" t="s">
-        <v>523</v>
-      </c>
-      <c r="H52" s="347"/>
+      <c r="G52" s="345" t="s">
+        <v>516</v>
+      </c>
+      <c r="H52" s="346"/>
       <c r="J52" s="95"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53" s="95">
         <f>D47</f>
-        <v>221738.63999999998</v>
+        <v>451888.05599999998</v>
       </c>
       <c r="D53" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E53" s="95">
         <f>C53*D53</f>
-        <v>5543.4660000000003</v>
-      </c>
-      <c r="G53" s="338"/>
+        <v>11297.2014</v>
+      </c>
+      <c r="G53" s="337"/>
       <c r="H53" s="95"/>
     </row>
     <row r="54" spans="2:10">
@@ -7542,11 +7534,11 @@
       <c r="D56">
         <v>12</v>
       </c>
-      <c r="E56" s="349">
+      <c r="E56" s="348">
         <f>D24</f>
         <v>0.76461599999999996</v>
       </c>
-      <c r="G56" s="350">
+      <c r="G56" s="349">
         <f>1-E56</f>
         <v>0.23538400000000004</v>
       </c>
@@ -7555,15 +7547,15 @@
       <c r="C57">
         <v>219</v>
       </c>
-      <c r="D57" s="338">
+      <c r="D57" s="337">
         <f>C57/D56</f>
         <v>18.25</v>
       </c>
-      <c r="E57" s="352">
+      <c r="E57" s="351">
         <f>D57*E56</f>
         <v>13.954241999999999</v>
       </c>
-      <c r="G57" s="352">
+      <c r="G57" s="351">
         <f>D57*G56</f>
         <v>4.2957580000000011</v>
       </c>
@@ -7572,35 +7564,35 @@
       <c r="C58">
         <v>290</v>
       </c>
-      <c r="D58" s="338">
+      <c r="D58" s="337">
         <f>C58/D56</f>
         <v>24.166666666666668</v>
       </c>
-      <c r="E58" s="352">
+      <c r="E58" s="351">
         <f>D58*E56</f>
         <v>18.47822</v>
       </c>
-      <c r="G58" s="352">
+      <c r="G58" s="351">
         <f>D58*G56</f>
         <v>5.6884466666666675</v>
       </c>
     </row>
     <row r="59" spans="2:10">
-      <c r="D59" s="351">
+      <c r="D59" s="350">
         <f>SUM(D57:D58)</f>
         <v>42.416666666666671</v>
       </c>
-      <c r="E59" s="353">
+      <c r="E59" s="352">
         <f>SUM(E57:E58)</f>
         <v>32.432462000000001</v>
       </c>
-      <c r="G59" s="354">
+      <c r="G59" s="353">
         <f>SUM(G57:G58)</f>
         <v>9.9842046666666686</v>
       </c>
     </row>
     <row r="60" spans="2:10">
-      <c r="G60" s="338"/>
+      <c r="G60" s="337"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="139">
@@ -7609,14 +7601,14 @@
       <c r="E61">
         <v>13.95</v>
       </c>
-      <c r="F61" s="339">
+      <c r="F61" s="338">
         <f>E61</f>
         <v>13.95</v>
       </c>
-      <c r="G61" s="338">
+      <c r="G61" s="337">
         <v>4.3</v>
       </c>
-      <c r="H61" s="339">
+      <c r="H61" s="338">
         <f>G61</f>
         <v>4.3</v>
       </c>
@@ -7628,15 +7620,15 @@
       <c r="E62">
         <v>32.43</v>
       </c>
-      <c r="F62" s="339">
+      <c r="F62" s="338">
         <f>F61+E62</f>
         <v>46.379999999999995</v>
       </c>
-      <c r="G62" s="338">
+      <c r="G62" s="337">
         <f>G59</f>
         <v>9.9842046666666686</v>
       </c>
-      <c r="H62" s="339">
+      <c r="H62" s="338">
         <f>H61+G62</f>
         <v>14.284204666666668</v>
       </c>
@@ -7648,15 +7640,15 @@
       <c r="E63">
         <v>32.43</v>
       </c>
-      <c r="F63" s="339">
+      <c r="F63" s="338">
         <f t="shared" ref="F63:H65" si="6">F62+E63</f>
         <v>78.81</v>
       </c>
-      <c r="G63" s="338">
+      <c r="G63" s="337">
         <f>G62</f>
         <v>9.9842046666666686</v>
       </c>
-      <c r="H63" s="339">
+      <c r="H63" s="338">
         <f t="shared" si="6"/>
         <v>24.268409333333338</v>
       </c>
@@ -7668,15 +7660,15 @@
       <c r="E64">
         <v>32.43</v>
       </c>
-      <c r="F64" s="339">
+      <c r="F64" s="338">
         <f t="shared" si="6"/>
         <v>111.24000000000001</v>
       </c>
-      <c r="G64" s="338">
+      <c r="G64" s="337">
         <f>G63</f>
         <v>9.9842046666666686</v>
       </c>
-      <c r="H64" s="339">
+      <c r="H64" s="338">
         <f t="shared" si="6"/>
         <v>34.252614000000008</v>
       </c>
@@ -7688,15 +7680,15 @@
       <c r="E65">
         <v>32.43</v>
       </c>
-      <c r="F65" s="339">
+      <c r="F65" s="338">
         <f t="shared" si="6"/>
         <v>143.67000000000002</v>
       </c>
-      <c r="G65" s="338">
+      <c r="G65" s="337">
         <f>G64</f>
         <v>9.9842046666666686</v>
       </c>
-      <c r="H65" s="339">
+      <c r="H65" s="338">
         <f t="shared" si="6"/>
         <v>44.236818666666679</v>
       </c>
@@ -7705,56 +7697,56 @@
       <c r="B66" s="139">
         <v>45778</v>
       </c>
-      <c r="F66" s="339"/>
+      <c r="F66" s="338"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="139">
         <v>45809</v>
       </c>
-      <c r="F67" s="339"/>
+      <c r="F67" s="338"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="139">
         <v>45839</v>
       </c>
-      <c r="F68" s="339"/>
+      <c r="F68" s="338"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="139">
         <v>45870</v>
       </c>
-      <c r="F69" s="339"/>
+      <c r="F69" s="338"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="139">
         <v>45901</v>
       </c>
-      <c r="F70" s="339"/>
+      <c r="F70" s="338"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="139">
         <v>45931</v>
       </c>
-      <c r="F71" s="339"/>
+      <c r="F71" s="338"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="139">
         <v>45962</v>
       </c>
-      <c r="F72" s="339"/>
+      <c r="F72" s="338"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="139">
         <v>45992</v>
       </c>
-      <c r="F73" s="339"/>
+      <c r="F73" s="338"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="2:8">
@@ -7799,18 +7791,18 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="93" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="F3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -7839,7 +7831,7 @@
       <c r="E5" s="102"/>
       <c r="F5" s="102"/>
       <c r="G5" s="120" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H5" s="121">
         <f>D5</f>
@@ -7849,7 +7841,7 @@
     <row r="6" spans="1:8" ht="14.25">
       <c r="D6" s="95"/>
       <c r="G6" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H6" s="122">
         <f>H25*-1</f>
@@ -7879,7 +7871,7 @@
       </c>
       <c r="F8" s="125"/>
       <c r="G8" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H8" s="126">
         <f t="shared" ref="H8:H19" si="0">H7-E8</f>
@@ -7902,7 +7894,7 @@
       </c>
       <c r="F9" s="125"/>
       <c r="G9" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H9" s="90">
         <f t="shared" si="0"/>
@@ -7925,7 +7917,7 @@
       </c>
       <c r="F10" s="125"/>
       <c r="G10" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H10" s="90">
         <f t="shared" si="0"/>
@@ -7948,7 +7940,7 @@
       </c>
       <c r="F11" s="125"/>
       <c r="G11" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H11" s="90">
         <f t="shared" si="0"/>
@@ -7971,7 +7963,7 @@
       </c>
       <c r="F12" s="125"/>
       <c r="G12" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H12" s="90">
         <f t="shared" si="0"/>
@@ -7993,7 +7985,7 @@
         <v>10000</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H13" s="90">
         <f t="shared" si="0"/>
@@ -8015,7 +8007,7 @@
         <v>10000</v>
       </c>
       <c r="G14" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H14" s="90">
         <f t="shared" si="0"/>
@@ -8034,7 +8026,7 @@
         <v>228749.71184560005</v>
       </c>
       <c r="F15" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H15" s="90">
         <f t="shared" si="0"/>
@@ -8053,7 +8045,7 @@
         <v>218749.71184560005</v>
       </c>
       <c r="F16" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H16" s="90">
         <f t="shared" si="0"/>
@@ -8072,7 +8064,7 @@
         <v>208749.71184560005</v>
       </c>
       <c r="F17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H17" s="90">
         <f t="shared" si="0"/>
@@ -8084,7 +8076,7 @@
         <v>45623</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" s="94">
         <v>10000</v>
@@ -8106,7 +8098,7 @@
         <v>45627</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" s="94">
         <v>11030.76</v>
@@ -8119,7 +8111,7 @@
         <v>60000</v>
       </c>
       <c r="G19" s="250" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H19" s="241">
         <f t="shared" si="0"/>
@@ -8130,7 +8122,7 @@
       <c r="A20" s="123"/>
       <c r="C20" s="238"/>
       <c r="D20" s="239" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E20" s="240">
         <f>SUM(E8:E19)</f>
@@ -8153,7 +8145,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="B23" s="96" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="251">
         <v>0.76461599999999996</v>
@@ -8172,31 +8164,31 @@
         <v>24</v>
       </c>
       <c r="C24" s="127" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="128" t="s">
         <v>286</v>
       </c>
-      <c r="D24" s="128" t="s">
+      <c r="E24" s="127" t="s">
         <v>287</v>
       </c>
-      <c r="E24" s="127" t="s">
+      <c r="F24" s="129" t="s">
         <v>288</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="G24" s="127" t="s">
         <v>289</v>
       </c>
-      <c r="G24" s="127" t="s">
-        <v>290</v>
-      </c>
       <c r="H24" s="130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I24" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="116"/>
       <c r="B25" s="117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C25" s="118">
         <f>SUBTOTAL(109,C26:C40)</f>
@@ -8226,7 +8218,7 @@
         <v>45656</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26">
         <v>-3999.1</v>
@@ -8305,7 +8297,7 @@
         <v>45631</v>
       </c>
       <c r="B29" s="243" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C29" s="244">
         <v>219000</v>
@@ -8330,7 +8322,7 @@
         <v>-188660.27600000007</v>
       </c>
       <c r="I29" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -8338,7 +8330,7 @@
         <v>45607</v>
       </c>
       <c r="B30" s="177" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C30" s="133">
         <v>148500</v>
@@ -8368,7 +8360,7 @@
         <v>45405</v>
       </c>
       <c r="B31" s="245" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C31" s="246">
         <v>33000</v>
@@ -8398,7 +8390,7 @@
         <v>45405</v>
       </c>
       <c r="B32" s="132" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C32" s="133">
         <v>170000</v>
@@ -8428,7 +8420,7 @@
         <v>45405</v>
       </c>
       <c r="B33" s="132" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C33" s="133">
         <v>-25000</v>
@@ -8458,7 +8450,7 @@
         <v>45397</v>
       </c>
       <c r="B34" s="132" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C34" s="133">
         <v>1000</v>
@@ -8488,7 +8480,7 @@
         <v>45397</v>
       </c>
       <c r="B35" s="247" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C35" s="244">
         <v>85000</v>
@@ -8518,7 +8510,7 @@
         <v>45321</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C36" s="173">
         <v>7000</v>
@@ -8546,7 +8538,7 @@
     <row r="37" spans="1:10">
       <c r="A37" s="134"/>
       <c r="B37" s="247" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C37" s="248">
         <v>24000</v>
@@ -8576,7 +8568,7 @@
         <v>45296</v>
       </c>
       <c r="B38" s="135" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" s="136">
         <v>26000</v>
@@ -8606,7 +8598,7 @@
         <v>45295</v>
       </c>
       <c r="B39" s="135" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C39" s="133">
         <v>120000</v>
@@ -8636,7 +8628,7 @@
         <v>45292</v>
       </c>
       <c r="B40" s="175" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C40" s="176"/>
       <c r="D40" s="100">
@@ -8668,13 +8660,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="C43" s="100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D43" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="E43" s="95" t="s">
         <v>294</v>
-      </c>
-      <c r="E43" s="95" t="s">
-        <v>295</v>
       </c>
       <c r="G43" s="106"/>
       <c r="H43" s="106"/>
@@ -8682,7 +8674,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75">
       <c r="B44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" s="108">
         <v>1</v>
@@ -8699,7 +8691,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="B45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C45" s="109">
         <f>$D$25*C44</f>
@@ -8717,7 +8709,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="B46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C46" s="100">
         <f>D46+E46</f>
@@ -8737,7 +8729,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="B47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C47" s="100">
         <f>C45-C46</f>
@@ -8769,13 +8761,13 @@
     </row>
     <row r="50" spans="2:10">
       <c r="C50" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="G50" s="95"/>
       <c r="H50" s="95"/>
@@ -8790,7 +8782,7 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="95">
         <f>D46</f>
@@ -8946,7 +8938,7 @@
         <v>45197</v>
       </c>
       <c r="B9" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
@@ -8965,7 +8957,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
@@ -8983,7 +8975,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
-      <c r="B13" s="294">
+      <c r="B13" s="293">
         <v>45739</v>
       </c>
       <c r="E13" s="24"/>
@@ -9014,7 +9006,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="26"/>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="28"/>
@@ -9076,18 +9068,18 @@
         <v>30</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -9108,10 +9100,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C25">
         <v>24.8</v>
@@ -9129,10 +9121,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C26">
         <v>-21.12</v>
@@ -9150,10 +9142,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C27">
         <v>-52.17</v>
@@ -9170,7 +9162,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -9181,7 +9173,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
@@ -9192,7 +9184,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
@@ -9203,7 +9195,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
@@ -9214,7 +9206,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
@@ -9225,7 +9217,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="31"/>
@@ -9236,7 +9228,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31"/>
@@ -9247,7 +9239,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
@@ -9258,7 +9250,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -9297,10 +9289,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -9465,7 +9457,7 @@
         <v>45196</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
@@ -9489,7 +9481,7 @@
         <v>45196</v>
       </c>
       <c r="B59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D59" s="3"/>
       <c r="F59" s="3"/>
@@ -9805,7 +9797,7 @@
         <v>45137</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -10074,10 +10066,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
@@ -10088,7 +10080,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="14" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D10" s="24">
         <v>353664</v>
@@ -10101,7 +10093,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="14" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="25">
@@ -10131,7 +10123,7 @@
     </row>
     <row r="14" spans="1:8" ht="15">
       <c r="A14" s="26"/>
-      <c r="B14" s="294">
+      <c r="B14" s="293">
         <v>45739</v>
       </c>
       <c r="D14" s="27"/>
@@ -10196,74 +10188,74 @@
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="295" t="s">
-        <v>471</v>
-      </c>
-      <c r="B21" s="295" t="s">
-        <v>472</v>
-      </c>
-      <c r="C21" s="296"/>
-      <c r="D21" s="296">
+      <c r="A21" s="294" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" s="294" t="s">
+        <v>465</v>
+      </c>
+      <c r="C21" s="295"/>
+      <c r="D21" s="295">
         <v>24000</v>
       </c>
-      <c r="E21" s="296"/>
-      <c r="F21" s="298"/>
-      <c r="G21" s="298"/>
-      <c r="H21" s="280"/>
-      <c r="I21" s="260"/>
-      <c r="J21" s="260"/>
-      <c r="K21" s="260"/>
-      <c r="L21" s="260"/>
-      <c r="M21" s="260"/>
-      <c r="N21" s="260"/>
-      <c r="O21" s="260"/>
-      <c r="P21" s="260"/>
-      <c r="Q21" s="260"/>
-      <c r="R21" s="260"/>
+      <c r="E21" s="295"/>
+      <c r="F21" s="297"/>
+      <c r="G21" s="297"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="259"/>
+      <c r="J21" s="259"/>
+      <c r="K21" s="259"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="259"/>
+      <c r="N21" s="259"/>
+      <c r="O21" s="259"/>
+      <c r="P21" s="259"/>
+      <c r="Q21" s="259"/>
+      <c r="R21" s="259"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="295"/>
-      <c r="B22" s="297" t="s">
-        <v>474</v>
-      </c>
-      <c r="C22" s="296"/>
-      <c r="D22" s="296"/>
-      <c r="E22" s="296"/>
-      <c r="F22" s="298"/>
-      <c r="G22" s="298"/>
-      <c r="H22" s="280"/>
-      <c r="I22" s="280"/>
-      <c r="J22" s="260"/>
-      <c r="K22" s="260"/>
-      <c r="L22" s="260"/>
-      <c r="M22" s="260"/>
-      <c r="N22" s="260"/>
-      <c r="O22" s="260"/>
-      <c r="P22" s="260"/>
-      <c r="Q22" s="260"/>
-      <c r="R22" s="260"/>
+      <c r="A22" s="294"/>
+      <c r="B22" s="296" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" s="295"/>
+      <c r="D22" s="295"/>
+      <c r="E22" s="295"/>
+      <c r="F22" s="297"/>
+      <c r="G22" s="297"/>
+      <c r="H22" s="279"/>
+      <c r="I22" s="279"/>
+      <c r="J22" s="259"/>
+      <c r="K22" s="259"/>
+      <c r="L22" s="259"/>
+      <c r="M22" s="259"/>
+      <c r="N22" s="259"/>
+      <c r="O22" s="259"/>
+      <c r="P22" s="259"/>
+      <c r="Q22" s="259"/>
+      <c r="R22" s="259"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="295"/>
-      <c r="B23" s="255" t="s">
-        <v>475</v>
-      </c>
-      <c r="C23" s="296"/>
-      <c r="D23" s="296"/>
-      <c r="E23" s="296"/>
-      <c r="F23" s="298"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="280"/>
-      <c r="I23" s="280"/>
-      <c r="J23" s="260"/>
-      <c r="K23" s="260"/>
-      <c r="L23" s="260"/>
-      <c r="M23" s="260"/>
-      <c r="N23" s="260"/>
-      <c r="O23" s="260"/>
-      <c r="P23" s="260"/>
-      <c r="Q23" s="260"/>
-      <c r="R23" s="260"/>
+      <c r="A23" s="294"/>
+      <c r="B23" s="254" t="s">
+        <v>468</v>
+      </c>
+      <c r="C23" s="295"/>
+      <c r="D23" s="295"/>
+      <c r="E23" s="295"/>
+      <c r="F23" s="297"/>
+      <c r="G23" s="297"/>
+      <c r="H23" s="279"/>
+      <c r="I23" s="279"/>
+      <c r="J23" s="259"/>
+      <c r="K23" s="259"/>
+      <c r="L23" s="259"/>
+      <c r="M23" s="259"/>
+      <c r="N23" s="259"/>
+      <c r="O23" s="259"/>
+      <c r="P23" s="259"/>
+      <c r="Q23" s="259"/>
+      <c r="R23" s="259"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="26"/>
@@ -10494,7 +10486,7 @@
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -10503,10 +10495,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C42" s="40"/>
       <c r="D42" s="41"/>
@@ -10528,18 +10520,18 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="309"/>
-      <c r="B46" s="255" t="s">
-        <v>476</v>
-      </c>
-      <c r="C46" s="257"/>
-      <c r="D46" s="310"/>
-      <c r="E46" s="257"/>
-      <c r="F46" s="257"/>
+      <c r="A46" s="308"/>
+      <c r="B46" s="254" t="s">
+        <v>469</v>
+      </c>
+      <c r="C46" s="256"/>
+      <c r="D46" s="309"/>
+      <c r="E46" s="256"/>
+      <c r="F46" s="256"/>
     </row>
     <row r="47" spans="1:7">
       <c r="B47" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -10547,7 +10539,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="115" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C48" s="115"/>
       <c r="D48" s="115">
@@ -10558,7 +10550,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C49">
         <v>16</v>
@@ -10574,7 +10566,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="B50" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="8"/>
@@ -10582,18 +10574,18 @@
     </row>
     <row r="51" spans="1:8">
       <c r="B51" s="3" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="257">
+      <c r="E51" s="256">
         <v>290000</v>
       </c>
       <c r="F51" s="45"/>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="8"/>
@@ -10618,18 +10610,18 @@
       <c r="F55" s="45"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="309"/>
-      <c r="B56" s="255" t="s">
-        <v>324</v>
-      </c>
-      <c r="C56" s="257"/>
-      <c r="D56" s="310"/>
-      <c r="E56" s="257"/>
-      <c r="F56" s="311"/>
+      <c r="A56" s="308"/>
+      <c r="B56" s="254" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" s="256"/>
+      <c r="D56" s="309"/>
+      <c r="E56" s="256"/>
+      <c r="F56" s="310"/>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="8"/>
@@ -10639,7 +10631,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="B58" s="115" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C58" s="115"/>
       <c r="D58" s="115">
@@ -10654,7 +10646,7 @@
         <v>45291</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="25"/>
@@ -10667,7 +10659,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="B60" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="25"/>
@@ -10680,7 +10672,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="25"/>
@@ -10696,7 +10688,7 @@
         <v>45295</v>
       </c>
       <c r="B62" s="91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="25"/>
@@ -10734,7 +10726,7 @@
         <v>45295</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D64" s="27">
         <v>-12432</v>
@@ -10752,7 +10744,7 @@
         <v>45295</v>
       </c>
       <c r="B65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="28">
@@ -10770,7 +10762,7 @@
         <v>45296</v>
       </c>
       <c r="B66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="28">
@@ -10788,7 +10780,7 @@
         <v>45299</v>
       </c>
       <c r="B67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="28">
@@ -10834,14 +10826,14 @@
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="309"/>
-      <c r="B72" s="255" t="s">
+      <c r="A72" s="308"/>
+      <c r="B72" s="254" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="255"/>
-      <c r="D72" s="257"/>
-      <c r="E72" s="257"/>
-      <c r="F72" s="310"/>
+      <c r="C72" s="254"/>
+      <c r="D72" s="256"/>
+      <c r="E72" s="256"/>
+      <c r="F72" s="309"/>
       <c r="G72" s="46"/>
       <c r="H72" s="51"/>
     </row>
@@ -10857,7 +10849,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="B74" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C74" s="42"/>
       <c r="D74" s="42">
@@ -11120,8 +11112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11163,7 +11155,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
@@ -11240,7 +11232,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8"/>
@@ -11279,10 +11271,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -11298,7 +11290,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -11343,10 +11335,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -11367,7 +11359,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="26"/>
       <c r="B17" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C17"/>
       <c r="E17" s="138"/>
@@ -11393,7 +11385,7 @@
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="26"/>
-      <c r="B19" s="294">
+      <c r="B19" s="293">
         <v>45739</v>
       </c>
       <c r="C19"/>
@@ -11708,10 +11700,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
@@ -11804,7 +11796,7 @@
     <row r="50" spans="1:8">
       <c r="A50" s="7"/>
       <c r="B50" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C50"/>
       <c r="E50" s="8"/>
@@ -11816,7 +11808,7 @@
     <row r="51" spans="1:8">
       <c r="A51" s="7"/>
       <c r="B51" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C51"/>
       <c r="E51" s="8"/>
@@ -11841,7 +11833,7 @@
         <v>45214</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C54"/>
       <c r="E54"/>
@@ -11851,7 +11843,7 @@
         <v>45214</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C55"/>
       <c r="E55"/>
@@ -11977,7 +11969,7 @@
         <v>44413</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>522</v>
       </c>
       <c r="C67"/>
       <c r="E67" s="2" t="s">
@@ -11986,7 +11978,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -12035,7 +12027,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="B75" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="46"/>
@@ -12048,7 +12040,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C77"/>
       <c r="E77">
@@ -12063,7 +12055,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78"/>
       <c r="E78">
@@ -12076,7 +12068,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C79"/>
       <c r="E79">
@@ -12089,7 +12081,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80"/>
       <c r="E80">
@@ -12102,7 +12094,7 @@
     </row>
     <row r="81" spans="2:6">
       <c r="B81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C81"/>
       <c r="E81">
@@ -12115,7 +12107,7 @@
     </row>
     <row r="82" spans="2:6">
       <c r="B82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C82"/>
       <c r="E82">
@@ -12128,7 +12120,7 @@
     </row>
     <row r="83" spans="2:6">
       <c r="B83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83"/>
       <c r="E83">
@@ -12141,7 +12133,7 @@
     </row>
     <row r="84" spans="2:6">
       <c r="B84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C84"/>
       <c r="E84">
@@ -12154,7 +12146,7 @@
     </row>
     <row r="85" spans="2:6">
       <c r="B85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C85"/>
       <c r="E85">
@@ -12167,7 +12159,7 @@
     </row>
     <row r="86" spans="2:6">
       <c r="B86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C86"/>
       <c r="E86">
@@ -12180,7 +12172,7 @@
     </row>
     <row r="87" spans="2:6">
       <c r="B87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C87"/>
       <c r="E87">
@@ -12193,7 +12185,7 @@
     </row>
     <row r="88" spans="2:6">
       <c r="B88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C88"/>
       <c r="E88">
@@ -12206,7 +12198,7 @@
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="51"/>
@@ -12218,7 +12210,7 @@
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="51"/>
@@ -12229,7 +12221,7 @@
     </row>
     <row r="93" spans="2:6">
       <c r="B93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C93"/>
       <c r="E93">
@@ -12281,7 +12273,7 @@
     </row>
     <row r="97" spans="2:6">
       <c r="B97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97"/>
       <c r="E97">
@@ -12294,7 +12286,7 @@
     </row>
     <row r="98" spans="2:6">
       <c r="B98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98"/>
       <c r="E98">
@@ -12307,7 +12299,7 @@
     </row>
     <row r="99" spans="2:6">
       <c r="B99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99"/>
       <c r="E99">
@@ -12320,7 +12312,7 @@
     </row>
     <row r="100" spans="2:6">
       <c r="B100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C100"/>
       <c r="E100">
@@ -12333,7 +12325,7 @@
     </row>
     <row r="101" spans="2:6">
       <c r="B101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C101"/>
       <c r="E101">
@@ -12346,7 +12338,7 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C102"/>
       <c r="E102">
@@ -12359,7 +12351,7 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C103"/>
       <c r="D103" s="3">
@@ -12386,7 +12378,7 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105"/>
       <c r="E105">
@@ -12399,7 +12391,7 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106"/>
       <c r="D106" s="3">
@@ -12413,7 +12405,7 @@
     </row>
     <row r="107" spans="2:6">
       <c r="B107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107"/>
       <c r="D107" s="3">
@@ -12427,7 +12419,7 @@
     </row>
     <row r="108" spans="2:6">
       <c r="B108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108"/>
       <c r="E108"/>
@@ -12446,10 +12438,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1C87F-6CBB-48CF-9073-716B69FD2C1F}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12457,7 +12449,7 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -12467,7 +12459,7 @@
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="194"/>
       <c r="B1" s="195" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C1" s="196"/>
       <c r="D1" s="197"/>
@@ -12488,34 +12480,34 @@
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="207" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B3" s="198"/>
       <c r="C3" s="196"/>
       <c r="D3" s="197"/>
       <c r="E3" s="208"/>
       <c r="F3" s="209">
-        <f>SUM(F7:F64)</f>
-        <v>521637.74996196217</v>
+        <f>SUM(F7:F65)</f>
+        <v>1041691.3294872609</v>
       </c>
       <c r="G3" s="209">
-        <f>SUM(G7:G64)</f>
-        <v>354000</v>
+        <f>SUM(G7:G65)</f>
+        <v>655000</v>
       </c>
       <c r="H3" s="210">
         <f>F3-G3</f>
-        <v>167637.74996196217</v>
+        <v>386691.3294872609</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="207"/>
       <c r="B4" s="198"/>
       <c r="C4" s="196" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D4" s="197"/>
       <c r="E4" s="198" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F4" s="209"/>
       <c r="G4" s="209"/>
@@ -12529,16 +12521,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="213" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D5" s="214" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E5" s="215" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F5" s="216" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" s="217" t="s">
         <v>3</v>
@@ -12556,8 +12548,8 @@
       <c r="F6" s="199"/>
       <c r="G6" s="200"/>
       <c r="H6" s="200">
-        <f t="shared" ref="H6:H37" si="0">H7+F6-G6</f>
-        <v>167637.74996196217</v>
+        <f t="shared" ref="H6:H38" si="0">H7+F6-G6</f>
+        <v>386691.32948726078</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -12570,14 +12562,11 @@
       <c r="G7" s="200"/>
       <c r="H7" s="200">
         <f t="shared" si="0"/>
-        <v>167637.74996196217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15">
+        <v>386691.32948726078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="194"/>
-      <c r="B8" s="294">
-        <v>45739</v>
-      </c>
       <c r="C8" s="196"/>
       <c r="D8" s="197"/>
       <c r="E8" s="198"/>
@@ -12585,7 +12574,7 @@
       <c r="G8" s="200"/>
       <c r="H8" s="200">
         <f t="shared" si="0"/>
-        <v>167637.74996196217</v>
+        <v>386691.32948726078</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -12598,7 +12587,7 @@
       <c r="G9" s="200"/>
       <c r="H9" s="200">
         <f t="shared" si="0"/>
-        <v>167637.74996196217</v>
+        <v>386691.32948726078</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -12611,7 +12600,7 @@
       <c r="G10" s="200"/>
       <c r="H10" s="200">
         <f t="shared" si="0"/>
-        <v>167637.74996196217</v>
+        <v>386691.32948726078</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -12624,7 +12613,7 @@
       <c r="G11" s="200"/>
       <c r="H11" s="200">
         <f t="shared" si="0"/>
-        <v>167637.74996196217</v>
+        <v>386691.32948726078</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -12637,637 +12626,581 @@
       <c r="G12" s="200"/>
       <c r="H12" s="200">
         <f t="shared" si="0"/>
-        <v>167637.74996196217</v>
+        <v>386691.32948726078</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="194"/>
-      <c r="B13" s="218" t="s">
-        <v>463</v>
-      </c>
+      <c r="B13" s="218"/>
       <c r="C13" s="196"/>
       <c r="D13" s="197"/>
-      <c r="E13" s="199">
-        <f>E15+E14</f>
-        <v>47976.584638890883</v>
-      </c>
-      <c r="F13" s="199">
-        <f>E13</f>
-        <v>47976.584638890883</v>
-      </c>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
       <c r="G13" s="200"/>
       <c r="H13" s="200">
         <f t="shared" si="0"/>
-        <v>167637.74996196217</v>
+        <v>386691.32948726078</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="194">
-        <v>45716</v>
-      </c>
-      <c r="B14" s="218" t="s">
-        <v>441</v>
-      </c>
-      <c r="C14" s="196">
-        <v>2883.75</v>
-      </c>
-      <c r="D14" s="197">
-        <f>(C14/C17)-1</f>
-        <v>2.2733317964995559E-2</v>
-      </c>
-      <c r="E14" s="219">
-        <f>F15*D14</f>
-        <v>1066.4236065376308</v>
-      </c>
-      <c r="F14" s="199">
-        <f>H15*D14</f>
-        <v>2659.8285902761463</v>
-      </c>
+      <c r="A14" s="194"/>
+      <c r="B14" s="218"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="199"/>
       <c r="G14" s="200"/>
       <c r="H14" s="200">
         <f t="shared" si="0"/>
-        <v>119661.16532307127</v>
+        <v>386691.32948726078</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="194"/>
-      <c r="B15" s="218" t="s">
-        <v>462</v>
-      </c>
+      <c r="B15" s="218"/>
       <c r="C15" s="196"/>
       <c r="D15" s="197"/>
-      <c r="E15" s="199">
-        <f>E18+E17</f>
-        <v>46910.161032353251</v>
-      </c>
-      <c r="F15" s="199">
-        <f>E15</f>
-        <v>46910.161032353251</v>
-      </c>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
       <c r="G15" s="200"/>
       <c r="H15" s="200">
         <f t="shared" si="0"/>
-        <v>117001.33673279513</v>
+        <v>386691.32948726078</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="194"/>
-      <c r="B16" s="258" t="s">
-        <v>465</v>
-      </c>
+      <c r="B16" s="257"/>
       <c r="C16" s="196"/>
       <c r="D16" s="197"/>
       <c r="E16" s="199"/>
-      <c r="F16" s="259">
-        <v>22000</v>
-      </c>
+      <c r="F16" s="258"/>
       <c r="G16" s="200"/>
       <c r="H16" s="200">
         <f t="shared" si="0"/>
-        <v>70091.175700441876</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="194">
-        <v>45687</v>
-      </c>
-      <c r="B17" s="218" t="s">
-        <v>442</v>
-      </c>
-      <c r="C17" s="196">
-        <v>2819.65</v>
-      </c>
-      <c r="D17" s="197">
-        <f>(C17/C19)-1</f>
-        <v>5.0325007915665632E-2</v>
-      </c>
-      <c r="E17" s="219">
-        <f>F18*D17</f>
-        <v>2247.6416418601357</v>
-      </c>
-      <c r="F17" s="199">
-        <f>H18*D17</f>
-        <v>2304.2284812404746</v>
-      </c>
+        <v>386691.32948726078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15">
+      <c r="A17" s="194"/>
+      <c r="B17" s="293">
+        <v>46012</v>
+      </c>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="199"/>
       <c r="G17" s="200"/>
       <c r="H17" s="200">
         <f t="shared" si="0"/>
-        <v>48091.175700441869</v>
-      </c>
-      <c r="J17" s="253">
-        <v>45677</v>
+        <v>386691.32948726078</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="194"/>
+      <c r="A18" s="194">
+        <v>45991</v>
+      </c>
       <c r="B18" s="218" t="s">
-        <v>461</v>
+        <v>211</v>
       </c>
       <c r="C18" s="196"/>
       <c r="D18" s="197"/>
-      <c r="E18" s="199">
-        <f>E20+E19</f>
-        <v>44662.519390493115</v>
-      </c>
-      <c r="F18" s="199">
-        <f>E18</f>
-        <v>44662.519390493115</v>
-      </c>
-      <c r="G18" s="200"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="200">
+        <v>301000</v>
+      </c>
       <c r="H18" s="200">
         <f t="shared" si="0"/>
-        <v>45786.947219201393</v>
-      </c>
+        <v>386691.32948726078</v>
+      </c>
+      <c r="J18" s="264"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="194">
-        <v>45656</v>
+        <v>45991</v>
       </c>
       <c r="B19" s="218" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C19" s="196">
         <v>2684.55</v>
       </c>
       <c r="D19" s="197">
-        <f>(C19/C27)-1</f>
-        <v>1.0281383244958198E-2</v>
+        <v>0.35</v>
       </c>
       <c r="E19" s="219">
         <f>F20*D19</f>
-        <v>454.51939049311198</v>
+        <v>185673.59999999998</v>
       </c>
       <c r="F19" s="199">
         <f>IF(H20&lt;=0,,(H20*D19))</f>
-        <v>11.443023329910176</v>
+        <v>178290.34468188242</v>
       </c>
       <c r="G19" s="200"/>
       <c r="H19" s="200">
         <f t="shared" si="0"/>
-        <v>1124.4278287082745</v>
+        <v>687691.32948726078</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="194"/>
       <c r="B20" s="218" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="C20" s="196"/>
       <c r="D20" s="197"/>
       <c r="E20" s="199">
-        <v>44208</v>
+        <f>E24</f>
+        <v>530496</v>
       </c>
       <c r="F20" s="199">
         <f>E20</f>
-        <v>44208</v>
+        <v>530496</v>
       </c>
       <c r="G20" s="200"/>
       <c r="H20" s="200">
         <f t="shared" si="0"/>
-        <v>1112.9848053783644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A21" s="194">
-        <v>45626</v>
+        <v>509400.98480537836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="194"/>
+      <c r="B21" s="257" t="s">
+        <v>458</v>
       </c>
       <c r="C21" s="196"/>
       <c r="D21" s="197"/>
       <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="200">
+      <c r="F21" s="258">
+        <v>22000</v>
+      </c>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200">
+        <f t="shared" si="0"/>
+        <v>-21095.015194621636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A22" s="194">
+        <v>45626</v>
+      </c>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="200">
         <v>219000</v>
       </c>
-      <c r="H21" s="200">
-        <f>H26+F21-G21</f>
+      <c r="H22" s="200">
+        <f>H27+F22-G22</f>
         <v>-43095.015194621636</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>240</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>60</v>
       </c>
-      <c r="K21">
-        <f>I21*J21/100</f>
+      <c r="K22">
+        <f>I22*J22/100</f>
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A22" s="194"/>
-      <c r="B22" s="321"/>
-      <c r="C22" s="313" t="s">
-        <v>460</v>
-      </c>
-      <c r="D22" s="313" t="s">
-        <v>459</v>
-      </c>
-      <c r="E22" s="314" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="200"/>
     </row>
     <row r="23" spans="1:11" ht="13.5" thickBot="1">
       <c r="A23" s="194"/>
-      <c r="B23" s="312" t="s">
-        <v>489</v>
-      </c>
-      <c r="C23" s="315">
-        <v>24</v>
-      </c>
-      <c r="D23" s="315">
-        <v>22104</v>
-      </c>
-      <c r="E23" s="316">
-        <f>D23*C23</f>
-        <v>530496</v>
+      <c r="B23" s="320"/>
+      <c r="C23" s="312" t="s">
+        <v>456</v>
+      </c>
+      <c r="D23" s="312" t="s">
+        <v>455</v>
+      </c>
+      <c r="E23" s="313" t="s">
+        <v>175</v>
       </c>
       <c r="H23" s="200"/>
     </row>
     <row r="24" spans="1:11" ht="13.5" thickBot="1">
       <c r="A24" s="194"/>
-      <c r="B24" s="317"/>
-      <c r="C24" s="318"/>
-      <c r="D24" s="322" t="s">
-        <v>497</v>
-      </c>
-      <c r="E24" s="320">
-        <f>E23/12</f>
+      <c r="B24" s="311" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="314">
+        <v>24</v>
+      </c>
+      <c r="D24" s="314">
+        <v>22104</v>
+      </c>
+      <c r="E24" s="315">
+        <f>D24*C24</f>
+        <v>530496</v>
+      </c>
+      <c r="H24" s="200"/>
+    </row>
+    <row r="25" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A25" s="194"/>
+      <c r="B25" s="316"/>
+      <c r="C25" s="317"/>
+      <c r="D25" s="321" t="s">
+        <v>490</v>
+      </c>
+      <c r="E25" s="319">
+        <f>E24/12</f>
         <v>44208</v>
       </c>
-      <c r="H24" s="200"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="194"/>
-      <c r="B25" s="218"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="200"/>
       <c r="H25" s="200"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="194"/>
-      <c r="B26" s="218" t="s">
-        <v>439</v>
-      </c>
+      <c r="B26" s="218"/>
       <c r="C26" s="196"/>
       <c r="D26" s="197"/>
       <c r="E26" s="199"/>
-      <c r="F26" s="199">
-        <v>7080</v>
-      </c>
+      <c r="F26" s="199"/>
       <c r="G26" s="200"/>
-      <c r="H26" s="200">
-        <f t="shared" si="0"/>
-        <v>175904.98480537836</v>
-      </c>
-      <c r="K26">
-        <f>K21+I21</f>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A27" s="194">
-        <v>45626</v>
-      </c>
+      <c r="H26" s="200"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="194"/>
       <c r="B27" s="218" t="s">
         <v>438</v>
       </c>
-      <c r="C27" s="224">
-        <v>2657.23</v>
-      </c>
-      <c r="D27" s="197">
-        <f>(C27/C29)-1</f>
-        <v>2.2440176843369075E-2</v>
-      </c>
-      <c r="E27" s="219">
-        <f>C27</f>
-        <v>2657.23</v>
-      </c>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="199"/>
       <c r="F27" s="199">
-        <f>H28*D27</f>
-        <v>3705.3145997334518</v>
+        <v>7080</v>
       </c>
       <c r="G27" s="200"/>
       <c r="H27" s="200">
         <f t="shared" si="0"/>
-        <v>168824.98480537836</v>
+        <v>175904.98480537836</v>
       </c>
       <c r="K27">
-        <f>K26/12</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="194"/>
+        <f>K22+I22</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A28" s="194">
+        <v>45626</v>
+      </c>
       <c r="B28" s="218" t="s">
-        <v>440</v>
-      </c>
-      <c r="C28" s="196"/>
-      <c r="D28" s="197"/>
-      <c r="E28" s="199">
-        <f>E30+E29</f>
-        <v>28469.068917672856</v>
+        <v>437</v>
+      </c>
+      <c r="C28" s="224">
+        <v>2657.23</v>
+      </c>
+      <c r="D28" s="197">
+        <f>(C28/C30)-1</f>
+        <v>2.2440176843369075E-2</v>
+      </c>
+      <c r="E28" s="219">
+        <f>C28</f>
+        <v>2657.23</v>
       </c>
       <c r="F28" s="199">
-        <f>E28</f>
-        <v>28469.068917672856</v>
+        <f>H29*D28</f>
+        <v>3705.3145997334518</v>
       </c>
       <c r="G28" s="200"/>
       <c r="H28" s="200">
         <f t="shared" si="0"/>
-        <v>165119.67020564491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A29" s="194">
-        <v>45595</v>
-      </c>
+        <v>168824.98480537836</v>
+      </c>
+      <c r="K28">
+        <f>K27/12</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="194"/>
       <c r="B29" s="218" t="s">
-        <v>413</v>
-      </c>
-      <c r="C29" s="223">
-        <v>2598.91</v>
-      </c>
-      <c r="D29" s="197">
-        <f>(C29/C31)-1</f>
-        <v>2.8798650916806556E-2</v>
-      </c>
-      <c r="E29" s="219">
-        <f>F30*D29</f>
-        <v>796.92054121177785</v>
+        <v>439</v>
+      </c>
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="199">
+        <f>E31+E30</f>
+        <v>28469.068917672856</v>
       </c>
       <c r="F29" s="199">
-        <f>H30*D29</f>
-        <v>3825.1925783116671</v>
+        <f>E29</f>
+        <v>28469.068917672856</v>
       </c>
       <c r="G29" s="200"/>
       <c r="H29" s="200">
         <f t="shared" si="0"/>
-        <v>136650.60128797207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="194"/>
+        <v>165119.67020564491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A30" s="194">
+        <v>45595</v>
+      </c>
       <c r="B30" s="218" t="s">
-        <v>437</v>
-      </c>
-      <c r="C30" s="196"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="199">
-        <f>E32+E31</f>
-        <v>27672.148376461078</v>
+        <v>412</v>
+      </c>
+      <c r="C30" s="223">
+        <v>2598.91</v>
+      </c>
+      <c r="D30" s="197">
+        <f>(C30/C32)-1</f>
+        <v>2.8798650916806556E-2</v>
+      </c>
+      <c r="E30" s="219">
+        <f>F31*D30</f>
+        <v>796.92054121177785</v>
       </c>
       <c r="F30" s="199">
-        <f>E30</f>
-        <v>27672.148376461078</v>
+        <f>H31*D30</f>
+        <v>3825.1925783116671</v>
       </c>
       <c r="G30" s="200"/>
       <c r="H30" s="200">
         <f t="shared" si="0"/>
-        <v>132825.40870966041</v>
+        <v>136650.60128797207</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="194">
-        <v>45565</v>
-      </c>
+      <c r="A31" s="194"/>
       <c r="B31" s="218" t="s">
-        <v>414</v>
-      </c>
-      <c r="C31" s="221">
-        <v>2526.16</v>
-      </c>
-      <c r="D31" s="197">
-        <f>(C31/C33)-1</f>
-        <v>2.9681984559824404E-2</v>
-      </c>
-      <c r="E31" s="219">
-        <f>F32*D31</f>
-        <v>797.68733760881537</v>
+        <v>436</v>
+      </c>
+      <c r="C31" s="196"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="199">
+        <f>E33+E32</f>
+        <v>27672.148376461078</v>
       </c>
       <c r="F31" s="199">
-        <f>IF(H32&lt;=0,,(H32*D31))</f>
-        <v>3031.1858383726817</v>
+        <f>E31</f>
+        <v>27672.148376461078</v>
       </c>
       <c r="G31" s="200"/>
       <c r="H31" s="200">
         <f t="shared" si="0"/>
-        <v>105153.26033319932</v>
+        <v>132825.40870966041</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="194"/>
+      <c r="A32" s="194">
+        <v>45565</v>
+      </c>
       <c r="B32" s="218" t="s">
-        <v>436</v>
-      </c>
-      <c r="C32" s="196"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="199">
-        <f>E34+E33</f>
-        <v>26874.461038852263</v>
+        <v>413</v>
+      </c>
+      <c r="C32" s="221">
+        <v>2526.16</v>
+      </c>
+      <c r="D32" s="197">
+        <f>(C32/C34)-1</f>
+        <v>2.9681984559824404E-2</v>
+      </c>
+      <c r="E32" s="219">
+        <f>F33*D32</f>
+        <v>797.68733760881537</v>
       </c>
       <c r="F32" s="199">
-        <f>E32</f>
-        <v>26874.461038852263</v>
+        <f>IF(H33&lt;=0,,(H33*D32))</f>
+        <v>3031.1858383726817</v>
       </c>
       <c r="G32" s="200"/>
       <c r="H32" s="200">
         <f t="shared" si="0"/>
-        <v>102122.07449482664</v>
+        <v>105153.26033319932</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="194">
-        <v>45534</v>
-      </c>
+      <c r="A33" s="194"/>
       <c r="B33" s="218" t="s">
-        <v>415</v>
-      </c>
-      <c r="C33" s="196">
-        <v>2453.34</v>
-      </c>
-      <c r="D33" s="197">
-        <f>(C33/C35)-1</f>
-        <v>2.4744162733386421E-2</v>
-      </c>
-      <c r="E33" s="219">
-        <f>F34*D33</f>
-        <v>648.92883658262588</v>
+        <v>435</v>
+      </c>
+      <c r="C33" s="196"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="199">
+        <f>E35+E34</f>
+        <v>26874.461038852263</v>
       </c>
       <c r="F33" s="199">
-        <f>IF(H34&lt;=0,,(H34*D33))</f>
-        <v>1816.9795548647776</v>
+        <f>E33</f>
+        <v>26874.461038852263</v>
       </c>
       <c r="G33" s="200"/>
       <c r="H33" s="200">
         <f t="shared" si="0"/>
-        <v>75247.61345597438</v>
+        <v>102122.07449482664</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="194"/>
+      <c r="A34" s="194">
+        <v>45534</v>
+      </c>
       <c r="B34" s="218" t="s">
-        <v>435</v>
-      </c>
-      <c r="C34" s="196"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="199">
-        <f>E36+E35</f>
-        <v>26225.532202269638</v>
+        <v>414</v>
+      </c>
+      <c r="C34" s="196">
+        <v>2453.34</v>
+      </c>
+      <c r="D34" s="197">
+        <f>(C34/C36)-1</f>
+        <v>2.4744162733386421E-2</v>
+      </c>
+      <c r="E34" s="219">
+        <f>F35*D34</f>
+        <v>648.92883658262588</v>
       </c>
       <c r="F34" s="199">
-        <f>E34</f>
-        <v>26225.532202269638</v>
+        <f>IF(H35&lt;=0,,(H35*D34))</f>
+        <v>1816.9795548647776</v>
       </c>
       <c r="G34" s="200"/>
       <c r="H34" s="200">
         <f t="shared" si="0"/>
-        <v>73430.633901109599</v>
+        <v>75247.61345597438</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="194">
-        <v>45503</v>
-      </c>
+      <c r="A35" s="194"/>
       <c r="B35" s="218" t="s">
-        <v>416</v>
-      </c>
-      <c r="C35" s="196">
-        <v>2394.1</v>
-      </c>
-      <c r="D35" s="197">
-        <f>(C35/C37)-1</f>
-        <v>3.2255560969089547E-2</v>
-      </c>
-      <c r="E35" s="219">
-        <f>F36*D35</f>
-        <v>819.48626375330343</v>
+        <v>434</v>
+      </c>
+      <c r="C35" s="196"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="199">
+        <f>E37+E36</f>
+        <v>26225.532202269638</v>
       </c>
       <c r="F35" s="199">
-        <f>IF(H36&lt;=0,,(H36*D35))</f>
-        <v>1475.0485184788452</v>
+        <f>E35</f>
+        <v>26225.532202269638</v>
       </c>
       <c r="G35" s="200"/>
       <c r="H35" s="200">
         <f t="shared" si="0"/>
-        <v>47205.101698839957</v>
+        <v>73430.633901109599</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="194"/>
+      <c r="A36" s="194">
+        <v>45503</v>
+      </c>
       <c r="B36" s="218" t="s">
-        <v>434</v>
-      </c>
-      <c r="C36" s="196"/>
-      <c r="D36" s="197"/>
-      <c r="E36" s="199">
-        <f>E38+E37</f>
-        <v>25406.045938516334</v>
+        <v>415</v>
+      </c>
+      <c r="C36" s="196">
+        <v>2394.1</v>
+      </c>
+      <c r="D36" s="197">
+        <f>(C36/C38)-1</f>
+        <v>3.2255560969089547E-2</v>
+      </c>
+      <c r="E36" s="219">
+        <f>F37*D36</f>
+        <v>819.48626375330343</v>
       </c>
       <c r="F36" s="199">
-        <f>E36</f>
-        <v>25406.045938516334</v>
+        <f>IF(H37&lt;=0,,(H37*D36))</f>
+        <v>1475.0485184788452</v>
       </c>
       <c r="G36" s="200"/>
       <c r="H36" s="200">
         <f t="shared" si="0"/>
-        <v>45730.053180361108</v>
+        <v>47205.101698839957</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="194">
-        <v>45473</v>
-      </c>
+      <c r="A37" s="194"/>
       <c r="B37" s="218" t="s">
-        <v>417</v>
-      </c>
-      <c r="C37" s="196">
-        <v>2319.29</v>
-      </c>
-      <c r="D37" s="197">
-        <f>(C37/C39)-1</f>
-        <v>1.6407739334312055E-2</v>
-      </c>
-      <c r="E37" s="219">
-        <f>F38*D37</f>
-        <v>410.12653007517417</v>
+        <v>433</v>
+      </c>
+      <c r="C37" s="196"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="199">
+        <f>E39+E38</f>
+        <v>25406.045938516334</v>
       </c>
       <c r="F37" s="199">
-        <f>IF(H38&lt;=0,,(H38*D37))</f>
-        <v>328.0878334036139</v>
+        <f>E37</f>
+        <v>25406.045938516334</v>
       </c>
       <c r="G37" s="200"/>
       <c r="H37" s="200">
         <f t="shared" si="0"/>
-        <v>20324.007241844774</v>
+        <v>45730.053180361108</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="194"/>
+      <c r="A38" s="194">
+        <v>45473</v>
+      </c>
       <c r="B38" s="218" t="s">
-        <v>433</v>
-      </c>
-      <c r="C38" s="196"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="199">
-        <f>E40+E39</f>
-        <v>24995.919408441161</v>
+        <v>416</v>
+      </c>
+      <c r="C38" s="196">
+        <v>2319.29</v>
+      </c>
+      <c r="D38" s="197">
+        <f>(C38/C40)-1</f>
+        <v>1.6407739334312055E-2</v>
+      </c>
+      <c r="E38" s="219">
+        <f>F39*D38</f>
+        <v>410.12653007517417</v>
       </c>
       <c r="F38" s="199">
-        <f>E38</f>
-        <v>24995.919408441161</v>
+        <f>IF(H39&lt;=0,,(H39*D38))</f>
+        <v>328.0878334036139</v>
       </c>
       <c r="G38" s="200"/>
       <c r="H38" s="200">
-        <f t="shared" ref="H38:H50" si="1">H39+F38-G38</f>
-        <v>19995.919408441161</v>
+        <f t="shared" si="0"/>
+        <v>20324.007241844774</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="194">
-        <v>45442</v>
-      </c>
+      <c r="A39" s="194"/>
       <c r="B39" s="218" t="s">
-        <v>418</v>
-      </c>
-      <c r="C39" s="196">
-        <v>2281.85</v>
-      </c>
-      <c r="D39" s="197">
-        <f>(C39/C41)-1</f>
-        <v>3.3680634201585402E-2</v>
-      </c>
-      <c r="E39" s="219">
-        <f>F40*D39</f>
-        <v>673.612684031708</v>
+        <v>432</v>
+      </c>
+      <c r="C39" s="196"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="199">
+        <f>E41+E40</f>
+        <v>24995.919408441161</v>
       </c>
       <c r="F39" s="199">
-        <f>IF(H40&lt;=0,,(H40*D39))</f>
-        <v>0</v>
+        <f>E39</f>
+        <v>24995.919408441161</v>
       </c>
       <c r="G39" s="200"/>
       <c r="H39" s="200">
-        <f t="shared" si="1"/>
-        <v>-5000</v>
+        <f t="shared" ref="H39:H51" si="1">H40+F39-G39</f>
+        <v>19995.919408441161</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="194"/>
+      <c r="A40" s="194">
+        <v>45442</v>
+      </c>
       <c r="B40" s="218" t="s">
-        <v>432</v>
-      </c>
-      <c r="C40" s="196"/>
-      <c r="D40" s="197"/>
-      <c r="E40" s="199">
-        <f>E42+E41</f>
-        <v>24322.306724409453</v>
+        <v>417</v>
+      </c>
+      <c r="C40" s="196">
+        <v>2281.85</v>
+      </c>
+      <c r="D40" s="197">
+        <f>(C40/C42)-1</f>
+        <v>3.3680634201585402E-2</v>
+      </c>
+      <c r="E40" s="219">
+        <f>F41*D40</f>
+        <v>673.612684031708</v>
       </c>
       <c r="F40" s="199">
-        <f>F42</f>
-        <v>20000</v>
+        <f>IF(H41&lt;=0,,(H41*D40))</f>
+        <v>0</v>
       </c>
       <c r="G40" s="200"/>
       <c r="H40" s="200">
@@ -13276,47 +13209,47 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="194">
-        <v>45412</v>
-      </c>
+      <c r="A41" s="194"/>
       <c r="B41" s="218" t="s">
-        <v>419</v>
-      </c>
-      <c r="C41" s="196">
-        <v>2207.5</v>
-      </c>
-      <c r="D41" s="197">
-        <f>(C41/C43)-1</f>
-        <v>3.1797594731405532E-2</v>
-      </c>
-      <c r="E41" s="219">
-        <f>F42*D41</f>
-        <v>635.95189462811061</v>
+        <v>431</v>
+      </c>
+      <c r="C41" s="196"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="199">
+        <f>E43+E42</f>
+        <v>24322.306724409453</v>
       </c>
       <c r="F41" s="199">
-        <f>IF(H42&lt;=0,,(H42*D41))</f>
-        <v>0</v>
+        <f>F43</f>
+        <v>20000</v>
       </c>
       <c r="G41" s="200"/>
       <c r="H41" s="200">
         <f t="shared" si="1"/>
-        <v>-25000</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="194"/>
+      <c r="A42" s="194">
+        <v>45412</v>
+      </c>
       <c r="B42" s="218" t="s">
-        <v>431</v>
-      </c>
-      <c r="C42" s="196"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="199">
-        <f>E44+E43</f>
-        <v>23686.354829781343</v>
+        <v>418</v>
+      </c>
+      <c r="C42" s="196">
+        <v>2207.5</v>
+      </c>
+      <c r="D42" s="197">
+        <f>(C42/C44)-1</f>
+        <v>3.1797594731405532E-2</v>
+      </c>
+      <c r="E42" s="219">
+        <f>F43*D42</f>
+        <v>635.95189462811061</v>
       </c>
       <c r="F42" s="199">
-        <f>F44</f>
-        <v>20000</v>
+        <f>IF(H43&lt;=0,,(H43*D42))</f>
+        <v>0</v>
       </c>
       <c r="G42" s="200"/>
       <c r="H42" s="200">
@@ -13325,47 +13258,47 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="194">
-        <v>45381</v>
-      </c>
+      <c r="A43" s="194"/>
       <c r="B43" s="218" t="s">
-        <v>420</v>
-      </c>
-      <c r="C43" s="196">
-        <v>2139.4699999999998</v>
-      </c>
-      <c r="D43" s="197">
-        <f>(C43/C45)-1</f>
-        <v>3.1626709356375349E-2</v>
-      </c>
-      <c r="E43" s="219">
-        <f>E44*D43</f>
-        <v>726.15554940492348</v>
+        <v>430</v>
+      </c>
+      <c r="C43" s="196"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="199">
+        <f>E45+E44</f>
+        <v>23686.354829781343</v>
       </c>
       <c r="F43" s="199">
-        <f>IF(H44&lt;=0,,(H44*D43))</f>
-        <v>0</v>
+        <f>F45</f>
+        <v>20000</v>
       </c>
       <c r="G43" s="200"/>
       <c r="H43" s="200">
         <f t="shared" si="1"/>
-        <v>-45000</v>
+        <v>-25000</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="194"/>
+      <c r="A44" s="194">
+        <v>45381</v>
+      </c>
       <c r="B44" s="218" t="s">
-        <v>430</v>
-      </c>
-      <c r="C44" s="196"/>
-      <c r="D44" s="197"/>
-      <c r="E44" s="199">
-        <f>E46+E45</f>
-        <v>22960.199280376419</v>
+        <v>419</v>
+      </c>
+      <c r="C44" s="196">
+        <v>2139.4699999999998</v>
+      </c>
+      <c r="D44" s="197">
+        <f>(C44/C46)-1</f>
+        <v>3.1626709356375349E-2</v>
+      </c>
+      <c r="E44" s="219">
+        <f>E45*D44</f>
+        <v>726.15554940492348</v>
       </c>
       <c r="F44" s="199">
-        <f>F46</f>
-        <v>20000</v>
+        <f>IF(H45&lt;=0,,(H45*D44))</f>
+        <v>0</v>
       </c>
       <c r="G44" s="200"/>
       <c r="H44" s="200">
@@ -13374,92 +13307,96 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="194">
-        <v>45351</v>
-      </c>
+      <c r="A45" s="194"/>
       <c r="B45" s="218" t="s">
-        <v>421</v>
-      </c>
-      <c r="C45" s="196">
-        <v>2073.88</v>
-      </c>
-      <c r="D45" s="197">
-        <f>(C45/C47)-1</f>
-        <v>4.5291882138285056E-2</v>
-      </c>
-      <c r="E45" s="219">
-        <f>E46*D45</f>
-        <v>994.85192360919234</v>
+        <v>429</v>
+      </c>
+      <c r="C45" s="196"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="199">
+        <f>E47+E46</f>
+        <v>22960.199280376419</v>
       </c>
       <c r="F45" s="199">
-        <f>IF(H46&lt;=0,,(H46*D45))</f>
-        <v>0</v>
+        <f>F47</f>
+        <v>20000</v>
       </c>
       <c r="G45" s="200"/>
       <c r="H45" s="200">
         <f t="shared" si="1"/>
-        <v>-65000</v>
+        <v>-45000</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="301"/>
-      <c r="B46" s="302" t="s">
-        <v>429</v>
-      </c>
-      <c r="C46" s="303"/>
-      <c r="D46" s="304"/>
-      <c r="E46" s="306">
-        <f>E49+E47</f>
-        <v>21965.347356767226</v>
-      </c>
-      <c r="F46" s="308">
-        <f>F49</f>
-        <v>20000</v>
-      </c>
-      <c r="G46" s="307"/>
-      <c r="H46" s="307">
+      <c r="A46" s="194">
+        <v>45351</v>
+      </c>
+      <c r="B46" s="218" t="s">
+        <v>420</v>
+      </c>
+      <c r="C46" s="196">
+        <v>2073.88</v>
+      </c>
+      <c r="D46" s="197">
+        <f>(C46/C48)-1</f>
+        <v>4.5291882138285056E-2</v>
+      </c>
+      <c r="E46" s="219">
+        <f>E47*D46</f>
+        <v>994.85192360919234</v>
+      </c>
+      <c r="F46" s="199">
+        <f>IF(H47&lt;=0,,(H47*D46))</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="200"/>
+      <c r="H46" s="200">
         <f t="shared" si="1"/>
         <v>-65000</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="194">
+      <c r="A47" s="300"/>
+      <c r="B47" s="301" t="s">
+        <v>428</v>
+      </c>
+      <c r="C47" s="302"/>
+      <c r="D47" s="303"/>
+      <c r="E47" s="305">
+        <f>E50+E48</f>
+        <v>21965.347356767226</v>
+      </c>
+      <c r="F47" s="307">
+        <f>F50</f>
+        <v>20000</v>
+      </c>
+      <c r="G47" s="306"/>
+      <c r="H47" s="306">
+        <f t="shared" si="1"/>
+        <v>-65000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="194">
         <v>45321</v>
       </c>
-      <c r="B47" s="218" t="s">
-        <v>422</v>
-      </c>
-      <c r="C47" s="196">
+      <c r="B48" s="218" t="s">
+        <v>421</v>
+      </c>
+      <c r="C48" s="196">
         <v>1984.02</v>
       </c>
-      <c r="D47" s="197">
-        <f>(C47/C50)-1</f>
+      <c r="D48" s="197">
+        <f>(C48/C51)-1</f>
         <v>6.7033097053856627E-2</v>
       </c>
-      <c r="E47" s="219">
-        <f>E49*D47</f>
+      <c r="E48" s="219">
+        <f>E50*D48</f>
         <v>1379.9058953778017</v>
       </c>
-      <c r="F47" s="199">
-        <f>IF(H48&lt;=0,,(H48*D47))</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="200"/>
-      <c r="H47" s="200">
-        <f t="shared" si="1"/>
-        <v>-85000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="194"/>
-      <c r="B48" s="218" t="s">
-        <v>444</v>
-      </c>
-      <c r="C48" s="196"/>
-      <c r="D48" s="197"/>
-      <c r="E48" s="199"/>
       <c r="F48" s="199">
-        <v>10000</v>
+        <f>IF(H49&lt;=0,,(H49*D48))</f>
+        <v>0</v>
       </c>
       <c r="G48" s="200"/>
       <c r="H48" s="200">
@@ -13468,128 +13405,135 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="301"/>
-      <c r="B49" s="302" t="s">
-        <v>428</v>
-      </c>
-      <c r="C49" s="303"/>
-      <c r="D49" s="304"/>
-      <c r="E49" s="306">
-        <f>F51+E50</f>
+      <c r="A49" s="194"/>
+      <c r="B49" s="218" t="s">
+        <v>441</v>
+      </c>
+      <c r="C49" s="196"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="199"/>
+      <c r="F49" s="199">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200">
+        <f t="shared" si="1"/>
+        <v>-85000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="300"/>
+      <c r="B50" s="301" t="s">
+        <v>427</v>
+      </c>
+      <c r="C50" s="302"/>
+      <c r="D50" s="303"/>
+      <c r="E50" s="305">
+        <f>F52+E51</f>
         <v>20585.441461389426</v>
       </c>
-      <c r="F49" s="308">
-        <f>F51</f>
+      <c r="F50" s="307">
+        <f>F52</f>
         <v>20000</v>
       </c>
-      <c r="G49" s="307"/>
-      <c r="H49" s="307">
-        <f>H50+F49-G49</f>
+      <c r="G50" s="306"/>
+      <c r="H50" s="306">
+        <f>H51+F50-G50</f>
         <v>-95000</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="194">
+    <row r="51" spans="1:8">
+      <c r="A51" s="194">
         <v>45290</v>
       </c>
-      <c r="B50" s="218" t="s">
-        <v>424</v>
-      </c>
-      <c r="C50" s="196">
+      <c r="B51" s="218" t="s">
+        <v>423</v>
+      </c>
+      <c r="C51" s="196">
         <v>1859.38</v>
       </c>
-      <c r="D50" s="197">
-        <f>(C50/C53)-1</f>
+      <c r="D51" s="197">
+        <f>(C51/C54)-1</f>
         <v>2.9272073069471327E-2</v>
       </c>
-      <c r="E50" s="219">
-        <f>F51*D50</f>
+      <c r="E51" s="219">
+        <f>F52*D51</f>
         <v>585.44146138942654</v>
       </c>
-      <c r="F50" s="199">
-        <f>IF(H51&lt;=0,,(H51*D50))</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="200"/>
-      <c r="H50" s="200">
+      <c r="F51" s="199">
+        <f>IF(H52&lt;=0,,(H52*D51))</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="200"/>
+      <c r="H51" s="200">
         <f t="shared" si="1"/>
         <v>-115000</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="301"/>
-      <c r="B51" s="302" t="s">
-        <v>427</v>
-      </c>
-      <c r="C51" s="303"/>
-      <c r="D51" s="304"/>
-      <c r="E51" s="305"/>
-      <c r="F51" s="306">
+    <row r="52" spans="1:8">
+      <c r="A52" s="300"/>
+      <c r="B52" s="301" t="s">
+        <v>426</v>
+      </c>
+      <c r="C52" s="302"/>
+      <c r="D52" s="303"/>
+      <c r="E52" s="304"/>
+      <c r="F52" s="305">
         <v>20000</v>
       </c>
-      <c r="G51" s="307"/>
-      <c r="H51" s="307">
-        <f>H52+F51-G51</f>
+      <c r="G52" s="306"/>
+      <c r="H52" s="306">
+        <f>H53+F52-G52</f>
         <v>-115000</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="194"/>
-      <c r="B52" s="218"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="197"/>
-      <c r="E52" s="198"/>
-      <c r="F52" s="199"/>
-      <c r="G52" s="200">
+    <row r="53" spans="1:8">
+      <c r="A53" s="194"/>
+      <c r="B53" s="218"/>
+      <c r="C53" s="196"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="198"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="200">
         <v>135000</v>
       </c>
-      <c r="H52" s="200">
-        <f>H54+F52-G52</f>
+      <c r="H53" s="200">
+        <f>H55+F53-G53</f>
         <v>-135000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="194">
+    <row r="54" spans="1:8">
+      <c r="A54" s="194">
         <v>45260</v>
       </c>
-      <c r="B53" s="218" t="s">
-        <v>425</v>
-      </c>
-      <c r="C53" s="196">
+      <c r="B54" s="218" t="s">
+        <v>424</v>
+      </c>
+      <c r="C54" s="196">
         <v>1806.5</v>
       </c>
-      <c r="D53" s="197"/>
-      <c r="E53" s="219"/>
-      <c r="F53" s="199"/>
-      <c r="G53" s="200"/>
-      <c r="H53" s="200"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="194"/>
-      <c r="B54" s="218"/>
-      <c r="C54" s="196"/>
       <c r="D54" s="197"/>
-      <c r="E54" s="199"/>
+      <c r="E54" s="219"/>
       <c r="F54" s="199"/>
       <c r="G54" s="200"/>
       <c r="H54" s="200"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="194"/>
-      <c r="B55" s="200"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="196"/>
       <c r="D55" s="197"/>
-      <c r="E55" s="198"/>
+      <c r="E55" s="199"/>
       <c r="F55" s="199"/>
       <c r="G55" s="200"/>
       <c r="H55" s="200"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="194"/>
-      <c r="B56" s="218"/>
+      <c r="B56" s="200"/>
       <c r="C56" s="196"/>
       <c r="D56" s="197"/>
-      <c r="E56" s="219"/>
+      <c r="E56" s="198"/>
       <c r="F56" s="199"/>
       <c r="G56" s="200"/>
       <c r="H56" s="200"/>
@@ -13599,7 +13543,7 @@
       <c r="B57" s="218"/>
       <c r="C57" s="196"/>
       <c r="D57" s="197"/>
-      <c r="E57" s="199"/>
+      <c r="E57" s="219"/>
       <c r="F57" s="199"/>
       <c r="G57" s="200"/>
       <c r="H57" s="200"/>
@@ -13609,7 +13553,7 @@
       <c r="B58" s="218"/>
       <c r="C58" s="196"/>
       <c r="D58" s="197"/>
-      <c r="E58" s="198"/>
+      <c r="E58" s="199"/>
       <c r="F58" s="199"/>
       <c r="G58" s="200"/>
       <c r="H58" s="200"/>
@@ -13636,7 +13580,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="194"/>
-      <c r="B61" s="200"/>
+      <c r="B61" s="218"/>
       <c r="C61" s="196"/>
       <c r="D61" s="197"/>
       <c r="E61" s="198"/>
@@ -13646,12 +13590,12 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="194"/>
-      <c r="B62" s="218"/>
+      <c r="B62" s="200"/>
       <c r="C62" s="196"/>
       <c r="D62" s="197"/>
-      <c r="E62" s="219"/>
+      <c r="E62" s="198"/>
       <c r="F62" s="199"/>
-      <c r="G62" s="220"/>
+      <c r="G62" s="200"/>
       <c r="H62" s="200"/>
     </row>
     <row r="63" spans="1:8">
@@ -13659,20 +13603,30 @@
       <c r="B63" s="218"/>
       <c r="C63" s="196"/>
       <c r="D63" s="197"/>
-      <c r="E63" s="199"/>
+      <c r="E63" s="219"/>
       <c r="F63" s="199"/>
       <c r="G63" s="220"/>
       <c r="H63" s="200"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="194"/>
-      <c r="B64" s="200"/>
+      <c r="B64" s="218"/>
       <c r="C64" s="196"/>
       <c r="D64" s="197"/>
-      <c r="E64" s="198"/>
+      <c r="E64" s="199"/>
       <c r="F64" s="199"/>
-      <c r="G64" s="200"/>
+      <c r="G64" s="220"/>
       <c r="H64" s="200"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="194"/>
+      <c r="B65" s="200"/>
+      <c r="C65" s="196"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="198"/>
+      <c r="F65" s="199"/>
+      <c r="G65" s="200"/>
+      <c r="H65" s="200"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13704,12 +13658,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="B1" s="179" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="G1" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -13807,7 +13761,7 @@
         <v>45806</v>
       </c>
       <c r="B9" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13848,7 +13802,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
-      <c r="B12" s="294">
+      <c r="B12" s="293">
         <v>45739</v>
       </c>
       <c r="C12" s="92"/>
@@ -13987,7 +13941,7 @@
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -14210,10 +14164,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -14233,15 +14187,15 @@
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="309"/>
-      <c r="B42" s="310" t="s">
-        <v>501</v>
-      </c>
-      <c r="C42" s="310"/>
-      <c r="D42" s="310"/>
-      <c r="E42" s="255"/>
-      <c r="F42" s="255"/>
-      <c r="G42" s="255"/>
+      <c r="A42" s="308"/>
+      <c r="B42" s="309" t="s">
+        <v>494</v>
+      </c>
+      <c r="C42" s="309"/>
+      <c r="D42" s="309"/>
+      <c r="E42" s="254"/>
+      <c r="F42" s="254"/>
+      <c r="G42" s="254"/>
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="8"/>
@@ -14347,19 +14301,19 @@
       <c r="G54"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="309"/>
-      <c r="B55" s="310" t="s">
-        <v>500</v>
-      </c>
-      <c r="C55" s="310"/>
-      <c r="D55" s="310"/>
-      <c r="E55" s="255"/>
-      <c r="F55" s="255"/>
-      <c r="G55" s="255"/>
+      <c r="A55" s="308"/>
+      <c r="B55" s="309" t="s">
+        <v>493</v>
+      </c>
+      <c r="C55" s="309"/>
+      <c r="D55" s="309"/>
+      <c r="E55" s="254"/>
+      <c r="F55" s="254"/>
+      <c r="G55" s="254"/>
     </row>
     <row r="56" spans="1:9">
       <c r="B56" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -14369,14 +14323,14 @@
         <v>45402</v>
       </c>
       <c r="B57" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -14389,7 +14343,7 @@
         <v>45402</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -14404,7 +14358,7 @@
         <v>45449</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -14414,7 +14368,7 @@
         <v>45813</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -14422,7 +14376,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C63">
         <f>A62-A59</f>
@@ -14451,7 +14405,7 @@
         <v>45402</v>
       </c>
       <c r="B66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C66" s="147"/>
       <c r="D66" s="147"/>
@@ -14464,7 +14418,7 @@
     <row r="67" spans="1:9">
       <c r="A67" s="147"/>
       <c r="B67" s="146" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C67" s="147"/>
       <c r="D67" s="147"/>
@@ -14486,7 +14440,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="148" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
@@ -14494,7 +14448,7 @@
     <row r="69" spans="1:9">
       <c r="A69" s="145"/>
       <c r="B69" s="147" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C69" s="147"/>
       <c r="D69" s="147"/>
@@ -14528,7 +14482,7 @@
         <v>45402</v>
       </c>
       <c r="B71" s="147" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C71" s="147"/>
       <c r="D71" s="147"/>
@@ -14546,7 +14500,7 @@
         <v>45813</v>
       </c>
       <c r="B72" s="147" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C72" s="147"/>
       <c r="D72" s="147"/>
@@ -14563,7 +14517,7 @@
         <v>45170</v>
       </c>
       <c r="B73" s="147" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C73" s="147"/>
       <c r="D73" s="147"/>
@@ -14582,7 +14536,7 @@
         <v>45199</v>
       </c>
       <c r="B74" s="147" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C74" s="147"/>
       <c r="D74" s="147"/>
@@ -14601,7 +14555,7 @@
         <v>45229</v>
       </c>
       <c r="B75" s="147" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C75" s="147"/>
       <c r="D75" s="147"/>
@@ -14620,7 +14574,7 @@
         <v>45260</v>
       </c>
       <c r="B76" s="147" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C76" s="147"/>
       <c r="D76" s="147"/>
@@ -14637,7 +14591,7 @@
     <row r="77" spans="1:9">
       <c r="A77" s="145"/>
       <c r="B77" s="147" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C77" s="147"/>
       <c r="D77" s="147"/>
@@ -14662,7 +14616,7 @@
     <row r="79" spans="1:9" ht="15">
       <c r="A79" s="145"/>
       <c r="B79" s="147" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C79" s="150">
         <f>A72-A71</f>
@@ -14675,7 +14629,7 @@
     <row r="80" spans="1:9">
       <c r="A80" s="145"/>
       <c r="B80" s="147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C80" s="146">
         <f>(E69-24)/C79</f>
@@ -14690,7 +14644,7 @@
         <v>45813</v>
       </c>
       <c r="B81" s="152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C81" s="153"/>
       <c r="D81" s="153"/>
@@ -14701,7 +14655,7 @@
     <row r="82" spans="1:7" ht="13.5" thickTop="1">
       <c r="A82"/>
       <c r="B82" s="147" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C82" s="146">
         <f>A81-A71</f>
@@ -14715,7 +14669,7 @@
     <row r="83" spans="1:7">
       <c r="A83" s="145"/>
       <c r="B83" s="147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C83" s="147"/>
       <c r="D83" s="147"/>
@@ -14729,7 +14683,7 @@
     <row r="84" spans="1:7">
       <c r="A84" s="145"/>
       <c r="B84" s="147" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C84" s="147"/>
       <c r="D84" s="147"/>
@@ -14743,10 +14697,10 @@
     <row r="85" spans="1:7" ht="15.75" thickBot="1">
       <c r="A85" s="145"/>
       <c r="B85" s="155" t="s">
+        <v>372</v>
+      </c>
+      <c r="C85" s="155" t="s">
         <v>373</v>
-      </c>
-      <c r="C85" s="155" t="s">
-        <v>374</v>
       </c>
       <c r="D85" s="155"/>
       <c r="E85" s="156">
@@ -14759,10 +14713,10 @@
     <row r="86" spans="1:7" ht="13.5" thickTop="1">
       <c r="A86" s="145"/>
       <c r="B86" s="147" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C86" s="147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D86" s="147"/>
       <c r="F86"/>
@@ -14771,10 +14725,10 @@
     <row r="87" spans="1:7">
       <c r="A87" s="145"/>
       <c r="B87" s="147" t="s">
+        <v>375</v>
+      </c>
+      <c r="C87" s="147" t="s">
         <v>376</v>
-      </c>
-      <c r="C87" s="147" t="s">
-        <v>377</v>
       </c>
       <c r="D87" s="147"/>
       <c r="F87"/>
@@ -14783,10 +14737,10 @@
     <row r="88" spans="1:7">
       <c r="A88" s="145"/>
       <c r="B88" s="147" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C88" s="147" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D88" s="147"/>
       <c r="F88"/>
@@ -14803,10 +14757,10 @@
     <row r="90" spans="1:7" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A90" s="147"/>
       <c r="B90" s="158" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C90" s="159" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D90" s="159"/>
       <c r="E90" s="156">
@@ -14850,11 +14804,11 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="8"/>
       <c r="F1" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -15008,7 +14962,7 @@
         <v>44956</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="92">
         <v>45322</v>
@@ -15108,7 +15062,7 @@
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -15325,10 +15279,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="41"/>
@@ -15347,7 +15301,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" s="1"/>
     </row>
@@ -15356,13 +15310,13 @@
         <v>44774</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43"/>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44"/>
       <c r="D44" s="3">
@@ -15374,7 +15328,7 @@
         <v>44774</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45"/>
     </row>
@@ -15387,7 +15341,7 @@
         <v>44803</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47"/>
     </row>
@@ -15396,14 +15350,14 @@
         <v>45167</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48"/>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49">
         <f>A48-A45</f>
@@ -15422,7 +15376,7 @@
         <v>45127</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -15430,7 +15384,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="B52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -15438,7 +15392,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="B53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -15446,7 +15400,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="B54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -15454,7 +15408,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="B55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55"/>
       <c r="D55">
@@ -15486,7 +15440,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="B60" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60"/>
@@ -15498,7 +15452,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61"/>
       <c r="E61">
@@ -15511,7 +15465,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="B62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C62"/>
       <c r="E62">
@@ -15524,7 +15478,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="B63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C63"/>
       <c r="E63" s="3">
@@ -15538,7 +15492,7 @@
     <row r="64" spans="1:6" customFormat="1">
       <c r="A64" s="7"/>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3">
@@ -15551,7 +15505,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -15567,7 +15521,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="B66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -15583,7 +15537,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67"/>
       <c r="D67">
@@ -15601,7 +15555,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -15617,7 +15571,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69"/>
       <c r="D69"/>
@@ -15649,7 +15603,7 @@
         <v>45139</v>
       </c>
       <c r="B72" s="146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72" s="147"/>
       <c r="D72" s="148"/>
@@ -15661,7 +15615,7 @@
     <row r="73" spans="1:8">
       <c r="A73" s="147"/>
       <c r="B73" s="146" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C73" s="147"/>
       <c r="D73" s="148"/>
@@ -15681,7 +15635,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="148" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -15719,7 +15673,7 @@
         <v>45168</v>
       </c>
       <c r="B77" s="147" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C77" s="147"/>
       <c r="D77" s="148"/>
@@ -15736,7 +15690,7 @@
         <v>45533</v>
       </c>
       <c r="B78" s="147" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C78" s="147"/>
       <c r="E78"/>
@@ -15752,7 +15706,7 @@
         <v>45170</v>
       </c>
       <c r="B79" s="147" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C79" s="147"/>
       <c r="E79">
@@ -15770,7 +15724,7 @@
         <v>45199</v>
       </c>
       <c r="B80" s="147" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C80" s="147"/>
       <c r="E80">
@@ -15788,7 +15742,7 @@
         <v>45229</v>
       </c>
       <c r="B81" s="147" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C81" s="147"/>
       <c r="E81">
@@ -15806,7 +15760,7 @@
         <v>45260</v>
       </c>
       <c r="B82" s="147" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C82" s="147"/>
       <c r="E82">
@@ -15824,7 +15778,7 @@
         <v>45290</v>
       </c>
       <c r="B83" s="147" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C83" s="147"/>
       <c r="E83">
@@ -15842,10 +15796,10 @@
         <v>45321</v>
       </c>
       <c r="B84" s="147" t="s">
+        <v>364</v>
+      </c>
+      <c r="C84" s="149" t="s">
         <v>365</v>
-      </c>
-      <c r="C84" s="149" t="s">
-        <v>366</v>
       </c>
       <c r="E84"/>
       <c r="F84" s="148">
@@ -15865,7 +15819,7 @@
     <row r="86" spans="1:8" ht="15">
       <c r="A86" s="145"/>
       <c r="B86" s="147" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C86" s="150">
         <f>A78-A77</f>
@@ -15877,7 +15831,7 @@
     <row r="87" spans="1:8">
       <c r="A87" s="145"/>
       <c r="B87" s="147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C87" s="146">
         <f>D75/C86</f>
@@ -15891,7 +15845,7 @@
         <v>45413</v>
       </c>
       <c r="B88" s="152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C88" s="153"/>
       <c r="D88" s="154"/>
@@ -15900,7 +15854,7 @@
     <row r="89" spans="1:8" ht="13.5" thickTop="1">
       <c r="A89"/>
       <c r="B89" s="147" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C89" s="146">
         <f>A88-A77</f>
@@ -15912,7 +15866,7 @@
     <row r="90" spans="1:8">
       <c r="A90" s="145"/>
       <c r="B90" s="147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C90" s="147"/>
       <c r="D90" s="3">
@@ -15924,7 +15878,7 @@
     <row r="91" spans="1:8">
       <c r="A91" s="145"/>
       <c r="B91" s="147" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C91" s="147"/>
       <c r="D91" s="3">
@@ -15937,10 +15891,10 @@
     <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="145"/>
       <c r="B92" s="155" t="s">
+        <v>372</v>
+      </c>
+      <c r="C92" s="155" t="s">
         <v>373</v>
-      </c>
-      <c r="C92" s="155" t="s">
-        <v>374</v>
       </c>
       <c r="D92" s="156">
         <f>SUM(D91:D91)</f>
@@ -15952,10 +15906,10 @@
     <row r="93" spans="1:8" ht="13.5" thickTop="1">
       <c r="A93" s="145"/>
       <c r="B93" s="147" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C93" s="147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D93" s="3">
         <v>794.6</v>
@@ -15966,10 +15920,10 @@
     <row r="94" spans="1:8">
       <c r="A94" s="145"/>
       <c r="B94" s="147" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C94" s="147" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D94" s="3">
         <v>-30</v>
@@ -15980,10 +15934,10 @@
     <row r="95" spans="1:8" ht="13.5" thickBot="1">
       <c r="A95" s="145"/>
       <c r="B95" s="157" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C95" s="147" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D95" s="3">
         <f>F84*-1</f>
@@ -15995,10 +15949,10 @@
     <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A96" s="147"/>
       <c r="B96" s="158" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C96" s="159" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D96" s="156">
         <f>SUM(D92:D95)</f>
@@ -16012,7 +15966,7 @@
         <v>45412</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D97" s="3">
         <v>24000</v>
@@ -16020,7 +15974,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="B98" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D98" s="3">
         <v>1000</v>
@@ -16028,17 +15982,17 @@
     </row>
     <row r="99" spans="1:4">
       <c r="B99" s="178" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="D101" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D102" s="3">
         <v>2</v>
@@ -16117,7 +16071,7 @@
     <row r="114" spans="1:5">
       <c r="A114" s="148"/>
       <c r="B114" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D114" s="3">
         <v>7000</v>
@@ -16135,7 +16089,7 @@
         <v>3.5264483627204029</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="14.25" thickTop="1" thickBot="1">
@@ -16156,7 +16110,7 @@
         <v>2.904564315352697</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -16170,7 +16124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -16194,12 +16148,12 @@
     <row r="1" spans="1:7">
       <c r="A1" s="161"/>
       <c r="B1" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="G1" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -16217,7 +16171,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>2</v>
@@ -16278,7 +16232,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="164" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
@@ -16306,7 +16260,7 @@
         <v>44957</v>
       </c>
       <c r="B9" s="141" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9">
         <v>6.65</v>
@@ -16325,7 +16279,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="167"/>
       <c r="B10" s="141" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10">
         <v>3.15</v>
@@ -16343,7 +16297,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="167"/>
       <c r="B11" s="141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11">
         <v>2.29</v>
@@ -16361,7 +16315,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="167"/>
       <c r="B12" s="141" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C12">
         <v>2.39</v>
@@ -16381,7 +16335,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="167"/>
       <c r="B13" s="141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13">
         <v>0.04</v>
@@ -16401,7 +16355,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="167"/>
       <c r="B14" s="141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14">
         <v>3.92</v>
@@ -16419,7 +16373,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="167"/>
       <c r="B15" s="141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15">
         <v>9.49</v>
@@ -16439,7 +16393,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="167"/>
       <c r="B16" s="141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16">
         <v>9.09</v>
@@ -16457,7 +16411,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="167"/>
       <c r="B17" s="141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17">
         <v>4.75</v>
@@ -16475,7 +16429,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="167"/>
       <c r="B18" s="141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18">
         <v>3.43</v>
@@ -16495,7 +16449,7 @@
         <v>45260</v>
       </c>
       <c r="B19" s="141" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C19">
         <v>42.645099999999999</v>
@@ -16517,7 +16471,7 @@
         <v>45291</v>
       </c>
       <c r="B20" s="141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20">
         <v>2.93</v>
@@ -16546,7 +16500,7 @@
         <v>45322</v>
       </c>
       <c r="B22" s="142" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C22">
         <v>6.71</v>
@@ -16563,7 +16517,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="167"/>
       <c r="B23" s="142" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C23">
         <v>4.53</v>
@@ -16581,7 +16535,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="167"/>
       <c r="B24" s="142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24">
         <v>3.16</v>
@@ -16599,7 +16553,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="167"/>
       <c r="B25" s="144" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C25"/>
       <c r="E25" s="60"/>
@@ -16616,7 +16570,7 @@
         <v>45397</v>
       </c>
       <c r="B26" s="142" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C26">
         <v>3.18</v>
@@ -16636,7 +16590,7 @@
     <row r="27" spans="1:7">
       <c r="A27" s="167"/>
       <c r="B27" s="144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27"/>
       <c r="E27" s="60"/>
@@ -16651,7 +16605,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="167"/>
       <c r="B28" s="143" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C28">
         <v>3.37</v>
@@ -16669,7 +16623,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="167"/>
       <c r="B29" s="143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29">
         <v>3.6</v>
@@ -16687,7 +16641,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="167"/>
       <c r="B30" s="143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30">
         <v>3.6</v>
@@ -16705,7 +16659,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="167"/>
       <c r="B31" s="143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31"/>
       <c r="E31" s="60">
@@ -16721,7 +16675,7 @@
     <row r="32" spans="1:7">
       <c r="A32" s="167"/>
       <c r="B32" s="143" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C32"/>
       <c r="E32" s="60">
@@ -16737,7 +16691,7 @@
     <row r="33" spans="1:13">
       <c r="A33" s="167"/>
       <c r="B33" s="143" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33"/>
       <c r="E33" s="60">
@@ -16753,7 +16707,7 @@
     <row r="34" spans="1:13">
       <c r="A34" s="167"/>
       <c r="B34" s="143" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34"/>
       <c r="E34" s="60">
@@ -16769,7 +16723,7 @@
     <row r="35" spans="1:13">
       <c r="A35" s="167"/>
       <c r="B35" s="143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35"/>
       <c r="E35" s="60">
@@ -16785,7 +16739,7 @@
     <row r="36" spans="1:13">
       <c r="A36" s="167"/>
       <c r="B36" s="143" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C36"/>
       <c r="E36" s="60">
@@ -16801,7 +16755,7 @@
     <row r="37" spans="1:13">
       <c r="A37" s="167"/>
       <c r="B37" s="143" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37"/>
       <c r="E37" s="60">
@@ -16817,7 +16771,7 @@
     <row r="38" spans="1:13">
       <c r="A38" s="167"/>
       <c r="B38" s="143" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38"/>
       <c r="E38" s="60">
@@ -16833,7 +16787,7 @@
     <row r="39" spans="1:13">
       <c r="A39" s="167"/>
       <c r="B39" s="143" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C39"/>
       <c r="E39" s="60">
@@ -16881,7 +16835,7 @@
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -17164,10 +17118,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="166" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="40"/>
@@ -17212,7 +17166,7 @@
     <row r="63" spans="1:13">
       <c r="A63" s="167"/>
       <c r="B63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -17232,7 +17186,7 @@
     <row r="65" spans="1:7">
       <c r="A65" s="167"/>
       <c r="B65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C65"/>
       <c r="E65" s="3">
@@ -17248,7 +17202,7 @@
         <v>44651</v>
       </c>
       <c r="B66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C66"/>
       <c r="F66">
@@ -17264,7 +17218,7 @@
         <v>44681</v>
       </c>
       <c r="B67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C67"/>
       <c r="F67">
@@ -17280,7 +17234,7 @@
         <v>44711</v>
       </c>
       <c r="B68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C68"/>
       <c r="F68">
@@ -17296,7 +17250,7 @@
         <v>44742</v>
       </c>
       <c r="B69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C69"/>
       <c r="F69"/>
@@ -17310,7 +17264,7 @@
         <v>44772</v>
       </c>
       <c r="B70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C70"/>
       <c r="F70"/>
@@ -17324,7 +17278,7 @@
         <v>44803</v>
       </c>
       <c r="B71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C71"/>
       <c r="F71"/>
@@ -17344,7 +17298,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="B73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -17354,7 +17308,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="B74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -17440,7 +17394,7 @@
         <v>45315</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -17453,7 +17407,7 @@
         <v>45236</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -17464,7 +17418,7 @@
         <v>45236</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -17483,7 +17437,7 @@
         <v>45236</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -17491,7 +17445,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="B88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -17499,7 +17453,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="B89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -17507,7 +17461,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -17515,7 +17469,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="B91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
@@ -17523,7 +17477,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="B92" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -17539,10 +17493,10 @@
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" t="s">
+        <v>174</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -17550,7 +17504,7 @@
         <v>45236</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95">
         <v>0.65</v>
@@ -17580,18 +17534,18 @@
       </c>
       <c r="B98"/>
       <c r="E98" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="F98" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="F98" s="63" t="s">
+      <c r="G98" s="63" t="s">
         <v>179</v>
-      </c>
-      <c r="G98" s="63" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="25.5">
       <c r="B99" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C99" s="3">
         <v>11.5</v>
@@ -17602,7 +17556,7 @@
     </row>
     <row r="100" spans="1:11" ht="38.25">
       <c r="B100" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C100" s="3">
         <v>12</v>
@@ -17619,7 +17573,7 @@
     </row>
     <row r="101" spans="1:11" ht="37.5" customHeight="1">
       <c r="B101" s="63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C101" s="3">
         <v>14</v>
@@ -17650,7 +17604,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="B104" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G104" s="3">
         <f t="shared" ref="G104:G115" si="5">G103+E104-F104</f>
@@ -17660,7 +17614,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="B105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
@@ -17675,7 +17629,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="B106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
@@ -17691,7 +17645,7 @@
     <row r="107" spans="1:11">
       <c r="A107" s="171"/>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
@@ -17707,7 +17661,7 @@
     <row r="108" spans="1:11">
       <c r="A108" s="171"/>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
@@ -17723,7 +17677,7 @@
     <row r="109" spans="1:11">
       <c r="A109" s="172"/>
       <c r="B109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C109"/>
       <c r="D109"/>
@@ -17738,7 +17692,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="B110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
@@ -17754,7 +17708,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="B111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
@@ -17770,7 +17724,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="B112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
@@ -17786,7 +17740,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="B113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
@@ -17816,7 +17770,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="B115" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -17845,7 +17799,7 @@
     <row r="118" spans="1:11">
       <c r="A118" s="167"/>
       <c r="B118" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C118" s="66"/>
       <c r="D118" s="66"/>
@@ -17855,7 +17809,7 @@
     <row r="119" spans="1:11">
       <c r="A119" s="167"/>
       <c r="B119" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
@@ -17871,7 +17825,7 @@
     <row r="120" spans="1:11">
       <c r="A120" s="167"/>
       <c r="B120" s="72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -17886,7 +17840,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="B121" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -17901,7 +17855,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="B122" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
@@ -17913,7 +17867,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="B123" s="75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
@@ -17926,7 +17880,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="B124" s="75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
@@ -17939,7 +17893,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="B125" s="76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
@@ -17952,7 +17906,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="B126" s="75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
@@ -17965,7 +17919,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="B127" s="72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -17996,7 +17950,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="B130" s="78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
@@ -18009,7 +17963,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="B131" s="75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
@@ -18021,7 +17975,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="B132" s="75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -18033,7 +17987,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="B133" s="79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
@@ -18045,7 +17999,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="B134" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
@@ -18068,7 +18022,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="B136" s="74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
@@ -18083,7 +18037,7 @@
     </row>
     <row r="137" spans="1:7" ht="13.5" thickBot="1">
       <c r="B137" s="80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C137" s="81"/>
       <c r="D137" s="81"/>
@@ -18103,14 +18057,14 @@
     </row>
     <row r="139" spans="1:7">
       <c r="B139" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F139" s="51"/>
       <c r="G139" s="51"/>
     </row>
     <row r="140" spans="1:7">
       <c r="B140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
@@ -18121,7 +18075,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="B141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -18132,7 +18086,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="B142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
@@ -18146,7 +18100,7 @@
         <v>45015</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
@@ -18157,7 +18111,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="B144" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -18188,15 +18142,15 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="B148" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C148"/>
       <c r="D148"/>
@@ -18206,7 +18160,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="B149" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
@@ -18217,7 +18171,7 @@
     <row r="150" spans="1:7">
       <c r="A150" s="167"/>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
@@ -18229,7 +18183,7 @@
     <row r="151" spans="1:7">
       <c r="A151" s="167"/>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
@@ -18275,12 +18229,12 @@
   <sheetData>
     <row r="4" spans="2:10">
       <c r="C4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="C6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="3">
         <v>48000</v>
@@ -18297,7 +18251,7 @@
         <v>44651</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -18314,7 +18268,7 @@
         <v>44681</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -18331,7 +18285,7 @@
         <v>44711</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -18348,7 +18302,7 @@
         <v>44742</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -18362,7 +18316,7 @@
         <v>44772</v>
       </c>
       <c r="C11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -18376,7 +18330,7 @@
         <v>44803</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -18390,34 +18344,34 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E15" s="186" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10">
       <c r="D16" s="186" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E16" s="186" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G16" s="186" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16" s="186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -18426,7 +18380,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="141" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17">
         <v>6.65</v>
@@ -18445,7 +18399,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="C18" s="141" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18">
         <v>3.15</v>
@@ -18466,7 +18420,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="C19" s="141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D19">
         <v>2.29</v>
@@ -18487,7 +18441,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="C20" s="141" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D20">
         <v>2.39</v>
@@ -18510,7 +18464,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="C21" s="141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D21">
         <v>0.04</v>
@@ -18533,7 +18487,7 @@
     </row>
     <row r="22" spans="2:8">
       <c r="C22" s="141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D22">
         <v>3.92</v>
@@ -18554,7 +18508,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="C23" s="141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D23">
         <v>9.49</v>
@@ -18577,7 +18531,7 @@
     </row>
     <row r="24" spans="2:8">
       <c r="C24" s="141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D24">
         <v>9.09</v>
@@ -18598,7 +18552,7 @@
     </row>
     <row r="25" spans="2:8">
       <c r="C25" s="141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25">
         <v>4.75</v>
@@ -18619,7 +18573,7 @@
     </row>
     <row r="26" spans="2:8">
       <c r="C26" s="141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D26">
         <v>3.43</v>
@@ -18640,7 +18594,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="C27" s="141" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D27">
         <v>3.28</v>
@@ -18666,7 +18620,7 @@
         <v>45291</v>
       </c>
       <c r="C28" s="141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D28">
         <v>2.93</v>
@@ -18690,7 +18644,7 @@
         <v>45322</v>
       </c>
       <c r="C29" s="142" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D29">
         <v>6.71</v>
@@ -18710,7 +18664,7 @@
     </row>
     <row r="30" spans="2:8">
       <c r="C30" s="142" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D30">
         <v>4.53</v>
@@ -18731,7 +18685,7 @@
     </row>
     <row r="31" spans="2:8">
       <c r="C31" s="142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31">
         <v>3.16</v>
@@ -18752,7 +18706,7 @@
     </row>
     <row r="32" spans="2:8">
       <c r="C32" s="144" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E32" s="60">
         <v>3795</v>
@@ -18769,7 +18723,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="C33" s="144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="60">
         <v>5600</v>
@@ -18786,7 +18740,7 @@
     </row>
     <row r="34" spans="2:8">
       <c r="C34" s="143" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E34" s="60">
         <v>278.97000000000003</v>
@@ -18803,7 +18757,7 @@
     </row>
     <row r="35" spans="2:8">
       <c r="C35" s="143" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E35" s="60">
         <v>10000</v>
@@ -18820,7 +18774,7 @@
     </row>
     <row r="36" spans="2:8">
       <c r="C36" s="142" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D36">
         <v>3.18</v>
@@ -18843,7 +18797,7 @@
     </row>
     <row r="37" spans="2:8">
       <c r="C37" s="190" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D37">
         <v>3.37</v>
@@ -18864,7 +18818,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="C38" s="190" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D38" s="143">
         <v>1.64</v>
@@ -18885,7 +18839,7 @@
     </row>
     <row r="39" spans="2:8">
       <c r="C39" s="190" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D39" s="143">
         <v>3.23</v>
@@ -18906,7 +18860,7 @@
     </row>
     <row r="40" spans="2:8">
       <c r="C40" s="190" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D40" s="143">
         <v>2.4700000000000002</v>
@@ -18927,7 +18881,7 @@
     </row>
     <row r="41" spans="2:8">
       <c r="C41" s="190" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D41" s="143">
         <v>2.97</v>
@@ -18948,7 +18902,7 @@
     </row>
     <row r="42" spans="2:8">
       <c r="C42" s="191" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D42" s="143">
         <v>2.88</v>
@@ -18969,7 +18923,7 @@
     </row>
     <row r="43" spans="2:8">
       <c r="C43" s="143" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D43" s="143">
         <v>2.2400000000000002</v>
@@ -18989,7 +18943,7 @@
     </row>
     <row r="44" spans="2:8">
       <c r="C44" s="143" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D44" s="143"/>
       <c r="E44" s="60"/>
@@ -19003,7 +18957,7 @@
     </row>
     <row r="45" spans="2:8">
       <c r="C45" s="143" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D45" s="143"/>
       <c r="E45" s="60"/>
@@ -19018,7 +18972,7 @@
     </row>
     <row r="46" spans="2:8">
       <c r="C46" s="143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D46" s="143">
         <v>1.03</v>
@@ -19041,7 +18995,7 @@
         <v>2025</v>
       </c>
       <c r="C47" s="142" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D47" s="143">
         <v>5.03</v>
@@ -19068,21 +19022,21 @@
       </c>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="254">
+      <c r="B49" s="253">
         <v>45691</v>
       </c>
-      <c r="C49" s="255" t="s">
-        <v>464</v>
-      </c>
-      <c r="D49" s="255"/>
-      <c r="E49" s="256"/>
-      <c r="F49" s="256"/>
-      <c r="G49" s="255"/>
-      <c r="H49" s="257">
+      <c r="C49" s="254" t="s">
+        <v>457</v>
+      </c>
+      <c r="D49" s="254"/>
+      <c r="E49" s="255"/>
+      <c r="F49" s="255"/>
+      <c r="G49" s="254"/>
+      <c r="H49" s="256">
         <f t="shared" si="3"/>
         <v>2598.7383325450792</v>
       </c>
-      <c r="I49" s="255"/>
+      <c r="I49" s="254"/>
     </row>
     <row r="50" spans="2:9">
       <c r="C50" s="142"/>
@@ -19116,25 +19070,25 @@
         <v>45421</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="92"/>
       <c r="C59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="92"/>
       <c r="C60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="92"/>
       <c r="C61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -19148,7 +19102,7 @@
         <v>44957</v>
       </c>
       <c r="C65" s="141" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D65">
         <v>6.65</v>
@@ -19167,7 +19121,7 @@
     </row>
     <row r="66" spans="2:8">
       <c r="C66" s="141" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D66">
         <v>3.15</v>
@@ -19185,7 +19139,7 @@
     </row>
     <row r="67" spans="2:8">
       <c r="C67" s="141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D67">
         <v>2.29</v>
@@ -19203,7 +19157,7 @@
     </row>
     <row r="68" spans="2:8">
       <c r="C68" s="141" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D68">
         <v>2.39</v>
@@ -19223,7 +19177,7 @@
     </row>
     <row r="69" spans="2:8">
       <c r="C69" s="141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D69">
         <v>0.04</v>
@@ -19243,7 +19197,7 @@
     </row>
     <row r="70" spans="2:8">
       <c r="C70" s="141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D70">
         <v>3.92</v>
@@ -19261,7 +19215,7 @@
     </row>
     <row r="71" spans="2:8">
       <c r="C71" s="141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D71">
         <v>9.49</v>
@@ -19281,7 +19235,7 @@
     </row>
     <row r="72" spans="2:8">
       <c r="C72" s="141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D72">
         <v>9.09</v>
@@ -19299,7 +19253,7 @@
     </row>
     <row r="73" spans="2:8">
       <c r="C73" s="141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D73">
         <v>4.75</v>
@@ -19317,7 +19271,7 @@
     </row>
     <row r="74" spans="2:8">
       <c r="C74" s="141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D74">
         <v>3.43</v>
@@ -19335,7 +19289,7 @@
     </row>
     <row r="75" spans="2:8">
       <c r="C75" s="141" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D75">
         <v>3.28</v>
@@ -19358,7 +19312,7 @@
         <v>45291</v>
       </c>
       <c r="C76" s="141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D76">
         <v>2.93</v>
@@ -19379,7 +19333,7 @@
         <v>45322</v>
       </c>
       <c r="C77" s="142" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D77">
         <v>6.71</v>
@@ -19396,7 +19350,7 @@
     </row>
     <row r="78" spans="2:8">
       <c r="C78" s="142" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D78">
         <v>4.53</v>
@@ -19414,7 +19368,7 @@
     </row>
     <row r="79" spans="2:8">
       <c r="C79" s="142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D79">
         <v>3.16</v>
@@ -19432,7 +19386,7 @@
     </row>
     <row r="80" spans="2:8">
       <c r="C80" s="144" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E80" s="60"/>
       <c r="F80" s="60"/>
@@ -19446,7 +19400,7 @@
     </row>
     <row r="81" spans="3:8">
       <c r="C81" s="142" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D81">
         <v>3.16</v>
@@ -19466,7 +19420,7 @@
     </row>
     <row r="82" spans="3:8">
       <c r="C82" s="144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D82">
         <v>5.54</v>
@@ -19483,7 +19437,7 @@
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="143" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E83" s="60">
         <f>E81+(E81*D82/100)</f>
@@ -19498,7 +19452,7 @@
     </row>
     <row r="84" spans="3:8">
       <c r="C84" s="143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E84" s="60">
         <f>E83+(E83*D83/100)</f>
@@ -19512,7 +19466,7 @@
     </row>
     <row r="85" spans="3:8">
       <c r="C85" s="143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E85" s="60">
         <f t="shared" ref="E85:E90" si="10">E84+(E84*D84/100)</f>
@@ -19526,7 +19480,7 @@
     </row>
     <row r="86" spans="3:8">
       <c r="C86" s="143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E86" s="60">
         <f t="shared" si="10"/>
@@ -19540,7 +19494,7 @@
     </row>
     <row r="87" spans="3:8">
       <c r="C87" s="143" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E87" s="60">
         <f t="shared" si="10"/>
@@ -19554,7 +19508,7 @@
     </row>
     <row r="88" spans="3:8">
       <c r="C88" s="143" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E88" s="60">
         <f t="shared" si="10"/>
@@ -19568,7 +19522,7 @@
     </row>
     <row r="89" spans="3:8">
       <c r="C89" s="143" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E89" s="60">
         <f t="shared" si="10"/>
@@ -19582,7 +19536,7 @@
     </row>
     <row r="90" spans="3:8">
       <c r="C90" s="143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E90" s="60">
         <f t="shared" si="10"/>
